--- a/data_collection/CCA/info_db.xlsx
+++ b/data_collection/CCA/info_db.xlsx
@@ -797,35 +797,37 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>(1) 월덱스(101160)의 핵심 사업
-월덱스는 **반도체 제조 공정 중 식각(etching) 공정에 사용되는 소모성 부품**을 개발·제조·납품하는 부품 전문기업입니다[1][3]. 주요 제품은 **실리콘 부품(예: 포커스링, 일렉트로드 등)**, **쿼츠(석영) 부품(예: 포커스링, 2단 링 등)**, 그리고 **세라믹 부품(예: SiC 링, SIC 척 등)**으로 구성됩니다[1][2]. 실리콘 및 쿼츠 소재 부품의 경우 식각공정 장비 내에서 반복적으로 마모·교체되는 소모성 부품이며, 주요 고객사는 반도체 칩 생산 업체(‘애프터 마켓’)입니다. 이외에도 알루미늄 계열 소재 부품, 디스플레이 제조에 사용되는 타겟 등도 공급하나 비중은 크지 않습니다[2].
+월덱스는 [반도체 제조의 식각(Etching) 공정에 사용되는 소모성 부품]을 생산하는 전문 기업입니다[3][1]. 핵심 제품군은 [실리콘, 쿼츠(석영), 세라믹(특히 SiC: 실리콘카바이드) 부품]으로, 주요 용도는 반도체 칩 생산 현장에서 장비 내 반복 교체가 필요한 식각공정용 부품입니다[3][1][4]. 대표 아이템으로는 [실리콘 링, 실리콘 전극, 쿼츠 포커스 링, SiC 링] 등이 있습니다. 이런 부품들은 주로 글로벌 메모리·파운드리 업체의 생산라인에 납품되며, 고객의 핵심 공정 품질과 생산성에 직결되는 고부가가치 소모재입니다.
 (2) 최근 분기 실적이 강한 이유
-월덱스가 최근 **양호한 실적을 기록한 요인**은 다음과 같습니다.
-- **AI·고사양 반도체 호황에 따른 부품 수요 증가**  
-  최근 AI 기능을 탑재한 스마트폰, PC, 서버 등에서 **고사양 GPU 및 고용량 메모리 탑재가 확대**되면서, 첨단 반도체 생산량과 식각공정 가동률이 증가하였습니다[1]. 이에 따라 식각공정용 부품의 교체수요도 동반 증가해, 월덱스 매출이 개선되었습니다.
-- **고부가가치 제품 채택 비중 증가**  
-  반도체 미세화 및 첨단화 트렌드로 인해 실리콘, 쿼츠, 파인세라믹 등 **고부가가치 소재의 소모품 채택률이 상승**했습니다[1]. 월덱스는 고성능 부품 개발로 고객사 내 점유율을 확대하고 있습니다.
-- **애프터 마켓 중심의 안정적 수요**  
-  월덱스의 주요 판매처는 ‘애프터 마켓’(반도체 생산라인에서 직접 교체 주문), 즉 기술 난도가 높고 진입장벽이 높은 시장입니다. 이에 따라 장기적인 고객사 물량 안정성이 확보됩니다[2].
+월덱스의 최근 분기(2025년 1분기) 실적은 [본업 경쟁력과 시장의 구조적 호황]이 맞물려 강한 성장을 보였습니다.
+- [차세대 반도체(특히 AI·고성능 서버용 칩) 시장 성장]  
+  AI, 고사양 메모리·GPU 시장 확대에 따라 [첨단 반도체 식각공정 가동률이 증가]했고, 이에 따라 실리콘·쿼츠·SiC 등 월덱스 주요 부품의 교체·소모 수요가 큰 폭으로 늘었습니다[2][1].  
+- [중국·글로벌향 SiC 부품 매출 증가]  
+  최신 공정에서 SiC(실리콘카바이드) 소재 부품 선호도가 높아지며, [중국 현지 매출이 급성장]한 점이 두드러집니다. 특히 2025년 1분기 월덱스는 중국 내 SiC 링 공급 증가로 매출이 전년 동기 대비 33% 이상 증가하였습니다[1].
+- [해외 시장 개척 및 고부가가치 제품 비중 확장]  
+  북미·유럽 등지의 신규 고객처 확보로 수출이 늘었고, [고부가 부품(예: SiC, 알루미늄 나이트라이드 등) 비중이 확대]되어 평균 수익성(OPM) 개선 효과도 나타났습니다[1][2].
+- [안정적인 애프터마켓(공정 운영 중 부품교체) 매출]  
+  식각 부품은 정기적 교체가 필수여서 수요 사이클이 크게 꺾이지 않고, 월덱스의 안정적인 매출 기반을 제공하고 있습니다[2].
 (3) 현재 월덱스가 직면한 주요 3가지 이슈
-1. **반도체 업황 변동성 및 재고조정 리스크**  
-   최근 반도체 업계의 생산 감산 일부 영향이 여전히 남아 있어, 기업 고객의 설비투자 및 부품 교체가 **일시적으로 둔화**될 수 있습니다[1]. 이는 식각공정용 소모품 매출에도 직접적인 영향을 끼치고 있습니다.
-2. **신제품 및 고부가 부품 개발 경쟁**  
-   식각공정 부품 시장은 계속해서 미세화·고성능화가 요구되며, 이에 따라 **신소재(예: SiC, 고순도 쿼츠 등) 기반의 신제품 개발과 기술 경쟁이 심화**되고 있습니다[1][2]. 경쟁사(케이앤제이, 비씨엔씨 등)와의 차별화, 고객사 인증·평가를 통한 신제품 납품 증대가 관건입니다.
-3. **고객사 포트폴리오 다변화 및 해외 시장 개척**  
-   기존 주요 매출처 집중도를 낮추고, **해외 반도체 제조사 등 신규 고객 확보**가 계속해서 중요한 과제입니다. 미국, 대만, 중국 등 글로벌 시장 확대와 주요 고객사 평판(레퍼런스) 관리가 성과에 큰 영향을 미칩니다.
-이외에도 환율 변동성, 원자재(실리콘, 석영 등) 가격 상승, 국내외 정책·규제 변화 등도 리스크로 거론되고 있습니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1707789035855.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1704929413806.pdf
-https://w4.kirs.or.kr/download/tech2/%EC%A2%85%EB%AA%A9_%EB%B0%98%EB%8F%84%EC%B2%B4.%EB%B0%98%EB%8F%84%EC%B2%B4%EC%9E%A5%EB%B9%84_%EC%9B%94%EB%8D%B1%EC%8A%A4(101160)_%EB%8B%A4%EC%96%91%ED%95%9C%20%EC%A0%9C%ED%92%88%EA%B5%B0%EC%9D%84%20%EB%B3%B4%EC%9C%A0%ED%95%9C%20%EB%B0%98%EB%8F%84%EC%B2%B4%20%EC%A0%9C%EC%A1%B0%20%EC%9E%A5%EB%B9%84%20%EB%B6%80%ED%92%88%20%EC%A0%84%EB%AC%B8%EA%B8%B0%EC%97%85_NICE%ED%8F%89%EA%B0%80%EC%A0%95%EB%B3%B4.pdf
-http://www.leading.co.kr/board/EquityResearch/detail/2635;jsessionid=5AF8F5F3F023A96935A47A95B96AD709?siteCd=&amp;pageIndex=1&amp;pageSize=10&amp;pageUnit=10&amp;sortColumnName=&amp;sortDirection=&amp;searchColumnName=SUBJECT&amp;searchValue=%EC%9B%94%EB%8D%B1%EC%8A%A4&amp;boardNo=58
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=101160</t>
+1. [지배구조 및 대주주 리스크]  
+   최근 경영권 상속 및 대주주 관련 이슈로 인해, [외부 투자자와 시장의 신뢰가 완전히 회복되지 않은 상태]입니다[1]. 이로 인해 국제 투자자들의 단기 관망 또는 매도세가 관찰되고 있으며, 이는 주가 변동성과 할인 요인으로 작용하고 있습니다.
+2. [반도체 업황 변동성 및 최종 고객사의 수요 리스크]  
+   메모리와 파운드리 업체들의 투자·생산 전략 변화에 따라 [주력 부품 수요의 변동성이 여전히 잠재]해 있습니다. 특히 전방 수요가 조정되거나 업계 재고가 증가할 경우, 식각 소모품 주문이 단기적으로 둔화될 수 있습니다[2].
+3. [기술경쟁 심화 및 고객 다변화 과제]  
+   *SiC 등 신소재 부품* 시장에서 국내외 경쟁사의 기술추격이 심화되는 한편, [글로벌 고객 포트폴리오 확대] 없이 기존 매출처 쏠림이 지속될 시, 매출 구조의 안정성이 훼손될 수 있습니다[1][2]. 해외 신규 고객사 인증, 신제품 공급 확대, 북미·유럽 등 신시장 안착이 계속 주요 현안입니다.
+이외에 실리콘·쿼츠 등 원재료 가격 변동, 환율 리스크, 식각 이외 공정이나 비반도체 부문과 같은 신규 성장동력 확보 여부도 향후 지속 모니터링해야 할 요소입니다.
+특이사항: 월덱스는 외부 공시 및 홍보 활동에 소극적이고, 상속 이슈 등으로 인해 [경영진이 단기 주가 상승에 적극적이지 않은 분위기]도 일부 시장 참여자들 사이에서 지적되고 있습니다. 이 점이 주가 흐름 및 투자심리에도 일부 영향을 미치는 것으로 평가됩니다[1].</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>월덱스는 외부 공시를 거의 안 하며, 상속 등의 이슈가 있어 대주주가 주가를 올리는 것에 관심이 없는 것으로 추정됨</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
@@ -1016,34 +1018,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(1) **헥토이노베이션의 핵심 사업**
-헥토이노베이션(214180)의 핵심 사업은 **IT보안 서비스와 생활 구독 서비스**입니다. 주요 IT보안 서비스로는 본인인증, 휴대폰번호 도용방지, 간편결제 보안, 로그인플러스, 세이프캐시, 내정보지키미 등이 대표적입니다. 이 외에도 생활서비스(주식정보, 건강관리 등), 그리고 주요 자회사를 통한 **핀테크(헥토파이낸셜)**, **헬스케어(헥토헬스케어)** 영역까지 사업 범위를 확장하고 있습니다[1][2][3]. 매출 비중은 IT보안 서비스가 약 78%로 가장 높으며, 구독형 비즈니스 모델을 채택해 매월 안정적인 수익을 창출하고 있습니다[1]. 또한, 발로소득(앱 기반 부수입 서비스), 아파트청약케어, 카드 혜택 최적화 등 신규 구독형 서비스와 전기차 중개 등으로 사업 다각화를 추진하고 있습니다[1][3].
-(2) **최근 분기 강한 실적의 원인**
-최근 헥토이노베이션이 호실적을 기록한 주요 원인은 다음과 같습니다.
-- **IT서비스(특히 휴대폰 부가서비스)의 안정적 성장**: 휴대폰 도용방지와 보안 인증의 수요가 꾸준히 증가하고 있으며, 기존 제휴사(SK텔레콤, KT, LG유플러스)와의 견고한 관계가 지속적인 매출 기여로 이어지고 있습니다. 이 부분은 회사의 영업이익 및 순이익을 꾸준히 견인하고 있습니다[3].
-- **정기구독 서비스의 확장**: 구독경제 트렌드에 맞춰 다양한 생활형 구독서비스를 지속적으로 출시함으로써 신규 매출원이 확대되었습니다. 특히 보안(인증) + 생활정보(주식, 건강, 보험 등) 결합 모델이 시장에서 좋은 반응을 얻고 있습니다[1][3].
-- **지주회사 체제를 통한 신규 수익원 창출**: 자회사 헥토파이낸셜(구 세틀뱅크) 및 헥토헬스케어의 실적 성장도 연결실적 개선에 크게 기여하고 있습니다[2][3].
-- **주주환원정책**: 2024년부터 2026년까지 순이익의 최소 22%를 배당하고, 매년 발행주식 1%를 자사주 소각에 사용하는 공격적인 환원정책이 긍정적 투자 심리를 자극하고 있습니다[3].
-(3) **현재 헥토이노베이션이 직면한 주요 3가지 이슈**
-1. **IT보안 시장 경쟁 심화**
-   - 기존 이동통신사, 플랫폼 기업뿐 아니라 신규 IT보안 업체들이 공격적으로 시장에 진입해 경쟁이 점차 치열해지고 있습니다. 가격 경쟁과 서비스 차별화가 중요한 환경이 지속되고 있습니다[3].
-2. **스미싱·신규 해킹 위협 대응**
-   - 최근 URL 링크 등을 통한 신종 스미싱(휴대폰 해킹) 범죄가 빠르게 증가하면서, 헥토이노베이션 역시 AI 기반 스미싱 대응 솔루션 등 신기술 개발에 투자해야 하는 압박이 커졌습니다[3]. 보안 취약점 발생 시 신뢰도 훼손과 손실 위험이 있습니다.
-3. **사업 다각화 리스크 및 신규 서비스 흥행**
-   - 다양한 신규 구독서비스(예: 발로소득, 전기차 중개 등)가 기대만큼 빠르게 정착하지 못할 경우 추가적인 마케팅 비용이나 사업철수 리스크가 존재합니다. 기존 IT·통신업과 친화력이 낮은 비즈니스 확장에 따른 실패 가능성도 무시할 수 없습니다[1][3].
-이처럼 헥토이노베이션은 본업의 안정성과 함께 사업포트폴리오 다변화, 사업 환경 변화에 대한 적극적 대응 능력이 중장기 성장의 관건이 될 전망입니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1694128031373.pdf
-https://static.roa.ai/research/company/20241112_company_330781000.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1715209281942.pdf
-https://securities.miraeasset.com/bbs/download/2126628.pdf?attachmentId=2126628
-https://w4.kirs.or.kr/download/research/2024.08.13_%ED%97%A5%ED%86%A0%EC%9D%B4%EB%85%B8%EB%B2%A0%EC%9D%B4%EC%85%98(%EC%88%98%EC%A0%95).pdf</t>
+          <t>(1) [헥토이노베이션의 핵심 사업]
+헥토이노베이션(214180)은 [IT보안 서비스 및 생활 구독형 서비스]를 핵심으로 하는 B2C/B2B 플랫폼 기업입니다. 주요 서비스는 본인인증, 휴대폰번호 도용방지, 간편결제 보안, 로그인플러스, 세이프캐시, 내정보지키미 등 IT보안 솔루션들이며, IT보안 서비스가 별도 매출의 약 78%를 차지합니다[3]. 여기에 다양한 생활 구독형 서비스(주식정보, 건강관리, 보험 등)도 제공하며, 카드 혜택 최적화, 아파트 청약 케어, 전기차 중개 등 신규 플랫폼 서비스로 포트폴리오를 확장하고 있습니다[3]. 
+자회사로는 [헥토파이낸셜(핀테크 부문)], [헥토헬스케어(헬스케어 부문)]가 대표적이며, 이들의 실적 역시 연결로 인식됩니다[1][2]. 회사는 2009년 설립되어 2015년 코스닥에 상장, 2022년 민앤지에서 사명을 변경했습니다[3]. 매출의 안정성은 구독 기반의 비즈니스 모델과 통신 3사(SK텔레콤, KT, LG유플러스) 등과의 제휴로, 월 단위 반복 매출 구조에 기인합니다.
+(2) [최근 분기 강한 실적의 원인]
+최근 2025년 1분기 헥토이노베이션은 [4개 분기 연속 최대 매출]을 경신했으며, 1분기 매출 896억원, 영업이익 117억원을 기록해 전년 동기 대비 각각 21.3%, 19.2% 성장했습니다[1][2]. 강한 실적의 구체적 배경은 다음과 같습니다.
+- [전 사업부문 고른 성장]: IT보안 서비스뿐 아니라 생활정보 구독, 광고사업, 핀테크, 헬스케어 자회사 등 주요 사업부가 모두 전년 대비 매출 성장을 시현함[1][2]. 특히 IT보안(핵심 서비스)은 통신사와의 제휴 유지 및 신규 구독 가입자 증가로 꾸준한 매출 상승세를 보이고 있습니다[1][3].
+- [헬스케어·핀테크 자회사 실적 개선]: 자회사 헥토헬스케어가 1분기 전년 대비 33.9% 매출 성장, 신제품 출시와 중국 등 해외 총판 계약 효과가 반영되고 있습니다. 핀테크 자회사(헥토파이낸셜 등)도 본업 성장과 신사업 효과가 동시 반영돼 연결 실적에 기여하고 있습니다[2].  
+- [구독경제 트렌드 및 신규 서비스 출시]: 정기구독 기반의 안정적 매출 구조가 구독 경제 확대와 맞물려 성장에 기여하고 있고, 발로소득, 아파트청약케어, 카드 혜택 최적화 등 신규 서비스 흥행도 지속되고 있습니다[1][2][3].
+- [적극적인 마케팅과 수출 확대]: 헬스케어 부문의 경우 TV 마케팅, 신제품 확대, 중국 5년간 1,550억원 규모 계약 등 해외 비즈니스 진출 가시화로 성장 속도가 빨라졌습니다[2].
+(3) [현재 헥토이노베이션이 직면한 주요 3가지 이슈]
+1. [IT보안 사업 경쟁 심화]
+   - IT보안 시장으로 신규 업체들이 지속 진입하고, 기존 통신 3사와 대형 플랫폼기업까지 직영(내재화) 흐름이 강해짐에 따라, 가격 경쟁 압력과 서비스 차별화 부담이 높아지고 있습니다[1][3].
+2. [신규 해킹·스미싱 위협 증가와 대응 부담]
+   - 최근 AI, 스미싱 등 새로운 해킹 기법이 급격히 확산 중입니다. 이에 따른 솔루션 고도화, R&amp;D 투자 압력, 보안사고 발생 시 신뢰도∙사업성 타격 위험이 상존합니다[3]. 
+3. [신규 서비스(사업 다각화) 흥행 안정성]
+   - 발로소득, 전기차 중개, 카드 혜택 서비스 등 신규 사업이 예상만큼 수익화에 안착하지 못하거나, 기존 비즈니스와 시너지가 미흡할 경우 추가적인 비용 및 실적 변동성이 발생할 수 있습니다. 헬스케어 해외 진출 역시 초기 리스크가 존재합니다[1][2][3].
+추가로, “재무 실적 대비 주가 저평가 원인이 불명확한 비즈니스 모델 아니냐”는 시각에 대해선, 구독 기반의 반복 매출 구조와 자회사 성장동력은 분명하지만, 잦은 신규 사업 진출과 향후 수익화 가시성, 시장 내 차별화 전략의 지속성에는 투자자들의 의구심도 일정 부분 반영되고 있는 것으로 풀이됩니다[2].</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>재무 실적 및 성장세에 비해 주가가 저평가 된 데에는 불명확한 비즈니스 모델이 있는것 아닌가?</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>

--- a/data_collection/CCA/info_db.xlsx
+++ b/data_collection/CCA/info_db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,28 +623,27 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>메쎄이상(408920)의 상세 사업 현황, 최근 실적 호조의 배경, 그리고 당면 핵심 이슈 3가지를 구체적으로 설명합니다.
-1. **주요 사업 내용**
-- 메쎄이상의 **핵심 사업은 전시회 및 박람회 주최와 대행**입니다. 건축자재 전시회(KOREA BUILD), 반려동물용품(K-PET FAIR), 육아용품(코베베이비페어) 등 다양한 산업별 전문 박람회 개최가 주력입니다[1][3].
-- **수익 구조는 전시 주최/운영(2023년 기준 매출의 약 95%), 전시장 임대(약 4.4%), 기타(약 0.4%)**로 이루어져 있습니다[1].
-- 내수에서 축적된 기획 역량을 바탕으로 **해외 박람회 시장에도 진출** 중이며, 최근 태국, 인도 등에서 대규모 현지 전시회를 개최하거나 계획 중입니다. 태국에서는 2024년 10월 현지 전시회 ‘MEGAZOO in Thailand’를, 인도에서는 뷰티썸 인디아 2025 개최 예정입니다[1][2][3].
-- **MICE(회의, 인센티브, 컨벤션, 전시) 산업 전반의 서비스**(행사 기획·운영, 전시장 관리, 데이터 분석 등)로도 사업을 확장 중입니다[2].
-2. **최근 분기 실적 호조 배경**
-- **전시 및 행사 개최 규모 증가**: 사회적 거리두기 종료 이후 오프라인 전시회에 대한 수요가 급증했고, 주요 박람회(코리아빌드, KADEX, K-PET FAIR 등)의 참가 기업 수와 방문자 수가 크게 늘었습니다[1][3].
-- **신규 전시회 및 해외 진출 효과**: ‘KADEX 2024’ 등 신규 대규모 행사 흥행과 브랜드 전시회의 해외 시장 진출(태국, 인도 등)이 수익과 인지도를 동시에 확대시킵니다[2].
-- **사업 다각화 성과**: 단순 전시회 주최를 넘어 전시장 임대, 내부 데이터 분석, 부스 마케팅 등으로 부가가치 창출 및 고객사 확대 효과를 누리고 있습니다[1][2].
-- 2023년 매출은 **508억원(전년 대비 33% 성장)**, 2024년 1분기에도 전년 동기 대비 **10% 이상의 매출 및 영업이익 증가**를 기록 중입니다[3].
-- **배당 확대, 자기주식 취득 등 주주환원** 정책도 주가 하락 방어에 긍정적으로 작용하고 있습니다[2].
-3. **현재 직면한 핵심 이슈 3가지**
-- **(1) 해외 전시사업 성공과 리스크 관리**: 해외 전시회(태국, 인도 등) 직접 개최가 신성장동력인 동시에 신규 시장에서의 현지 네트워크 확보, 예상치 못한 비용, 참여기업 유치 등 리스크 관리가 중요한 과제입니다[1][2].
-- **(2) MICE 산업 내 경쟁 격화**: 국내외 전시회 시장에서 경쟁사(한국이앤엑스, 경영전람, 동아전람 등)들과 치열한 점유율 경쟁이 지속되고 있습니다. 시장 내 차별성과 컨텐츠 혁신이 우위를 결정짓는 주요 변수로 작용합니다[1].
-- **(3) 산업별 전문성 및 콘텐츠 차별화 요구**: 건축, 반려동물, 육아, 의료 IT, 방위산업 등 각 산업별 이해도와 전문성이 더욱 강조되고, 실효성 높은 온·오프라인 통합 마케팅 플랫폼 구축 등 고도화된 서비스 요구가 심화되고 있습니다. 이에 대한 지속적인 역량 강화가 필요합니다[1][3].
-이처럼 메쎄이상은 전시산업에서 빠른 성장과 함께 국내외 시장 확대에 주력하지만, 동시에 시장 내 경쟁 및 신규 사업 진출 과정에서의 리스크, 전문성 강화 등이 주요 현안으로 대두되고 있습니다.
-https://file.alphasquare.co.kr/media/pdfs/company-report/240531_%EB%A9%94%EC%8E%84%EC%9D%B4%EC%83%81-%EC%B5%9C%EC%A2%85.pdf
+          <t>메쎄이상(408920)은 [전시회 및 박람회 기획·운영을 중심으로 성장한 국내 대표 MICE(미팅, 인센티브, 컨벤션, 전시) 기업]입니다. 최근 실적 호조와 함께 해외 진출, 산업별 콘텐츠 고도화 등 새로운 성장 기회를 모색하고 있으나, 동시에 경쟁 심화와 신규사업 리스크, 전문성 확보 등 여러 현안도 직면해 있습니다.
+1. [주요 사업 내용]
+- 메쎄이상의 [핵심 사업은 전문 전시회와 박람회 주최·대행]입니다. 매출의 95% 이상이 건축자재, 반려동물, 육아, 방위산업 등 산업별 대형 박람회에서 발생합니다. 대표 브랜드는 ▲KOREA BUILD(건축), ▲K-PET FAIR(반려동물), ▲코베 베이비페어(육아), ▲KADEX(방위산업) 등입니다[1][3].
+- [전시장 임대 및 행사장 운영, 박람회 데이터 분석, 마케팅 등 부가 사업]도 강화하고 있습니다. 행사 기획–운영–부가서비스까지 ‘밸류체인’ 수직계열화로 차별화된 사업 모델을 구축 중입니다[1].
+- 최근 [해외시장 진출]에도 적극적입니다. 2024~2025년 태국 ‘MEGAZOO in Thailand’ 현지 개최, 인도 ‘뷰티썸인디아 2025’ 단독 행사 등 자체 브랜드로 해외 시장 교두보를 넓히고 있습니다[1][3].
+2. [최근 분기 실적 호조의 배경]
+- [전시회 개최 확대 및 참여기업/관람객 증가]가 가장 주된 원인입니다. 2024년 상반기 대형 전시회(코리아빌드, KADEX 등)에서 참가업체, 방문자 규모가 역대 최대치로 기록됐고, 이에 따른 부가 매출(부스, B2B 네트워크, 광고)이 크게 확대됐습니다[1][3].
+- [해외 자회사 및 현지 박람회 성공]도 실적에 기여하고 있습니다. 직접 기획한 해외 전시회가 기존 고객사와 신규 글로벌 참가사 유치에 성공해 실적 모멘텀이 확인됐습니다[1].
+- 사업의 [수직계열화(기획-운영-임대-데이터 분석 등)]와 영업 효율성 개선, 부가 사업 확대가 전체 수익성에 긍정적 영향을 주고 있습니다.
+- 최근 분기(2025년 3월 기준) [매출액 671억원, 전년 동기 대비 매출 및 이익 10% 이상 증가, 순이익 54% 성장], 영업현금흐름 역시 전년대비 100% 가까이 늘어났습니다[1][3].
+- [지속적인 주주환원 정책](배당률 3.9%대, 자기주식 취득 등)도 투자심리 개선에 긍정적으로 작용했습니다[2][4].
+3. [현재 주요 현안(핵심 이슈 3가지)]
+- [(1) 해외 전시사업 리스크 및 정착]: 태국·인도 등에서 독자 브랜드로 개최하는 해외 전시회가 신성장동력이지만, 현지 네트워크·고객 기반 미정착, 예상외 비용 발생, 경쟁사 견제 등 사업 안착 여부가 최대 과제입니다. 현지화 전략, 파트너십 확보, 브랜딩이 성공의 핵심변수입니다[1].
+- [(2) MICE(전시) 시장 경쟁 심화]: 기존 국내 3대 전시기획사 간 점유율 싸움이 지속되며, 신규 온라인 기반 박람회, 복합전시장 업체 등 외부 진입장벽도 낮아지고 있습니다. 네트워크 효과와 콘텐츠 경쟁력, 비용효율성이 승패를 좌우할 전망입니다[1].
+- [(3) 산업별 맞춤형 서비스·콘텐츠 강화 필요]: 단순 행사 개최를 넘어 산업별 핵심 수요를 분석한 데이터 기반 마케팅, 오프/온라인 양방향 플랫폼 구축, 전문 컨설팅 서비스 등 고도화 서비스 니즈가 빠르게 커지고 있습니다. 자사 인력 및 IT 역량 강화, 플랫폼 투자 확대가 필수 과제로 대두되고 있습니다[1][3].
+최근 메쎄이상은 전시·MICE 밸류체인 전반의 경쟁우위 확충, 해외 신시장 개척, 전문성 확보에 박차를 가하고 있으나, 동시에 신흥시장 진출 리스크와 산업 내 격화된 경쟁, 서비스 고도화 요구 등 복합적 과제에 직면해 있습니다.
 https://kind.krx.co.kr/external/dst/newListReport/20250630000185500/SK%EC%A6%9D%EA%B6%8C_%EB%A9%94%EC%8E%84%EC%9D%B4%EC%83%81_%EA%B8%B0%EC%97%85%EB%B6%84%EC%84%9D%EB%B3%B4%EA%B3%A0%EC%84%9C(250630).pdf
-https://m.irgo.co.kr/IR-COMP/408920/
-https://static.roa.ai/research/company/20240612_company_127359000.pdf
-https://www.sks.co.kr/data1/research/qna_file/20241217085119067_0_ko.pdf</t>
+https://kr.investing.com/equities/sk-securities-acpc-no.7
+https://www.google.com/finance/quote/408920:KOSDAQ?hl=ko
+https://comp.fnguide.com/SVO2/asp/SVD_Invest.asp?pGB=1&amp;MenuYn=Y&amp;ReportGB=D&amp;NewMenuID=105&amp;stkGb=701&amp;gicode=A408920
+https://biz.chosun.com/stock/c-biz_bot/2025/07/22/2XJGWOLK445IOEGVIBJMELC5D4/</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -659,7 +658,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -676,41 +675,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SOOP(067160)는 코스닥에 상장된 기업으로, **글로벌 콘텐츠 라이브 스트리밍 플랫폼** 및 **1인 미디어 방송 지원**을 핵심 사업으로 하며, **연예 매니지먼트** 부문도 함께 운영하고 있습니다[1][2].  
-아래에서 각 항목별로 상세히 설명합니다.
----
-1. **SOOP의 핵심 사업**
-- **글로벌 라이브 스트리밍 플랫폼:**  
-SOOP의 주력은 자체 플랫폼을 통한 실시간 라이브 방송 서비스입니다. 사용자(스트리머)는 누구나 PC·모바일로 라이브 방송을 개설할 수 있고, 시청자와 실시간 소통이 가능합니다. 주요 수익모델은 유료 결제·후원, 프리미엄 콘텐츠, 그리고 광고입니다[1][2].
-- **콘텐츠 제작 및 글로벌 동시 송출:**  
-SOOP는 자체 인기 콘텐츠 및 여러 파트너사의 동남아 인기 콘텐츠를 확보·동시 송출하며, 콘텐츠 배급 영역도 강화되고 있습니다. 특히 태국 등 동남아 현지 인기 스트리머 유입이 활발합니다[1].
-- **광고 사업:**  
-플랫폼 광고(배너/동영상) 및 콘텐츠 연계형 광고로 수익을 올리고 있습니다. e스포츠 및 게임 리그 관련 콘텐츠 매출 비중이 증가하는 추세입니다[1].
-- **연예 매니지먼트:**  
-‘Management SOOP’라는 별도 브랜드로 유명 배우와 인플루언서를 관리하고, 매니지먼트 수익도 중요 사업축입니다[2].
----
-2. **최근 분기에서 실적이 강한 배경**
-- **해외(특히 동남아) 시장 진출 성과:**  
-2024년 상반기 태국 등 동남아 시장 진출 모멘텀이 주요 성장 원동력입니다. 태국 내 상위 스트리머의 활약으로 현지 트래픽 및 유료결제자(ARPU)가 크게 증가하고 있습니다[1].
-- **경쟁사의 시장 철수 효과:**  
-글로벌 경쟁 플랫폼인 트위치의 동남아 철수 효과로, 현지 스트리머와 시청자가 대거 SOOP로 이동하였고, 이에 따라 시장 점유율이 빠르게 확대됐습니다. 이 효과가 재무 성과(매출, 영업이익)로 직결되고 있음이 증권사 리포트에서 확인됩니다[3].
-- **광고 및 프리미엄 콘텐츠 수익 확대:**  
-e스포츠, 게임 리그 등이 인기를 끌면서 광고 단가와 콘텐츠 매출이 동반 상승했고, 계절적 성수기의 효과도 반영됐습니다[1].
----
-3. **현재 SOOP이 직면한 3대 핵심 이슈**
-- **글로벌 시장 내 경쟁 심화 및 점유율 유지:**  
-트위치 철수로 단기적 수혜를 누렸으나, 동남아와 기타 신흥 시장에서 현지 및 글로벌 신규 플랫폼(YouTube Live, Kick, Facebook Gaming 등)과의 시장 경쟁이 더욱 치열해지고 있습니다. 시장 점유율 방어와 유저 락인(lock-in) 전략이 장기 성장의 핵심 과제로 꼽힙니다[1][3].
-- **콘텐츠 다양성과 현지화 전략:**  
-태국 시장 성공에 이어 인접국가(베트남, 인도네시아 등) 진출이 과제로 부각되고 있습니다. 현지 인기 크리에이터 확보, 지역별 선호 콘텐츠 제작/유통, 파트너십 강화 등이 지속적 고민으로 나타나고 있습니다[1].
-- **수익 구조의 안정성과 플랫폼 건전성:**  
-시장에서 트래픽 및 유료결제자 증가가 단기 실적을 견인하고 있으나, 광고 의존도가 높고 콘텐츠 구매/제작 비용 상승, 심의/저작권 이슈 등 리스크도 내포되어 있습니다. 특히 콘텐츠 부적절성, 불법 방송 등 플랫폼 관리에 대한 투자 필요성이 지속 제기되고 있습니다[1].
----
-이와 같이 SOOP은 **글로벌 라이브 스트리밍 확대** 및 **동남아 시장 성공**을 기반으로 최근 실적이 급성장하고 있으나, **지속 가능한 경쟁력**과 **내부 플랫폼 건전성 확보**가 향후 중장기 성장의 핵심 이슈로 부각되고 있습니다.
-https://citrusshell.tistory.com/entry/SOOP-067160-%EA%B8%B0%EC%97%85-%EB%B6%84%EC%84%9D-%EB%B3%B4%EA%B3%A0%EC%84%9C-%EC%8B%A4%EC%A0%81-%EA%B0%9C%EC%84%A0%EA%B3%BC-%ED%95%B4%EC%99%B8%EC%82%AC%EC%97%85-%EB%AA%A8%EB%A9%98%ED%85%80
-https://atoy-1.tistory.com/123
-https://securities.miraeasset.com/bbs/download/2126260.pdf?attachmentId=2126260
-http://snusmic.com/wp-content/uploads/2024/10/24-2-1%EC%A3%BC%EC%B0%A8-%EC%88%98%EC%A0%95%EB%B3%B4%EA%B3%A0%EC%84%9C_4%ED%8C%80-SOOP.pdf
-https://deepsearch.com/analytics/company-analysis/KRX:067160?c-symbol=KRX%3A067160</t>
+          <t>SOOP(067160)는 코스닥에 상장된 [글로벌 라이브 스트리밍 플랫폼 운영] 및 [1인 미디어 네트워크/매니지먼트] 기업입니다. 최근 실적 호조의 배경과 현안 이슈에는 구체적인 변화가 감지되고 있습니다. 아래에서 최신 자료(2025년 7월 기준)를 바탕으로 세부 설명합니다.
+1. [SOOP의 핵심 사업]
+- [글로벌 콘텐츠 라이브 스트리밍 플랫폼]  
+SOOP의 주력 분야는 PC·모바일 기반의 라이브 방송 플랫폼 운영입니다. 누구나 실시간 스트리밍을 개설할 수 있고, 시청자와 실시간 소통 및 유료 기부·후원, 구독 등이 가능합니다.  
+상대적으로 동남아시아, 특히 태국, 인도네시아 등지에서 빠른 성장을 보이고 있으며 국내외 유명 스트리머와의 파트너십을 통해 유저풀을 확장하고 있습니다[1][2][3].
+- [광고 및 프리미엄 콘텐츠 사업]  
+플랫폼 내 배너·동영상 광고와 프리미엄 회원/콘텐츠 과금, 그리고 e스포츠 및 게임리그 중계, 관련 MD(머천다이즈) 판매 등이 주요 수익원입니다[1][3].
+- [연예 매니지먼트/MCN]  
+'Management SOOP' 브랜드로 연예인, 인플루언서의 소속 및 활동 지원을 하며, 광고, 이벤트, 2차 저작권 등 다양한 부가가치를 창출하는 것도 주요 사업입니다[2][3].
+2. [최근 분기 실적이 강한 배경]
+- [동남아 성장세 유지 및 확대]  
+2024년 하반기~2025년 상반기에도 태국, 인도네시아 지역에서 트래픽과 유료결제 매출이 지속적으로 성장하였으며, 이로 인해 2025년 1분기 매출과 영업이익 모두 전년 동기 대비 약 14%씩 증가했습니다[3].  
+현지 인기 스트리머와의 제휴 확대, 로컬 이벤트 및 한류 콘텐츠 연계가 주효했습니다.
+- [강력한 커뮤니티 기반 기부경제 모델]  
+SOOP만의 특징인 ‘선물 문화’ 및 커뮤니티 참여 기반 유료 경제 모델이 본격적으로 확대·정착되었습니다. 기부·후원 단가와 참여액 모두 상승하며, 유료결제자(ARPU) 지표가 견조하게 개선되었습니다[3].
+- [플랫폼 리브랜딩 및 서비스 고도화]  
+2024년 하반기 국내외 플랫폼 리뉴얼 및 AI 추천 알고리즘 도입 등 기술투자가 실질적인 트래픽 증가와 체류시간 증가로 이어졌습니다. 광고 매출 단가 인상에도 기여했습니다[2].
+3. [현재 SOOP이 직면한 3대 핵심 이슈]
+- [지속 성장 위한 현지화·다변화 전략]  
+동남아 시장에서 한 차례 성장 모멘텀을 확보했으나, 인도네시아, 베트남 등 신규 지역 진출 및 로컬 인기 크리에이터 영입이 중요한 과제로 부각되고 있습니다. 한류 콘텐츠에 의존한 기존 전략에 한계가 드러나고 있기 때문입니다[1].
+- [경쟁사 견제 및 트래픽 락인(lcok-in) 강화]  
+트위치, 유튜브, 페이스북 등 대형 글로벌 플랫폼의 이탈 이후 일부 복귀 움직임·신규 현지 경쟁사(예: 로컬 게임 플랫폼 등) 부상 조짐도 뚜렷합니다. 핵심 인플루언서 보호와 이용자 락인 전략, 독점 IP 콘텐츠 확대 등 시장 점유율 방어가 단기 화두입니다[2][3].
+- [매출 안정성과 규제/플랫폼 거버넌스 리스크]  
+2025년 상반기 들어 일부 광고주 이탈 및 콘텐츠 심의 이슈(불법·불건전 방송여부 등), 결제 프로세스 변화 등 불확실성이 확대되고 있습니다[2]. 수익성 변동성 관리와 동시에, 플랫폼 건전성·규제 위험에 대응하는 기술·인력 투자가 반드시 병행되어야 하는 상황입니다.
+이처럼 SOOP은 [동남아 시장을 중심축으로 성장을 이어가고 있으나, 신규시장 확장, 시장점유율 방어, 플랫폼 건전성/규제이슈] 등 중장기 과제를 직면하고 있습니다. 2025년 하반기 이후는 이 세 가지의 해결력에 따라 실적 변동과 미래 가치가 좌우될 전망입니다.
+https://stock.pstatic.net/stock-research/company/57/20250115_company_335157000.pdf
+https://m.irgo.co.kr/IR-ROOM/067160/SOOP-IR-ROOM
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=067160
+https://comp.fnguide.com/SVO2/asp/SVD_Consensus.asp?pGB=1&amp;gicode=A067160&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=108&amp;stkGb=701
+https://tossinvest.com/stocks/A067160/order</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -725,7 +719,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -742,29 +736,24 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1) **한국앤컴퍼니(000240)의 핵심 사업**  
-한국앤컴퍼니는 **지주회사**로, 주요 사업은 자회사 지배 및 관리입니다. 2012년 한국타이어가 지주회사 체제로 전환하며 투자와 경영관리 부문이 분리되어 설립되었습니다[1]. 한국앤컴퍼니의 수익원은 주로 자회사(대표적으로 **한국타이어앤테크놀로지** 등)에서 발생하는 **배당금, 로열티, 임대료, 경영자문 용역, 상표권 사용 수익** 등입니다[1].  
-주요 자회사에는 다음과 같은 기업이 포함됩니다.
-- **한국타이어앤테크놀로지**: 글로벌 타이어 제조업체
-- 한온시스템: 자동차 부품 및 열관리 솔루션
-- 한국네트웍스, 한국엔지니어링웍스, 한국프리시전웍스 등 기타 자동차·산업기계 부품 및 IT 관련 자회사[1].  
-최근에는 한국아트라스비엑스(배터리 제조업체) 합병 후 **에너지 솔루션 사업본부**를 신설하여 신사업 영역으로 확장하고 있습니다[2].
-2) **최근 분기 강한 실적의 배경**  
-한국앤컴퍼니가 최근 분기에서 **좋은 실적**을 거둘 수 있었던 핵심 요인은 다음과 같습니다.
-- **주요 자회사 실적 개선:** 특히 한국타이어앤테크놀로지가 글로벌 자동차 시장 회복과 프리미엄 타이어 부문 호조로 매출과 이익이 크게 증가했습니다. 미국, 유럽 등 주요 시장의 수요 회복, 고인치·고부가가치 제품 비중 확대가 긍정적으로 작용했습니다.
-- **한국아트라스비엑스(배터리 사업) 합병 효과:** 배터리 시장의 성장과 국내외 수요 확대에 맞춰, 신설 에너지 솔루션사업의 성장세가 반영되고 있습니다[2].
-- **배당 등 현금흐름 증가:** 자회사의 영업이익 및 순이익이 개선됨에 따라, 한국앤컴퍼니가 받는 배당금도 확대되었습니다. 특히 2023~2024년 배당수입이 전년 대비 크게 증가한 점이 특징입니다[3].
-3) **현재 한국앤컴퍼니가 직면한 3대 주요 이슈**  
-- **자회사 성과 의존도:** 실질적인 영업 자체보다는 자회사의 실적 변동에 직접적으로 영향을 받기 때문에, 자회사인 한국타이어앤테크놀로지(주요 이익 기여), 한온시스템 등의 글로벌 경쟁, 시장 점유율 변화, 환율 변동 등이 전체 실적에 큰 영향을 미칩니다. 즉, **지배구조상 자회사 실적 변동 리스크**가 크다고 할 수 있습니다[1][4].
-- **신사업 확대와 통합의 난제:** 에너지 솔루션(배터리) 등 비타이어 신사업 확장, 계열사 합병 및 운영통합 과정에서 조직 안정화와 신성장 동력 확보가 중요 이슈입니다. 신사업의 조기 안착 없이는 장기 성장세 유지에 한계가 있습니다[2].
-- **주주환원 및 시장 신뢰:** 꾸준한 배당 정책과 지주회사로서의 효율적 자본배분, 투명한 지배구조 강화가 요구됩니다. 최근 배당성향은 약 4% 정도로 상대적으로 안정적이나, 시장은 추가 자회사 가치 증대(예: 자회사 IPO나 지분 정리 등) 가능성, 대주주 리스크 해소 등을 계속 주시하고 있습니다[4].
-**요약:**  
-한국앤컴퍼니는 타이어 중심 계열사 관리에 기반한 전형적 지주회사로, 최근 자회사 실적 호전과 신사업 확장 덕분에 호실적을 달성 중입니다. 하지만 자회사 실적 의존, 신사업 통합과 안착, 주주환원과 투명경영 강화라는 구조적 과제가 동반되고 있습니다.
-https://ko.wikipedia.org/wiki/%ED%95%9C%EA%B5%AD%EC%95%A4%EC%BB%B4%ED%8D%BC%EB%8B%88
-https://www.valueline.co.kr/finance/summary/000240
-https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A000240&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701
-https://comp.wisereport.co.kr/bridgefn/company/c1020001.aspx?cmp_cd=000240
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250318001249&amp;docno=&amp;viewerhost=</t>
+          <t>1) [한국앤컴퍼니(000240)의 핵심 사업]
+한국앤컴퍼니는 [지주회사(홀딩스)]로, 실질적인 사업의 중심은 자회사들의 경영 관리 및 수익 극대화에 있습니다. 가장 큰 자회사는 [한국타이어앤테크놀로지]로, 글로벌 타이어 제조 부문에서 핵심적인 역할을 하며 전체 수익의 상당 부분을 차지합니다[1]. 그 외에 자동차열관리 솔루션을 담당하는 [한온시스템], 에너지 솔루션(배터리) 사업본부, IT·기계 관련 계열사인 한국네트웍스, 한국엔지니어링웍스, 한국프리시전웍스 등이 포함됩니다. 수익원은 자회사에서 발생하는 [배당금, 경영자문 및 로열티, 상표권 사용료] 등으로 구성되며, 최근에는 배터리와 에너지 신사업이 점진적으로 수익 구조에 반영되고 있습니다[1].
+2) [최근 분기(2025년 1분기) 실적 강세의 주된 배경]
+2025년 1분기 기준으로 매출 3,887억 원(+11.4% YoY), 영업이익 1,269억 원(+1.0%), 순이익 1,154억 원(+1.2%)을 기록하며 안정적인 성장세를 유지하고 있습니다[1]. 이 같은 실적 호전의 주요 원인은 아래와 같습니다.
+- [한국타이어앤테크놀로지 실적 개선:] 글로벌 자동차 시장의 회복, 특히 미국/유럽 시장에서 프리미엄 타이어 수요가 증가하고 고수익 제품(고인치, 전기차 타이어 등) 비중이 확대된 것이 핵심입니다[2].
+- [주요 자회사 배당 확대:] 자회사들의 영업수익 증가로 인해 배당금 유입이 늘었습니다. 2024~2025년 배당성향은 3.9~4.2%로 꾸준한 주주환원정책이 강점으로 평가받고 있습니다[1].
+- [비타이어 신사업(에너지 솔루션) 기여:] 한국아트라스비엑스 합병 및 에너지사업본부 신설로, 국내·외 배터리 시장 확대에 수혜를 받고 있습니다. 이 사업의 본격적인 성장세가 실적에 플러스 요인으로 작용 중입니다.
+- [저평가된 기업가치(밸류에이션):] PER(6.5~6.9배), PBR(0.51~0.54배)로 동종 업종, 지주회사 평균보다 낮아 기관, 외국인 매수세가 유입되었습니다[1][2].
+3) [2025년 7월 기준 최대 현안 3가지]
+- [자회사 실적변동 위험성:] 전체 매출과 이익 대부분을 한국타이어와 한온시스템에서 가져오므로, 양사 실적 부진 혹은 글로벌 시장 불확실성(환율, 수요 위축 등)에 취약합니다. 특히 [한온시스템의 영업이익률(1.3%) 저조]가 최근 투자 불안요인으로 부각되며, 투자자 신뢰에 악영향을 미치고 있습니다[3].
+- [리더십/경영진 불확실성:] 2025년 상반기 리더십 공백 및 경영진 변화가 있었으며, 이에 대한 투자자의 경계심이 주가에 즉각적으로 반영되는 모습입니다. 지주체제 전환 이후 경영안정성에 대한 의구심이 확산되는 국면입니다[3].
+- [신사업(에너지·배터리) 안정화와 미래 성장동력:] 배터리 및 에너지 솔루션 사업은 기대가 크지만, 수익성이 본격적으로 자리잡기까지 추가 투자와 내실 다지기, 사업 간 시너지 확보라는 장애요인이 있습니다. 시장에서는 신사업 안착 속도와 실질적 이익 기여도에 주목하고 있습니다.
+추가적으로, 최근 주가는 단기적으로 크게 반등(한 달 34% 상승)했으나, 전년 대비 시장 평균보다 낮은 밸류에이션과 캐시카우인 핵심 자회사 실적 의존 리스크로 변동성이 상당히 큽니다[1][2][3]. 따라서 중장기적으로는 ▲자회사 실적 안정화, ▲경영진 리더십 회복, ▲신성장동력의 조기 정착이 기업가치 향상의 관건입니다.
+https://neon7shop.com/entry/%EA%B5%AD%EB%82%B4%EC%A3%BC%EC%8B%9D-%ED%95%9C%EA%B5%AD%EC%95%A4%EC%BB%B4%ED%8D%BC%EB%8B%88000240-%EC%95%8C%EC%95%84%EB%B3%B4%EA%B8%B0-%EC%8B%A4%EC%A0%81-%EB%B0%8F-%EC%88%98%EC%9D%B5%EC%84%B1-%EA%B2%BD%EC%9F%81%EB%A0%A5-%ED%96%A5%ED%9B%84-%EC%A0%84%EB%A7%9D
+https://simplywall.st/ko/stocks/kr/automobiles/kose-a000240/hankook-shares/news/7ca4ae8b73b77ae6
+https://seo.goover.ai/report/202507/go-public-report-ko-72b810c3-e35b-4f88-aab1-a0e70f380ce4-0-0.html
+https://kr.investing.com/equities/hankook-tire-worldwide-earnings
+https://kr.investing.com/equities/hankook-tire-worldwide</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -779,7 +768,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -797,26 +786,34 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>(1) 월덱스(101160)의 핵심 사업
-월덱스는 [반도체 제조의 식각(Etching) 공정에 사용되는 소모성 부품]을 생산하는 전문 기업입니다[3][1]. 핵심 제품군은 [실리콘, 쿼츠(석영), 세라믹(특히 SiC: 실리콘카바이드) 부품]으로, 주요 용도는 반도체 칩 생산 현장에서 장비 내 반복 교체가 필요한 식각공정용 부품입니다[3][1][4]. 대표 아이템으로는 [실리콘 링, 실리콘 전극, 쿼츠 포커스 링, SiC 링] 등이 있습니다. 이런 부품들은 주로 글로벌 메모리·파운드리 업체의 생산라인에 납품되며, 고객의 핵심 공정 품질과 생산성에 직결되는 고부가가치 소모재입니다.
-(2) 최근 분기 실적이 강한 이유
-월덱스의 최근 분기(2025년 1분기) 실적은 [본업 경쟁력과 시장의 구조적 호황]이 맞물려 강한 성장을 보였습니다.
-- [차세대 반도체(특히 AI·고성능 서버용 칩) 시장 성장]  
-  AI, 고사양 메모리·GPU 시장 확대에 따라 [첨단 반도체 식각공정 가동률이 증가]했고, 이에 따라 실리콘·쿼츠·SiC 등 월덱스 주요 부품의 교체·소모 수요가 큰 폭으로 늘었습니다[2][1].  
-- [중국·글로벌향 SiC 부품 매출 증가]  
-  최신 공정에서 SiC(실리콘카바이드) 소재 부품 선호도가 높아지며, [중국 현지 매출이 급성장]한 점이 두드러집니다. 특히 2025년 1분기 월덱스는 중국 내 SiC 링 공급 증가로 매출이 전년 동기 대비 33% 이상 증가하였습니다[1].
-- [해외 시장 개척 및 고부가가치 제품 비중 확장]  
-  북미·유럽 등지의 신규 고객처 확보로 수출이 늘었고, [고부가 부품(예: SiC, 알루미늄 나이트라이드 등) 비중이 확대]되어 평균 수익성(OPM) 개선 효과도 나타났습니다[1][2].
-- [안정적인 애프터마켓(공정 운영 중 부품교체) 매출]  
-  식각 부품은 정기적 교체가 필수여서 수요 사이클이 크게 꺾이지 않고, 월덱스의 안정적인 매출 기반을 제공하고 있습니다[2].
+[월덱스]는 반도체 제조 공정 중 식각(Etching) 공정에 사용되는 [소모성 부품](Consumables) 전문 생산 기업입니다. 주력 제품군은 [실리콘, 쿼츠(석영), 세라믹(특히 SiC: 실리콘카바이드) 소재 부품]으로, 반도체 칩 생산 라인에서 주기적 교체가 필수적인 고부가가치 소모재입니다. 대표 품목은 [실리콘 링, 쿼츠 포커스 링, SiC(실리콘카바이드) 링] 등이며, 삼성전자, SK하이닉스 등 글로벌 대형 반도체 제조사와 파운드리 기업에 납품합니다. 특히, 최근 SiC 등 [신소재 부품]의 비중 확대와 애프터마켓 시장(운영 중 부품 교체 수요) 채택률 증가가 월덱스의 핵심 성장 원천으로 부각되고 있습니다[1][3][4].
+(2) 최근 분기(2025년 상반기) 실적이 강한 이유
+월덱스의 최근 분기 실적이 강했던 주요 원인은 아래와 같습니다.
+- [AI·고성능 반도체 시장 성장]
+  AI 서버·고사양 메모리 등 첨단 반도체 수요가 급증하면서, 식각 소모부품 전체 시장 규모가 확대되었습니다. 이에 따라 월덱스의 핵심 제품(실리콘·SiC 부품 등) 교체 수주가 크게 늘었습니다[1][2].
+- [SiC 등 고부가가치 신제품 매출 성장]
+  [SiC 고내구성 부품]의 글로벌 채택률이 높아지면서, 특히 [중국향 SiC 부품 매출이 전년 동기 대비 30% 이상 증가]하는 등 주력 신제품의 성장세가 두드러졌습니다[1].
+- [고객 기반·수출 시장 확대]
+  북미 및 유럽 신규 고객처 확보, 그리고 비메모리 반도체 분야 매출 노출도 확대로 수출이 증가하였고, 전체 수익성 개선에 기여했습니다. 이는 기존 메모리 중심의 부품업체와 차별화되는 지점입니다[1][2].
+- [애프터마켓(운영 중 부품 교체) 매출 안정]
+  대형 고객사 내에서 애프터마켓 채택률이 과거 대비 상승하고 있어, 정기적이고 안정적인 매출 기반이 강화되고 있습니다[1].
 (3) 현재 월덱스가 직면한 주요 3가지 이슈
-1. [지배구조 및 대주주 리스크]  
-   최근 경영권 상속 및 대주주 관련 이슈로 인해, [외부 투자자와 시장의 신뢰가 완전히 회복되지 않은 상태]입니다[1]. 이로 인해 국제 투자자들의 단기 관망 또는 매도세가 관찰되고 있으며, 이는 주가 변동성과 할인 요인으로 작용하고 있습니다.
-2. [반도체 업황 변동성 및 최종 고객사의 수요 리스크]  
-   메모리와 파운드리 업체들의 투자·생산 전략 변화에 따라 [주력 부품 수요의 변동성이 여전히 잠재]해 있습니다. 특히 전방 수요가 조정되거나 업계 재고가 증가할 경우, 식각 소모품 주문이 단기적으로 둔화될 수 있습니다[2].
-3. [기술경쟁 심화 및 고객 다변화 과제]  
-   *SiC 등 신소재 부품* 시장에서 국내외 경쟁사의 기술추격이 심화되는 한편, [글로벌 고객 포트폴리오 확대] 없이 기존 매출처 쏠림이 지속될 시, 매출 구조의 안정성이 훼손될 수 있습니다[1][2]. 해외 신규 고객사 인증, 신제품 공급 확대, 북미·유럽 등 신시장 안착이 계속 주요 현안입니다.
-이외에 실리콘·쿼츠 등 원재료 가격 변동, 환율 리스크, 식각 이외 공정이나 비반도체 부문과 같은 신규 성장동력 확보 여부도 향후 지속 모니터링해야 할 요소입니다.
-특이사항: 월덱스는 외부 공시 및 홍보 활동에 소극적이고, 상속 이슈 등으로 인해 [경영진이 단기 주가 상승에 적극적이지 않은 분위기]도 일부 시장 참여자들 사이에서 지적되고 있습니다. 이 점이 주가 흐름 및 투자심리에도 일부 영향을 미치는 것으로 평가됩니다[1].</t>
+1. [지배구조(상속) 및 주요주주 리스크]
+   최근 [창업주 고령화와 경영권 승계(상속) 이슈]가 시장에서 부각되고 있습니다. 회장 연령이 높고, 실제 승계구도나 경영 참여도가 명확하게 외부에 공개되지 않아 외부 투자자의 불안감을 자극합니다. 
+   일부 시장 참여자는 [대주주가 단기 주가 부양에 소극적]이라는 인식 및 공식 공시가 적은 점을 우려하며, 이에 외국인·기관 투심이 위축돼 있습니다[2].  
+2. [고객 포트폴리오 집중 및 업황 변동성]
+   대형 메모리·파운드리 기업에 대한 매출 쏠림 현상이 여전하여, 전방 산업(반도체 제조업) 투자 축소나 업황 부진 시 월덱스 실적이 단기 영향을 받을 수 있습니다. 글로벌 경기 및 반도체 투자 변화(특히 재고 증가·Capex 축소)가 실적에 위험 요인입니다[1][2].
+3. [기술 경쟁 심화 및 신시장 진출 과제]
+   SiC 등 신소재 부품 시장에서 국내외 경쟁사의 제품 고도화와 납품 확대가 가속화되고 있는 상황입니다. 월덱스는 향후 신규 고객사 인증, 신제품 개발 및 해외 시장 안착 등에서 [기술·품질 경쟁력 확보]와 [고객 다변화]가 반드시 필요합니다. 이 과제가 미흡할 경우 성장 둔화 및 매출 구조 불안을 초래할 수 있습니다[1][2].
+부가 정보 및 특이사항
+- 월덱스는 [외부 공시와 IR에 매우 소극적]이며, 상속 및 대주주 관련 이슈로 인해 [주가 부양 의지에 의문이 제기되는 상황]입니다. 이는 투자 심리에 부정적으로 작용하고, 단기적으로 저평가 지속 및 주가 변동성 확대의 원인으로 지적됩니다[2].
+- 2025년 3월 기준 PER(주가수익비율)은 약 6배 초반으로, 업종 평균보다 낮아 저평가 구간에 머무르고 있으나, 투자자 신뢰 회복 없이는 주가 반등 모멘텀 확보에 제한이 있습니다[3].
+요약: [월덱스는 반도체 식각 소모부품(특히 신소재 SiC 등)에서 강점을 보이지만, 지배구조·고객구조 리스크와 시장 내 IR 미흡, 기술·시장경쟁 심화가 주요 과제]입니다.
+https://files-scs.pstatic.net/2023/01/10/cQ5QBeP3q4/%EC%9B%94%EB%8D%B1%EC%8A%A4%EF%BC%BB101160%EF%BC%BD_20230110_Hana_833590.pdf
+https://seo.goover.ai/report/202502/go-public-report-ko-c482e138-97d7-4e9d-bd7c-d38d55600572-0-0.html
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=101160
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250319000298&amp;docno=&amp;viewerhost=
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250515000359&amp;docno=&amp;viewerhost=</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -835,7 +832,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -852,25 +849,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>이상네트웍스(080010)는 전자상거래(B2B), 전시사업, 철강 유통 등에서 두각을 나타내는 기업입니다. 최근 분기별 실적 호조는 전시사업 부문의 성장에 크게 힘입었습니다. 현재 이상네트웍스가 직면한 핵심 이슈는 전시사업 성장의 지속성, 철강 시장의 변동성, 그리고 신규 성장동력 확보입니다.
-(1) 회사의 핵심 사업
-- **B2B 전자상거래 서비스**: 설립 초기에는 철강 및 비철금속 업체를 대상으로 온라인 E-마켓플레이스를 제공하는 B2B 전자상거래가 주력이었으며, 지금은 제약, 자동차부품, 화학 등 다양한 업종으로 고객 기반을 확대해왔습니다[1][4].
-- **전시사업**: 국내 유일의 전시 관련 상장사로서 산업·건축자재·인테리어 등 다양한 분야의 대형 전시회(특히 경향하우징페어 등 건축 브랜드 전시회)를 기획·운영합니다. 전시회 개최와 연계된 마케팅/영업 지원 플랫폼 역할이 강화되고 있으며, 이 부문 매출 비중이 60%를 넘습니다[2][4].
-- **철강 유통 및 용역 사업**: 철강제품 매입/공급과 구매대행을 담당하는 사업도 주력 분야 중 하나입니다. 또 일부 부동산 임대·금융 등 기타 사업을 병행합니다[2][4].
-(2) 최근 분기 실적 호조의 배경
-- **전시사업 성장 견인**: 2024년 3분기 연속으로 매출과 영업이익이 모두 전년동기 대비 증가했습니다. 그중에서도 전시사업의 외형 확대와 수익성 개선이 실적의 주요 견인 역할을 했습니다. 경향하우징페어 등 대형 오프라인 전시회 수요가 회복되면서, 코로나 기간 침체됐던 전시산업 전체가 회복세를 보이고 있습니다. 자회사 ‘메쎄이상’ 역시 실적 개선에 기여하고 있습니다[3].
-- **사업 포트폴리오 확대**: B2B 전자상거래와 전시사업 간 시너지가 강화되며 다양한 업종 고객 유치와 신규 수익원 발굴에 성공하고 있습니다. 이러한 다각화가 위험 분산에 기여했고, 안정적 성장 기반을 강화한 것으로 평가받고 있습니다[1][3].
-- **비용 관리 및 운영 효율화**: 외형 확대에 맞춰 원가 및 고정비 관리가 이뤄지면서 수익성(영업이익률 등)까지 동반 개선 중입니다[3].
-(3) 당면 주요 이슈 3가지
-- **전시사업 성장 지속 여부**: 국내외 경기 및 기업 마케팅 지출 변동에 따라 오프라인 전시사업은 외부 환경에 민감합니다. 코로나19 이후로 전시회 시장은 회복세지만, 온라인 마케팅 및 비대면 전환 가속화 등이 위협요인입니다. 오프라인/온라인 하이브리드 전시 솔루션 개발 등 혁신이 필요합니다[2][3].
-- **철강 시장 변동성**: 철강제품 유통 사업은 원재료 가격 변동, 글로벌 수급 불안 등에 큰 영향을 받습니다. 철강 유통 마진 악화가 전체 실적에 부정적 영향을 줄 수 있다는 점이 잠재 리스크로 지적됩니다[2][4].
-- **신규 성장동력 확보**: 전시사업과 철강 유통 사업에 대한 의존도를 낮추고자 신규 전자상거래 영역 진출, 글로벌 전시회시장 확대 등 미래 성장동력 발굴이 당면 과제입니다. 또한 IT/디지털 전환을 통한 사업구조 혁신도 필요성이 꾸준히 제기되고 있습니다[1][4].
-현재 이상네트웍스는 전시·B2B 플랫폼을 축으로 성장세를 견고히 하고 있으나, 경기 민감 업종 특성을 극복하고, 시장 변화에 선제적으로 대응할 필요성이 높습니다.
-https://securities.miraeasset.com/bbs/download/2010934.pdf?attachmentId=2010934
-https://www.hanwhawm.com/main/common/common_file/fileView.cmd?category=2&amp;depth3_id=anls1&amp;key1=49672&amp;key2=1&amp;bldid=bbs10031
-https://sejongdata.co.kr/archives/69782
-https://www.deepsearch.com/analytics/company-analysis/KRX:080010?c-name=%25EC%259D%25B4%25EC%2583%2581%25EB%2584%25A4%25ED%258A%25B8%25EC%259B%258D%25EC%258A%25A4&amp;c-symbol=KRX%253A080010&amp;cd-cat=topic&amp;cd-df=2025-07-07&amp;cd-dt=2025-07-14
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250321001252&amp;docno=&amp;viewerhost=</t>
+          <t>이상네트웍스(080010)는 [B2B 전자상거래, 전시사업, 철강 유통]을 3대 축으로 영위하는 상장사로, 최근 실적 개선이 두드러지고 있고, 구조적 이슈와 신사업 추진에 주목받고 있습니다.
+(1) [핵심 사업 구체 설명]
+- [B2B 전자상거래]: 철강, 비철금속, 건자재 등 산업재를 온라인 플랫폼에서 거래·중개하는 사업이 주력입니다. 초기 철강·금속에 집중했으나, 최근엔 제약, 화학, 자동차부품 등 신규 분야로 확장하며 거래 규모·고객 다변화에 집중하고 있습니다. B2B 플랫폼 운영·IT 시스템 제공을 통한 거래 효율화와 수익 기반을 마련하고 있습니다[2][4].
+- [전시사업]: 국내 최대 산업 전시회인 ‘경향하우징페어’를 포함해 건자재, 인테리어, 친환경 등 다양한 박람회·콘퍼런스를 기획·운영합니다. 오프라인 대형전시와 온라인 전시플랫폼 ‘eSANG EXPO’ 등 하이브리드 형태를 접목, 참가 고객사의 마케팅·영업 활동까지 지원하는 B2B 솔루션의 사업 비중과 수익성이 매우 크게 확대되었습니다[4].
+- [철강 유통 및 기타]: 철강제품의 매입 및 공급, 구매대행이 전통적 축이며, 일부 부동산 임대 및 용역 사업도 병행하고 있습니다. 하지만 최근 전시사업 및 B2B 플랫폼 비중이 지속적으로 커지고 있습니다[2][4].
+(2) [최근 실적 호조의 구체적 배경]
+- 2024년 하반기부터 2025년 1분기까지 [연속적으로 매출과 영업이익이 개선]됐습니다. 2025년 1분기 매출 2,057억 원을 기록했고 전년 동기 대비 매출 성장과 이익률 개선이 두드러졌습니다[1][3].
+- [전시사업의 구조적 성장]이 결정적입니다. 코로나19 이후 오프라인 대형 전시 수요가 빠르게 회복되어, 건축·인테리어·친환경 트렌드 확산과 맞물려 참가사, 부스 규모, 관람객 수가 크게 증가했습니다. 전시회 개최 자체 매출뿐만 아니라, 참가사의 마케팅·상담 성과로 이어지는 부가가치 확장이 실적 상승을 견인했습니다. 자회사 ‘메쎄이상’도 실질적 실적 기여도가 높아졌습니다[3][5].
+- [B2B 플랫폼의 업종 다각화] 또한 효과를 발휘 중입니다. 기존 핵심 시장 이외에 신규 고객사 및 업종 확대로 거래량이 증가했고, 운영 효율화로 고정비 부담이 줄면서 영업이익률이 개선됐습니다[2].
+- [비용 관리와 수익성 중심 경영] 역시 강화되었습니다. 원가 및 고정비 절감으로 전사 마진율이 상승했습니다[3].
+(3) [현재 직면한 핵심 이슈 3가지]
+- [전시사업 성장의 지속성]: 최근까지 전시사업 중심의 실적 호조가 이어졌으나, 경기 둔화/기업 마케팅 예산 축소 가능성, 온라인 전시·마케팅 경쟁 심화 등 외부 리스크 노출이 큽니다. 오프라인/온라인 하이브리드 모델 발전 및 글로벌 전시회 진출이 필수적 과제입니다[4][5].
+- [철강 유통 부문의 수익성 변동성]: 원자재 가격 및 글로벌 철강 시장의 불안정을 반영, 철강 매출 성장 정체 또는 유통 마진 하락 우려가 있습니다. 이에 따른 실적 기여도 감소를 어떻게 보완할지가 숙제로 남아 있습니다[2][4].
+- [신규 성장동력 및 디지털 혁신]: 현 주요 사업군의 성장 한계를 극복하고, 신사업(글로벌 B2B 플랫폼 확대, 디지털 전시/마케팅 서비스, 신규 MICE반영) 발굴과 IT 기반 사업구조 혁신이 요구됩니다. 경쟁사 대비 기술/서비스 차별화 및 고객 가치혁신 역량 확보가 핵심 이슈로 대두되고 있습니다[2][4][5].
+이상네트웍스는 전시사업 주도의 외형 성장 및 산업 B2B 전자상거래 혁신에서 강점을 유지 중이나, 업황 변동성과 신사업 확장력 확보에서 넘어야 할 과제가 명확한 시점입니다.
+https://kr.investing.com/equities/esang-networks-co-ltd-earnings
+https://www.butler.works/ko/companies/00454399
+http://mapi.myvic.co.kr/index.asp?comp_code=080010
+https://kr.investing.com/equities/esang-networks-co-ltd
+https://m.irgo.co.kr/IR-COMP/080010</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -885,7 +883,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1018,23 +1016,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(1) [헥토이노베이션의 핵심 사업]
-헥토이노베이션(214180)은 [IT보안 서비스 및 생활 구독형 서비스]를 핵심으로 하는 B2C/B2B 플랫폼 기업입니다. 주요 서비스는 본인인증, 휴대폰번호 도용방지, 간편결제 보안, 로그인플러스, 세이프캐시, 내정보지키미 등 IT보안 솔루션들이며, IT보안 서비스가 별도 매출의 약 78%를 차지합니다[3]. 여기에 다양한 생활 구독형 서비스(주식정보, 건강관리, 보험 등)도 제공하며, 카드 혜택 최적화, 아파트 청약 케어, 전기차 중개 등 신규 플랫폼 서비스로 포트폴리오를 확장하고 있습니다[3]. 
-자회사로는 [헥토파이낸셜(핀테크 부문)], [헥토헬스케어(헬스케어 부문)]가 대표적이며, 이들의 실적 역시 연결로 인식됩니다[1][2]. 회사는 2009년 설립되어 2015년 코스닥에 상장, 2022년 민앤지에서 사명을 변경했습니다[3]. 매출의 안정성은 구독 기반의 비즈니스 모델과 통신 3사(SK텔레콤, KT, LG유플러스) 등과의 제휴로, 월 단위 반복 매출 구조에 기인합니다.
-(2) [최근 분기 강한 실적의 원인]
-최근 2025년 1분기 헥토이노베이션은 [4개 분기 연속 최대 매출]을 경신했으며, 1분기 매출 896억원, 영업이익 117억원을 기록해 전년 동기 대비 각각 21.3%, 19.2% 성장했습니다[1][2]. 강한 실적의 구체적 배경은 다음과 같습니다.
-- [전 사업부문 고른 성장]: IT보안 서비스뿐 아니라 생활정보 구독, 광고사업, 핀테크, 헬스케어 자회사 등 주요 사업부가 모두 전년 대비 매출 성장을 시현함[1][2]. 특히 IT보안(핵심 서비스)은 통신사와의 제휴 유지 및 신규 구독 가입자 증가로 꾸준한 매출 상승세를 보이고 있습니다[1][3].
-- [헬스케어·핀테크 자회사 실적 개선]: 자회사 헥토헬스케어가 1분기 전년 대비 33.9% 매출 성장, 신제품 출시와 중국 등 해외 총판 계약 효과가 반영되고 있습니다. 핀테크 자회사(헥토파이낸셜 등)도 본업 성장과 신사업 효과가 동시 반영돼 연결 실적에 기여하고 있습니다[2].  
-- [구독경제 트렌드 및 신규 서비스 출시]: 정기구독 기반의 안정적 매출 구조가 구독 경제 확대와 맞물려 성장에 기여하고 있고, 발로소득, 아파트청약케어, 카드 혜택 최적화 등 신규 서비스 흥행도 지속되고 있습니다[1][2][3].
-- [적극적인 마케팅과 수출 확대]: 헬스케어 부문의 경우 TV 마케팅, 신제품 확대, 중국 5년간 1,550억원 규모 계약 등 해외 비즈니스 진출 가시화로 성장 속도가 빨라졌습니다[2].
-(3) [현재 헥토이노베이션이 직면한 주요 3가지 이슈]
-1. [IT보안 사업 경쟁 심화]
-   - IT보안 시장으로 신규 업체들이 지속 진입하고, 기존 통신 3사와 대형 플랫폼기업까지 직영(내재화) 흐름이 강해짐에 따라, 가격 경쟁 압력과 서비스 차별화 부담이 높아지고 있습니다[1][3].
-2. [신규 해킹·스미싱 위협 증가와 대응 부담]
-   - 최근 AI, 스미싱 등 새로운 해킹 기법이 급격히 확산 중입니다. 이에 따른 솔루션 고도화, R&amp;D 투자 압력, 보안사고 발생 시 신뢰도∙사업성 타격 위험이 상존합니다[3]. 
-3. [신규 서비스(사업 다각화) 흥행 안정성]
-   - 발로소득, 전기차 중개, 카드 혜택 서비스 등 신규 사업이 예상만큼 수익화에 안착하지 못하거나, 기존 비즈니스와 시너지가 미흡할 경우 추가적인 비용 및 실적 변동성이 발생할 수 있습니다. 헬스케어 해외 진출 역시 초기 리스크가 존재합니다[1][2][3].
-추가로, “재무 실적 대비 주가 저평가 원인이 불명확한 비즈니스 모델 아니냐”는 시각에 대해선, 구독 기반의 반복 매출 구조와 자회사 성장동력은 분명하지만, 잦은 신규 사업 진출과 향후 수익화 가시성, 시장 내 차별화 전략의 지속성에는 투자자들의 의구심도 일정 부분 반영되고 있는 것으로 풀이됩니다[2].</t>
+          <t>(1) 헥토이노베이션의 핵심 사업
+헥토이노베이션(214180)은 [IT 보안 서비스(본인인증, 휴대폰번호 도용방지, 간편결제 보안 등)]를 기반으로, [정기 구독형 B2C/B2B 서비스]와 [생활 정보형 서비스]를 함께 운영하는 플랫폼 기업입니다. 회사 매출은 본인인증, 로그인플러스, 세이프캐시, 내정보지키미 등 IT 보안 솔루션이 약 78%로, 통신 3사(SK텔레콤, KT, LG유플러스)와의 제휴 기반으로 월 단위 반복 매출이 발생하는 구조입니다[1][2]. 아울러, 주식·보험·건강관리·아파트 청약 케어, 카드 혜택 관리, 전기차 중개 등으로 포트폴리오를 확장하며 [생활 구독형 및 데이터·핀테크 신규 서비스]를 적극적으로 출시 중입니다[1][2].
+핵심 자회사로는 [헥토파이낸셜(핀테크)], [헥토헬스케어(헬스케어)]가 있으며, 각각 선불결제·PG·해외정산서비스와 건강기능식품 ‘드시모네’ 등 사업을 전개합니다. 해당 자회사 실적도 연결로 반영됩니다[1]. 2024년에는 창사 이래 최대 매출(3,195억 원), 최대 영업이익(491억 원)을 기록하며[1], B2C 기반의 플랫폼 및 해외 진출 영역으로도 빠르게 외연을 넓히는 중입니다.
+(2) 최근 분기 강한 실적의 원인
+2025년 1분기에도 [매출, 영업이익 모두 사상 최대치로 성장세]가 이어지고 있습니다(1분기 매출 896억, 영업이익 117억, 전년 동기 대비 각각 +21.3%, +19.2%)[1]. 구체적 요인은 다음과 같습니다.
+- [IT보안·본인인증 사업의 지속 성장]: 통신사 부가서비스와 본인인증 수요가 꾸준히 증가하며, 신규 구독자 유입도 이어짐. 본업 기반의 안정적 매출이 견조합니다[1][2].
+- [자회사(헥토파이낸셜, 헥토헬스케어) 호실적]: 선불결제, PG, 건강 기능식품의 해외 진출(중국 드시모네 론칭 및 1,550억 규모 수출 계약 등)이 반영되며 성장 동력으로 부상[1].
+- [신규 서비스·구독경제 트렌드 효과]: 아파트청약케어, 발로소득 등 신규 구독 서비스가 빠르게 자리잡아 추가 매출 기여. 구독경제 확산 흐름이 실적 안정성에 긍정적으로 작용[2].
+- [적극적 마케팅 및 글로벌 사업 확대]: 헬스케어와 생활 구독의 마케팅 강화와 해외 총판 확대 등이 실적 레버리지 요인으로 작용[1].
+(3) 현재 헥토이노베이션이 직면한 주요 3가지 이슈
+1. [IT보안 서비스 시장 경쟁 심화]  
+   신규 IT보안 및 인증 시장으로 빅테크·통신사 직접 진출 등 경쟁이 급격히 심화되고 있습니다. 서비스 차별화와 가격경쟁력, 새로운 솔루션 고도화에 대한 투자 부담이 높아지고 있다는 점이 과제입니다[1].
+2. [신규 서비스/해외 진출의 성공 가능성 및 변동성]  
+   발로소득, 아파트청약케어, 전기차 중개 등 신규 서비스의 빠른 수익화가 쉽지 않을 수 있으며, 헥토헬스케어의 중국 진출 등 해외사업도 시장·규제리스크가 내재합니다. 기대치 대비 성장세가 둔화될 경우, 영업레버리지 약화와 실적 변동성이 발생할 수 있습니다[2].
+3. [주가 저평가 논란과 비즈니스 모델의 해석]  
+   뛰어난 실적(매출, 이익)에도 불구하고, 시장에서는 사업모델의 명확성·수익구조의 지속성에 대한 의구심이 반영되고 있습니다. 과거 잦은 신사업 진출과 높은 변동성, 미흡한 IR(투자자 소통) 등으로 “불명확한 비즈니스 모델” 지적이 이어져 주가가 실적 대비 할인되고 있는 측면이 있습니다[1]. 하지만 플랫폼 기반 반복매출 체계, 자회사 성장 동력, 구독경제 접목 등은 구조적 강점으로 해석되고 있어 향후 개선 여부가 핵심 변수로 꼽힙니다[1][2][4].
+※ 요약  
+헥토이노베이션은 IT보안과 구독형 생활 서비스, 핀테크·헬스케어 자회사 성장이 동반되는 B2C/B2B 플랫폼 기업으로, 최근 실적 고성장의 핵심 배경은 보안사업 견조, 자회사 수출·신규 구독 서비스 성공, 마케팅 확장 등이 복합적으로 작용하고 있습니다. 다만, 보안 경쟁 심화 및 신사업 리스크, 시장 내 사업모델 해석 논란 등이 여전히 투자 주요 이슈로 남아 있습니다.
+https://contents.premium.naver.com/sejongdata/sejongdata0304/contents/250627084256996ni
+https://ssl.pstatic.net/imgstock/upload/research/company/1694128031373.pdf
+https://hecto.co.kr/news
+https://kr.investing.com/equities/minwise-co-ltd-consensus-estimates
+https://static.roa.ai/research/company/20250707_company_881030000.pdf</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1053,7 +1057,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1070,34 +1074,35 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(1) KSS해운의 핵심 사업  
-KSS해운(044450)은 **가스선(주로 LPG 및 암모니아)과 케미칼선을 운항**하는 해운사입니다[1][3].  
-- 주요 사업은 **대형 가스운반선(VLGC)**을 통한 LPG와 암모니아 등의 가스화물 운송이며, 가스선 22척과 케미칼선 11척을 보유 및 운항 중입니다[1].
-- 화주(화물주)로는 E1, 한화솔루션, SK가스, 쉘(SHELL), 미쓰비시 등 국내외 주요 석유화학 기업을 확보하고 있습니다. 케미칼선은 GS칼텍스, SK엔무브, S-OIL, BASF 등 다양한 글로벌 및 국내 업체와 거래하고 있습니다[1].
-- 2023년 1분기 연결 기준 사업 부문별 매출 비중은 **가스선 89.7%**, **케미칼선 10.3%**, 지역별로는 아랍에미리트 37.1%, 일본 19.3%, 국내 18.3% 등입니다[1].
-- 또한, 친환경 선박 개조(탈황장치, 선박평형수처리장치 등) 기술도 확보하고 있습니다[4].
-(2) 최근 분기 실적이 강한 이유  
-KSS해운은 최근 **연이은 대규모 운송계약 체결과 시장 환경 호조**로 강한 실적을 보이고 있습니다.
-- 2024년 1월, **441억 원 규모의 장기 용선(운송) 계약**을 HD현대오일뱅크 싱가포르 자회사와 체결해 향후 4년간 안정적 매출 기반을 확보했습니다[2].
-- 2023년 말에는 **SK가스와 615억 원 규모의 LPG 장기 운송계약**도 체결하여, 매출의 약 13.8%에 해당하는 추가 사업을 확보했습니다[2].
-- **신조 VLGC 2척 등 신형 선박 도입**으로 운송 효율 및 경쟁력을 높였습니다. 이는 비용 절감 및 친환경 규제 대응에 유리하게 작용했습니다[1].
-- 아울러, 글로벌 LPG·암모니아 해상운송 수요 확대와 운임 시황 강세가 실적을 견인한 것으로 분석됩니다[1].
-(3) 현재 KSS해운이 직면한 주요 3가지 이슈  
-1. **친환경 규제 대응과 ESG 경영 강화**  
-   - 국제해사기구(IMO) 등 글로벌 환경규제 강화로 인해, 선박의 배기가스 저감장치(EGCS) 및 친환경 연료/기술 도입이 급속히 요구되고 있습니다[4].
-   - KSS해운은 친환경 선박 개조와 신규 친환경선 도입 등 ESG경영을 강화 중이나, 향후 대규모 설비투자 부담과 기술적 리스크 관리가 과제입니다.
-2. **장기계약 포트폴리오와 시황 변동 위험**  
-   - 최근 잇따른 대형 장기운송계약 체결로 매출 안정성이 강화되었으나, 전체 매출의 80% 이상이 소수 대형 화주에 집중되어 있어 화주 다변화와 시황 급변에 대한 위험 관리가 요구됩니다[1].
-   - 해상운임의 변동성이 크고, 주요 계약 만료 시 실적이 영향을 받을 수 있습니다.
-3. **신조선 투자 부담 및 선령(선박 노후화) 관리**  
-   - 친환경 신조선 도입을 위해 상당한 자본 투자가 필요하며, 기존 노후 선박 교체 및 유지보수 비용도 지속적으로 발생합니다[1].  
-   - 신조선 도입 시 선박 인도 지연, 건조비용 상승, 시장 환경 변화에 따른 투자 회수 불확실성도 주요 리스크입니다.
-이상에서 보듯, KSS해운은 특수화물 운송에 집중된 강점을 바탕으로 실적 호조를 이어가고 있으나, 친환경 규제와 투자 부담, 고화주 의존 구조 및 운임 변동성, 그리고 신조선 투자에 따른 다양한 리스크와 과제를 동시에 안고 있습니다.
+          <t>(1) KSS해운의 핵심 사업
+KSS해운(044450)은 [액화석유가스(LPG)], [암모니아 등 특수 가스화물]을 운송하는 [대형 가스선(VLGC)과 케미칼선을 보유·운항하는 전문 해운사]입니다[1][2][3].  
+- 2025년 기준, [가스선 22척, 케미칼선 11척] 등 총 33척의 선박을 보유 및 운항하고 있습니다[1].
+- [가스선 사업]은 주로 LPG 및 암모니아를 대규모로 운송하는 것으로, E1, 한화솔루션, SK가스, SHELL, BW LPG POOL, 미쓰비시 등 국내외 대형 석유화학·정유 기업들을 주요 고객으로 확보하고 있습니다[1].
+- [케미칼선 사업]은 GS칼텍스, S-OIL, BASF 등과 협력하며 석유화학 제품 다수를 운송합니다[1].
+- [사업 구조상 가스선 부문 매출 비중이 90% 내외]로 절대적이며, KSS해운은 국내에서 유일하게 대형 암모니아 운송능력을 갖춘 해운사로 평가받고 있습니다[3].
+- 선박 연료 절감, 탈황장치, 친환경 설비 도입 등 최신 환경규제 대응을 위한 선박 투자 및 관리에 적극적입니다.
+(2) 최근 분기 실적이 강한 이유
+KSS해운은 [2025년 1분기 매출액 22.1% 증가, 영업이익 42.1% 증가] 등 역대급 실적 흐름을 이어가고 있습니다[4]. 그 배경은 다음과 같습니다.
+- [84,000CBM급 VLGC(신조 가스선) 선박의 도입 및 주요 고객과의 장기 대형 계약 갱신]이 핵심 동력입니다[4].
+- [LPG 및 암모니아 해상운송 시장의 글로벌 운임 시황 강세]: 2024~2025년에도 가스선 운임이 견조하게 유지되면서, 벌크 운임과 연동된 시장 변동성의 영향을 상대적으로 덜 받고 있습니다[3][4].
+- [암모니아 운송 시장 개화]: 수소·암모니아 등 신재생에너지 관련 산업 성장에 따라 글로벌 대형 석유화학 기업들의 장기 계약 수주가 확대되었고, KSS해운이 국내 유일 암모니아 운송사로서 수혜를 크게 받고 있습니다[3].
+- [선박 대형화와 연료비 절감]: 최신 선박 투입으로 연간 연료비 대폭 절감과 원가 경쟁력을 확보한 것도 실적 개선의 주된 원인입니다[1].
+(3) 현재 KSS해운이 직면한 주요 3가지 이슈
+1. [친환경 규제 압력 및 ESG 투자 부담]
+   - IMO(국제해사기구) 환경규제(탄소배출 감축, 친환경연료 전환 등)가 강화됨에 따라, KSS해운은 선박의 친환경 개조·신조 투자에 계속 큰 비용을 투입해야 합니다.
+   - 탄소중립(탄소세) 부담, 신기술 도입 리스크와 투자 회수 기간 장기화가 동시에 우려됩니다[1][4].
+2. [화주(고객) 집중 구조에 따른 리스크]
+   - 전체 매출 대부분이 소수 대형 화주(주로 국내외 석유화학 기업)에 집중되어 있습니다. 대형 장기계약 수주와 포트폴리오 회전은 강점이나, 화주 이탈 또는 주요 계약 만료 시 실적 충격 위험이 존재합니다[1][3].
+   - 신시장 진출 및 화주 다변화 노력이 병행되어야 중장기 안정성 확보가 가능합니다.
+3. [신조선 도입·선박 노후화 관리와 글로벌 공급 변화]
+   - 친환경 신조선 추가 도입에 대한 대규모 자본 투자가 불가피하며, 기존 노후 선박 교체, 인도 지연, 건조비 상승 리스크도 상존합니다[1][4].
+   - 최근 중동정세 변화, 글로벌 해운 공급사 신조선 대량 발주, 국제 원자재 가격 변동 등이 운임시장 변동성을 높이는 상황에서, 선제적 자산 관리가 필수적입니다.
+이상에서 KSS해운은 LPG·암모니아 운송 특화와 장기계약 기반 실적 호조가 뚜렷하나, 친환경 규제 부담, 소수 화주 의존, 신조선 투자 및 글로벌 해운환경 변화에 따른 복합 리스크를 동시에 관리해야 하는 국면에 있습니다.
 https://ssl.pstatic.net/imgstock/upload/research/company/1689635114571.pdf
-https://securities.miraeasset.com/bbs/download/2124025.pdf?attachmentId=2124025
-https://deepsearch.com/analytics/company-analysis/KRX:044450
-https://m.finance.daum.net/quotes/A044450/news/stock/20240905060158666
-http://snusmic.com/wp-content/uploads/2020/11/141018_KSS%ED%95%B4%EC%9A%B4_5%ED%8C%80.pdf</t>
+https://www.deepsearch.com/analytics/company-analysis/KRX:044450?c-name=KSS%25ED%2595%25B4%25EC%259A%25B4&amp;c-symbol=KRX%253A044450
+https://stock.pstatic.net/stock-research/company/21/20240829_company_30190000.pdf
+https://comp.wisereport.co.kr/company/c1010001.aspx?cn=&amp;cmp_cd=044450
+https://alphasquare.co.kr/home/stock-summary?code=044450</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1112,7 +1117,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1129,26 +1134,30 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>티앤엘(340570)은 **상처치료제 및 의료기기** 제조를 주력으로 하는 코스닥 상장 기업입니다. 최근 강한 실적 성장을 보였으나, 시장 변화와 신사업 추진 등 현실적으로 직면한 주요 이슈도 존재합니다.
+          <t>티앤엘(340570)은 [창상피복재(상처치료 의료기기) 제조 및 수출]을 핵심 사업으로 하는 코스닥 상장사입니다. 최근 분기에는 사상 최대 실적을 기록했으나, 단기 수출 변동성, 글로벌 관세 리스크, 신사업 성과 등 주요 이슈에 직면해 있습니다.
 1. 티앤엘의 핵심 사업
-- **주력 사업은 창상피복재(상처치료제) 생산 및 판매**입니다. 이 중 하이드로콜로이드 소재의 창상피복재(트러블 패치 포함)가 전체 매출의 약 67%를 차지합니다. 그 외 폴리우레탄 폼, 마이크로니들 창상피복재, 정형외과용 고정재 등도 생산하지만, 전체 매출에서 차지하는 비중은 각각 10%, 9%, 6%로 상대적으로 적습니다[2][3].
-- 하이드로콜로이드 창상피복재는 단순 밴드와 달리 의료기기로 분류되며, 특히 트러블 패치(여드름 등 피부 트러블용)가 대표 제품입니다[2].
-- 기존 상처치료제 외에도 **마이크로니들, 지혈제, 의료용 대마, 케미칼** 등으로 신사업을 확장하고 있으며, *더마코스메틱* 및 의약품 시장 진출도 장기적으로 계획하고 있습니다[1][2][3].
+- [주요 사업은 하이드로콜로이드 기반 창상피복재(여드름 트러블 패치 포함) 생산과 글로벌 수출]입니다. 특히 ODM(주문자상표부착생산) 방식으로 대형 글로벌 브랜드(예: 미국 Church&amp;Dwight社 등)에 공급하는 구조가 매출의 대부분을 차지합니다[2][3].
+- 2025년 기준 매출 비중에서 [창상피복재 수출이 약 80% 이상]을 차지하며, 브랜드 제품군, 폴리우레탄폼 및 마이크로니들 창상피복재 등도 포트폴리오에 일부 포함되어 있습니다[2].
+- 최근엔 [바디패치 등 신제품]도 출시하여 제품군 다변화를 시도하고 있으며, 유럽 등 신규 국가로의 진출도 본격화하고 있습니다[1][2].
 2. 최근 분기 실적 강세 배경
-- 주요 성장 요인은 **트러블 패치 등 창상피복재 부문의 매출 급증**입니다. 2023년 매출액 1,085억 원(+33% YoY), 영업이익 335억 원(+37.9% YoY)로 크게 증가했습니다[1][2].
-- **적극적인 해외 시장 진출**과 온·오프라인 유통 채널 확대가 매출 성장에 직접적으로 기여했습니다[1].
-- 하이드로콜로이드 등 **고기능성 소재의 원천 배합 및 생산 경쟁력 강화**가 시장 점유율 향상으로 연결되었습니다[2].
-- *마이크로니들 등 신제품* 매출도 가시적으로 나타나면서 성장성에 긍정적인 영향을 주고 있습니다[2].
-3. 현재 티앤엘의 3대 핵심 이슈
-- **글로벌 경쟁 격화와 원가 부담:** 트러블 패치와 상처치료제는 중국 및 글로벌 경쟁사의 진입이 점진적으로 확대되고 있습니다. 이에 따라 가격 경쟁 심화와 수익성 관리가 핵심 과제로 부상했습니다. 원재료가(특히 하이드로콜로이드 등 소재) 변동성도 부담 요인입니다[2].
-- **신사업 추진의 불확실성:** 마이크로니들, 의료용 대마, 더마코스메틱 등 신사업 확장이 진행 중이지만, 이들 사업의 수익성 확보 및 시장 안착이 불확실합니다. 특히 대마 등 규제 및 진입장벽이 높은 시장 진출에는 시간이 필요합니다[2].
-- **해외진출 확대에 따른 리스크:** 매출 내 해외 비중이 급격히 상승하고 있으며, 미국·유럽 등 신규 시장에서 현지 인증·유통·마케팅 비용 증가, 또는 납품처 다변화가 필요합니다. 해외 정책 변화나 환율, 통상 이슈 대응도 중요한 리스크입니다[1][2].
-이처럼 티앤엘은 **고기능성 상처 치료제 중심의 확실한 경쟁력**을 기반으로 최근 강한 성장세를 이어가고 있지만, 글로벌 경쟁 심화와 신사업 확보의 불확실성, 해외 진출 리스크 등 현실적인 과제를 동시에 안고 있습니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1696978880412.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1712792418373.pdf
-https://w4.kirs.or.kr/download/research/250304_%ED%8B%B0%EC%95%A4%EC%97%98(%EB%9D%BC%EC%9D%B4%EC%A7%95)_%EC%B5%9C%EC%A2%85.pdf
-https://m.thinkpool.com/compDiscuss/cont/1018219
-https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A340570</t>
+- 2025년 1분기 매출액 [513억 원(YoY +106.7%)], 영업이익 [202억 원(YoY +179.6%)]으로, 역사상 최대 실적을 기록했습니다[2]. 이는 시장 예상치를 크게 상회하는 결과였습니다.
+- [주요 성장 원인은 미국 트러블 패치 시장 점유율 확대]입니다. 대표 수출 품목의 미국 내 점유율이 지속 상승하며, 2024년 기준 9%, 여드름 케어 카테고리 내 시장점유율은 22%까지 올라갔습니다[1].
+- 미국 Church &amp; Dwight(‘Hero’ 브랜드) 외에도, 글로벌 진출 국가가 2023년 12개국→2025년 50개국 이상으로 확대되며 [해외 ODM 공급 및 신규 거래처 증가]가 외형 성장을 견인했습니다[1][2].
+- *환율 및 관세 영향*을 우려한 대미 수출 선출하 효과로 1분기 실적이 평소 대비 과도하게 증가한 측면도 있었습니다[3].
+3. 티앤엘의 주요 이슈 3가지
+- [미국 관세 리스크 및 단기 수출 변동성 확대]
+  - 2025년 상반기 미국에서 티앤엘 패치 제품에 대한 [관세 부과 가능성]이 대두되면서, 2분기부터 미국향 창상피복재(하이드로콜로이드) 수출 및 공급가 하락이 나타날 것으로 전망되고 있습니다. 실제로 2분기에는 매출과 영업이익이 모두 전년 동기 대비 감소세로 돌아섰고, 3분기 전망치도 하향 조정되었습니다[3][4].
+  - 미국 거래사의 발주 시점 조정 및 공급 단가 인하 등이 단기 실적에 부담 요인으로 작용할 수 있습니다.
+- [유럽 등 해외 시장 확대에 따른 투자‧운영 리스크]
+  - 미국 외 유럽, 기타 국가로 ODM 공급처가 확대되며 *현지 인증, 물류, 유통 비용* 증가 및 초도 마케팅 비용 등 단기적 부담이 커지고 있습니다. 초기 진입 국가별 수익성 확보 여부가 향후 성장을 좌우할 전망입니다[2].
+- [신제품‧신사업의 제한적 기여와 연구개발 투자]
+  - 폴리우레탄폼, 바디패치, 마이크로니들 등 신사업 분야의 매출 기여율은 아직 크지 않으며, 연구개발 및 생산설비 투자 부담이 지속되고 있습니다. 특히, 신사업의 시장 안착과 수익성 확보까지는 추가 시간이 필요하다는 평가가 지배적입니다[2][3].
+요약하면, 티앤엘은 [창상피복재 ODM 수출 시장 점유율 확대]로 최근 실적상승세를 이어가고 있으나, [관세 부과 등 대외 변수에 의한 단기 실적 변동성, 글로벌 진출에伴한 투자 리스크, 신사업 성장 지연] 등 3대 과제를 안고 있습니다. 이들 이슈의 해소와 신성장 동력 확보가 중장기 기업가치의 핵심 변수입니다.
+https://file.alphasquare.co.kr/media/pdfs/company-report/_250210_%EC%98%A8%EB%9D%BC%EC%9D%B8_%ED%8B%B0%EC%95%A4%EC%97%98_%EC%A1%B0%EC%9D%80%EC%95%A0_220_Online%20report%20_%206_10p_%ED%8B%B0%EC%95%A4%EC%97%98.pdf
+https://www.newspim.com/news/view/20250519000128
+https://buffettlab.co.kr/news/view.php?idx=50694
+https://contents.premium.naver.com/ystreet/irnote/contents/250718153809409jl
+https://w4.kirs.or.kr/download/research/250304_%ED%8B%B0%EC%95%A4%EC%97%98(%EB%9D%BC%EC%9D%B4%EC%A7%95)_%EC%B5%9C%EC%A2%85.pdf</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1163,7 +1172,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1181,32 +1190,33 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>1. 회사의 핵심 사업
-슈프리마(236200)는 **지문 및 얼굴 인식 등 바이오인식 기술**을 기반으로 한 **AI 통합보안시스템**을 개발, 제조, 공급하는 기업입니다[1][3]. 주요 사업은 아래와 같이 나뉩니다.
-- **통합보안시스템**(매출 비중 77%): 바이오인식(지문, 얼굴 등)을 적용한 출입통제, 근태관리, 방문객 관리 등 물리적·전자적 보안 플랫폼과 하드웨어/소프트웨어를 모두 아우릅니다[1][2].
-- **바이오인식솔루션**(11%): 금융, 공공 등 다양한 분야에 적용 가능한 바이오인식 모듈과 알고리즘을 제공합니다.
-- **기타 사업**(12%): 관련 하드웨어, 서비스가 포함됩니다.
-주요 매출처는 국내보다 **중동, 인도, 북미 등 해외 시장**에서 높은 비중을 차지합니다[1]. 슈프리마는 출입통제 시장에서 글로벌 상위권 점유율을 기록하며, 기술력과 현지화 전략으로 경쟁력을 확보하고 있습니다.
-2. 최근 분기 실적 호조의 구체적 원인
-슈프리마는 **2024년 매출 1,082억 원(전년 대비 14.4%↑), 영업이익 232억 9,000만 원(전년 대비 39.8%↑)**을 기록하며 수익성과 성장성이 크게 개선됐습니다[1][4]. 최근 분기(2025년 1분기)에도 매출 288억 원, 영업이익 56.9억 원으로 각각 40.7%, 156.5%의 고성장세를 보였습니다[4].
-**호실적의 배경**은 다음과 같이 구체적으로 분석됩니다.
-- **글로벌 시장 성장**: 중동(네옴시티 등 대규모 프로젝트), 인도(정부·지자체 인프라 투자), 북미(SI 프로젝트 매출 증가) 등에서 신규 수주와 프로젝트 매출이 급증하였습니다[1].
-- **미국 및 기타 해외 건설 수요 증가**: 미국 내 제조업 공장 신설 확대가 보안 시스템 수요로 직결됐습니다[1].
-- **제품 포트폴리오 확대**: 다양한 산업 맞춤 솔루션 및 지속적 기능 업데이트로 시장 요구를 빠르게 반영하였고, 단가가 높은 AI 기반 시스템 비중이 확대되었습니다.
-- **고마진 사업비중 확대**: 통합보안시스템 중심의 제품구조가 유지되면서 이익률이 꾸준히 오르는 구조를 만들었습니다[4].
+슈프리마(236200)는 [지문·얼굴 등 바이오인식 기반의 AI 물리보안 시스템] 개발 및 공급에 특화된 기업입니다[1][2][4].  
+주요 제품군과 사업 분야는 다음과 같습니다.
+- [통합 출입통제·근태관리 시스템]: 자체 개발한 바이오인식 디바이스(지문·얼굴 인식 터미널, 카드 리더기 등)와 이를 연동하는 소프트웨어 플랫폼. 기업·공공·교육·금융 등 다양한 산업에 공급합니다[1][4].
+- [바이오인식 모듈 및 알고리즘]: 금융기관, 해외 현지 SI 등에서 사용하는 모듈/SDK 공급.
+- [AI 기반 VMS(영상관제시스템) 및 연계 솔루션]: 최근 고도화된 AI 영상·출입통제 통합시스템 및 신규 솔루션 개발을 강화하고 있습니다[2].
+- 주요 매출처는 *국내보다 중동, 인도, 북미 등 해외 비중*이 크며, 글로벌 건설·인프라 프로젝트 및 현지 정부 사업에서 성장세가 두드러집니다[1][4].
+2. 최근 분기(2025년 상반기) 실적 호조의 구체적 원인
+2025년 1분기 매출액 288억 원(전년 동기 대비 +40.7%), 영업이익 56.9억 원(+156.5%)으로 발표하며 최근 몇 개 분기 연속 고성장세를 이어가고 있습니다[4].
+구체적인 원인은 다음과 같습니다.
+- [중동·인도·북미 대형 프로젝트 수주 및 매출 본격화]: 네옴시티 등 중동 초대형 인프라 프로젝트, 인도 정부 및 민간시설 확대, 북미 제조업 공장 신축 수요가 매출 확대를 견인했습니다[4].
+- [AI·VMS 신사업의 기여 확대]: 기존 출입통제 외 AI 기반 영상관제, 솔루션 연계 제품 비중이 급격히 늘었습니다. 이 분야는 단가와 수익률이 높아 영업이익률 개선에 핵심적으로 작용했습니다[2][4].
+- [제품 포트폴리오의 고도화]: AI 연동, 멀티바이오(지문+얼굴 등) 기능 추가, SI 맞춤형 커스터마이즈로 산업별 다양한 수요에 선제 대응한 점도 주효했습니다[2].
+- [공급망 안정성과 전략적 원가 관리]: 반도체 등 부품 수급이 안정화되면서 원가율 관리에 성공, 수익성 개선이 동반됐습니다[1][2].
 3. 현재 직면한 주요 이슈 3가지
-아래는 슈프리마가 올해 집중적으로 마주하는 구체적 핵심 이슈입니다.
-- **① 글로벌 수주 및 대규모 프로젝트의 변동성**  
-주력 시장인 중동, 인도, 북미 등 해외 프로젝트 의존도가 높아 각국의 투자 일정·정책 변화에 실적 변동성이 발생할 수 있습니다. 네옴시티 등 초대형 프로젝트의 매출 인식 지연이나 규모 변경에 따른 실적 리스크가 상존합니다[1][4].
-- **② 기술경쟁 심화 및 가격경쟁 압력**  
-세계적으로 바이오인식 기술 관련 시장 진입 장벽이 낮아지고, 선진국·후발주자 모두 기술 고도화 및 저가 공세를 펼치고 있습니다. 슈프리마는 신기술(예: AI 영상인식, 블록체인 기반 보안 등) 대응과 연구개발 지속 투자가 필수적입니다.
-- **③ 원가 상승 및 공급망 불확실성**  
-2025년 들어 부품, 반도체, 모듈 등 원재료 가격 상승과 글로벌 공급망 이슈가 지속될 경우, 제품 원가 부담이 늘어날 수 있습니다. 생산거점 다변화와 재고조정 등 선제적 관리가 필요하나, 단기적 비용 증가 요인으로 지목됩니다.
-**결론적으로, 슈프리마는 바이오인식 기반 통합보안솔루션의 해외성장과 제품 고도화를 바탕으로 견조한 실적을 내고 있으나, 대형 해외 프로젝트의 실적불확실성, 기술경쟁 심화, 원가·공급망 부담 등을 전략적으로 관리해야 하는 국면에 있습니다.**
-https://www.incheonilbo.com/news/articleView.html?idxno=1282103
-https://stock.pstatic.net/stock-research/company/18/20250408_company_804096000.pdf
-https://stock.pstatic.net/stock-research/company/74/20241028_company_625008000.pdf
+최신 리포트와 시장 동향을 바탕으로 슈프리마가 2025년 하반기 주목하는 대표적 이슈는 다음과 같습니다.
+- [1. 프로젝트 매출 인식의 변동성 및 리스크]
+  대형 해외 프로젝트(특히 중동 네옴시티, 인도 인프라 등)는 발주 일정·정책 변화에 따라 매출 인식 지연 또는 규모 변경이 발생할 수 있습니다. 2025년 들어 일부 프로젝트에서 세부 조정이 발생하며 실적의 분기별 변동성이 부각되고 있습니다[4].
+- [2. AI 보안기술 경쟁 심화 및 R&amp;D 투자 압박]
+  AI 기반 바이오인식, 영상보안 분야의 진입장벽이 낮아지면서 중국·유럽 신생업체, 글로벌 경쟁사와의 기술경쟁이 격화되고 있습니다. AI, 영상인식, 보안 알고리즘 고도화와 동시에, 신뢰성·보안성 인증 및 커스터마이즈 역량 유지에 대규모 R&amp;D 투자가 불가피합니다[2][4].
+- [3. 원가상승과 공급망 불확실성]
+  분기별로 부품(반도체, 카메라 등) 단가 상승, 운임비 인상 등 공급망 리스크가 재차 부각되고 있습니다. 최근 중국발 IT부품 수급 변동, 환율 변동성 등도 이익률 하락요인이 될 수 있음이 현장 리포트에서 수차례 언급되고 있습니다[1][2][4].
+이상의 요인에 따라 슈프리마는 기존 고성장을 유지하기 위해 [해외 대형 프로젝트 안정화, AI 신기술 경쟁력 강화, 원가·공급망 리스크 분산 전략]을 적극적으로 병행 추진하는 상황입니다.
 https://file.myasset.com/sitemanager/upload/2025/0509/174827/20250509174827430_0_ko.pdf
-https://w4.kirs.or.kr/download/theme/%EC%A2%85%EB%AA%A9_%ED%95%98%EB%93%9C%EC%9B%A8%EC%96%B4.IT%EC%9E%A5%EB%B9%84_%EC%8A%88%ED%94%84%EB%A6%AC%EB%A7%88(236200)_%EC%83%9D%EC%B2%B4%EC%9D%B8%EC%8B%9D%20%EC%A0%84%EB%AC%B8%EA%B8%B0%EC%97%85_%EB%82%98%EC%9D%B4%EC%8A%A4%EB%94%94%EC%95%A4%EB%B9%84.pdf</t>
+https://bbn.kiwoom.com/rfCR11275
+https://kr.investing.com/equities/suprema-inc-earnings
+https://stock.pstatic.net/stock-research/company/74/20250716_company_975307000.pdf
+https://www.butler.works/ko/companies/01124653</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1221,7 +1231,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1239,25 +1249,29 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>1. 핵심 사업 내용  
-한국가구(004590)의 **주요 사업**은 다양한 **가정용 가구**(침실, 거실, 다이닝룸, 서재 가구 등) 및 **사무용 가구**, **특수 목적 맞춤형 가구**의 제조와 유통이다[1][2][3][4][5]. 제품군에는 소파, 침대, 책상, 의자, 식탁 등 집과 사무 공간에 필요한 전 라인업이 포함된다. 이외에도 **이탈리아·프랑스 등 해외 명품 가구 브랜드**(예: Roche Bobois, Kartell 등)의 고가 제품을 수입·판매하고 있다[2].  
-한국가구는 자회사(예: 제원인터내쇼날 등)를 통해 **식품(초콜릿, 설탕, 유제품 등) 도매 및 유통 사업**도 겸하고 있으며, 부동산 임대업에도 일부 진출해 다양한 사업 기반을 구축하고 있다[1][2][3].
+한국가구(004590)는 [가정 및 사무용 가구](침대, 소파, 책상, 의자, 식탁 등)의 [제조 및 유통]이 주력 사업이다. 자체 개발 브랜드 제품과 더불어 [해외 명품 가구 브랜드](예: Roche Bobois, Kartell 등)의 수입·판매를 확대해왔으며, 고가 프리미엄 제품 위주의 마케팅에 집중하고 있다. 회사는 [자회사(제원인터내쇼날 등)]를 통해 [식품(초콜릿, 유제품 등) 도매 및 유통], [부동산 임대]와 같은 비가구 부문에서도 매출 기반을 다져왔다[1][2][3]. 주요 매출은 가구 판매에서 발생하나, 최근 비가구 사업의 비중 증가도 눈에 띈다.
 2. 최근 분기 실적 강세의 배경  
-최근 몇 분기 동안 한국가구는 **주가와 실적 모두 강세**를 보였다. 주요 원인으로는 다음 세 가지가 거론된다.
-- **외국인 투자자 순매수 증가**: 최근 3일간 외국인이 대량 순매수하였고, 한 달 기준 순매수 규모가 8.5만주에 달한다[3]. 기관 역시 순매수세로 전환했다. 이와 같은 수급 변화는 시장 내 신뢰감 및 주가 상승을 견인하는 핵심적 요인이다.
-- **명품 가구 수요 증가**: 프리미엄 가구 수입 브랜드 판매 전략이 부유층과 중고가 시장에서 좋은 반응을 얻으면서, 기존 가정용 가구와 차별화된 이익률 구조가 호실적에 기여했다[2]. 경기 방어적 성격을 띤 명품·수입 가구 부문의 성장세가 전사 매출을 견인했다.
-- **사업 다각화**: 식품 도매 등 비가구 부문의 안정적인 캐시플로우 확보 및 부동산 임대 수익 등은 경기 변동기 시장 안정망으로 작용하며 분기별 실적의 변동성을 낮췄다[1][3].
+2025년 1분기 한국가구는 [매출 347억 원, 영업이익 58억 원, 순이익 46억 원을 기록], 전년 동기 대비 각각 28%, 127%, 112% 증가하는 실적 개선을 달성했다[1][2][3][4]. 구체적 배경은 다음과 같다.
+- [프리미엄 가구 수요와 수입 브랜드 효과]  
+  경기 방어적 성격의 명품 가구 및 고가 수입 가구 브랜드 라인업 강화가 중산층·고소득층 고객 확대와 높은 수익성을 이끌었다. 수입 가구 유통마진이 국산 대비 높아 전체 영업이익률이 개선되었다[1][2].
+- [외국인·기관 순매수 등 투자 심리 회복]  
+  최근 기간 동안 외국인 투자자의 대량 순매수, 기관 자금 유입 등 수급 개선으로 시장 내 신뢰도가 상승했고, 이에 따라 주가 또한 강한 회복세를 보였다. 이로 인해 배당수익률(3.5% 내외)과 저PBR, 저PER 매력도 부각되었다[1][2][3].
+- [비가구 사업부문의 안정적 수익]  
+  식품 도매 및 유통, 부동산 임대 등 비핵심 사업부가 안정적인 캐시플로우를 제공, 본업(가구) 부문 매출 변동성에 대한 내부 방어 역할을 했다. 이는 중소기업 특유의 분기 변동성을 완화하는 데 주효했다[1][2].
 3. 현재 직면한 3대 주요 이슈  
-한국가구가 앞으로 해결해야 할 **핵심 이슈 3가지**는 다음과 같다.
-- **내수 가구 시장 성장 한계**: 국내 가구 시장은 인구구조 변화(고령화, 1인 가구 증가 등)와 신규주택 공급 축소로 인해 전반적인 성장 정체 기조를 보인다. 이로 인해 기존 가정용·사무용 가구 부문에서 매출 성장이 둔화될 우려가 크다[5].
-- **수입 가구 경쟁 심화 및 환율 리스크**: 글로벌 명품 가구 브랜드의 국내 진입이 늘면서 수입·유통 부문에서 경쟁이 격화되고 있다. 또한, 환율 변동성이 높아질 경우 원가 부담이 급증할 수 있어 수익성 저하 요인으로 작용한다[2].
-- **비핵심 사업(식품 유통 등) 관리 및 전략 재정립 필요**: 식품 유통과 임대업 등 부가 사업의 관리 효율성과 시너지 강화가 필요하다. 해당 부문에서의 성장성과 본업(가구)과의 연계성, 장기적 경쟁력 확보 전략 등이 현재 미흡하다고 평가받는다[1][3].
-이 외에도 전반적인 경기 침체, 원자재 가격 상승, 유통채널 변화(오프라인→온라인 가속) 등에 대응하기 위한 구조 개선도 기업의 중장기 과제로 꼽힌다.
-※ 위 내용은 상장사 공시, 주요 경제신문, 증권 전문 매체 등의 최근(2024~2025년 프로필 기준) 정보를 통합·분석하여 작성되었습니다.
-https://kr.investing.com/equities/korea-furniture
-https://stock.mk.co.kr/news/view/656568
-https://alphasquare.co.kr/home/stock-summary?code=004590
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240314000941&amp;docno=&amp;viewerhost=
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20140306000772&amp;rcpno=20140306000452&amp;orgid=F&amp;tran=Y</t>
+업데이트된 환경과 최근 동향을 반영하면, 한국가구의 당면 과제는 다음과 같다.
+- [국내 가구 시장의 성장 한계]  
+  2025년 상반기 기준, 국내 신규주택 분양 둔화 및 1~2인 가구 위주 시장 재편이 심화됨에 따라, 일반 가정용 및 사무용 가구의 내수 성장 둔화가 뚜렷하다. 이로 인해 기존 주력 사업의 체질 전환 및 신시장(예: 렌탈, 커머셜 공간 등) 개척이 절실하다[2][4].
+- [수입 가구 시장 경쟁 및 환율 리스크]  
+  글로벌 명품·생활 가구 브랜드 국내 진입 확대와 엔화·유로 환율 변동성이 심화되고 있다. 이는 수입·유통 부문의 원가상승(해외 브랜드 제품 조달비 증가)과 저가 경쟁 압박을 동시에 유발한다. 실제로 2025년 1분기 원달러 환율이 급등하면서 수익성 관리에 부담이 증대되는 모습이다[2][4].
+- [비가구 사업의 전략적 관리 필요성]  
+  최근 몇 분기 비가구(식품 도매 등) 부문 매출 비중이 15% 이상으로 확대되었으나, 이익률 변동성과 주력 사업과의 연계 부족이 도마 위에 오르고 있다. 과도한 사업 다각화로 장기 성장동력이 분산될 우려가 제기되고 있어, 비핵심 부문의 성장성 점검과 시너지 전략이 관건이다[1][2].
+그 외에도 온라인 직판 강화, 친환경·스마트 가구 트렌드 대응, 인건비·원자재비 인상 등 변화도 중장기 리스크 및 기회요인으로 인식되고 있다[1][2][4].
+https://www.butler.works/ko/companies/00156442
+https://antwinner.com/stocks_analysis/%ED%95%9C%EA%B5%AD%EA%B0%80%EA%B5%AC?option=name
+https://www.google.com/finance/quote/004590:KOSDAQ?hl=ko
+https://kr.investing.com/equities/korea-furniture-earnings
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A004590</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1272,7 +1286,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1343,30 +1357,32 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>에스에이엠티(031330)는 한국 코스닥 시장에 상장된 IT 부품 유통 및 기술마케팅 전문 기업입니다. 아래에서 회사의 핵심 사업, 최근 실적 호조의 구체적 배경, 그리고 현재 직면한 3대 주요 이슈를 상세히 설명합니다.
+          <t>에스에이엠티(031330)는 IT 부품 유통 및 기술 마케팅 전문 기업으로, 반도체와 디스플레이 등 정보기술 전자부품 공급망에서 핵심적인 역할을 수행하고 있습니다. 아래에 회사의 핵심사업, 최근 실적 호조의 구체적 원인, 그리고 현재 직면한 3대 주요 이슈를 최신 정보 기준으로 상세히 설명합니다.
 (1) 회사의 핵심 사업  
-에스에이엠티의 주요 사업은 **반도체, CPU, 메모리, LCD 패널 등 IT 관련 전자부품의 유통**과 이에 수반하는 **기술 마케팅 서비스**입니다.  
-- 삼성전자, 삼성전기, 삼성SDI, 삼성디스플레이, DELL 등 국내외 대형 IT 기업들과 대리점 계약을 맺고, 스마트폰, 태블릿, 디지털카메라 등 정보통신 기기에 사용되는 핵심 부품을 다양한 제조사에 공급합니다[1].
-- 단순 유통에 그치지 않고, 공급망 관리와 기술 컨설팅, 파트너사와 고객사 간의 맞춤형 솔루션 제공 등 **통합 기술 서비스**까지 제공하고 있습니다. 특히, 극소수 전문 기업들과만 협력관계를 맺어 고품질 부품과 서비스를 안정적으로 제공합니다[1].
-- CRM(Customer Relation Management), PRM(Partner Relationship Management) 등의 시스템 활용으로 파트너 및 고객 만족도 제고에 힘쓰고 있습니다[1].
+에스에이엠티의 주요 사업은 [메모리·비메모리 반도체, LCD 패널, 서버·스토리지·모니터 등 PC 및 디지털 모듈 제품]의 유통과 공급입니다[3].  
+- 삼성전자, 삼성디스플레이, 삼성SDI, 삼성전기 등 [국내 대형 IT 부품 제조사와의 공식 대리점 및 공급계약]을 통해 제품을 확보하고, 이를 스마트폰, 노트북, 서버, 태블릿 등의 완제품 제조사에 납품합니다[3].
+- 단순 부품 유통을 넘어, [수급 조정·재고관리 시스템, 고객사 맞춤 컨설팅, 파트너사 기술 지원 등 기술 서비스]도 제공합니다.
+- 주요 시장은 국내를 중심으로, 아메리카·중국 등 해외로도 제품 공급을 확대해왔습니다[3].
 (2) 최근 실적 호조의 구체적 배경  
-에스에이엠티는 **2025년 1분기 연결기준 매출 7,644억 원, 영업이익 195억 원, 순이익 119억 원을 거두며 전년 동기 대비 각각 +11%, -9%, -25%의 변동폭을 보였습니다.** 직전 분기 대비로는 매출 +2%, 영업이익 +20%, 순이익 +34%로 단기 실적 개선세가 뚜렷하게 나타났습니다[2].
-- **강한 1분기 실적 성장의 핵심 요인**은, 주요 파트너사(삼성그룹 IT 계열)들의 신제품 출시 주기와 맞물려 **반도체·디스플레이 등 핵심 부품의 대형 수요**가 발생했고, 이에 따라 대형 공급계약의 실적이 집중적으로 반영되었기 때문입니다.
-- 추가적으로 IT 시장의 침체기 이후 **글로벌 스마트폰, 태블릿 등 완제품 시장의 점진적 회복**, 부품 공급선 다변화, 효율적인 재고·채널 관리가 수익성 개선에 기여했습니다.
-- 동사의 효율적 원가·이익관리 구조와 배당정책도 투자 매력도(배당수익률 6.49% 등) 상승에 작용했습니다[2].
+2025년 1분기 기준, 에스에이엠티는 매출액 7,644억 원, 영업이익 195억 원, 순이익 119억 원을 기록해 전년동기 대비 매출은 약 11% 증가, 영업이익·순이익은 소폭 감소했으나 직전 분기보다는 크게 개선된 실적을 보였습니다[4].  
+- [주요 원인]은 삼성전자 등 주요 파트너사들의 스마트폰·노트북·가전 신제품 집중 출시시기에 맞춰 [반도체·디스플레이 등 핵심 부품 발주가 대량으로 발생]한 점, 대형 프로젝트 및 수주계약 매출 인식이 반영된 점입니다.
+- 글로벌 IT업계가 2024년 하반기부터 재고조정이 마무리되고, 스마트폰·PC 등 완제품 시장이 회복함에 따라 [부품 수요와 공급 단가가 동반 상승]한 것이 실적 개선을 견인한 요인 중 하나입니다.
+- 에스에이엠티는 [효율적인 원가·재고관리, 매입채널 다변화] 전략을 수행하여 수익성 방어에도 성공하였습니다[2].
+- 다만, 2025년 2분기 들어 외국인 투자자 매도세가 지속되고 있으나, 회사의 실적 및 펀더멘털에 대한 시장 평가는 여전히 우호적입니다. 현재 주가는 3,115원 전후에서 거래되고 있습니다[2].
 (3) 현재 직면한 3대 주요 이슈  
-1. **시장의 변동성 및 수요 불균형 위험**  
-   - IT 시장 전반의 경기 변동, 특히 스마트폰·가전·자동차향 반도체 및 디스플레이 부문의 **수요 급감 혹은 공급 과잉 위험**이 상존합니다. 이는 동사의 주요 거래처 발주량 변동으로 직접 연결됩니다.
-2. **고객사 집중도에 따른 리스크**  
-   - 삼성전자 등 소수 대기업 비중이 매출의 상당 부분을 차지하고 있어, 이들 주요 거래처의 발주 축소 또는 정책 변화시 **대규모 실적 변동** 가능성이 있습니다.
-3. **산업 내 경쟁 심화 및 공급선 다변화 압력**  
-   - 국내외 IT 부품유통 경쟁사들이 적극적으로 진입하고 있으며, 글로벌 완성품 업체들의 부품 직구입, 공급선 다변화 압력이 강화되고 있습니다. 이에 따라 **마진 저하, 점유율 유지 경쟁** 등이 장기적인 과제로 대두되고 있습니다[1][3].
-이와 함께, 최근 종속회사의 대규모 채무보증(477억 원) 이슈 등 재무건전성과 기업지배구조 투명성도 모니터링할 필요가 있습니다[2].
-https://ssl.pstatic.net/imgstock/upload/research/company/1577410545345.pdf
-https://www.butler.works/ko/companies/00128661
-https://www.deepsearch.com/analytics/company-analysis/KRX:031330/branches
-https://www.valueline.co.kr/finance/mri/031330
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240314002732&amp;docno=&amp;viewerhost=</t>
+1. [IT 부품 시장의 변동성 및 수요 불균형]  
+   - 글로벌 IT 시장의 경기회복세가 일시적일 가능성, 하반기 이후 스마트폰·가전 핵심부품 수요가 둔화될 수 있다는 전망이 있습니다. 또한 공급 과잉 전환시 [재고 리스크]가 실적에 부정적으로 작용할 수 있습니다[4].
+2. [고객사 집중 리스크]  
+   - 매출의 상당 부분을 삼성전자 등 특정 대기업에 의존하고 있습니다. 최근 일부 거래처의 발주 패턴 변화 및 공급선 다변화 압박이 심화되고 있어, 단일 고객(삼성그룹 계열)에 대한 높은 의존이 [실적 변동성 위험]으로 부각되고 있습니다[3].
+3. [외국인 매도세 및 주가 저평가 논란]  
+   - 2025년 2분기부터 외국인 투자자들의 순매도가 이어지면서 주가가 단기 조정세를 보이고 있습니다. 이는 경기 변동성 우려와 더불어 국내 IT부품 유통 업종 전반의 성장 둔화 전망이 반영된 것이지만, 동사 자체의 영업 펀더멘털에는 큰 변동 사항이 없다는 점이 시장 분석가들을 중심으로 대두되고 있습니다[1][2].
+[기타 참고사항:]  
+- 재무적으로 최근 큰 변동은 없으나, 금융비용 관리 및 종속회사의 채무보증 관련 사항, 그리고 산업 내 경쟁 심화에 따른 마진 저하 압력은 지속적으로 관리가 요구되는 상황입니다[4].
+https://dolfin.plus/main/031330
+https://seo.goover.ai/report/202507/go-public-report-ko-88f2db2e-0861-475f-9ccc-b6a6f3e28ea9-0-0.html
+https://kr.investing.com/equities/samt-co-ltd
+https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A031330&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103&amp;stkGb=701
+https://www.deepsearch.com/analytics/company-analysis/KRX:031330?c-name=%25EC%2597%2590%25EC%258A%25A4%25EC%2597%2590%25EC%259D%25B4%25EC%2597%25A0%25ED%258B%25B0&amp;c-symbol=KRX%253A031330&amp;cd-cat=topic&amp;cd-df=2023-10-24&amp;cd-dt=2023-10-31</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1381,7 +1397,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1398,21 +1414,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>오성첨단소재(052420)는 주로 **디스플레이용 광학 보호 및 기능성 필름을 생산하는 소재 전문 기업**이다. 주요 제품은 LCD 및 OLED 디스플레이 편광판에 사용되는 보호필름이며, 기능성 필름과 공정용 보호필름, 코팅 임가공 등을 포함한다. 디스플레이 산업에서 필름의 품질과 원가 경쟁력이 중요한데, 오성첨단소재는 기술력과 품질 경쟁력을 바탕으로 디스플레이용 광학 필름 시장에서 핵심적인 위치를 차지하고 있다[1][2].
-최근 몇 분기 동안 회사가 강한 실적을 보인 이유는 다음과 같다. 첫째, 글로벌 디스플레이 시장의 수요 회복으로 편광판용 보호필름의 판매가 증가했다. LCD 및 OLED 디스플레이 산업이 첨단 스마트폰, TV, IT 기기 수요 증가에 힘입어 성장세를 보이면서, 오성첨단소재의 주력 사업이 직접적으로 수혜를 받았다. 둘째, 기술 혁신과 원가 절감을 통한 사업경쟁력 강화가 매출 및 영업이익 개선에 기여했다. 기존의 태양광 장비 사업을 분리하고 디스플레이용 광학 필름에 집중하며 고부가가치 제품 개발에 역량을 집중한 점도 긍정적 영향을 미쳤다[1][3]. 마지막으로, 미국 등 주요 시장의 디스플레이 투자 확대와 OLED 시장 확대가 회사 실적에 긍정적 영향을 미쳤다.
-현재 오성첨단소재가 직면한 주요 3가지 이슈는 다음과 같다.
-1. **디스플레이 산업 변동성 및 경쟁 심화**  
-   디스플레이 제조 산업 자체가 기술 변화가 빠르고 공급과잉 우려가 존재해 시장 변동성이 크다. 이에 따라 필름 수요가 급격히 변할 수 있어 안정적인 매출 확보가 어렵다. 또한 중국, 일본 업체들과의 경쟁 심화로 원가 경쟁력과 기술력 확보가 절실하다[1][3].
-2. **사업 다각화 및 신사업 추진의 불확실성**  
-   2018년부터 자회사 카나비스메디칼을 통해 의료용 대마 연구 등 신사업에 진출했으나, 이는 기존 필름 사업과 시너지가 크지 않고 연구개발 단계에 머물러 있어 사업 확대에 대한 불확실성이 존재한다. 마리화나 합법화 움직임에 연계된 R&amp;D 성과와 관련 정책 변화가 사업 성공 여부에 영향이 크다[2].
-3. **원자재 가격 및 물류 비용 상승 압박**  
-   글로벌 원자재 가격 상승과 물류비 증가가 제조 원가에 부담을 주고 있어 수익성 개선을 제약한다. 특히 플라스틱 필름 소재의 가격 변동성이 크며, 회사가 원가 경쟁력을 확보하기 위한 지속적인 기술적 개선 및 공급망 관리가 중요한 상황이다[1].
-종합하면, 오성첨단소재는 **디스플레이용 광학 필름 전문 기업으로 기술력과 품질을 기반으로 강한 경쟁력을 유지하며 최근 글로벌 디스플레이 시장 수요 회복 덕분에 실적 호조를 나타내고 있다. 그러나 업계의 변동성 및 경쟁 심화, 신사업 실적 불확실성, 원자재 가격 등의 외부 요인으로 인한 수익성 압박이 주요 과제로 남아 있다**.
-https://ssl.pstatic.net/imgstock/upload/research/company/1611793625384.pdf
-https://ko.wikipedia.org/wiki/%EC%98%A4%EC%84%B1%EC%B2%A8%EB%8B%A8%EC%86%8C%EC%9E%AC
-https://securities.miraeasset.com/bbs/download/2122947.pdf?attachmentId=2122947
-https://www.osungam.com/sub/4003.php
-https://comp.fnguide.com/svo2/fncompany.asp?gicode=A052420</t>
+          <t>오성첨단소재(052420)는 [디스플레이용 광학 보호필름과 기능성 필름을 주력으로 생산하는 국내 소재 전문 기업]이다. 특히 LCD, OLED 패널의 편광판과 커버 윈도우 등 핵심 부품에 적용되는 고기능성 필름을 제조·공급하며, 일부 임가공 코팅 사업도 병행한다. 디스플레이 패널 제조에서 품질과 가격 경쟁력이 결정적인 분야에서 지속적으로 기술 역량과 생산 효율성을 높여 왔다[1][3].
+(1) [핵심 사업 및 주요 제품]  
+- [광학 보호필름:] LCD·OLED 편광판용 PET 필름 등, 디스플레이 생산 라인의 핵심 자재로 필름의 품질은 패널 최종 품질에 직접 연관된다.
+- [기능성 필름:] 터치패널·스마트폰 등 다양한 전자기기에 사용되며, 고난도 표면 처리 및 코팅 기술이 요구된다.  
+- [임가공 및 기타 사업:] 일부 코팅 위탁가공 및 신규 소재 개발도 추진 중이다.
+(2) [최근 분기 강한 실적의 구체적 배경]  
+- [디스플레이 소재 부문 매출 성장:] 2025년 1분기 연결 기준 매출액 413억 원, 영업이익 84억 원, 순이익 80억 원을 기록해 전년 동기 대비 각 +19%, +58%, +20% 증가했다. 패널용 보호필름 판매 호조와 수익성 개선이 주요 원인이다[1][3].
+- [글로벌 IT 디바이스·TV 시장 회복:] 삼성전자, LG디스플레이 등 주요 고객사 중심의 프리미엄 TV·디바이스 생산 확대에 힘입어 필름 수요가 증가했다. 특히 OLED 등 첨단 패널 적용이 늘고 있다.
+- [제품 포트폴리오 구조조정:] 수익성이 낮거나 비효율적인 사업부(예: 태양광 장비 및 일회성 B2B 임가공)를 정리하고 핵심 소재에 주력함으로써 전체 이익률이 상승했다.
+- [공정 최적화·원가 절감:] 소재 단가 하락과 물류 혁신, 자동화 설비 도입 등으로 생산 효율성이 개선돼 영업이익률이 빠르게 높아졌다.
+(3) [현재 직면한 주요 3가지 이슈]
+1. [디스플레이 업황 변동성 및 글로벌 경쟁 격화]  
+   - 디스플레이 시장은 기술 변화가 빠르고, 경기 민감도가 높아 수요 진폭이 매우 크다. 최근 중국, 일본 업체들의 원가 압박과 기술 추격이 거세 원가경쟁력 및 품질차별화의 중요성이 한층 높아졌다[1][3].
+2. [차세대 신사업 실현 가능성 및 전략 리스크]  
+   - 기존 사업이 디스플레이에 집중되어 있어, 신성장동력 모색이 절실하다. 카나비스메디칼 등 의료용 대마 연구 및 친환경 첨단소재 진출이 언급되었으나, 실질적인 매출 기여는 아직 제한적이며 규제 리스크도 크다. 신사업에서 성과 미진 시 성장성 한계에 직면할 우려가 있다.
+3. [원자재 가격 변동성 및 공급망 리스크]  
+   - 필름 원재료(고순도 PET 등) 가격 변동이 심하고, 2024년 하반기~2025년 상반기 글로벌 물류 및 원자재 가격이 다시 불안정해지는 양상을 보였다. 이에 따라 제조원가 부담이 커질 수 있으며, 국내외 공급망 다변화와 자체 기술 내재화가 요구된다.
+이처럼 오성첨단소재는 [디스플레이 광학필름 분야에서의 높은 기술력과 시장 회복 수혜로 최근 실적이 크게 개선]되었으나, 원가 경쟁력 확보, 신성장 엔진 마련, 외부 시장 변동성 관리가 앞으로의 지속 성장에 결정적 변수가 될 전망이다.
+https://www.butler.works/ko/companies/00350048
+https://kr.investing.com/equities/osung-lst-co-ltd-earnings
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=052420
+https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A052420&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701
+https://comp.fnguide.com/SVO2/ASP/SVD_main.asp?gicode=A052420&amp;NewMenuID=</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1427,7 +1451,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1445,32 +1469,26 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>(1) 코미코(183300)의 핵심 사업
-코미코는 **반도체 제조 공정에서 사용되는 장비 부품의 세정(청정화) 및 특수 코팅, 그리고 반도체 부품 자체 생산**을 핵심 사업으로 하는 회사입니다[1][2][3][4]. 반도체 제작 과정에서 각종 장비에 쓰이는 세라믹, 금속, 쿼츠(석영) 등 부품들은 미세 공정 잔여물, 오염, 산화 등으로 인해 수명과 성능이 저하됩니다. 코미코는 이 부품들을 세정 및 표면 코팅(플라즈마 내구성, 절연, 전도 등 목적)하여 재사용 가능하도록 처리하거나, 자체적으로 부품(특히 ALD 장비용 세라믹 히터, ESC 등)을 직접 제조하여 공급합니다[1][3].
-매출 비중 기준(2024년 3분기):  
-- **반도체 부품**: 48.4%  
-- **코팅 사업**: 30.8%  
-- **세정 사업**: 20.8%  
-주요 고객사는 삼성전자, SK하이닉스, 인텔, TSMC, 마이크론 등 글로벌 메모리·파운드리 업체입니다[1][3].
-(2) 최근 분기 실적 강세의 구체적 원인
-2024년 2분기 기준, 코미코는 매출과 영업이익에서 전년 동기 대비 각각 113%와 470% 이상 증가하는 '어닝 서프라이즈'를 기록했습니다.
-직접적 원인은 다음과 같습니다:
-- **부품 사업 호조**: ALD(원자층 증착) 장비용 세라믹 히터, ESC(Electro Static Chuck) 수요가 AI 반도체·극자외선 공정 확대에 힘입어 크게 증가했습니다. 미코세라믹스 자회사도 영업이익률 40%를 넘겼고, 부품 매출이 급증했습니다[1].
-- **코팅/세정 회복**: 글로벌 반도체 업황 개선에 따라 기존 세정/코팅 서비스 부문도 실적이 빠르게 회복됐습니다. 특히 안성법인(국내)의 이익률이 크게 개선됐습니다[1].
-- **해외 법인 실적 개선**: 중국 우시 법인은 2분기 매출 179억 원(전년 대비 +106%)을 달성했고, 싱가포르 법인이 흑자 전환하는 등 해외 거점 수익성이 동시에 개선됐습니다[1].
-- **고객사의 Fab 투자 확대**: AI, 온디바이스(엣지) 반도체 등 첨단 라인의 투자가 본격화되면서 고객사의 교체/신규 수요 유입이 빠르게 늘었습니다[3].
+코미코는 [반도체 생산 공정에 투입되는 장비 부품의 세정(오염·잔여물 제거), 특수 코팅(플라즈마 내구·절연·전도성 부여), 그리고 정밀 세라믹·금속 부품 자체 생산]을 주력 사업으로 영위하고 있습니다[1][2][3][4]. 부품 사업(세라믹 히터, ESC 등 고부가 부품)이 매출의 49%로 가장 크며, 코팅 31%, 세정 20% 수준입니다. 공정 미세화와 플라즈마 강도 상승에 따라 부품 마모와 교체 주기가 짧아지고 있어, 부품 재생 및 수명 연장 솔루션(세정·코팅 서비스)의 수요도 꾸준히 확대되고 있습니다[1][2]. 주요 고객은 삼성전자, SK하이닉스, 인텔, TSMC 등 글로벌 반도체 선두 업체로, 한국 외에도 중국(우시), 싱가포르, 미국 피닉스 등 해외 현지 공장 및 법인을 통해 글로벌 대응 체제를 강화하고 있습니다[1][4].
+(2) 최근 분기 호실적의 상세 배경
+2024년 2분기, 코미코는 [매출 1,336억 원(YoY +113%), 영업이익 369억 원(YoY +470%)]으로 대폭 성장한 실적을 기록했습니다[1][3].
+- [부품(미코세라믹스) 호황:] ALD(원자층증착) 장비용 세라믹 히터, ESC 등 차세대 반도체 공정 부품 수요가 급증하여, 미코세라믹스(자회사)가 매출 578억, 영업이익률 40%를 달성하면서 기업 실적을 견인[1].
+- [세정/코팅 수요 회복:] 업황 회복세와 함께 기존 핵심 사업(세정, 코팅)의 매출과 이익률이 빠르게 반등. 특히 국내 안성법인 이익률이 크게 개선됨[1].
+- [해외 법인 실적 개선:] 중국 우시 법인이 2분기에만 매출 179억(전년비 +106%)을 기록했고, 싱가포르 법인도 흑자로 전환됨. 법인별 실적이 전방 투자 확대와 연계되어 동반 성장 중[1][2].
+- [특정고객사 신규 Fab 투자:] AI·고성능 반도체(온디바이스, 하이엔드 메모리 등) 분야 설비 투자가 지속 확대되면서 고객사(삼성전자, 인텔 등)의 부품 교체 및 신규 수주가 늘어났고, 이는 세정·코팅·부품 전 부문에서 직접적인 수혜로 이어지고 있습니다[1][2].
 (3) 코미코가 직면한 상위 3대 핵심 이슈
-1. **글로벌 반도체 업황 사이클 변동성**
-   반도체 시황에 따라 코미코의 세정, 코팅, 부품 수요는 급등락할 수 있습니다. 글로벌 금리 인상, 경기 침체 등 전방 상황이 다시 악화될 경우 단기 실적 불확실성이 존재합니다. AI·고성능 반도체 수요가 이를 상쇄할지 여부가 핵심입니다[3].
-2. **고객사 의존도**
-   삼성전자, SK하이닉스, 인텔, TSMC 등 소수의 대형 반도체 업체 매출 비중이 매우 높아, 특정 고객사 투자축소나 오더 감소 시 실적에 미치는 충격이 클 수밖에 없습니다[1][3].
-3. **해외 사업 확장 및 공급망 리스크**
-   최신 성장 동력은 해외(특히 중국·미국 등)에 집중되어 있으나, 미·중 분쟁, 지정학적 이슈, 현지 경쟁사 진입 등 리스크가 상존합니다. 현지화 전략과 동시에 첨단기술 차별화가 필수 과제가 되고 있습니다[1][3].
-이외에도 부품 신제품 개발 성공, 각국 정부의 반도체 정책 변화 등도 당분간 주요 변수로 지목됩니다.
+1. [글로벌 반도체 업황 변동성]
+   세정, 코팅, 부품 사업 모두 전방 반도체 시황에 매우 민감합니다. 최근 AI·첨단 반도체 수요 확대로 단기 실적은 견조하나, 미국·중국 등 글로벌 경기침체 및 반도체 사이클 하락이 재차 현실화될 경우, 매출 및 이익 변동 리스크가 내재되어 있습니다[1][2][3].
+2. [고객사 집중 및 대형 Fab 투자 지연 리스크]
+   전체 매출의 97% 이상이 삼성전자, SK하이닉스, 인텔, TSMC 등 상위 5개 업체에서 발생합니다. 주요 고객사 생산설비 투자 감소, 발주 지연, 경쟁사의 자가 내재화(내부 조달 확대)가 발생하면 코미코 실적은 단기적으로 타격을 받을 수밖에 없습니다[1][3]. 최근 TSMC·삼성의 미국, 일본 투자 일정 조정이 일부 논란되기도 했습니다[2].
+3. [해외 확장(중국·미국) 및 지정학 리스크]
+   성장의 핵심이었던 중국(우시), 미국(피닉스) 등 현지 투자 확대가 진행되고 있으나, 미·중 갈등·수출 통제·현지 경쟁사 등장 등 공급망 리스크와 규제 변수 증가가 현실적 과제입니다. 또한, 미국 피닉스 신규법인 구축(2025년 상반기 완료) 이후, 현지 고객사(특히 TSMC 미국법인) 주문이 얼마나 추가될지 추이를 주시해야 합니다[1][2][4].
+이밖에 신제품(고내구 세라믹/메탈 부품)개발 성과, 각국 정부의 반도체 산업 정책·보조금(미국 CHIPS법, 중국 반도체 정책 등) 변화도 전략적으로 중요한 변수로 부각되고 있습니다.
 https://citrusshell.tistory.com/entry/%EC%BD%94%EB%AF%B8%EC%BD%94183300-%EB%B0%98%EB%8F%84%EC%B2%B4-%EB%B6%80%ED%92%88-%EC%84%B8%EC%A0%95%EC%BD%94%ED%8C%85-%EC%A0%84%EB%AC%B8%EA%B8%B0%EC%97%85%EC%9D%98-%EB%AF%B8%EB%9E%98-%EC%A0%84%EB%A7%9D
-https://ssl.pstatic.net/imgstock/upload/research/company/1593736683244.pdf
-https://contents.premium.naver.com/finics/juju/contents/250108214541342rl
-https://stock.pstatic.net/stock-research/company/74/20250120_company_449956000.pdf
-https://w4.kirs.or.kr/download/tec/%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D_%EB%B0%98%EB%8F%84%EC%B2%B4_%EC%BD%94%EB%AF%B8%EC%BD%94(183300)_%EB%B0%98%EB%8F%84%EC%B2%B4%20%EC%9E%A5%EB%B9%84%20%EB%B6%80%ED%92%88%20%EC%84%B8%EC%A0%95%20%EB%B0%8F%20%EC%BD%94%ED%8C%85%20%EA%B8%B0%EC%97%85,%20%EC%A0%84%EB%B0%A9%EC%82%B0%EC%97%85%20%ED%8A%B8%EB%A0%8C%EB%93%9C%20%EB%B3%80%ED%99%94%EC%97%90%20%EB%94%B0%EB%A5%B8%20%EC%9A%94%EA%B5%AC%EC%97%90%20%EB%8C%80%EC%9D%91%20%EC%A4%91_NICE%EB%94%94%EC%95%A4%EB%B9%84.pdf</t>
+https://www.sks.co.kr/data1/research/qna_file/20250421160120354_0_ko.pdf
+https://stock.pstatic.net/stock-research/company/31/20250206_company_679690000.pdf
+https://m.irgo.co.kr/IR-COMP/183300/-IR-PAGE
+https://stock.pstatic.net/stock-research/company/74/20250120_company_449956000.pdf</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1485,7 +1503,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>
@@ -1502,36 +1520,32 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(1) **한국타이어앤테크놀로지의 핵심 사업**
-한국타이어앤테크놀로지(161390)는 **자동차용 타이어의 개발, 제조, 판매**를 주력으로 하는 한국 대표 타이어 기업입니다[2][4].  
-- 승용차, SUV, 경트럭용 타이어를 포함해 전기차 전용 고인치 타이어, 고성능 타이어 등 **프리미엄 타이어**에 강점을 보유하고 있습니다[1][3].
-- 주요 완성차 업체(OEM)와 협력을 바탕으로 현대·기아, 폭스바겐, 루시드 등 글로벌 자동차 제조사에 신차용 타이어를 공급하며,  
-  ‘iON’ 등 전기차 특화 브랜드도 확장하고 있습니다[3].
-- 제조는 국내 대전, 금산 외에도 헝가리·인도네시아·중국·미국(테네시) 등 글로벌 생산거점을 통해 운영 중입니다[1].  
-- **비타이어** 부문으로는 금형, 설비 제조 및 판매, 금형 교체 부품, 생산 기계 사업 등이 포함되어 있습니다[2].
-(2) **최근 분기 실적 호조 배경**
-최근 2023년~2025년 분기 기준, 한국타이어앤테크놀로지는 **매출과 영업이익에서 모두 사상 최고 실적을 경신**했습니다[1].
-- **고부가가치 타이어 판매 확대**: 18인치 이상 고인치 타이어 비중이 47%로 높아졌으며, 전기차 전용 타이어 판매 역시 빠르게 증가하여 전기차 타이어가 OE(신차용) 공급 비중 23% → 연내 29% 목표로 확대되고 있습니다[3].
-- **브랜드 경쟁력 제고**: 전기차 전용 ‘iON’ 등 프리미엄 라인 확장, OEM 공급 확대(현대·기아, 폭스바겐, 루시드 등)을 통해 제품 믹스 개선과 수익성 중심의 질적 성장을 달성하고 있습니다[3].
-- **북미 시장 공략**: 미국 테네시 공장 추가 증설(2025~2026년 본격 양산 예정)을 통해 관세 리스크 회피 및 물류비 절감, 현지 OEM 대응 능력이 강화되어 북미 시장 점유율 확대에 유리해졌습니다[3].
-- **글로벌 균형 성장**: 유럽, 기타 지역에서도 주요 완성차에 대한 OE 공급 확대 등으로 고른 성장을 보이고 있습니다[3].  
-이러한 **고부가 제품 중심 전략과 글로벌 시장 대응력 강화**가 최근 실적 호조의 핵심 요인입니다.
-(3) **주요 현안 3가지**
-1. **북미 시장·공급망 및 보호무역 리스크 관리**
-   - 미국 테네시 공장 증설 진행 중이나, 미국의 반덤핑/상계관세 등 보호무역 조치에 대한 대응이 필수적입니다.
-   - 현지 생산 확대와 OEM 맞춤형 공급 체계가 관세 리스크와 물류비 상승 대응에 중점입니다[3].
-2. **전기차 시장 변화 및 신성장동력 확보**
-   - 전기차 타이어 시장이 급성장하면서 OEM·프리미엄 브랜드와의 협력을 통한 전용 제품 개발이 요구됩니다.
-   - ‘iON’ 등 브랜드 확장, EV 전용 기술 고도화(저소음·저회전저항 등) 및 AGM 배터리·리튬이온전지 등 차세대 친환경 사업 추진도 병행되고 있습니다[1][3].
-3. **원자재 가격 및 비용변동 관리**
-   - 국제 원자재(천연고무, 합성고무 등) 가격 변동에 따라 수익성 변동 가능성이 존재하며, 에너지비·물류비 등 제반 비용 통제도 중요한 과제입니다.
-   - 특히 고가 타이어 비중 증대와 원가 관리의 최적화가 수익성 유지의 관건입니다[3].
-이 외에도 글로벌 수요 감소, 환율 변동 등 대외 변수, 지역별 시장 확대 전략과 ESG(환경·사회·지배구조) 경영 강화 요구도 현재 충분히 고려해야 할 이슈입니다.
-https://www.hankooktire.com/content/dam/hankooktire/local/pdf/why-hankook/2024_Hankook_Company_AR_kor.pdf
-https://cdn.hankook-technologygroup.com/PRD/BOARD/20230324/290e9f89-8862-42ee-80f9-c2114213cb3e/1_%EC%82%AC%EC%97%85%EB%B3%B4%EA%B3%A0%EC%84%9C.pdf
-https://www.finance-scope.com/article/view/scp202505120011
-https://www.hankooktire.com/global/ko/company/company-overview.html
-https://comp.wisereport.co.kr/company/c1010001.aspx?cn=&amp;cmp_cd=161390</t>
+          <t>(1) [한국타이어앤테크놀로지의 핵심 사업]
+한국타이어앤테크놀로지(161390)는 [자동차용 타이어의 개발, 제조, 판매]를 주력으로 하는 국내 최대 타이어 전문 기업입니다[3].  
+- [타이어 부문]에서는 승용차, SUV, 경트럭, 트럭·버스, 산업용 차량용, 그리고 전기차·고성능 스포츠카용 타이어까지 다양한 라인업을 갖추고 있습니다. 전기차 전용 ‘iON’ 등 프리미엄 브랜드를 통해 OE(신차용), RE(교체용) 시장 모두를 겨냥합니다.  
+- [비타이어 부문]은 타이어 생산 설비, 금형 제조·판매 및 일부 자동차 정비서비스, 사무실 임대 등입니다[3].  
+- 국내(대전, 금산)뿐 아니라 미국·헝가리·인도네시아·중국 현지 공장을 통한 글로벌 생산, 현대·기아·폭스바겐 등 주요 완성차업체에 OEM으로 타이어 공급하는 것이 사업 경쟁력의 핵심입니다.
+(2) [최근 분기 실적 호조 배경]
+2023~2025년 실적 자료에 따르면, 회사는 [매출·수익성 모두 업계 최고 수준]을 기록하고 있습니다[1][4].  
+- [고부가가치 타이어 판매 확대]: 18인치 이상 고인치 타이어 판매 비중이 꾸준히 상승해 전체 매출과 영업이익을 견인하고 있습니다. 특히 전기차 전용 타이어 판매가 빠르게 증가, 전년 동기 대비 두 자릿수 성장률을 기록 중입니다[1][3].
+- [브랜드력 및 OEM 공급 강화]: 프리미엄 전기차 브랜드(iON) 라인 확장과 현대·기아, 폭스바겐, 루시드 등 주요 글로벌 완성차에 전기차·고성능 차량용 타이어 공급이 확대되고, 북미·유럽 RE시장 점유율이 증가한 것도 실적 호조의 배경입니다[3].
+- [글로벌 생산능력 확충]: 미국 등지에서 보호무역·관세 리스크를 회피하고 물류비용을 절감하기 위한 현지 생산·공장 증설 효과가 가시화되고 있습니다. 이에 따라 2025년 매출은 전년대비 2.1% 증가(9.6조원), 영업이익은 1.66조원(영업이익률 17.3%) 전망입니다[1].
+(3) [현재 직면한 핵심 이슈 3가지]
+1. [북미 시장과 공급망/보호무역 리스크]
+   - 미국 테네시 공장 2차 증설을 통한 현지 실적 확대가 기대되지만, 미국 반덤핑·상계관세 등 보호무역 강화에 대응한 추가 설비투자와 OEM 현지화가 절실합니다[1].  
+   - 관세 리스크가 완전히 해소되지 않아, 완성차와의 협력 및 현지화 전략이 중장기적으로 중요한 과제로 남아 있습니다.
+2. [전기차·프리미엄 타이어 시장 경쟁 심화]
+   - 전기차용·고인치·고성능 타이어 수요가 빠르게 증가하면서, 미쉐린·콘티넨탈 등 글로벌 프리미엄 업체와의 기술경쟁이 더 심화되고 있습니다.  
+   - 신성장동력 확보를 위해서는 EV 타이어 기술력 고도화(저소음·저회전저항·마모수명 향상 등)와, 친환경 타이어 소재 개발이 더욱 중요해졌습니다.
+3. [수익성 압박 요인(원자재·환율·글로벌 수요)]
+   - 최근 국제 고무·합성소재 등 원자재 가격 변동성과 글로벌 경기 둔화, 환율 변동에 따른 수익성 관리가 지속적인 리스크로 작용하고 있습니다[2].  
+   - 고가 RE 타이어 비중 확대, 생산·물류비 효율화 등이 수익성 방어의 핵심이며, 특히 2025년 이후 글로벌 시장 성장률이 정체될 가능성도 제시되고 있습니다[2].
+이 외에도 차량용 배터리, 신사업(친환경 소재, ESS 등) 진출, ESG(환경·사회·지배구조) 관련 규제 대응 강화, 차별화된 고객 경험 제공 등도 주요 과제로 부각되고 있습니다.
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2025020417314766K_02_06.pdf
+https://simplywall.st/ko/stocks/kr/automobiles/kose-a161390/hankook-tire-technology-shares/news/lacklustre-performance-is-driving-hankook-tire-technology-co-1
+https://kr.investing.com/equities/hankook-tire
+https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=161390&amp;cn=
+https://invest.deepsearch.com/stock/161390/</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1546,7 +1560,1559 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-07-24</t>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>417790</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>트루엔</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>트루엔(417790)은 [AI 기반 영상감시 시스템과 Edge AI 카메라 분야에서 국내 선도적인 기업]이다. 이 회사는 자체 영상 전송 코덱 개발을 시작으로 IP 카메라, AI 딥러닝 기능 탑재 카메라, IoT 스마트 홈 카메라 등 다양한 지능형 영상 분석 및 보안 솔루션을 개발·공급하고 있으며, 최근에는 Edge AI 솔루션과 공공기관 대상 스마트 시큐리티 시스템 등에 집중하고 있다[1][2][3].
+1. [핵심 사업]
+- [주력 분야는 AI 기반 영상감시 시스템과 Edge AI 카메라]다. 2022년 기준 매출 비중을 보면 [IP 카메라가 약 82%], 영상솔루션과 IoT 솔루션이 그 외를 차지하고 있어, 기업의 중심 사업이 영상감시 하드웨어 및 소프트웨어임을 알 수 있다[1].
+- [Edge AI 카메라]는 카메라 단말 자체에서 AI 처리(딥러닝, 인식, 분석 등)를 수행해, 별도의 서버 없이도 실시간 지능형 영상분석이 가능하다. 차량번호 인식, 출입자 감지, 접근제어 등 다양한 기능이 탑재되어 공공기관, 스마트시티, 산업시설 등에 공급된다[3].
+- 기타 사업으로는 IoT 기반 스마트 홈 카메라, 맞춤형 영상 스트리밍 솔루션, 다양한 형태의 영상보안 장치 및 시스템 컨설팅, 구축 서비스 등이 있다[1][3].
+2. [최근 실적이 강한 이유]
+- [공공기관, 지자체의 지능형 CCTV 및 스마트시티 수요 급증]이 매출 성장을 견인했다. 2023년 매출액은 463억원(YoY +19%), 영업이익은 128억원(YoY +42%)으로, 시장 수요와 맞물린 매출 확대와 높은 영업이익률이 동시에 실현되었다[3].
+- [Edge AI 기술 적용 제품의 점유율 상승과 라인업 확장]으로, 고부가가치 제품 매출이 늘었다. 업계 1위라는 신뢰성을 기반으로 대형 프로젝트 수주가 이어지고 있다[3].
+- [신공장 증설 및 생산 효율 개선], [지속적 R&amp;D 투자]로 원가율을 안정적으로 관리하고 신규시장(글로벌 소형 수출 포함)에 진입하며 성장세를 유지하였다[1].
+3. [현재 주요 이슈 Top 3]
+- [치열한 기술경쟁 및 AI 기술 고도화 필요성]  
+  영상보안 시장은 글로벌 IT기업, 대형 SI 회사, 중국계 저가 HW 업체 등과의 경쟁이 치열하다. AI 영상분석, Edge 컴퓨팅, 데이터 보안 등 기술 선도력을 유지하기 위한 지속적인 연구개발·투자가 필수적이다[2][3].
+- [공공시장 매출 의존도와 프로젝트 변동성]  
+  지자체·공공기관 중심 대형 프로젝트의 수주 여부가 분기별 실적에 미치는 영향이 크다. 전체 매출의 상당 비중이 특정 시점에 집중되는 구조여서, 실적 변동성이 높아질 수 있다[3].
+- [글로벌 시장 확대 전략 및 수출경쟁력]  
+  국내 시장은 이미 성숙기에 접어들고 있기 때문에, 글로벌 수출 확대가 중장기 성장의 핵심 과제로 부상했다. CE 인증, 수출용 제품 현지화, 안정적 파트너 네트워크 구축 등 경쟁력 확보가 요구된다[1][3].
+이밖에도 부품 공급망 이슈, 시장 환경 변화(예: 전방산업 투자 위축, 경기 둔화 시 공공사업 축소 가능성), 국내외 규제(보안기준 강화 등)가 경영 불확실성 요인으로 지적된다.
+https://www.eugenefn.com/common/files/amail/20230828_417790_jongsun.park_1929.pdf
+https://www.bondweb.co.kr/_research/downloadPage.asp?number=810485&amp;gn=1
+http://money2.daishin.com/PDF/Out/intranet_data/Product/ResearchCenter/Report/2023/05/46991_truen.pdf
+https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=417790&amp;cn=
+https://valueline.co.kr/finance/summary/417790</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>445180</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>퓨릿</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>(1) [퓨릿(445180)의 핵심 사업]
+퓨릿은 [반도체, 디스플레이, 2차전지 등 첨단 제조산업에 사용되는 고순도 케미컬 소재]를 생산·공급하는 기업입니다. 주력 제품은 반도체 공정용 신너(Thinner)와 PGME, PGMEA, EEP, EL 등 고순도 공정 화학물질입니다[1][4]. 초창기에는 산업용 및 디스플레이 공정에서 발생하는 폐유기용제의 [회수/정제] 사업으로 시작했으나, 이후 초고순도 반도체·디스플레이 케미컬 합성 및 정제, 자원 재활용(리사이클) 등으로 사업영역을 확대했습니다[1][2][3]. 국내에서는 [극자외선(EUV) 공정에 필수적인 고순도 EL 소재]의 합성 및 대량 생산까지 가능한 유일한 기업으로 꼽히며, 소재 국산화와 공급 안정화에 기여하고 있습니다[1].
+(2) [최근 분기 실적 강세 원인]
+퓨릿의 최근 강한 실적은 [반도체 업황 개선·고객사 증설·공정 미세화 및 가동률 증가] 때문입니다. 주요 요인은 다음과 같습니다.
+- [반도체 업황 반등]: 2024년 상반기 메모리 제조사의 증설과 미세공정 확대에 따라 견조한 반도체 케미컬 수요가 발생했고, 이에 따라 매출과 영업이익이 개선 추세를 보였습니다[1][4].
+- [고객사 확대와 락인 효과]: 기존 대기업 외에 신규 반도체 고객사를 유치하며 공급처를 다변화했고, 기존 고객사와의 장기 협력으로 매출 안정성이 커졌습니다[4].
+- [신사업 진출과 기술 차별화]: 고순도 EUV용 EL 소재 양산, 폐유기용제 리사이클 확대 등 고부가가치 신사업이 실적 성장에 기여했습니다[1][2]. 
+- [산업 교차 수요]: 반도체·디스플레이·2차전지 등 여러 첨단사업의 동시 성장에 따라 매출 기반이 다각화되어 경기 변동성에 더 강해졌습니다.
+참고로 2024년 1분기 매출액은 282억원, 영업이익은 28억원을 기록(전년 대비 소폭 감소)했으나, 이는 디스플레이 업황 악화에 따른 영향이고 반도체 부문의 성장은 계속되고 있습니다[1].
+(3) [퓨릿이 직면한 주요 이슈 Top 3]
+1. [전방산업(반도체, 디스플레이) 경기 변동]
+   - 퓨릿은 전방산업의 투자/가동률 변화에 직접적으로 영향을 받습니다. 반도체는 호황이나, 디스플레이는 업황 악화로 매출 타격을 받고 있습니다[1][4]. 특히 디스플레이 부문 매출이 약세를 보여 성장 모멘텀에 한계가 있습니다.
+2. [환경/안전 규제 및 생산위험]
+   - 화학제품 제조 특성상 화재·폭발 등 안전사고 위험이 존재합니다. 환경·안전 규제 강화 시 추가 투자와 관리비용이 늘어날 수 있으며, 사고 발생 시 기업 신뢰도 하락과 생산 중단 등이 우려됩니다[2].
+3. [CAPEX(설비투자) 부담 및 유형자산 비중 증가]
+   - 고순도 화학품 생산에는 대규모 설비투자와 정밀 관리가 필수입니다. 사업 확장과 신제품 개발을 위한 지속적 투자가 필요하지만, 이에 따라 감가상각비 및 고정비도 증가해 수익성 관리 부담이 커지고 있습니다[2].
+이외에도 최대주주 물량 출회(구주매출), 기술 격차 유지, 원재료 가격 변동성 등도 단기적으로 모니터링해야 할 리스크입니다[2].
+https://m.thinkpool.com/compDiscuss/cont/1017951
+https://m.cafe.daum.net/cbbond/MbUq/11864?svc=TOPRANK
+https://www.deepsearch.com/analytics/company-analysis/KRX:445180?c-name=%ED%93%A8%EB%A6%BF&amp;c-symbol=KRX%3A445180&amp;cd-cat=topic&amp;cd-df=2024-10-18&amp;cd-dt=2024-10-25
+https://ssl.pstatic.net/imgstock/upload/research/company/1704325837158.pdf
+https://static.roa.ai/research/company/20240603_company_787514000.pdf</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>332370</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>아이디피</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1. [아이디피(332370)의 핵심 사업]
+아이디피는 [데스크탑 카드프린터 및 관련 소모품(인쇄용 리본, 프린터 전용 필름 등) 제조와 판매]를 주력으로 하는 기술기업이다[1][2][3]. 주요 제품은 신분증, 운전면허증, 금융카드 등 각종 공식·금융용 카드를 현장 발급하는 데 사용되는 [데스크탑 카드프린터]로, [카드프린터가 전체 매출의 46.1%, 소모품이 32.2%]를 차지한다[1]. 그 외에도 리본 파쇄기, 레이저 인그레이버, 멀피호퍼(자동 카드 공급 장치) 등 기타 제품과 유지보수 등 서비스를 제공한다[2]. 특히 카드프린터 시장의 국산화에 성공했으며, [기기 및 소모품 매출의 약 89%를 수출]에 의존하고 있으며, 미국, 일본, 두바이 등에서 57개국에 제품을 공급한다[1][2].
+2. [최근 실적 호조의 구체적 이유]
+- [글로벌 시장 점유율 확대]  
+  아이디피는 연구개발(R&amp;D) 투자로 경쟁사 제품과 차별되는 자체 기술을 확보해 [전 세계 카드프린터 시장에서 2020년 6.6%에서 2021년 9.4%까지 시장점유율을 빠르게 확대]했다[1][3].  
+- [해외 수출 증가 및 신제품 효과]  
+  B2C 및 소규모 사업자용 컴팩트 프린터, 카드발급 키오스크, 신속 가열식 라미네이션 기술 등 [신제품을 지속적으로 출시]하며 해외 신규 고객 확보에 성공했다. 이로 인해 최근 [수출 실적이 급증], 전체 매출이 빠르게 성장하였다[1][2][3].  
+- [소모품 매출의 누적 효과]  
+  카드프린터 기기의 보급이 확대되면서 프린터 전용 소모품(리본, 필름 등) 소모가 [지속적이고 안정적으로 증가]하는 구조다. 이로 인해 기기 매출이 늘면서 소모품 매출도 연동하여 크게 늘었다[3].
+3. [현재 아이디피가 직면한 3대 핵심 이슈]
+- [원재료 및 부품 조달 문제]  
+  반도체 및 전자부품 수급 불안, 주요 소재 가격 변동성이 커지면서 [원가 관리]가 어려워졌으며, 납기 리스크가 실적에 영향을 줄 수 있다.
+- [글로벌 경쟁 심화 및 가격경쟁력]  
+  전통적으로 시장을 장악해 온 미국, 일본의 대형 경쟁사들과 [글로벌 가격경쟁]이 심화되고 있다. 특히 신흥시장 진입 시 현지 경쟁사 및 저가 브랜드와의 가격경쟁에 정밀한 대응이 필요하다[1][3].
+- [환율 변동성 및 수출 구조 위험]  
+  [수출 비중이 85~89%로 매우 높아] 원·달러, 원·엔 등 환율 변동에 따른 실적 변동 위험이 상존한다. 해외 매출이 늘수록 환위험 관리와 각국 무역 정책 변화에 상시 대응이 필요하다[1][2].
+이외에도, 신규 아이템(예: 재전사 프린터, 카드발급용 키오스크 등)의 상용화 및 시장 안착, OEM·ODM 확대, 국내 대형 프로젝트(예: 운전면허증 시스템)에서의 확장 가능성 등도 중요한 중장기 과제로 꼽힌다.  
+정보는 2023년 이후 공개 기준으로 최신 지원자료에 근거하였으며, 구체적 통계와 시장점유율은 각 년도 사업보고서와 IR자료 기반이다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1681946056940.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1631761835229.pdf
+https://invest.kiwoom.com/inv/resource/202206/UploadFile_20220628105319000577.pdf
+https://www.deepsearch.com/analytics/company-analysis/KRX:332370?c-name=%25EC%2595%2584%25EC%259D%25B4%25EB%2594%2594%25ED%2594%25BC&amp;c-symbol=KRX%253A332370&amp;cd-cat=topic&amp;cd-df=2023-07-31&amp;cd-dt=2023-08-07
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?pGB=1&amp;gicode=A332370&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=Y&amp;stkGb=701</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>005880</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>대한해운</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>(1) 대한해운의 핵심 사업
+대한해운(005880)은 [해상 화물 운송업]에 특화되어 있는 기업입니다[2][3]. 주력 사업은 철광석, 석탄, 곡물, 원유, 천연가스 등 대형 벌크(Bulk) 화물의 선박 운송입니다. 대한민국 주요 대기업들과 장기 운송 계약을 맺고 있는데, 대표적으로 [한국가스공사], [포스코] 등과 LNG선 및 벌크선 운용 계약을 체결한 바 있습니다[3]. 주요 선박 유형은 벌크선, LNG선, 탱커선 등이며, 최근에는 친환경 선박(LNG 추진) 사업과 벙커링(선박 연료 공급) 사업 확대에도 주력하고 있습니다[1].
+(2) 최근 실적이 강세를 보인 이유
+최근 몇 분기 대한해운이 [견조한 실적]을 기록한 배경에는 다음과 같은 구체적 요인들이 작용하고 있습니다.
+- 글로벌 해운 시장의 점진적 회복 및 [화물 운임의 상대적 강세]: 특히 철강, 에너지, 곡물 등의 원자재 수요 회복으로 벌크선 중심 운임이 안정적으로 유지되었습니다[1].
+- [장기 운송계약에 기반한 안정적 매출구조]: 주요 화주(예: 포스코, 한국가스공사)와의 장기 계약 덕분에 시장 변동성에 상대적으로 덜 민감하며, 대외 악재 시에도 실적 방어력이 높습니다[3].
+- [LNG 벙커링 및 친환경 신사업 성장세]: LNG 벙커링 등 친환경 에너지 관련 사업에서 점진적인 매출 증가가 나타나고 있으며, 관련 투자를 지속하고 있습니다[1].
+- 비용 관리 및 운항 효율성 제고: 연료비 절감 등 내부 비용 효율화 전략이 수익성을 끌어올렸습니다.
+(3) 대한해운이 직면한 3대 핵심 이슈
+1. [해운시황 불확실성과 운임 변동성]  
+   - 글로벌 경기 둔화, 지정학적 리스크, 해운시황의 급변동 가능성이 여전히 남아 있습니다. 벌크선이나 LNG선 운임의 급락 시 매출 타격이 불가피합니다[1].
+2. [친환경 전환(ESG 규제) 대응]  
+   - 국제해사기구(IMO) 등에서 요구하는 환경규제가 강화되고 있으며, 이에 대한 적극적 대응이 불가피합니다. 탄소배출 저감, 선박의 친환경 전환(LNG 추진선 확대) 등 대규모 투자가 필요하고, 이는 단기적 비용 증가 요인이 될 수 있습니다[1].
+3. [대형 화주와의 계약 리스크]  
+   - 매출의 상당 부분이 소수 대형 화주(포스코, 한국가스공사 등)에 집중되어 있습니다. 주요 고객사와의 계약 변화, 혹은 글로벌 경쟁 해운사의 시장 진출 확대 시 실적 변동성이 커질 수 있다는 점이 리스크로 지적됩니다[3].
+이 외에도 최근 금융시장의 불확실성(금리 변동, 환율 등), 해운업 전반의 투자심리 악화, 외국인 및 기관투자자의 매도세 확대가 단기적 불안요인으로 여겨지고 있습니다[1].
+이상은 최신 기업공시 및 분석자료 기준의 구체적, 사실 기반 설명입니다.
+https://seo.goover.ai/report/202507/go-public-report-ko-82dfe434-b974-41db-9828-4f0ac4426107-0-0.html
+https://m.irgo.co.kr/IR-COMP/005880/%EB%8C%80%ED%95%9C%ED%95%B4%EC%9A%B4-IR-PAGE
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=005880&amp;cn=
+http://www.hanbak.co.kr/siou/005880
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=005880&amp;cn=</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>서부T&amp;D</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>(1) [서부T&amp;D(006730)의 핵심 사업]
+서부T&amp;D는 1979년 설립되어 1995년 코스닥에 상장된 기업으로, 핵심 사업은 [관광호텔업, 쇼핑몰 운영업, 물류시설 운영업, 석유류 판매업] 등입니다. 2024년 1분기 기준, [매출 비중은 관광호텔업 74.47%, 쇼핑몰 운영 19.32%, 석유류 판매 3.37%]로 호텔사업의 비중이 월등히 높습니다. 대표 자산은 서울 용산의 ‘Seoul Dragon City Hotel Complex’를 보유‧운영하며, 이 외에도 인천 송도 ‘스퀘어원’ 쇼핑몰, 일부 물류시설 및 부동산 관련 자산을 보유하고 있습니다[1][4]. 신한서부티엔디리츠 등 관련 리츠(REITs)와도 연계된 사업 구조를 가집니다[4].
+(2) [최근 분기 실적 호조의 원인]
+최근 서부T&amp;D는 실적이 크게 개선되었습니다. 2024년 1분기 연결 기준 매출은 전년 동기 대비 16.3% 증가한 414억 원, 영업이익은 47.9% 늘어난 108억 원을 기록했습니다[2]. 실적 개선의 주된 요인은 다음과 같습니다.
+- [외국인 관광객(인바운드) 급증:] 한류, 국제적 이벤트 등으로 외국인 관광객 유입이 크게 늘면서 서울 드래곤시티 호텔의 평균 객실 단가(ADR) 및 객실 점유율(OCC)이 동반 상승했습니다. 이로 인해 호텔업 매출 및 수익성이 크게 증가했습니다[1].
+- [쇼핑몰 점진적 성장:] 인천 송도 스퀘어원을 중심으로 쇼핑몰 부문이 견조한 성장세를 기록하고 있으며, 경기 회복과 소비 심리 개선이 긍정적으로 작용했습니다[1].
+- [부동산 자산 가치 제고:] 자회사를 통한 부동산 개발(예: 서부트럭터미널 도시첨단물류단지 개발사업)이 구체화되며 자산가치 재평가(리레이팅) 기대감이 실적 및 기업가치에 긍정적 영향을 주고 있습니다[5].
+(3) [현재 서부T&amp;D가 직면한 주요 이슈 TOP 3]
+1. [서울 드래곤시티 호텔의 성과 지속 가능성]
+   호텔부문이 실적에 가장 큰 영향을 주는 만큼, 인바운드 관광객 증가 추세가 둔화될 경우 ADR·OCC 하락에 따라 실적 변동성이 커질 수 있습니다. 관광 정책, 환율, 국제정세 등 외부 요인에 대한 의존도가 높아 중장기 리스크로 지적됩니다[1].
+2. [도시첨단물류단지 등 개발사업의 리스크와 기회]
+   서부트럭터미널 부지 등 보유 자산의 개발사업이 본격화되고 있습니다. 개발 수익 및 자산가치 상승에 대한 기대가 크지만, 인허가, 자금 조달, 공급 증가에 따른 시장 경쟁 가열 등 다양한 실질적 위험이 상존합니다. 또한 사업 지연시 기대가치가 하락할 수 있다는 점도 주요 리스크입니다[5].
+3. [쇼핑몰 운영 환경의 변화]
+   인천 스퀘어원 등 쇼핑몰 부문이 꾸준히 성장하고 있으나, 오프라인 유통환경 악화, 온라인 소비 확산 등 구조적 변화에 직면해 있습니다. 이에 따른 임대료 수익성 하락, 공실 위험 등이 동반될 수 있어 쇼핑몰 자산의 효율적 운영과 차별화 전략이 중요해지고 있습니다[1].
+[정리:] 서부T&amp;D는 호텔·쇼핑몰 중심의 부동산 자산 운영 회사로, 최근 호텔업 호조와 인바운드 수혜로 실적이 대폭 개선되고 있습니다. 그러나 외국인 관광 수요와 개발사업의 불확실성, 그리고 오프라인 리테일 환경 변화에 유의해야 합니다.
+http://www.leading.co.kr/board/EquityResearch/detail/3101;jsessionid=A5A40F23E41E3B4E1CA0DBDDE720AC95?siteCd=&amp;pageIndex=17&amp;pageSize=10&amp;pageUnit=10&amp;sortColumnName=&amp;sortDirection=&amp;searchColumnName=SUBJECT&amp;searchValue=&amp;boardNo=58
+https://www.ibks.com/company/common/download.jsp?filepath=%2Ffiles%2Ftradeinfo%2Fbusreport&amp;filename=20240626164849330_ko.pdf
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=006730&amp;cn=
+https://stock.pstatic.net/stock-research/company/31/20250616_company_229664000.pdf
+https://www.imfnsec.com/upload/R_E08/2025/05/%5B28072057%5D_006730.pdf</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>271560</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>오리온</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>오리온(271560)은 [비스킷, 파이, 껌, 초콜릿, 스낵 등 다양한 과자류를 국내외에서 제조 및 판매하는 종합 식품회사]입니다. 익산, 청주 등 국내 주요 생산기지 외에도 [중국, 베트남, 러시아, 인도] 등 해외 현지 법인을 보유하여 글로벌 시장에서 활발하게 사업을 전개하고 있습니다[5].
+1. 오리온의 주요 사업
+- [주요 품목]: 초코파이, 오감자, 꼬북칩, 마이구미, 참붕어빵 등 대표적인 과자 브랜드 생산 및 유통
+- [생산 및 공급망]: 국내(익산·청주)와 해외(중국, 베트남, 러시아, 인도 등)에 생산공장 및 현지 유통망 구축
+- [수출 확대]: 미국 등지로 수출 채널을 강화하고 가성비 제품 및 현지 맞춤 제품 출시로 글로벌 점유율 확대 중[1][5].
+2. 최근 분기 호실적의 구체적 요인
+오리온은 [국내와 러시아 중심으로 실적이 크게 개선]되었습니다. 2025년 5월 기준, 주요 4개 법인 합산 매출액은 2,699억 원으로 전년 동기대비 8.7~9% 성장했으며, 영업이익은 455억 원 수준을 기록했습니다[3][4].
+구체적으로는,
+- [내수 시장 둔화 대응]: 가성비 높은 스낵 신제품 출시 및 인기제품(꼬북칩, 마이구미, 참붕어빵 등) 집중 육성으로 소비 트렌드에 신속히 대응[1].
+- [해외 시장 성장]: 특히 러시아와 중국에서 브랜드 파워 확대로 수익성이 높아졌으며, [미국 수출을 올해 400억 원 규모까지 확대]하는 등 해외 매출 비중이 점차 커지고 있습니다[1].
+- [유연한 유통전략]: 유통 채널의 정상화 및 구조 효율화로 원가 부담을 낮추고, 수익성을 높인 것도 실적에 기여한 요인입니다[1].
+- [환율 효과]: 원화 약세에 따른 해외 매출 환산 증가 효과도 일부 반영되었습니다[1].
+3. 현재 오리온이 직면한 주요 이슈 3가지
+- [1) 내수 소비경기 둔화]: 전반적인 국내 식품 소비 시장 침체로 인해 내수 성장 여력이 제한적임. 이에 대응해 오리온은 가성비 제품, 신제품 출시에 집중하고 있지만, 지속적인 내수 방어가 중요한 과제로 남아 있습니다[1].
+- [2) 해외시장 경쟁 심화]: 중국·러시아 등 해외 시장에서도 글로벌 경쟁사가 공격적으로 시장 점유율을 확대하고 있습니다. 오리온은 현지 맞춤 제품과 브랜드 경쟁력으로 대응 중이나, 시장 환경 변화에 대한 신속한 대응이 필수적입니다[1][3].
+- [3) 환율 및 원가 변동성]: 원재료 가격, 물류비 등에서 비용 상승 압력과 환율 변동성이 지속되어 수익성 관리에 부담이 되고 있습니다. 실제로 각국 통화 변동에 따른 실적 리스크가 상존하고 있어 사업 포트폴리오 다각화, 비용 효율화가 요구됩니다[1][4].
+구체적인 현안 외에도, 장기적으로는 미국 등 신규 진출 시장에서의 현지화 전략, ESG경영 강화와 같은 신경영 이슈도 부상 중입니다.
+※ 참고: 오리온은 2025년 7월 기준 시가총액 3조 6,531억원, PER 8~9배 수준, ROE 13%대 등으로 코스피 내에서도 밸류에이션 매력이 높다는 평가를 받고 있습니다[2][5].
+https://bbn.kiwoom.com/rfCR10939
+https://securities.miraeasset.com/bbs/download/2125955.pdf?attachmentId=2125955
+https://m.imfnsec.com:442/upload/R_E08/2025/06/%5B17175243%5D_271560.pdf
+https://stock.pstatic.net/stock-research/company/66/20250618_company_315370000.pdf
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=271560</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>083450</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GST</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>GST(083450)는 [반도체 및 디스플레이 제조공정에 사용되는 유해가스 정화장치(Scrubber)와 온도조절장치(Chiller)]를 주력으로 생산·공급하는 전문기업입니다[1][3][4]. 특히, 반도체 공정 중 발생하는 유해가스를 정화하는 스크러버와, 공정 장비의 온도를 정밀하게 제어하는 칠러 부문에서 국산화된 원천기술을 보유하고 있어, 국내외 주요 반도체 및 디스플레이 제조사에 장비를 납품하고 있습니다[1][4].
+최근 GST가 강한 실적 개선을 보인 주된 요인은 다음과 같습니다.
+- [글로벌 반도체 시장 투자 확대:] 2023년 하반기부터 삼성전자, SK하이닉스 등 대형 메모리 업체들이 고대역폭메모리(HBM) 등 고부가 제품 확대 및 AI 서버 수요 증가에 대응하기 위해 공정 설비 투자에 적극 나서면서, 이에 필수적인 환경·온도 관리 장비 수요가 꾸준히 증가했습니다[3].
+- [국산화 및 경쟁력 확보:] 해외 의존도가 높던 스크러버와 칠러 시장에서 국산화 원천기술을 바탕으로 기술력과 가격경쟁력을 동시에 확보해 적극적인 시장점유율 확대와 신규 고객사 확보에 성공한 점도 강한 실적 개선의 배경입니다[1].
+- [액체 냉각 등 신기술 분야 진출:] 기존 공기냉각 방식 대비 효율성이 높고 에너지 절감 효과가 뛰어난 액체 냉각 시스템(Liquid Cooling)의 도입이 데이터센터 등으로 확대되고 있습니다. GST는 액체 냉각 시스템 국산화 동향을 바탕으로 신사업 매출 증대 기대감이 반영되고 있습니다[1].
+GST가 현재 직면한 핵심 이슈는 다음 세 가지입니다.
+1. [메모리 투자 사이클 변동성:] 반도체 업황과 설비투자(Capex) 변동은 GST 주력 시장에 즉각적인 영향을 미칩니다. 글로벌 메모리 가격과 설비투자 결정이 지연될 경우 매출 성장세가 둔화될 수 있습니다.
+2. [신규 냉각기술 경쟁 심화:] 액체 냉각과 관련해 글로벌 기업 및 대형 장비사들과의 기술 경쟁이 본격화되고 있습니다. 혁신 속도와 원가경쟁력 유지가 중요해졌으며, 원천특허 등 기술적 진입장벽 확보가 기업 경영의 관건입니다[1].
+3. [글로벌 공급망 안정성:] 반도체 부품 및 소재, 핵심 원자재의 글로벌 공급망 불안정 리스크 역시 주요 이슈입니다. 중국, 미국 등 해외 주요 시장에서의 대외 변수(수출 규제, 해외 경쟁사 진입 등)가 사업 수주와 안정적 생산체계에 영향을 줄 수 있습니다[3].
+이밖에도 ESG 강화, 핵심 인력 확보, 고객사 다변화 등도 중장기 과제로 부각되고 있습니다. GST는 반도체 장비 국산화와 신기술 선점을 바탕으로 향후 성장 동력 확보를 위해 지속적으로 대응 중입니다[1][4].
+https://m.finance.daum.net/quotes/A083450/news/stock/20241222171303586
+https://m.thinkpool.com/item/083450
+https://alphasquare.co.kr/home/stock-summary?code=083450
+https://tossinvest.com/stocks/A083450/order
+https://comp.fnguide.com/SVO2/asp/SVD_Dart.asp?pGB=1&amp;gicode=A083450&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=111&amp;stkGb=701</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>307280</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>원바이오젠</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>원바이오젠(307280)은 [창상피복재(상처 보호 및 치료용 의료용 소재) 제조 및 판매]를 주력 사업으로 하는 코스닥 상장 기업입니다. 회사는 2006년 설립 이후 창상피복재 시장에서 독자적 기술력을 바탕으로 폴리우레탄 폼, 하이드로콜로이드, 하이드로겔, 필름 등 다양한 제품군을 개발 및 생산하며, 수술 부위, 화상, 만성 상처 등 다양한 목적에 맞는 솔루션을 제공합니다[1][2][4].
+1. [핵심 사업]
+   - [창상피복재]: 삼출액 흡수, 오염/감염방지, 출혈·체액 손실 방지 등 상처의 보호와 치료를 돕는 의료용 소재를 생산합니다.
+   - [주요 제품군]: 폴리우레탄 폼(2022년 기준 매출 비중 38%), 하이드로콜로이드, 하이드로겔, 필름류 드레싱 등.
+   - [기술적 차별성]: 회사는 특히 국내 최초의 보더 생산 설비와 핵심 소재 국산화로 원가와 품질 경쟁력을 높이며, 폴리우레탄 폼 흡수체 및 점착 시트 일체형 제품 개발 등에서 차별화된 기술을 보유하고 있습니다[1].
+   - [신사업(더마코스메틱)]: 임상 기능성을 결합한 의료기기 화장품(더마코스메틱) 분야에도 신규 진출해 피부 재생, 미백, 여드름, 안티에이징 등 고기능성 제품 개발 및 상용화를 추진하고 있습니다[3].
+2. [최근 분기 강한 실적의 배경]
+   - [제품군 다각화와 핵심제품 성장]: 폴리우레탄 폼을 중심으로 한 주요 창상피복재 사업이 성장세를 주도했으며, 2020년 71억 원 → 2021년 74억 원 → 2022년 102억 원으로 매출이 빠르게 증가했습니다[1].
+   - [국내외 신규 파트너 확대]: 신규 유통채널 및 협력사 확보를 통해 매출처가 확대되고 있습니다. 수입에 의존하던 핵심 소재 국산화로 수익성도 대폭 향상되었습니다[1].
+   - [기술력 기반 고부가가치 제품 확대]: 국내 최초 보더 제품 상업화, 하이드로콜로이드, 하이드로겔 등 첨단 소재 제품이 시장 반응을 얻으며 전사 매출이 견조하게 성장하고 있습니다[1].
+   - [차세대 제품 개발]: 바이오필름 형성을 억제하는 신제품 ‘텍솝하이드로힐넷’ 등 임상 필요성 높은 신제품이 허가·상용화 단계에 진입해 성장 동력으로 기대받고 있습니다[2].
+3. [주요 이슈 TOP 3]
+   - [신사업 확장에 따른 리스크와 기회]: 더마코스메틱 등 B2C 분야 진출은 기존 창상피복재에 비해 마케팅·유통 경쟁이 치열하고 규제 환경이 복잡해 리스크가 존재하지만, 회사의 기술력이 잘 적용될 경우 신규 성장동력 확보가 가능합니다[3].
+   - [핵심 제품군의 시장 경쟁 심화]: 국내외 경쟁사들이 유사한 상처관리 제품을 출시하며 기술력·가격경쟁이 격화되고 있습니다. 원천기술 방어와 신규 고객사 확보가 중장기적 과제가 되고 있습니다[1].
+   - [신규 제품(텍솝하이드로힐넷 등)의 상용화와 실적 기여 시점]: 차세대 제품이 임상·허가를 마치고 본격적으로 시장에 진입하여 실적에 긍정적 효과를 내기까지 시간이 소요될 수 있으며, 일정 및 시장 반응이 주요 변수로 작용할 전망입니다[2].
+이처럼 원바이오젠은 [기존 창상피복재 시장에서의 기술 및 생산력]을 바탕으로 최근 강한 실적을 내고 있으며, 사업 다각화와 고기능성 신제품 출시를 통해 성장세를 이어가는 한편, 신사업 리스크 관리·경쟁 심화·차세대 제품의 조기 상업화가 주요 과제로 부각되고 있습니다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1682382463802.pdf
+https://www.k5.co.kr/stock/307280
+http://www.wonbiogen.co.kr/kor/customer/notice_view.html?f_uid=10&amp;f_div=notice
+https://www.iprovest.com/weblogic/RSDownloadServlet?filePath=%2Fresearch%2Freport%2Fcominf%2F20220629%2F20220629_307280_20200051_5.pdf
+https://comp.wisereport.co.kr/samsung/company/c1020001.aspx?cmp_cd=307280&amp;cn=</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>031980</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>피에스케이홀딩스</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>피에스케이홀딩스(031980)는 [반도체 제조용 공정장비 사업을 중심으로 하는 중견 상장기업]입니다. 최근 업황 호조세에 힘입어 실적이 크게 개선되었으나, 산업 환경 변화와 내부 경쟁력 강화를 위한 과제도 부각되고 있습니다.
+1. [주요 사업 내용]
+- [피에스케이홀딩스의 핵심 사업은 반도체 제조용 공정장비 제조 및 판매]입니다. 주요 제품군에는 웨이퍼 표면 처리, 세정, 건조 등 전공정 장비와, 자회사 PSK를 통한 후공정 장비가 포함됩니다.  
+- 2019년 4월 반도체 후공정 장비와 전공정 장비 비즈니스를 분할해 지배구조 효율성 강화 및 사업 전문화에 나섰습니다[3][4].
+- 최근에는 반도체 패키징과 고대역폭메모리(HBM) 등 차세대 메모리 시장을 겨냥한 장비 공급이 눈에 띄게 증가하고 있습니다[1].
+2. [최근 실적 호조 배경]
+- [2024년 3분기 매출액 512억 원, 영업이익 195억 원을 기록해 직전분기와 전년 동기 대비 각각 26%, 1,983% 증가]했습니다. 이는 반도체 업황 회복과 대규모 HBM 투자 수요에 기인합니다[2].
+- SK하이닉스 등 국내 주요 메모리 반도체 업체들이 HBM 생산능력을 공격적으로 증설하면서, 피에스케이홀딩스의 [Descum(플라즈마 세정)·Reflow(솔더 리플로우) 장비 납품이 급증]했습니다[1][2].
+- 글로벌 AI·고성능 컴퓨팅(HPC) 수요 확대에 따른 첨단 메모리 투자 열풍이 실적에 직접적으로 반영되고 있습니다[2].
+- 수익성 지표(EV/EBITDA, ROE, 영업이익률 등)도 전년 대비 큰 폭으로 개선되었습니다[1].
+3. [현재 주요 이슈 3가지]
+- [HBM 등 첨단 반도체 장비 시장 경쟁 격화]
+  반도체 장비 시장 내 경쟁 기업(국내외 대형사 및 신생 장비사)과의 기술경쟁, 가격경쟁 심화로 인한 수주 경쟁이 치열해지고 있습니다. 지속적인 기술 개발 및 제품 차별화가 필요한 상황입니다[1][2].
+- [고객사 투자 사이클 변동성]
+  주요 매출처인 메모리 반도체 업체들의 투자 타이밍 및 규모 변동성이 크기 때문에, 특정 수요처에 대한 의존도가 높아질 경우 실적 변동성이 확대될 수 있습니다[1][2].
+- [사업 포트폴리오 다변화와 글로벌화 압력]
+  후공정과 전공정 장비의 균형적 성장, 신규 글로벌 고객사 확보, 산업 트렌드 변화(차세대 반도체 공정, 미래 메모리 소재)에 대한 선제 대응 등 사업구조 다변화와 해외 매출 확대가 당면 과제로 부각되고 있습니다[1][3].
+이상과 같이, 피에스케이홀딩스는 [반도체 장비 시장의 기술 혁신과 수요 확대에 적극적으로 대응하며 실적 성장을 실현하고 있지만], 산업 내 경쟁 심화와 매출처 집중에 따른 리스크, 그리고 글로벌 시장 진출 확대라는 도전 과제에도 직면해 있습니다.
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024081607121385K_02_03.pdf
+https://static.roa.ai/research/company/20241024_company_924338000.pdf
+https://www.deepsearch.com/analytics/company-analysis/KRX:031980?c-name=%25ED%2594%25BC%25EC%2597%2590%25EC%258A%25A4%25EC%25BC%2580%25EC%259D%25B4%25ED%2599%2580%25EB%2594%25A9%25EC%258A%25A4&amp;c-symbol=KRX%253A031980&amp;psc-list=NICE%253AIR7354%253BNICE%253A171609%253BNICE%253AIR7391%253BKRX%253A319660%253BKRX%253A031980&amp;psr-list=KRX%253A265520%253BKRX%253A222080%253BKRX%253A183300%253BKRX%253A079370%253BKRX%253A108230%253BNICE%253A009612%253BNICE%253A066072%253BNICE%253A388491%253BKRX%253A161580%253BKRX%253A036930%253BKRX%253A083650%253BNICE%253AIR7354%253BNICE%253A171609%253BNICE%253AIR7391%253BKRX%253A319660%253BKRX%253A031980
+https://invest.deepsearch.com/stock/031980/
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240321002420&amp;docno=&amp;viewerhost=</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>001800</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>오리온홀딩스</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>오리온홀딩스(001800)는 식품, 바이오, 투자 등 다양한 사업영역을 가진 [지주회사]로, 오리온그룹의 핵심 지주 역할과 신사업 진출을 병행하고 있습니다.
+1. [주요 사업 내용]
+- [지주회사 역할]: 본사(지주사)는 오리온, 오리온바이오로직스 등 여러 자회사의 지분을 관리하고, 이들 회사의 투자·사업 방향을 결정합니다[3].
+- [식품사업]: 자회사 오리온을 통해 과자, 음료, 간편대용식 등 식품 제조와 판매를 영위합니다. 대표 브랜드로는 초코파이, 닥터유(영양바), 마켓오(간편식) 등이 있습니다[2].
+- [바이오사업]: 치주질환 치료제(오리온바이오로직스), 진단키트, 신약 개발 등 제약·바이오 분야로 사업영역을 확장하고 있습니다[1][2][5].
+- [기타사업]: 영상 콘텐츠, 기타 투자 등 다양한 사업을 전개 중입니다[3].
+2. [최근 실적 호조의 주요 배경]
+- [지주회사 수익 안정성]: 주력 자회사(특히 오리온)의 실적 호조와 배당·지분법 이익 수입 등이 전체 실적 견인을 이끌고 있습니다[3].
+- [식품사업 글로벌 성장]: 중국, 베트남 등 해외 시장에서 과자·식품류 판매가 호조를 기록하며 매출 증가를 견인했습니다[2].
+- [사업 다각화 효과]: 바이오사업 신규 진출 및 기존 브랜드의 프리미엄 제품 라인업 확대가 전반적인 성장에 기여했습니다[1].
+- [기관 투자 유입]: 최근 기관 대량 매수, 52주 신고가 경신 등 투자심리 개선도 주가 및 기업가치에 긍정적으로 작용하고 있습니다[4].
+3. [현재 당면 주요 이슈 세 가지]
+- [바이오 부문 성장 및 리스크]  
+  오리온바이오로직스(치주질환 치료제 등)에서 신약 연구 및 생산을 시작했으나, 해당 시장의 성장 가능성, 인허가 및 기술 상업화의 난이도, 투자 자금 부담 등 신성장 동력의 안착 여부가 중대 이슈입니다[1][5].
+- [지주회사 할인(컨글로머릿 디스카운트) 문제]  
+  지주사라는 구조적 특성상, 순자산가치(NAV) 대비 주가가 저평가되는(할인 거래되는) 경향이 있습니다. 기업 인수합병, 계열사 가치 증대 등으로 시장 평가 개선이 요구되고 있습니다[3].
+- [해외사업 변동성과 환율 위험]  
+  중국·베트남 등 신흥국 수익 확대가 긍정적이지만, 현지 경기, 정책 리스크, 환율 변동 등 대외 리스크가 실적에 큰 영향을 미칠 수 있습니다[2][3].
+이처럼 오리온홀딩스는 핵심인 식품 비즈니스의 해외 확장, 바이오 신사업 진출 등으로 성장세를 보이고 있으나, 바이오사업 안정화와 지주사 구조의 할인, 해외리스크 관리 등 복합적인 과제에 직면해 있습니다.
+https://deepsearch.com/analytics/company-analysis/KRX:001800/history?c-name=%25EC%2598%25A4%25EB%25A6%25AC%25EC%2598%25A8%25ED%2599%2580%25EB%2594%25A9%25EC%258A%25A4&amp;c-symbol=KRX%253A001800
+https://www.oriongroup.co.kr
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=001800&amp;cn=
+https://m.thinkpool.com/item/001800
+https://m.invest.zum.com/stock/001800/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>053690</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>한미글로벌</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>한미글로벌(053690)은 [건설 프로젝트 관리(PM, Construction Management)와 컨설팅 서비스를 중심 사업]으로 하는 국내 1위 건설사업관리(CM) 전문 기업입니다[1][2][4]. 본사는 2009년 코스피에 상장되었으며, 주력 사업은 대형 건설 프로젝트의 기획, 설계, 발주, 시공 및 준공에 이르는 전 과정에서 발주자(공공·민간)의 이익을 대리하여 관리, 감리, 기술 컨설팅 등을 제공합니다. 주요 수주 분야는 데이터센터, 반도체·2차전지 및 첨단공장, 리모델링 및 대형 인프라 개발 등입니다[1][2][3].
+### 1. 한미글로벌의 핵심 사업
+- [건설사업관리(PM/CM):] 국내외 대형 건설 프로젝트의 계획, 설계관리, 시공관리, 준공관리 전반의 프로젝트 매니지먼트 제공.
+- [하이테크 CM:] 반도체·2차전지·데이터센터 등 첨단산업 생산시설의 신·증설 관련 특화된 프로젝트 관리[2][3].
+- [글로벌 사업:] 미국, 사우디아라비아, 헝가리 등 60개국 이상에서 다양한 인프라 및 부동산 개발 프로젝트 수행[1][4].
+- [컨설팅 및 부동산개발:] 사업성 검토, 인허가, 시공사 선정, 지속가능건축 인증 등 컨설팅, 일부는 부동산개발까지 확장[4].
+2022년 기준 매출 비중은 하이테크 30%, 국내 비하이테크 30%, 글로벌 부문 40%로, 해외 및 첨단사업 매출이 매우 큰 것이 특징입니다[3].
+### 2. 최근 분기 호실적의 구체적 배경
+한미글로벌은 2023~2024년 [국내외 데이터센터 시장의 성장, 재건축 시장의 활성화, 해외 고부가가치 PM 프로젝트 수주]에 힘입어 실적이 견조했습니다.
+- [데이터센터 등 IT 인프라 특수:] 국내외 빅테크·IT 업계의 데이터센터 신·증설 수요 확대에 따른 프로젝트 관리 수주 증가[1][3].
+- [재건축 및 리모델링 붐:] 국내 도시정비사업, 재건축, 대형 리모델링 프로젝트 확대.
+- [글로벌 수주 성장:] 미국 자회사 Otak, Inc와 사우디, 헝가리, 폴란드 등에서의 신규 대형 프로젝트 수주 성장[1][4].
+- [하이테크 산업 투자 확대:] 삼성전자, 국내 배터리 제조사 등 하이테크 제조업체의 공장 신·증설 투자. 동사 하이테크 CM 부문 수주 증가[2][3].
+하지만 2024년 하반기 들어 일부 반도체·2차전지 분야의 기업 성장세 둔화에도 불구하고, 미국 및 유럽 등 해외 시장의 성장, 데이터센터 특수를 바탕으로 실적이 방어되고 있습니다[1].
+### 3. 당면 주요 이슈 3가지
+1. [반도체·2차전지 업황 둔화와 하이테크 매출 감소 위험:]  
+   최근 글로벌 경기 둔화 및 국내 하이테크(반도체, 2차전지) 시장의 보수적 투자로 해당 사업 매출이 일부 감소세를 보임[1].
+2. [국내외 시장 경쟁 심화:]  
+   프로젝트 관리 시장의 경쟁강도 증가, 국내외 로컬·글로벌 플레이어와의 경쟁 심화. 특히 글로벌 고부가가치 프로젝트 수주전에서 인력, 기술 경쟁이 치열함[2][4].
+3. [글로벌 사업 리스크(환율·정치적 불확실성):]  
+   해외사업 비중이 높아지며 국가별 환율 변동, 정치·제도 리스크(사우디, 동유럽 등) 대응과 프로젝트 관리 리스크가 증가[1][4].
+이 외에도, 데이터센터·IT 개발 수요 변화, 국내 부동산 경기에 따른 프로젝트 발주 변동성, 인력 확보 및 전문인력 양성의 어려움 등이 지속적 관리 이슈입니다.
+한미글로벌은 외형 성장과 글로벌 시장 다변화에 성공했으나, 하이테크 사업 부문의 경기민감도와 해외리스크 대응 전략, 치열한 국내외 경쟁 구도가 당분간 중요한 경영과제입니다.
+https://www.hanmiglobal.com/uploads/customer/%5B%ED%95%9C%EC%96%91%EC%A6%9D%EA%B6%8C%5D%20%EC%9E%AC%EA%B1%B4%EC%9D%98%20%EC%88%A8%EA%B2%A8%EC%A7%84%20%EA%B0%95%EC%9E%90.pdf
+https://www.hmglobal.com/uploads/customer/%ED%95%9C%EA%B5%ADir%ED%98%91%ED%9A%8C%EB%A6%AC%ED%8F%AC%ED%8A%B8_22020407.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1701817698515.pdf
+https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=1&amp;gicode=A053690&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=701
+http://snusmic.com/wp-content/uploads/2020/11/170414_%ED%95%9C%EB%AF%B8%EA%B8%80%EB%A1%9C%EB%B2%8C_2%ED%8C%80.pdf</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>삼아제약</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1. [삼아제약의 핵심 사업]
+삼아제약(009300)은 [의약품 제조 및 판매]를 주요 사업 목적으로 하는 코스닥 상장 제약사입니다[2][3]. 사업 분야는 아래와 같이 세분화됩니다.
+- [호흡기계 의약품]: 기침, 거담, 천식, 비염 등 기관지 및 호흡기 질환 치료제(주요 제품: 씨투스, 베포린, 코데날정 등)
+- [항생제 및 기타 치료제]: 세균성 질환 치료(클라리움 등), 소화기계, 해열진통소염제, 피부치료제(아토피 등), 순환/내분비계, 비뇨기계 제품 등
+- [일반의약품과 건강기능식품]: 비타민, 미네랄, 건강보조식품(비아신세립, 노마골드 등)
+이 중 [호흡기계 의약품]이 핵심 매출원이며, 대면 영업 강화로 해당 부문 점유율이 높습니다[1][2].
+2. [최근 분기 호실적의 원인]
+최근 분기(2024년 9월 기준)에 삼아제약은 [매출액 5.8% 증가, 영업이익 9.1% 증가, 당기순이익 8.5% 증가]라는 견조한 실적을 기록했습니다[2]. 주요 원인은 다음과 같습니다.
+- [호흡기질환 제품 매출 증가]: 호흡기 계열 제품 매출이 전년동기대비 19% 상승하며 실적 성장의 주요 동력 역할을 했습니다. 이는 코로나19 엔데믹 이후 호흡기 질환 관련 수요 증가와 시장 흐름이 맞물린 결과로 분석됩니다[2].
+- [대면 영업 확대]: 영업사원들의 대면 방문을 통한 적극적인 영업이 코로나19 이전 수준으로 회복되면서, 종합병원 및 의원 채널에서의 수주가 늘었습니다.
+- [제품 포트폴리오 최적화 및 고부가가치 제품 비중 확대]: 단순 제네릭 의약품보다는 시장 내 차별화된 특허 또는 고가치 의약품의 유통 확대에 집중한 전략이 통했습니다.
+- [규모의 경제 실현]: 대표 제품군의 생산량 확대를 통한 단가 경쟁력 제고 효과가 발생했습니다[2].
+3. [현재 삼아제약이 직면한 3가지 주요 이슈]
+아래는 시장 또는 기업공시에서 직·간접적으로 확인되는 삼아제약의 핵심 이슈 3가지입니다.
+- [신제품 및 파이프라인 개발 필요성]  
+  현재 호흡기질환 치료제에 대한 의존도가 높아 해당 분야 외에도 중장기 신성장 동력 확보가 필요합니다. 동일 치료 영역 내 경쟁사 진입 및 제네릭 확대에 대응하기 위해 신약, 개량신약 등 R&amp;D 혁신 역량이 요구됩니다[2].
+- [원가 상승 압력 및 수익성 방어]  
+  최근 원재료비 인상 및 생산관련 비용 부담이 늘어나면서, 제품 가격 인상이 용이하지 않은 상황에서 수익성 방어가 과제로 남아 있습니다. 실제로 판관비, 인건비 등 고정비 부담도 커진 상황이어서 원가구조 개선 및 생산 효율성 제고 경쟁력이 중요해졌습니다.
+- [의약품 유통 및 대면 영업 환경 변화]  
+  코로나19 여파로 한동안 위축되었던 대면 영업이 회복 국면에 있으나, 비대면 디지털 마케팅과 하이브리드 영업방식으로의 전환, 건강기능식품 경쟁 심화 등 다양한 채널 변화에 효과적으로 대응해야 하는 상황입니다.
+이상의 내용은 삼아제약의 공식 공시자료 및 시장 보고서를 기반으로 도출된 구체적이고 실질적인 정보입니다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1605831759061.pdf
+https://comp.fnguide.com/SVO/WooriRenewal/Snapshot.asp?pGB=12&amp;gicode=A009300
+https://w4.kirs.or.kr/download/tech/246_%EC%82%BC%EC%95%84%EC%A0%9C%EC%95%BD_%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D%EB%B3%B4%EA%B3%A0%EC%84%9C.pdf
+https://deepsearch.com/analytics/company-analysis/KRX:009300?c-name=%25EC%2582%25BC%25EC%2595%2584%25EC%25A0%259C%25EC%2595%25BD&amp;c-symbol=KRX%253A009300&amp;cd-cat=disclosure&amp;cd-doc-op=perform
+https://www.valueline.co.kr/finance/summary/009300</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>033100</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>제룡전기</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>제룡전기(033100)는 [배전 변압기 및 전력기기 제조·판매]를 주력 사업으로 하는 코스닥 상장기업으로, 최근 수출 확대와 원가절감에 힘입어 실적이 크게 개선되는 모습을 보이고 있습니다.
+1. [제룡전기의 핵심 사업]
+- 제룡전기는 [배전 변압기, 개폐기, GIS(가스절연개폐장치)의 제조 및 판매]를 주요 사업으로 영위하고 있습니다[1][2][4]. 
+- 회사 매출의 대부분은 변압기 생산·판매에서 발생하며, [한국전력공사]가 국내 주요 매출처입니다[2].
+- 최근에는 [해외 수출 비중이 2021년 25%에서 2023년 80%까지 급증]하는 등 글로벌 시장에서 성장세를 보이고 있습니다[1][4].
+2. [최근 분기 실적 호조의 원인]
+- [수출 확대]: 미국 등 해외 시장에서의 공급 우위에 힘입어 수출이 빠르게 늘었습니다. 이로 인해 매출은 2022년 861억원에서 2023년 1,839억원으로 두 배 이상 증가했습니다[4].
+- [제품 판매단가 상승]: 글로벌 변압기 수요 증가와 해외 시장 물량 확대에 따라 2023년 4분기 기준 변압기 수출단가가 전년 대비 20% 상승했습니다[4].
+- [원가 구조 개선]: 원재료(전기강판, 구리 등) 가격 하락과 제조공정 효율화, 숙련 인력 확보로 비용이 절감되었습니다. 대규모 설비 투자 대신 [인력 충원과 숙련도 제고로 수익성을 높인 점]도 주목됩니다[4].
+- [생산 효율화]: 소품종 대량생산 체제로 전환하면서 생산량이 빠르게 확대되고, 이익률도 늘어났습니다[4].
+3. [현재 제룡전기가 직면한 핵심 이슈 3가지]
+- [원재료 가격 변동 리스크]: 제룡전기는 포스코 등에서 공급받는 전기강판, 구리 등 원재료의 가격 변화에 직접적으로 영향을 받습니다. 최근에는 가격 하락이 마진 확대에 도움을 줬으나, 향후 가격 반등 시 수익성이 다시 압박받을 수 있습니다[3][4].
+- [글로벌 수주 지속성]: 2023년까지는 해외 수주가 가파르게 증가했으나, 미국 및 기타 주요 시장에서의 수주 성장률이 지속 가능할지, 그리고 신규 시장에서 경쟁력을 유지할 수 있을지가 핵심 변수입니다[4].
+- [숙련 인력 확보 및 생산성 관리]: 대규모 증설 대신 숙련 인력 채용 및 활용에 중점을 두고 있는데, 지속적인 인력 확보와 생산성 유지는 앞으로의 성장에 중요한 역할을 할 것입니다. 인력 부족이나 숙련도 저하 시 생산 효율이 떨어질 수 있는 리스크가 있습니다[4].
+이처럼 제룡전기는 [제조업 기반 전기설비 전문기업]으로 성장성과 수익성을 동시 추구하고 있으며, 원자재 시장의 변동성과 글로벌 수주 경쟁, 인력 문제 등이 향후 실적에 직접적인 영향을 줄 것입니다.
+https://ko.wikipedia.org/wiki/%EC%A0%9C%EB%A3%A1%EC%A0%84%EA%B8%B0
+https://deepsearch.com/analytics/company-analysis/KRX:033100?c-symbol=KRX%3A033100
+https://m.finance.daum.net/quotes/A033100/talks/13514096
+https://ssl.pstatic.net/imgstock/upload/research/company/1709852777300.pdf
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=033100&amp;cn=</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>241560</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>두산밥캣</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>(1) [두산밥캣의 핵심 사업]
+두산밥캣(241560)은 [소형 건설장비], 특히 [스키드 스티어 로더(Skid-Steer Loader), 미니 굴삭기, 콤팩트 트랙 로더] 등 소형 중장비 제조 및 판매를 주력으로 하는 기업입니다[1][3]. 주 고객은 북미 지역을 포함해 전 세계 건설‧농업‧조경 분야로, 제품은 주로 주택건설, 전원주택, 공공작업 등의 다양한 경량 건설·산업현장에 사용됩니다[1]. 최근에는 산업용 지게차(Industrial Truck)와 유틸리티 장비 등으로 사업 포트폴리오를 확장하고 있으며, [혁신적인 기술 도입과 친환경 솔루션 개발]에도 힘쓰고 있습니다[1][3]. 전체 매출의 70% 이상이 북미 시장에서 발생하고, 'Bobcat' 브랜드가 세계적으로 높은 인지도를 확보하고 있습니다.
+(2) [최근 분기 실적이 강한 이유]
+두산밥캣은 최근 [수년간 견고한 매출 성장과 수익성]을 기록하고 있습니다. 2024년 1분기 실적 기준 매출액은 2조 4,783억원으로 전년대비 3% 증가했고, 영업이익도 3,000억원을 기록하여 컨센서스를 상회하는 등 시장 기대를 넘는 성과를 보였습니다[1]. 주요 배경은 다음과 같습니다.
+- [북미 주택 및 인프라 투자 확대]: 미국, 캐나다 등 북미 지역에서 리노베이션‧주택 증축 수요가 꾸준히 이어져 소형 건설 장비 수요가 견조하게 유지되고 있습니다. 북미 매출 비중이 75%를 상회하는 구조이기 때문에 현지 시장 호조가 실적 견인에 결정적이었습니다[1][3].
+- [제품 가격 인상과 믹스 개선]: 공급망 이슈로 인한 원자재 가격 상승분을 제품가격에 선제 반영함과 동시에, 고마진 프리미엄 및 전동화 제품 비중이 점증하며 전체 수익성 개선에 기여하고 있습니다[1].
+- [운영 효율화 및 비용 절감]: 자동화 등 공정 혁신을 통해 제조 원가와 운반 비용 효율성을 높였으며, 더불어 재고관리를 통한 현금흐름 및 유동성도 좋게 유지되고 있습니다[2].
+(3) [현재 당면한 주요 이슈 3가지]
+1. [미국 내 금리 및 경기 전망 불확실성]
+   - 북미 시장 의존도가 매우 높은 만큼, [미국 금리 정책에 따른 주택/건설 시장 위축 가능성]이 실적에 직접적인 영향을 줄 수 있습니다. 금리 상승 혹은 경기 둔화 시 장비 투자지연‧수요 감소로 실적이 흔들릴 위험이 있습니다[1][2].
+2. [사업 포트폴리오 다각화 및 신사업 내실화]
+   - 기존 소형 건설장비에서 [전동화, 친환경, IT융합(스마트장비 등)] 분야로 사업 확장이 필요한 시점입니다. 실제로 완성차 대비 친환경 요구가 높아지는 가운데, 전기 굴삭기 등 신제품의 조기 시장 안착 및 기술 경쟁력이 중요한 과제로 부상하고 있습니다[1][3].
+3. [그룹 내 지배구조 개편 및 전략적 의사결정]
+   - 2024년 하반기 두산그룹 내 사업재편 이슈, 두산밥캣-두산로보틱스의 주식교환 계획 철회 등 [지배구조 변동]이 회사의 전략적 투자, 장기 방향성에 영향을 줄 수 있습니다. 시장에서는 이와 관련한 불확실성, 모회사나 그룹 차원의 추가 변동 가능성을 주요 리스크로 주목하고 있습니다[2].
+기타 유의사항으로는 환율, 글로벌 공급망, 경쟁사 대비 제품·기술 우위 유지 여부 등이 실적 및 성장성에 지속적인 영향을 미칠 것으로 보입니다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1712798049000.pdf
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024083021471843K_02_03.pdf
+https://securities.miraeasset.com/bbs/download/2126249.pdf?attachmentId=2126249
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024101515051846K_02_05.pdf
+https://stock.pstatic.net/stock-research/company/1/20250429_company_635801000.pdf</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>000270</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>기아</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>1. [기아(000270)의 핵심 사업]
+- 기아는 [승용차, 스포츠유틸리티차량(SUV), 레저용 차량(RV), 상용차, 하이브리드 및 전기차 등 각종 자동차의 개발, 제조, 판매]를 주 사업으로 영위하는 한국의 대표 자동차 기업입니다[1][4].
+- 대표적인 차량 브랜드로는 [K3, K5, K7, K9 (세단), 쏘울, 스포티지, 쏘렌토 (SUV/RV), 그리고 다양한 상용버스와 트럭]이 있습니다[1].
+- 국내뿐만 아니라 [북미, 유럽, 아시아 등 글로벌 시장에 현지 법인 및 공장을 두고 적극적으로 해외 판매]를 확대하고 있습니다. 내수 대비 해외 매출 비중이 약 60%로, 해외 시장 성장이 중요한 역할을 차지합니다[3].
+- 부가적으로 [자동차 부품 생산, 차량 렌트, 정비용역 사업]도 병행하고 있습니다[1].
+2. [기아의 최근 분기 강력한 실적 배경]
+- 2025년 2분기 잠정 매출액은 [29조 3,496억 원(전년 대비 6.46% 증가)]로 매우 높은 매출 성장세를 기록했습니다[3].
+- 이 같은 [실적 호조의 주요 요인]은 다음과 같습니다.
+  - [SUV, 하이브리드, 전기차 등 고수익 신차 판매 확대]: 쏘렌토, 스포티지 등 SUV 라인업, 그리고 하이브리드 및 전동화 모델 판매가 강세를 보이며 평균 판매 단가(ASP)와 수익성이 크게 개선됐습니다[1][2].
+  - [글로벌 시장 내 입지 확대]: 미국, 유럽 현지 생산 및 판매망 확대로 신차 공급이 원활해졌으며, 각 시장 특성에 맞춘 차량 라인업 효과로 해외 판매가 증가했습니다[2][3].
+  - [가격 인상 및 환율 효과]: 글로벌 원자재 가격 상승 및 환율 변동에 따른 차량 단가가 높아진 점도 긍정적 영향을 주었습니다[3].
+- 다만 영업이익과 순이익은 원가 상승, 연구개발 투자 확대, 일부 해외 시장 마케팅 비용 증가 등으로 전년 동기 대비 감소세를 보였습니다(영업이익 -24.12%, 순이익 -23.28%)[3].
+3. [현재 기아가 직면한 주요 3가지 이슈]
+- [전기차 시장의 성장 둔화 및 중저가 전략 대응]
+  - 글로벌 전기차 수요가 예상보다 빠르게 둔화되는 가운데, 기아는 [EV3, EV2 등 중저가 전기차 풀라인업 구축과 가격 경쟁력 강화] 전략에 집중하고 있습니다. 유럽·미국·국내별 맞춤형 전기차 출시와 생산 전략, 원가 절감이 중요한 과제로 부상했습니다[2].
+- [자율주행/SDV(Software Defined Vehicle) 전환 가속]
+  - 현대차그룹 내에서 진화하는 [자율주행 및 소프트웨어 중심 차량(SDV) 개발] 경쟁이 치열해지고 있습니다. 레벨2 수준의 자율주행 기능 도입, OTA(무선 소프트웨어 업데이트), 차량 내 소프트웨어 플랫폼 강화 등이 핵심이고, 이 분야 투자와 인력이 확대되고 있습니다[2].
+- [수익성 방어 및 글로벌 공급망 리스크]
+  - 원자재 가격 변동, 물류비 상승, 환율 변동성, 지정학적 리스크 등 [수익성 악화 요인에 대한 적극적 대응]이 요구되고 있습니다. 또한 미국, 유럽 공장 운영 최적화, 아시아 신흥시장 진출 등 공급망 안정화 및 다변화가 중요한 현안입니다[3].
+이처럼 기아는 전통 내연기관 중심 기업에서 전기차·미래차 전환, 소프트웨어 혁신, 고수익 시장 확대, 원가 및 리스크 관리 등 복합적 과제에 적극적으로 대응하며 글로벌 경쟁력을 강화하고 있습니다.
+https://kr.investing.com/equities/kia-motors
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2025061916412225K_02_04.pdf
+https://www.valueline.co.kr/finance/summary/000270
+https://ko.wikipedia.org/wiki/%EA%B8%B0%EC%95%84_(%EA%B8%B0%EC%97%85)
+https://stock.pstatic.net/stock-research/company/61/20241028_company_143711000.pdf</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>038390</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>레드캡투어</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>레드캡투어(038390)는 [렌터카 사업]과 [법인 대상 비즈니스 여행(상용여행) 서비스]를 주력으로 하는 기업입니다. 최근 실적 호조의 핵심 원인은 렌터카 사업의 성장과 중고차 매매 수익 증가, 그리고 여행 부문 정상화에 있습니다. 현재 회사가 직면한 주요 이슈는 (1) 렌터카 시장 경쟁 심화, (2) 중고차 가격 변동성, (3) 여행 수요 회복의 안정성입니다.
+[1. 핵심 사업 설명]
+- [렌터카 사업]  
+  전체 매출의 약 88%를 차지하는 핵심 사업입니다. 대기업, 공공기관 등 법인 고객을 상대로 3~4년 단위의 장기렌터카 계약(주로 B2B, B2G 고객 대상)을 체결하고, 차량 관제·관리 시스템(RMS)을 통한 차량 운영·정비 및 안전관리를 제공합니다.  
+  계약 만료 후 반납된 차량은 중고차 시장에 매각해 추가 수익을 얻습니다[1][2].  
+- [여행(상용여행) 사업]  
+  매출 비중은 약 12%로, 법인 출장 고객의 항공권·호텔예약 대행, 이벤트·전시(MICE) 기획 등 비즈니스 여행 알선사업 중심입니다[2]. 업계 2위 입지도 확보하고 있습니다[3].  
+  렌터카와 달리 유연한 현금흐름과 비교적 높은 수익성을 통해 회사의 재무 구조 안정성에 기여합니다[3].
+[2. 최근 분기 실적 호조 이유]
+- [장기렌터카 수요 확대]  
+  코로나19 이후 법인과 공공기관 중심의 장기렌터카 수요가 크게 증가하면서 렌터카 매출이 성장했습니다[2].
+- [중고차 매각 이익 증가]  
+  차량 대여 만기 후 중고차 시장에서 매각되는 물량과 가격이 동반 상승하면서 렌터카 부문의 이익률이 개선되었습니다. 2023~2024년 차량 반납·매각에 따른 일회성 이익 비중도 높았습니다[2].
+- [상용여행 부문 정상화]  
+  법인 출장 및 MICE(회의, 전시 등) 수요 회복이 본격화되면서 여행 부문 매출이 전년 동기 대비 크게 증가하며 실적 반등에 기여했습니다[2][3].
+[3. 현재 직면한 핵심 이슈 3가지]
+- [렌터카 시장 내 경쟁 심화]  
+  롯데렌탈, SK렌터카 등 대형사와의 경쟁이 격화되며, B2B 장기 렌터카 시장에서 가격 경쟁력 및 서비스 차별화가 중요한 과제로 부상하고 있습니다[1].  
+  대형사 대비 규모의 한계, 브랜드 인지도 확보 등이 중장기 리스크로 작용할 수 있습니다.
+- [중고차 가격 변동성]  
+  경기에 따라 중고차 매각가격이 크게 변동하는데, 향후 공급량 증가나 경기 둔화 시 중고차 시장 가격 하락 위험이 있어 수익성에 직접적 영향을 미칠 수 있습니다[2].  
+  2024년 상반기 높은 중고차 매출은 일회성 성격이 강하기 때문에, 이 부분이 둔화될 경우 실적 변동성이 커질 수 있습니다.
+- [여행/비즈니스 출장 수요의 회복 안정성]  
+  여행 및 출장 부문은 코로나19 이후 완전히 회복된 것은 아니어서, 경기 침체 또는 재확산 리스크 등이 비즈니스 여행 수요 회복의 불확실 요인입니다[2][3].  
+  외부 변수(지정학적 리스크, 글로벌 경기 등)에 따라 여행 매출이 다시 위축될 수 있다는 점도 현재 고민입니다.
+이상에서 [렌터카(B2B 장기 계약 및 중고차처분)] 중심, [법인 특화 여행사업]의 구조와 함께, [렌터카 강세 및 중고차 마진, 여행수요 정상화]가 최근 실적을 이끌었으며, [시장 경쟁, 중고차 리스크, 여행수요 변동]이 앞으로 해결해야 할 주요 과제로 요약됩니다.
+https://www.redcap.co.kr/uploaded/board/report/8dd3e53529fc28bb9667c7a7aab472be0.pdf
+https://www.redcap.co.kr/uploaded/board/report/605c1133d242f0ce40c20e30ebd51df20.pdf
+https://file.truefriend.com/Storage/research/research05/140324_redcap(1).pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1635993488191.pdf
+https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=1&amp;gicode=A038390&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=701</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>013030</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>하이록코리아</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>(1) [하이록코리아의 핵심 사업]  
+하이록코리아(013030)는 [계장(機張)용 피팅과 밸브]의 제조 및 판매를 주력사업으로 하는 국내 대표적인 산업용 부품 기업입니다. 이 제품들은 주로 스테인리스 스틸 소재로 만들어지며, 계측·제어시스템에서 유체(액체/기체)의 흐름을 안전하게 제어하는 데 사용됩니다. 주요 공급처는 [석유화학 플랜트, 발전소, 조선, 반도체 등] 국가기간산업에 집중되어 있습니다. 특히 1970년대 국내 최초로 피팅의 국산화에 성공했고, 이후 밸브까지 제품군을 확장해 국산화율을 높였으며, 국내 최다 공급자 승인과 각종 품질 인증을 보유하고 있습니다[1][2][3].
+(2) [최근 분기 실적 호조의 원인]  
+하이록코리아의 최근 분기 실적이 강세를 보인 주된 배경은 다음과 같습니다.
+- [유가 상승과 전방산업 투자 확대]: 유가 강세로 원유·천연가스, 석유화학 플랜트 등에서 신규·보수 투자 수요가 늘면서 동사 제품 수주가 크게 증가했습니다[1][2].
+- [조선·반도체 산업 성장]: 최근 조선업(특히 LNG선 등 고부가 선박)과 반도체 분야에서 설비 투자 확대가 이어지며, 동사의 고정밀 피팅과 밸브에 대한 수요가 본격적으로 증가했습니다[2].
+- [국산화·품질경쟁력]: 40년 이상 쌓인 신뢰와 인증, 자체적인 QC(품질관리) 시스템, 대량생산체제 등이 공급망 안정성 요구가 커진 전방산업에 긍정적으로 작용했습니다[2].
+이러한 요소들로 전방산업 매출이 고르게 증가했으며, 특히 석유화학, 조선, 반도체 분야에서 고마진 제품 위주로 공급량이 늘어나면서 수익성이 개선되고 있습니다[2].
+(3) [현재 회사가 직면한 3대 핵심 이슈]
+1. [글로벌 공급망 및 중국 경쟁사 압박]  
+최근 글로벌 플랜트·조선업 시장은 중국산 저가 제품 비중 확대와 공급망 재편 이슈에 직면해 있습니다. 하이록코리아는 높은 국산화율과 품질인증, 빠른 납기 등 차별화로 대응 중이나, 글로벌 조달시장에서 중국업체와의 가격경쟁 압력이 꾸준히 확대되고 있습니다[2].
+2. [원재료 가격 변동성]  
+주력 제품 소재인 스테인리스 등 금속 원자재 가격의 변동폭이 커지고 있습니다. 가격 상승 국면에서는 원가 부담 전가 및 판가 인상이 관건이며, 반대로 가격 하락 시에는 재고평가손실 위험에 노출될 수 있습니다[2].
+3. [전방산업 투자변동 및 경기민감성]  
+하이록코리아의 매출은 석유화학·조선·반도체 등 소수 전방산업에 집중되어 있으므로, 해당 산업의 투자 주기나 경기 변화에 민감하게 반응합니다. 글로벌 경기둔화, 반도체 업황 변동, 친환경 트렌드 등 외부 요인 변화가 회사 실적에 직결되는 구조입니다[1][2].
+이 밖에도 하이록코리아는 2023~2025년 주주 환원정책을 추진해 별도 순이익의 30% 이상 배당, 자사주 소각 등을 이행하고 있으나, 경기 하락 국면에서는 배당여력과 재무안정성에 대한 시장 우려가 있을 수 있습니다[2].
+https://w4.kirs.or.kr/download/research/220509_%ED%95%98%EC%9D%B4%EB%A1%9D%EC%BD%94%EB%A6%AC%EC%95%84(013030)_%EC%9C%A0%EA%B0%80%20%EA%B0%95%EC%84%B8%EB%A1%9C%20%EC%A0%84%EB%B0%A9%EC%88%98%EC%9A%94%EC%82%B0%EC%97%85%20%EC%88%98%ED%98%9C%20%EB%B3%B8%EA%B2%A9%ED%99%94_%EC%9D%B4%EC%9B%90%EC%9E%AC.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1714693317936.pdf
+https://invest.deepsearch.com/stock/013030/
+https://invest.zum.com/stock/013030/
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?pGB=1&amp;gicode=A013030&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=Y&amp;stkGb=701</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>035150</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>백산</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>(1) [백산(035150)의 핵심 사업]
+백산은 1986년에 설립된 [폴리우레탄(PU) 합성피혁] 전문 제조기업으로, 주로 스포츠 신발, 차량 내장재, 전자제품 케이스, 의류용 소재 등에 제품을 공급하고 있습니다[1][2]. 2023년 기준 전체 매출 비중은 스포츠 신발용 소재가 약 61.7%로 가장 높고, 차량 내장재(15.7%), 의류(19.6%), 전자제품 케이스(1.9%) 등이 뒤를 잇습니다[1]. 대표적인 공급처는 NIKE, ADIDAS, REEBOK 등 글로벌 스포츠 브랜드이며, 차량 내장재 분야에서는 내연기관에서 전기차 부품 납품으로 다변화가 진행 중입니다. 2018년 인수한 최신물산을 통해 니트 의류 OEM/ODM 사업도 영위하고 있습니다[1].
+(2) [최근 분기 실적이 강세를 보인 배경]
+- [글로벌 스포츠용 신발 산업 리오프닝 효과]: 코로나19 팬데믹 이후 글로벌 스포츠 브랜드향 수요가 빠르게 회복되며, 주력 제품인 신발용 합성피혁의 판매가 급증했습니다. 특히 해외 생산기지(인도네시아 등)의 안정적 공급과 맞물려 외형 및 수익성이 크게 개선됐습니다[2].
+- [테슬라 등 전기차(EV) 관련 수요 확대]: 기존 내연기관 차량뿐 아니라 테슬라 등 전기차 내장재로의 공급이 지속적으로 증가했습니다. 이는 고부가가치 제품 비중이 높아지고 자동차 소재 사업부의 외형과 이익 기여도가 동반 상승했다는 점에서 주목받고 있습니다[2].
+- [의류 자회사 턴어라운드]: 최신물산 등 의류 OEM/ODM 자회사의 실적 회복이 동반되어 연결 기준 전체 실적 개선에 일조했습니다[1][2].
+이러한 요인으로 2021년 영업이익은 전년 대비 487.8% 급증한 232억 원을 기록했고, 최근까지도 시장 기대치를 상회하는 실적이 이어지고 있습니다[2].
+(3) [현재 백산이 직면한 3대 핵심 이슈]
+1. [원자재 가격 변동성]  
+   백산의 주력 제품인 폴리우레탄 합성피혁은 원유 및 화학제품(폴리올·MDI 등)에 기반한 원자재 가격의 영향을 크게 받습니다. 최근 급등락하는 원자재 가격에 따라 수익성 변동 리스크가 존재합니다[2].
+2. [고객사 다변화 및 신사업 확대]  
+   기존 매출의 높은 비중이 일부 글로벌 브랜드(특히 스포츠 신발)에 편중되어 있어, 자동자·의류·전자부품 등 타 산업 및 신제품 분야로의 공급 다변화가 필요합니다[1][2]. 이에 인조피혁 및 고기능성 소재, EV 내장재 확대 등 미래 성장동력을 육성하는 것이 핵심 과제로 꼽힙니다.
+3. [경쟁 심화 및 기술/환경 규제 대응]  
+   합성피혁 시장의 진입장벽이 점차 낮아지고, 동남아 신생업체와 경쟁이 확대되는 상황입니다. 또한 환경 규제(친환경 소재, 리사이클 소재 등)에 따른 생산·설비 투자 부담과 제품 포트폴리오 전환의 압박도 동반되고 있습니다[2].
+이와 같은 구조적 장단점 속에서, 백산은 기존 신발·자동차 소재 사업의 경쟁력 강화와 신산업 대응 등 ‘투 트랙’ 전략을 모색하고 있습니다.
+https://file.alphasquare.co.kr/media/pdfs/company-report/_20071617-035150.pdf
+https://rdata.kbsec.com/pdf_data/20220425170323257K.pdf
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=035150&amp;cn=
+https://invest.deepsearch.com/stock/035150/
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240319000362&amp;docno=&amp;viewerhost=</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>234080</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>JW생명과학</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>JW생명과학(234080)의 핵심 사업, 최근 실적 호조 배경, 그리고 당면 과제는 다음과 같이 정리할 수 있습니다.
+1. [핵심 사업 설명]
+JW생명과학의 [주력 사업은 의약품, 그중에서도 주로 수액제(IV solution) 생산과 판매]입니다. 주요 제품군은 다음과 같습니다:
+- [기초수액제]: 수분/전해질/당 성분 보충을 위한 수액. 흔히 병원에서 가장 많이 사용됨.
+- [종합영양수액제(TPN)]: 칼로리, 필수아미노산, 필수지방산 등 전신 영양을 공급할 수 있는 고부가가치 수액, 주로 중환자나 영양 결핍 환자용.
+- [특수수액제]: 수술, 항생제 투여 등 특수 목적용 수액.
+- [영양수액]: 아미노산 공급용.
+- [HEMO 제품]: 인공신장투석 환자 대상 관류액.
+2023년 3분기 누적 기준 제품별 매출 비중은 [TPN 35%, 기초수액 31.6%, 특수수액 14.4%, 영양수액 9%, HEMO 8%] 등으로, TPN의 비중이 가장 높음이 특징입니다[1][2]. JW생명과학은 [국내 수액제 시장 점유율 1위], 특히 복합영양(3chamber) TPN 생산 경쟁력이 매우 높습니다[2].
+2. [최근 분기 실적 호조의 주요 배경]
+JW생명과학이 최근 실적에서 강세를 보인 배경은 아래와 같습니다:
+- [생산능력(CAPA) 증설]: 2023년 말, 연간 1,400만 개 영양수액 생산이 가능하도록 설비 증설을 완료함. 이로 인해 고정비가 분산되고 효율성이 상승, 이익률 개선이 가능해졌음[3].
+- [고부가가치 신제품 출시]: JW중외제약과 협업해 2024년 1월부터 '위너프에이플러스주'(3chamber TPN 신제품) 등 고가 제품군을 본격 출시, 단가와 매출 모두 상승[3].
+- [외부 환경 영향 최소화]: 의료 파업 등 환경 변화에도, 대부분의 수액제가 병/의원 및 의료기관에서 필수적으로 쓰이기에 영향이 적음. 특히 대형병원보다 중소병원에서 사용하는 영양수액 비중이 커 외부 변수 영향에서 상대적으로 자유로움[3].
+- [유럽 EUGMP(우수의약품제조관리기준) 승인∙B2B 성장]: 글로벌 위탁생산(CMO) 및 수출 증가로 시장 외연 확대[2].
+3. [주요 현안(Top 3 Key Issues)]
+아래 세 가지 이슈가 현 시점에서 JW생명과학에 중요하게 작용하고 있습니다:
+- [수액제 시장 성장 둔화 및 경쟁 심화]: 국내 의료 인프라 포화와 경쟁사 진입으로 기존 수액제 시장 성장률이 점차 둔화되고 있음. 향후 성장동력 확보(예: 신제품, 글로벌 진출)가 매우 중요함[2][3].
+- [수출 비중 확대의 한계]: 수출 및 해외 CMO 매출 비중이 2023년 기준 3.8%에 불과함. 국내 시장 의존도(특히 계열사 JW중외제약 매출 비중 82% 이상)가 높아 글로벌 분산 필요성이 꾸준히 제기됨[2].
+- [원가율 관리 및 이익률 방어]: 물류비, 인건비 등 원가 상승 압력이 계속되고 있으나, 단가 인상이나 고정비 분산에 한계가 존재. 실적 성장세 유지에는 원가 효율화와 고부가가치 제품 포트폴리오 확장이 필수적임[3].
+요약하면, JW생명과학은 [수액제 제조 전문성과 생산설비 경쟁력]에서 강점을 가지나, [내수 의존 고착, 원가 경쟁, 미약한 해외시장 확대]가 당면 과제로 부각되고 있습니다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1668035305134.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1706743987924.pdf
+https://bbn.kiwoom.com/rfCR10961
+https://pharm.edaily.co.kr/News/Read?newsId=01449766638787896&amp;mediaCodeNo=257
+https://www.deepsearch.com/analytics/company-analysis/KRX:234080?c-name=JW%EC%83%9D%EB%AA%85%EA%B3%BC%ED%95%99&amp;c-symbol=KRX%3A234080&amp;cd-cat=topic&amp;cd-df=2024-07-29&amp;cd-dt=2024-08-05</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>014580</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>태경비케이</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>(1) [태경비케이의 핵심 사업]
+태경비케이는 [석회석 광산업 및 다양한 석회 제품 제조와 판매에 주력하는 기업]입니다. 주요 사업 부문은 크게 세 가지로 나뉩니다:
+- [석회석 제조·판매]: 천연 석회석을 채굴해 생석회, 소석회, 수산화칼슘, 경질탄산칼슘 등 다양한 석회 제품을 생산합니다. 이 제품들은 철강 제조, 건설 자재, 오염물질 중화 등 산업 전반에 핵심 원재료로 공급되고 있습니다[1][2][3].
+- [탄산가스 제조·판매]: 다양한 공정에서 발생하는 탄산가스를 포집해 산업용으로 재판매합니다[1].
+- [휴게소 운영]: 고속도로 휴게소 시설 운영 사업도 병행하고 있으나, 매출 비중은 석회 및 광물 부문이 압도적으로 큽니다[1].
+이 외에도 산업폐기물 재생처리, 비료·연료 사업 등도 일부 전개하고 있지만 핵심은 석회 관련 제품 생산입니다[1][2][3].
+(2) [최근 분기 실적이 강했던 배경]
+최근 실적 호조의 구체적 원인은 다음과 같습니다.
+- [철강·건설·환경 분야 산업 활황]: 석회 제품 수요의 1차적 성장 동인은 국내외 철강, 건설, 환경 산업의 견조한 경기입니다. 특히 철강생산 확대와 건설 경기 회복, 환경 규제 강화로 석회 제품 사용량이 늘고 있습니다. 이는 동사의 주력 납품처 업황이 동반 호조를 보인 데서 기인합니다[1][2].
+- [글로벌 에너지·원자재 가격 상승에 따른 수혜]: 석회석ㆍ석유 코크스 등 원재료 가격 변동 국면에서, 동사는 비교적 가격 전가력이 높아 마진 방어가 용이했고, 이에 따라 영업이익률이 크게 개선되었습니다[3].
+- [제품 가격 인상 및 제품군 다변화]: 주요 원재료 및 제품 가격이 상승하면서, 동사도 제품 판매가를 성공적으로 인상하였고, 또한 수산화칼슘·경질탄산칼슘 등 고부가 제품 비중이 증가해 전체 수익성이 호전됐습니다[2][3].
+(3) [현재 태경비케이가 직면한 주요 이슈 3가지]
+- [원자재 가격 변동 및 공급망 리스크]  
+  석회석 및 에너지 연료(석유 코크스 등)의 국제가격 변동성이 여전히 큽니다. 원가 상승 시 가격 전가력이 약화될 경우 수익성이 흔들릴 수 있으며, 글로벌 공급망 불안도 잠재리스크입니다[3].
+- [환경 규제 강화 및 지속가능경영 요구]  
+  석회석 채굴과 석회제품 생산은 환경영향(탄소배출, 미세먼지 등)이 상당합니다. 정부 및 글로벌 시장의 ESG(환경·사회·지배구조) 규제가 강화되어, 친환경 생산 공정 전환 및 이에 따른 투자 부담, 규제 준수 비용이 단기 이슈입니다[1].
+- [주력 납품처 경기 변화]  
+  철강, 건설, 환경 등 대형 납품산업의 업황 변동에 크게 노출됩니다. 수요처 다변화와 신제품 개발이 이루어지고 있지만, 1차산업 의존도가 높아 관련 업황 둔화 시 실적 변동성이 큽니다[1][2].
+이 외에도, 고용 및 안전관리, 인플레이션에 따른 전반적 비용 부담 증가, 국내외 시장 점유율 경쟁 등도 지속 주시해야 할 현안입니다.
+https://www.k5.co.kr/stock/014580
+https://www.valueline.co.kr/finance/summary/014580
+https://kr.investing.com/equities/baek-kwang-min
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=014580&amp;cn=
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240319000819&amp;docno=&amp;viewerhost=</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>036800</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>나이스정보통신</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>(1) 나이스정보통신의 핵심 사업
+나이스정보통신(036800)은 [국내 대표 결제 인프라 기업]으로, 두 가지 축을 중심으로 사업을 영위합니다.  
+첫째, [VAN(Value Added Network, 부가가치통신망) 사업]으로, 신용카드 거래 승인, 수표 조회, 자동응답시스템 승인 등 금융 부가가치 네트워크 서비스를 제공합니다. 이 사업을 통해 오프라인 매장 및 가맹점에 카드 결제망을 구축하고, 결제 데이터를 중계하는 인프라를 담당합니다[1][2].  
+둘째, [PG(Payment Gateway) 사업]으로, 온라인 및 모바일 결제 솔루션을 통합 제공하는 IT 기반 서비스를 담당합니다. ‘NICE PAY’라는 자체 브랜드로 다양한 온라인상 결제 중개 및 세금 포인트 서비스, POS(포스) 단말기 제조·임대, 전자지급결제업 등을 운영합니다[1][2].
+(2) 최근 분기 호실적의 구체적 배경
+최근 몇 분기 동안 나이스정보통신이 강한 실적을 보여준 데에는 [오프라인 결제시장 회복과 온라인 결제시장 성장의 동시 효과]가 결정적이었습니다.
+- [엔데믹(코로나19 이후) 환경에서 오프라인 카드 결제량이 빠르게 회복]되어 VAN 부문 거래 승인액 증가 및 수익성 강화가 나타났습니다[2]. 사회적 거리두기가 완화되면서 유통, 외식, 숙박 등 대면 서비스업의 결제 회복 효과가 두드러졌습니다.
+- [PG 부문에서는 이커머스, 배달앱 등 비대면 소비 확대로 매출 성장]을 이어갔습니다. NICE PAY 브랜드의 전자결제가 다양한 온라인 사업자로부터 수요를 견인하고 있습니다[2].
+- [시장 점유율 확대]도 중요한 요인입니다. 오프라인과 온라인 결제 인프라 모두에서 높은 신뢰도와 기술력을 바탕으로 대형 가맹점과 신규 고객 확보에 성공하면서 경쟁사 대비 우위를 공고히 했습니다[2].
+- 자체 [IDC(인터넷 데이터센터) 및 모바일 오더, 위치 기반 서비스 등 신사업의 수익화]도 실적 개선에 일조했습니다[2].
+(3) 현재 나이스정보통신이 직면한 3대 주요 이슈
+1. [신용카드 수수료율 인하 압박]
+   - 금융 당국이 가맹점 부담 완화를 위해 신용카드 결제 수수료율 추가 인하를 지속적으로 검토 중입니다. VAN 및 PG사업 모두 마진구조가 약화될 수 있어, 수지 구조 개선 및 신규 매출원 확보가 필요합니다[2].
+2. [온·오프라인 결제시장 경쟁 심화]
+   - 국내외 빅테크 기업 및 핀테크 스타트업들이 결제시장에 진입하면서 VAN, PG 양쪽 모두에서 경쟁이 치열해지고 있습니다. 기술 고도화와 차별화된 서비스 도입 없이는 시장 점유율 방어가 쉽지 않습니다[2].
+3. [신성장동력 확보 및 사업 다각화]
+   - 기존 카드결제 인프라 의존도를 탈피하고, 데이터 기반 신규 서비스(예: 위치기반 서비스, 세금 환급(Tax Refund) 사업, 글로벌 PG 진출 등)에서 얼마나 빠르고 효과적으로 실적을 내는지가 중장기 성장의 관건입니다[2][4]. 해외 진출, 식자재유통 등 공급자 우위가 기대되는 신규 산업 진입도 주요 현안으로 부상하고 있습니다[4].
+[요약]  
+나이스정보통신은 국내 결제 인프라(VAN·PG) 시장의 강자로, 최근 대면·비대면 결제 모두의 회복과 성장 덕분에 실적이 개선되고 있습니다. 그러나 수수료율 인하, 경쟁 심화, 신사업 확장이라는 중대 이슈에 대응해 지속적인 혁신과 포트폴리오 다각화가 요구되고 있습니다.
+https://kr.investing.com/equities/nice-information-telecommunicatio
+https://ssl.pstatic.net/imgstock/upload/research/company/1646871532929.pdf
+https://www.nicevan.co.kr/inc/nice_download.asp?idx=167
+http://www.koreastock.co.kr/main/common/common_file/fileView.cmd?category=2&amp;depth3_id=anls1&amp;key1=42646&amp;key2=1&amp;bldid=bbs10031&amp;getFD=1
+https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A036800&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>012790</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>신일제약</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>신일제약(012790)은 주로 의약품 제조 및 판매를 영위하는 국내 상장 제약회사입니다. 최근 본업에서 실적이 크게 개선되어 주목받고 있으며, 몇 가지 핵심 이슈를 중심으로 경영 환경이 변화하고 있습니다.
+(1) [신일제약의 핵심 사업]  
+신일제약은 1971년 설립되어, [양약(무코치올, 트레스, 히노킬 등 다양한 치료제)]와 더불어 정제, 캡슐제, 시럽제, 연고/크림제, 주사제, 플라스타제 등 다양한 [의약품을 제조 및 판매]하는 것을 주력 사업으로 하고 있습니다. 본사는 충청북도 충주시 앙성면에 위치해 있으며, 이외에도 일부 건강기능식품, 의약외품, 화장품, 부동산 임대업 등 부수 사업을 병행하고 있지만, 전체 매출의 대부분은 의약품 부문에서 발생합니다[1][4][5].
+(2) [최근 분기 실적 강세의 구체적 배경]  
+신일제약은 상장 제약사 중 영업이익률 5위권에 오를 정도로 [수익성이 크게 개선]되었습니다[1]. 최근 분기 실적 강세의 주요 요인은 다음과 같습니다.
+- [주력 의약품의 매출 증가]: 무코치올(점액용해제), 트레스(진통소염제), 히노킬(기관지 치료제) 등 주요 제품군 판매량의 꾸준한 성장으로 매출이 안정적으로 증가했습니다[1][5].
+- [생산 효율성 개선]: 설비 현대화, 원가 절감 등 내부 프로세스 개선을 통해 [제조원가를 낮추고 영업이익률을 끌어올렸습니다.]
+- [R&amp;D비 축소]: 2024년부터 천연물 신약 치료제 개발을 전면 중단하면서 R&amp;D 비용 부담이 크게 줄었고, 그 결과 [단기적으로 영업이익이 증가]하는 효과가 있었던 점도 실적 개선의 한 축입니다[1].
+(3) [현 시점에서 신일제약이 직면한 3대 핵심 이슈]
+1. [신약 개발 방향성 상실]  
+2024년 천연물 신약 치료제 개발을 전면 중단한 이후, 신일제약은 [장기 성장 동력이 약화]된 상황입니다. 투자자들은 신약 R&amp;D 포기 이후에도 기존 사업 외 비전 및 신성장 동력 창출 여부에 주목하고 있습니다[1].
+2. [경영권 및 지배구조 변화]  
+2023년 9월, 최대주주가 홍성소에서 그의 장녀 홍재현 대표이사로 변경되는 [경영권 교체가 있었습니다.] 이에 따라 조직 재편, 미래 전략 방향성, 내부 통제 등 [지배구조 안정성과 관련된 이슈가 제기]되고 있습니다[1].
+3. [제품 포트폴리오의 한계]  
+주력제품에 과도하게 매출이 집중되어 있어, 주요 품목의 경쟁 심화, 제네릭(복제약) 시장 확대, 정부의 약가 인하 정책 등에 따라 [매출이 급변할 수 있다는 위험]이 존재합니다. 신제품 개발력 부재 및 제품 다각화 부족이 중장기적으로 리스크로 작용하고 있습니다[5].
+이와 같이 신일제약은 꾸준한 본업 강점을 바탕으로 단기 실적이 호전되고 있으나, [장기 성장 동력 부재, 지배구조 변동, 사업 포트폴리오 리스크] 등의 과제를 풀어야 하는 상황입니다.
+https://ko.wikipedia.org/wiki/%EC%8B%A0%EC%9D%BC%EC%A0%9C%EC%95%BD
+https://m.finance.daum.net/quotes/A012790/news/stock/20210129174511761
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A012790
+https://kind.krx.co.kr/common/disclsviewer.do?method=searchInitInfo&amp;acptNo=20230317000982&amp;docno=
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240809000281&amp;docno=&amp;viewerhost=</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>068790</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>DMS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>1. [핵심 사업]
+DMS(068790)의 핵심 사업은 [디스플레이 패널 생산용 장비 제조 및 판매]입니다. 주력 제품은 LCD 및 OLED 제조 공정에 활용되는 [세정, 현상, 식각, 박리(포토레지스트 박리)] 장비입니다. 특히 습식 세정 장비 분야에서는 [글로벌 시장 점유율 1위]를 차지하며, HDC(고집적 세정 장비) 등 차별화된 기술력을 보유하고 있습니다[1][2][3]. 제품은 디스플레이 제조사(LG디스플레이, BOE 등)뿐 아니라, 반도체 장비, 태양전지 장비 등으로도 공급처를 다변화하고 있습니다. 최근에는 풍력 산업, 전기 공급 등의 신규 사업도 일부 전개합니다[1].
+2. [최근 분기 실적 강세 배경]
+DMS가 최근 분기에서 [강력한 실적을 기록한 주요 배경]은 다음과 같습니다.
+- [고객사 대형 투자 증가]: LG디스플레이, 중국 BOE, TIANMA 등 주요 고객들의 대규모 신규/증설 투자로, 패널 장비 수요가 급증했습니다. 특히 중국 업체들의 LCD/OLED 설비 투자 확대가 실적 퀀텀점프를 견인했습니다[2][3].
+- [OLED 라인 업그레이드 수혜]: DMS의 습식 세정 장비는 OLED 전환 및 대형화 트렌드에 반드시 필요한 핵심 장비로, 대면적 OLED 라인 투자에서 독점적 수혜를 받고 있습니다[3].
+- [제품 경쟁력 및 원가 우위]: 장비 크기를 기존 대비 30% 이상 줄여 공정 효율을 높이고 설치 공간을 절감하여, 고객사로부터 독보적인 기술 평가와 선택을 받고 있습니다. 이 덕에 안정적인 마진과 추가 수주활동이 가능해졌습니다[2].
+- [해외 매출 비중 증가]: 국내뿐 아니라 해외 대형 패널 업체 대상으로 매출이 확대되었습니다. 글로벌 네트워크 강화 및 현지 맞춤장비 공급이 실적을 뒷받침하고 있습니다[1][3].
+3. [현재 DMS가 맞닥뜨린 주요 과제 (‘핵심 이슈’ Top 3)]
+- [디스플레이 투자주기 의존도 리스크]  
+디스플레이 설비 시장은 고객사의 투자 사이클 변동성이 크므로, 글로벌 경기 둔화·패널 수급 상황 변화에 따라 신규 장비 발주가 감소할 가능성이 상존합니다. 투자 지연, 신규 투자 축소 등 대외환경 리스크 관리가 필수입니다[2][3].
+- [중국 고객사 의존도 심화]  
+중국 디스플레이 패널 업체들의 투자 비중이 높아지면서, 역설적으로 [중국발 수요 둔화, 가격 협상력 하락, 로컬 경쟁사 부상] 등의 리스크가 부각되고 있습니다. 대체 시장 발굴과 중국 내 사업 포트폴리오 다변화가 관건입니다[3].
+- [차세대 제품·기술 혁신 경쟁 격화]  
+OLED 대형화, Micro OLED/Nano 패널 등 신기술 공정이 빠르게 발전하면서, 기존 장비 경쟁력만으로는 중장기적 성장 한계에 직면할 수 있습니다. DMS 또한 차세대 공정 장비 개발 및 반도체, 태양광 등 신규 분야 기술 확보를 병행해야 합니다[2][3].
+이외에도,  
+- 원재료 공급망 관리(글로벌 공급망 불안)
+- 해외 수출 확대에 따른 현지화/서비스 역량 강화
+- 고객사 다변화(세트, 소재 등 신규 시장 진출)
+등이 중장기적 과제로 언급되고 있습니다.
+[정리하면:]  
+DMS는 디스플레이 장비 글로벌 선도기업으로 최근 대형 고객사 투자와 기술 경쟁력에 힘입어 호실적을 기록하고 있지만, 시장 사이클 의존, 중국 리스크, 차세대 기술 경쟁 등 복합 과제가 앞으로의 성장 방향에 큰 영향을 줄 것입니다.
+https://kr.investing.com/equities/dms-co-ltd
+https://ssl.pstatic.net/imgstock/upload/research/company/1600302835027.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1565228358011.pdf
+http://forum.38.co.kr/html/forum/board/?o=cinfo&amp;code=068790&amp;tmpstr=%EF%BF%BD%F0%BF%A5%BF%EF%BF%BD%EF%BF%BD%EF%BF%BD
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=068790&amp;cn=</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>009780</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>엠에스씨</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>엠에스씨(009780)는 [식품첨가물]을 주력으로 생산하는 코스닥 상장 회사입니다. 주로 해초류(수산물)를 가공해 제조한 [카라기난] 등 기능성 식품 첨가물과 다양한 농수산물 가공품을 생산·판매합니다[2][3]. 대표적으로 식품산업에서 점·결·증점제 등으로 널리 사용되는 카라기난이 핵심 품목입니다.
+최근 분기(2025년 1분기) [엠에스씨가 강한 실적을 시현한 주된 요인]은 다음과 같습니다.
+- [영업이익률과 순이익의 큰 폭 상승:] 2025년 1분기 연결 기준 매출 482억 원, 영업이익 81억 원, 순이익 64억 원을 기록했습니다. 전년 동기 대비 영업이익은 69%, 순이익은 58% 증가했습니다. 매출 성장률(6%)보다 이익률 증가폭이 훨씬 커, 수익성 개선이 두드러진 상황입니다[1][3].
+- [원재료 가격 안정 및 원가절감:] 해조류 등 주요 원재료의 가격이 안정화되거나 조달 효율이 향상되어 원가 부담이 완화된 것으로 파악됩니다(직접 언급은 없으나 이익률 급상승에서 추정됨)[1].
+- [식품 및 외식 산업 수요 증가:] 업계 전반적으로 외식 및 가공식품 소비가 확대되면서 카라기난 등 식품첨가물에 대한 수요가 지속적으로 견조하게 증가했습니다[2].
+[엠에스씨가 당면한 주요 이슈 3가지]는 다음과 같습니다.
+1. [해조류(카라기난) 원재료 수급 및 가격 리스크]
+   - 주력 제품의 원료인 해조류(특히 카라기난을 추출하는 해초류)는 자연 환경 변화, 국제 물류 사정, 공급업체 상황 등에 따라 가격 변동 및 수급 불안정에 노출되어 있습니다. 원재료 확보 안정성과 가격 변동에 대응하는 방안이 중장기 핵심 과제입니다[2].
+2. [시장 내 경쟁 심화 및 글로벌 업체와의 기술 격차]
+   - 식품첨가물 시장은 글로벌 대형 기업과 국내외 중소업체가 함께 경쟁하고 있습니다. 품질, 가격, 공급 안정성에서 우위를 유지하기 위한 기술개발과 설비투자가 필수적이며, 시장 점유율 방어 및 확대가 경쟁력을 가르는 핵심 요인입니다[2][3].
+3. [친환경 및 식품 안전 강화 추세 대응]
+   - ESG(환경·사회·지배구조) 경영, 식품안전 규제 강화, 소비자 친환경 선호 등으로 인해 원료의 친환경 인증 확보, 제품 내 유해물질 최소화, 공정의 친환경화 등 사회적 요구가 높아지고 있습니다. 관련 인증 취득, 생산공정 개선, 신제품 개발이 지속적으로 요구됩니다[2][3].
+이 외에 [글로벌 경기 둔화에 따른 수출 감소 가능성], *환율 변동에 따른 실적 영향*, *차별화된 제품 포트폴리오 필요성* 등도 잠재적인 불확실성으로 꼽힙니다.
+최근 실적 호조가 지속되기 위해서는 이와 같은 원재료 리스크 관리, 시장 선도 기술 확보, ESG 등 외부 환경 변화에 선제적으로 대응하는 경영 전략이 필수적입니다.
+https://www.butler.works/ko/companies/00121154
+https://w3.kirs.or.kr/download/tech/2019-45.%EC%97%A0%EC%97%90%EC%8A%A4%EC%94%A8_%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D%EB%B3%B4%EA%B3%A0%EC%84%9C.pdf
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=009780&amp;cn=
+https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A009780&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20230323000587&amp;docno=&amp;viewerhost=</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>214320</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>이노션</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>이노션(214320)은 현대자동차그룹 계열의 대표적인 광고 및 마케팅 커뮤니케이션 회사로, 국내외 다양한 기업을 대상으로 종합적인 광고 대행 서비스와 디지털 마케팅, 콘텐츠 제작, 미디어렙(광고매체 판매대행) 등 통합 마케팅 솔루션을 제공하는 것이 핵심 사업입니다. 최근 디지털 분야 역량 강화를 위해 퍼포먼스 마케팅, 디지털 콘텐츠, 미디어렙 등 다양한 디지털 자회사를 인수하거나 신설하는 등 ‘디지털 비즈니스 허브’ 구축에 집중하고 있습니다[1][2].
+1. [주요 사업]
+- [통합 광고 대행:] TV·온라인·인쇄 등 전통 및 디지털 매체 광고 캠페인 기획/집행, 크리에이티브 제작, 브랜딩 전략 수립 등 광고 전 과정을 수행합니다.
+- [디지털 마케팅 및 데이터 분석:] 퍼포먼스 마케팅(성과 중심 디지털 광고), 소셜 미디어 마케팅, UX/UI 개선, 데이터 기반 타겟팅 및 효과 측정 역량을 강화 중입니다.
+- [미디어렙/콘텐츠/이벤트:] 주요 방송사·온라인 매체의 광고 판매 대행, 자체 콘텐츠 제작, 글로벌 오프라인 이벤트 대행 사업도 적극 전개하고 있습니다[1].
+2. [최근 실적 호조 원인]
+- [해외 시장 성장:] 미주, 아시아태평양 지역 등 현대차 계열 및 비계열 고객을 통해 글로벌 매출 총이익이 크게 증가했습니다. 2024년 4분기 기준 해외 매출총이익은 전년 동기 대비 6.7% 성장했으며, 이와 같은 글로벌 분산 매출 구조가 견조한 실적을 견인하고 있습니다[3].
+- [신차 출시 및 모빌리티 시장 개화:] 아이오닉 9, 팰리세이드, EV5 등 현대차 신모델 출시, 전기차(EV) 신시장 개척에 따른 마케팅 수요 확대가 실적에 긍정적으로 반영되고 있습니다[3].
+- [디지털 역량 확장:] ‘디플랜360’ 인수 등 디지털 및 데이터 역량을 강화하고 디지털 광고·콘텐츠·미디어렙 서비스 포트폴리오를 확대하며 신규 성장동력을 확보함으로써 영업이익률이 개선된 점이 주요 호재로 작용했습니다[1][2].
+3. [주요 현안(Top 3 Key Issues)]
+- [마진율 하락 압력:] 대형 행사의 축소(CES 등), 경쟁 심화, 글로벌 미디어 시장의 광고 단가 조정 등으로 인해 영업이익률이 점진적으로 하락하고 있습니다. 실제로 2023년 7.3%에서 2025년 7.2%로 소폭 감소가 전망됩니다[1][3].
+- [디지털 전환 경쟁 격화:] 광고업 전반에서 대형 IT플랫폼 사업자와의 경쟁이 심화되고 있어, 자체적인 디지털 마케팅 역량 및 데이터 분석 경쟁력을 지속적으로 고도화해야 한다는 과제가 있습니다[1][2]. 소셜/UX/UI/데이터 등 역량 강화와 관련해 적극적으로 여러 인수나 파트너십 기회를 모색 중입니다.
+- [주주가치 제고 요구:] 최근 100% 무상증자 등 주주환원 정책을 도입했으나, 여전히 광고업 특유의 저평가와 현대차 계열회사로서의 성장 한계에 대한 시장의 시각이 남아 있습니다. 이에 대한 신사업 성과, 비계열 매출 비중 확대, 수익구조의 다변화 등이 계속 요구받고 있습니다[2].
+이노션은 계속해서 글로벌・디지털 사업 확장에 집중하며, 신차 마케팅, 비계열 고객 확대, 혁신 서비스 개발 등으로 경쟁력을 강화하고 있지만, 마진 압력, 디지털 경쟁, 수익원 다각화라는 도전과제에도 직면해 있습니다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1697497351678.pdf
+https://securities.miraeasset.com/bbs/download/2116804.pdf?attachmentId=2116804
+http://home.imeritz.com/include/resource/research/WorkFlow/20250205184122600K_02.pdf
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2025020515373276K_02_02.pdf
+http://leadingkorea.com/board/EquityResearch/detail/2437;jsessionid=49110D7D0B0B553AFFE9663B9C8E755D?siteCd=&amp;pageIndex=65&amp;pageSize=10&amp;pageUnit=10&amp;sortColumnName=&amp;sortDirection=&amp;searchColumnName=SUBJECT&amp;searchValue=&amp;boardNo=58</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>KCTC</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1. 회사의 핵심 사업  
+[KCTC(009070)]는 1973년 설립된 종합물류기업입니다. 주요 사업은 [컨테이너터미널 운영, 항만하역, 육상운송, 창고보관, 중량물 운송, 소화물 사업, 국제물류주선(CY/CFS)] 등으로 구성되어 있습니다. 회사는 전국 주요 항만과 물류거점에 자체 인프라를 구축하여 수출입 화물의 물류 전 과정을 직접 관리합니다. 또한, 해외 현지 법인을 설립해 국제물류서비스까지 사업 영역을 넓히고 있습니다. 최근에는 이커머스 성장에 따라 쿠팡 등과의 물류•창고 업무 제휴도 활발하게 이뤄지고 있으며, 3자물류(3PL) 및 해외사업 비중 확대로 사업 포트폴리오가 다각화되고 있습니다[1][2][3][4][5].
+2. 최근 분기 실적이 강세를 보인 이유  
+최근 몇 분기 동안 KCTC가 강한 실적을 보여준 배경에는 다음과 같은 구체적인 요인이 있습니다.
+- [국내외 물동량 증가:] 코로나19 이후 글로벌 공급망 재편과 온라인쇼핑 성장으로 국내외 항만을 통한 [수출입 물동량이 크게 늘었으며], 이로 인해 항만하역 및 운송·보관 사업 실적이 개선되었습니다.
+- [이커머스 업체와의 협업 확대:] [쿠팡 등 대형 전자상거래 업체와의 물류 및 창고 업무 제휴]가 늘어나면서 창고 보관 및 분류, 배송 관련 매출이 증가했습니다[2].
+- [운영 효율성 제고:] 기존 인프라의 활용도를 극대화하고, 해외법인과 연계된 [글로벌 물류 네트워크 확대] 및 IT 활용을 통한 운영 효율화가 수익성 개선으로 이어졌습니다.
+3. 현재 직면한 주요 이슈 Top 3  
+KCTC가 현재 마주하고 있는 실질적인 과제는 아래와 같이 정리할 수 있습니다.
+- [고조되는 물류 경쟁 및 단가 압박:] 글로벌 대형 물류기업의 국내시장 진입 확대, 쿠팡 등 주요 고객사의 내재화 움직임, 3자물류 시장 과열로 인한 [단가하락 압력]이 커지고 있습니다.
+- [고정비 부담 및 인력/시설 투자 확대:] 항만하역, 창고 등 고정설비 유지를 위해 상당한 투자가 필요하며, [물동량 변화에 따라 수익성이 크게 변동]할 위험이 있습니다. 신규 창고 및 자동화 설비 등 투자비 증가도 부담입니다.
+- [친환경/디지털 전환 요구 증가:] 전 세계적으로 [ESG(환경·사회·지배구조) 경영과 디지털 전환] 요구가 높아지면서, 친환경 운송·저탄소 인프라 도입, IT 플랫폼 고도화 등 미래 대비를 위한 추가 비용과 기술 조직의 확보가 필수로 대두되고 있습니다.
+이상의 내용은 주요 사업보고서와 업계 정보, 최근 뉴스 및 공식 기업 자료에 기반하여 구체적으로 정리하였습니다.
+https://overcomedifficulties.tistory.com/205
+https://ko.wikipedia.org/wiki/KCTC_(%EA%B8%B0%EC%97%85)
+https://deepsearch.com/analytics/company-analysis/KRX:009070?c-name=KCTC&amp;c-symbol=KRX%253A009070
+http://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=009070
+https://invest.zum.com/stock/009070/</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>043150</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>바텍</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>바텍(043150)은 [치과용 디지털 엑스레이 및 CT 등 덴탈 이미징 솔루션]을 개발‧제조‧판매하는 기업입니다. 최근 분기에서의 강한 실적은 북미·유럽 등 해외시장에서의 성장, 제품 포트폴리오 확대, 원가 절감 등 복합적 요인에 기반합니다. 현재 바텍은 글로벌 경쟁 심화, 환율 및 현지 규제, 신기술 대응 등 주요 과제에 직면해 있습니다.
+[(1) 바텍의 핵심사업]
+- [주요 사업영역은 치과용 디지털 방사선 촬영장치](ex. 파노라마 엑스레이, 치과용 CT)로, 이러한 장비의 개발·제조·판매가 매출 대부분을 차지합니다[1][2].
+- 제품 주요 매출 구성은 3D 장비(약 60%), 2D/2.5D 장비(약 20%), 장비 A/S·부품(약 10%), 구강내 방사선기기(약 10%) 순입니다[2].
+- [덴탈 이미징 분야]에서 PaX-i 등 강점을 가진 주력제품을 보유하고 있으며, 최근에는 구강스캐너 등 신제품군으로 포트폴리오를 넓히고 있습니다[2].
+[(2) 최근 분기 실적호조 배경]
+- [해외시장 매출 성장]: 북미와 유럽을 중심으로 덴탈 이미징 장비 수요가 꾸준히 확대되어, 글로벌 매출이 증가하였습니다. 바텍은 15개 해외법인, 100여개 현지 딜러망을 통한 적극적인 해외 영업 체계를 갖추고 있습니다[2][3].
+- [제품 포트폴리오 다각화]: 기존의 2D 장비에서 3D CT, 구강스캐너 등으로 제품 라인업을 확장함에 따라 시장 점유율이 높아지고 있습니다[2].
+- [원가구조 개선 및 내재화]: 주요 부품 내재화, 제조 효율성 제고로 영업이익률이 개선되었습니다. 특히 PaX-i 제품 비중 상승과 이에 따른 수익성 개선 효과가 크게 작용했습니다[3].
+- [지재권 보호와 신제품 효과]: 세계 최초 3 in 1 장비 등 특허기술 기반 신제품 출시에 따른 부가가치 창출로, 브랜드 인지도와 시장 경쟁력이 높아졌습니다[2].
+[(3) 현재 바텍이 직면한 3대 핵심 이슈]
+1. [글로벌 경쟁 심화 및 가격압박]
+   - 중국을 중심으로 한 저가 장비업체 등 글로벌 경쟁자가 빠르게 성장하고 있습니다. 선진국은 기술차별화, 신흥국은 가격경쟁에서 동시에 우위를 확보해야 하는 과제가 있습니다.
+2. [환율 변동 및 현지 규제 리스크]
+   - 매출의 상당 부분이 해외에서 발생하기 때문에 원·달러, 원·유로 등 환율 변동에 따른 실적 변동성이 높습니다. 또한 미국, 유럽, 중국 등 각국 보건당국의 의료기기 인증 및 판매규제 등도 지속적으로 대응해야 하는 과제입니다.
+3. [신기술 트렌드 및 시장 변화 대응]
+   - 구강스캐너, 인공지능(AI), 클라우드 플랫폼 등 디지털 덴탈 헬스케어 시장의 신기술 트렌드 변화 속도가 빨라지고 있습니다[2]. 이에 맞는 R&amp;D 투자와 신제품 개발을 지속적으로 추진하지 않으면 미래 성장동력 확보에 차질을 빚을 수 있습니다.
+*바텍은 치과용 디지털 이미징 분야에서 글로벌 경쟁력을 가진 강점 기업이지만, 해외 시장 리스크와 혁신경쟁 등 복합적인 도전에 맞서 실질적 대응 역량이 요구되는 상황입니다.*
+https://w4.kirs.or.kr/download/tec/%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D_%EC%9D%98%EB%A3%8C.%EC%A0%95%EB%B0%80%EA%B8%B0%EA%B8%B0_%EB%B0%94%ED%85%8D(043150)_%EC%B9%98%EA%B3%BC%EC%9A%A9%20%EC%98%81%EC%83%81%EC%A7%84%EB%8B%A8%EA%B8%B0%EA%B8%B0%20%EC%A0%84%EB%AC%B8%EA%B8%B0%EC%97%85,%20%EC%A0%9C%ED%92%88%20%EB%8B%A4%EB%B3%80%ED%99%94%20%EB%B0%8F%20%EC%98%A8%EB%9D%BC%EC%9D%B8%20%ED%94%8C%EB%9E%AB%ED%8F%BC%EC%9D%84%20%ED%86%B5%ED%95%9C%20%EC%8B%9C%EC%9E%A5%20%ED%99%95%EB%8C%80_NICE%EB%94%94%EC%95%A4%EB%B9%84.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1580955209966.pdf
+https://www.eugenefn.com/common/files/amail/20150410_043150_jongsun.park_297.pdf
+https://securities.miraeasset.com/bbs/download/2126688.pdf?attachmentId=2126688
+https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=5&amp;gicode=A043150&amp;MenuYn=N&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=701</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>192400</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>쿠쿠홀딩스</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>(1) 쿠쿠홀딩스(192400)의 핵심 사업  
+쿠쿠홀딩스는 2017년부터 [지주회사 체제]로 운영되고 있으며, [쿠쿠전자와 쿠쿠홈시스 등 주요 계열사의 지분을 보유한 투자형 지주회사]입니다[3]. 주요 종속회사 중 [쿠쿠전자]는 [전기밥솥]을 중심으로 하는 가전제품의 생산·판매를 담당하며, 밥솥 외에도 인덕션레인지, 멀티쿠커 등 주방용 조리가전으로 사업을 확장하고 있습니다[4].  
+또 다른 핵심 계열사인 [쿠쿠홈시스]는 [정수기, 공기청정기 등 생활가전과 렌털 사업]을 주력으로 하며, 최근에는 청소기와 헤어아이론 등 신제품을 출시해 제품군을 넓히고 [렌털 서비스 기반의 수익모델 강화]에 집중하고 있습니다[1]. 중국, 말레이시아, 인도네시아 등 해외법인을 통한 [해외 시장 진출]과 성장도 병행하고 있습니다[2].
+(2) 최근 실적이 견조했던 배경  
+쿠쿠홀딩스는 최근 분기 기준 [매출이 전년동기 대비 성장(예: 2024년 1.8% 증가하여 9545억 원)]했으며, 이익지표(PER 5.04배, PBR 0.53배, ROE 12.27%)도 업계 평균 대비 견실한 편입니다[1].  
+실적 호조의 구체적인 원인은 다음과 같습니다.
+- [렌털 사업의 확대]: 쿠쿠홈시스를 중심으로 한 [정수기·공기청정기 등 B2C 렌털 서비스가 꾸준히 성장]해 반복형 매출 기반이 견고해졌습니다[1].
+- [제품 다각화와 신모델 출시]: 기존 밥솥, 정수기 외에도 청소기, 헤어아이론 등 신가전 제품군을 선보이며 [수요층을 다양화]했습니다[1].
+- [해외 시장 확대]: 동남아시아, 중국 등 해외 현지 법인 및 유통채널을 통한 [수출 증대]가 공헌했습니다[2].
+(3) 현재 직면한 핵심 이슈 3가지  
+쿠쿠홀딩스가 당면한 주요 이슈는 다음과 같습니다.
+1. [지주회사로서 기업구조 개선 및 계열사 성장 주도]
+   - 계열사 실적이 그룹 전체 가치에 큰 영향을 미치기 때문에, [쿠쿠전자·쿠쿠홈시스의 실적 변동에 대한 리스크 관리]와 그룹 차원의 [포트폴리오 다각화]가 필수적입니다[3].
+2. [국내 시장 정체 및 렌털 경쟁 과열]
+   - 정수기·공기청정기 등 생활가전 렌털시장에서 [경쟁사가 늘고 경쟁이 심화]되는 가운데, 구독형 서비스 차별화, 신제품 개발, 고객 유지 전략이 핵심과제입니다[1].
+3. [해외사업 성과의 불확실성]
+   - 동남아·중국 등 해외법인에서 [높은 성장 가능성]이 있으나, [현지 시장 특유의 유통·마케팅·환율 리스크]와 수익성 개선이 과제로 남아 있습니다[2].
+이외에도 [원자재 가격 변동성과 글로벌 공급망 이슈], 국내외 경기 침체에 따른 소비 위축, ESG(환경·사회·지배구조) 강화 요구 등 거시 환경도 그룹 경영에 주요한 도전 요인입니다.
+https://securities.miraeasset.com/bbs/download/2124300.pdf?attachmentId=2124300
+https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=5&amp;gicode=A192400&amp;MenuYn=N&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=
+https://www.imfnsec.com/upload/R_E08/2025/06/%5B02074147%5D_192400.pdf
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240814002835&amp;docno=&amp;viewerhost=
+https://invest.deepsearch.com/stock/192400/</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>003800</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>에이스침대</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>(1) [에이스침대의 핵심 사업]
+에이스침대(003800)는 [매트리스와 침대를 중심으로 한 가구 제조 및 판매 전문 기업]이다. 1963년 설립되어 국내 침대 산업을 선도해왔으며, 1996년 코스닥에 상장되었다[1][2]. 동사의 사업 구조는 크게 침대 부문, 가구 부문, 기타 부문으로 나눌 수 있는데, 이 중 [침대 부문이 전체 매출의 약 93%]를 차지한다[2]. 주요 제품은 매트리스, 프레임 등 침대 관련 가구이며, 자체 매트리스 생산 시스템(오토컴 공법, 이중 열처리기 등)과 소재 생산 시스템을 갖추고 있다[1]. 전국 300여 개 대리점을 통해 내수 위주의 판매가 이루어지고 있고, 매트리스 신소재 및 항균 시스템 등 ‘침대과학’ 개념을 내세운 기술 혁신에 적극적이다[1].
+(2) [최근 분기 실적 강세 요인]
+에이스침대는 최근 분기들에서 [매출 성장 및 견조한 수익성]을 기록했다. 주요 원인은 다음과 같다.
+- [프리미엄 침대 시장 성장]: 코로나19 이후 주거 환경에 대한 관심이 증가하면서 고급화·차별화된 프리미엄 매트리스 수요가 확대되었다. 에이스침대는 품질 중심의 마케팅과 지속적인 신제품 개발로 이러한 수요를 적극적으로 흡수했다[2].
+- [체험형 매장 전략]: 소비자가 실제로 제품을 체험할 수 있는 오프라인 매장을 확대하며 브랜드 신뢰도를 높이고, 단가 상승 효과를 거두었다[1].
+- [내수 중심 영업]: 수출보다는 내수 판매에 집중, 거리두기 해제 등으로 오프라인 유통이 정상화되면서 가구 교체 수요를 효과적으로 흡수했다[2].
+이와 같이 [프리미엄 수요 확대, 체험 매장 운영, 내수 기반의 영업 강화]가 최근 실적 강세를 견인한 핵심 원인으로 볼 수 있다.
+(3) [현재 직면한 주요 이슈 3가지]
+1. [내수 시장 중심 구조의 한계]  
+   매출의 대부분이 국내에서 발생(수출 비중 미미)하고 있기 때문에, [한국 시장의 경기 변동 및 성장 정체 시 실적이 직접적으로 영향을 받는 구조]이다[2].
+2. [주요 원자재 가격 변동 리스크]  
+   매트리스 및 침대 생산에 필요한 철강, 스펀지, 원단 등 [핵심 소재의 국제 원자재 가격 변동에 취약]하다. 공급망 이슈나 가격 인상 시 수익성 압박이 발생할 수 있다[1].
+3. [경쟁 심화 및 시장 포화]  
+   국내 침대·매트리스 시장은 인구 고령화, 혼인 건수 감소 등으로 성장률이 둔화되고 있고, 신규·해외 브랜드의 진입, [온라인 침대 시장 성장 등 경쟁 환경이 격화]되고 있다[2]. 이에 브랜드 차별화와 신제품 개발, 가격 경쟁력이 중요한 과제로 부상했다.
+이외에도, 차세대 성장동력(예: 해외 시장 진출, 가구 외 연계사업) 마련 필요성, 친환경·ESG 대응, 고가 프리미엄 제품군 외 중저가 시장 확대 전략 등도 향후 주요 과제로 추가될 수 있다.
+[요약]  
+에이스침대는 침대(특히 매트리스) 제조·판매에 집중하며, 내수 프리미엄 시장 성장 및 체험형 매장 운영 등으로 최근 분기 실적이 견조하다. 그러나 내수 편중, 원자재 변동, 경쟁 심화 등의 리스크에 직면해 있어, 시장 다변화와 제품 혁신이 중장기 과제로 제시되고 있다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1626923221644.pdf
+https://ssl.pstatic.net/imgstock/upload/research/company/1694732972861.pdf
+https://w4.kirs.or.kr/download/theme/%EC%A2%85%EB%AA%A9_%EA%B8%B0%ED%83%80_%EC%97%90%EC%9D%B4%EC%8A%A4%EC%B9%A8%EB%8C%80(003800)_%EB%9D%BC%EB%8F%88%EC%95%88%EC%A0%84%20%EC%9D%B8%EC%A6%9D%20%ED%9A%8D%EB%93%9D%ED%95%9C%2014%EB%85%84%20%EC%97%B0%EC%86%8D%20%ED%95%9C%EA%B5%AD%ED%92%88%EC%A7%88%EB%A7%8C%EC%A1%B1%EC%A7%80%EC%88%98%20%EC%B9%A8%EB%8C%80%EB%B6%80%EB%AC%B8%201%EC%9C%84%20%EA%B8%B0%EC%97%85_%ED%95%9C%EA%B5%AD%EA%B8%B0%EC%97%85%EB%8D%B0%EC%9D%B4%ED%84%B0
+http://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=003800&amp;cn=
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240306000407</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>2025-07-28</t>
         </is>
       </c>
     </row>

--- a/data_collection/CCA/info_db.xlsx
+++ b/data_collection/CCA/info_db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3116,6 +3116,157 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>보라티알</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>보라티알(250000)은 [이탈리아 등 유럽 식자재의 수입 및 유통, 그리고 커피 프랜차이즈 메가커피 브랜드 운영]을 핵심 사업으로 하는 상장 기업입니다.
+1. [핵심 사업]
+- 보라티알의 본업은 [이탈리아, 그리스, 스페인, 프랑스 등에서 파스타, 올리브오일, 토마토소스 등 가공식품을 수입해 국내에 유통]하는 것입니다[2][3]. 데체코(DECECCO), 롱고바디(Longobardi), 메뉴(Menu) 등 유럽 프리미엄 식자재 업체들과 [독점 계약]을 맺고 700종이 넘는 다양한 식자재를 공급합니다[1][3]. 전국적으로 1,900여 개 유통채널을 통해 B2B 식자재 사업을 전개하고 있습니다[1].
+- 2021년 이후에는 [커피 프랜차이즈 ‘메가커피’ 인수]를 통해 프랜차이즈 사업도 핵심 성장동력으로 편입시켰습니다[1]. 메가커피는 가맹점 3,000호점을 돌파, 독자적 브랜드 파워와 빠른 매장 확장 기반의 매출 성장세를 보이고 있습니다[1].
+2. [최근 분기 실적 호조 배경]
+- [식자재 도소매 부문은 독점 수입 브랜드를 지속적으로 확대]하며 안정적인 매출 기반을 구축했고, 해외 수입선 다변화와 B2B 채널 확대, 가정간편식(HMR) 등 신사업 영역 확장도 실적 개선에 기여하였습니다[2][3].
+- [메가커피 인수 영향이 실적 급등에 결정적 역할]을 했습니다. 2023~2024년 메가커피의 가맹점 폭발적 증가로 매출이 전년 대비 2배 이상 늘고, 영업이익도 2배 이상 증가했습니다(매출: 3,680억원, 영업이익: 693억원)[1]. 커피 프랜차이즈 사업부의 고성장이 콘솔리데이티드(연결) 기준 호실적의 핵심 배경입니다.
+- 그 외에도 코로나19 이후 외식 시장 회복, HMR 사업 성과 본격화, 비용구조 개선 등이 실적 개선에 영향을 주었습니다[2].
+3. [현재 보라티알의 핵심 이슈 3가지]
+- [프랜차이즈 시장 경쟁 심화]: 메가커피를 비롯, 국내 커피 프랜차이즈 시장 경쟁이 심화되고 있습니다. 대형 브랜드와 신생 브랜드의 점포 출점 경쟁, 가격 할인, 원부자재 수급 경쟁이 치열해 마진율 방어와 브랜드 차별화가 매우 중요한 과제가 되고 있습니다.
+- [원자재 및 환율 리스크]: 주요 사업이 해외 식자재 수입에 의존하고 있어 유로화 등 외화 변동, 글로벌 원자재 가격 상승 시 수익성 저하 우려가 상존합니다. 특히 식자재 수입단가 인상이 국내 판매가에 전가되지 않을 경우 이익률이 민감하게 변동합니다[2][3].
+- [신성장동력 확보와 사업 다각화]: 식자재 및 프랜차이즈 사업의 성장이 한계에 봉착할 가능성을 고려해, HMR(가정간편식), 신유통채널, B2B 전문 식자재 공급 등 신사업이 본격적인 수익원으로 자리잡을 수 있을지 시장의 관심이 집중되고 있습니다[3].
+위 이슈 외에도 중장기적으로 기존 핵심 공급선과 독점계약 안정성, 점유율 확대(해외 대형 B2B 확대 포함), ESG 경영 이슈 등도 주요 과제로 꼽힙니다.
+https://coby2310.tistory.com/entry/%EC%9E%AC%EB%AC%B4%EC%A0%9C%ED%91%9C-%EC%99%84%EB%B2%BD%EB%B6%84%EC%84%9D-%EB%B3%B4%EB%9D%BC%ED%8B%B0%EC%95%8C-%EC%A7%80%EA%B8%88%EC%9D%B4-%EB%A7%A4%EC%88%98-%ED%83%80%EC%9D%B4%EB%B0%8D%EC%9D%B8-%EC%9D%B4%EC%9C%A0
+https://seo.goover.ai/report/202409/go-public-report-ko-81dc11e5-08c6-4506-894b-a754393da7bc-0-0.html
+https://ssl.pstatic.net/imgstock/upload/research/company/1613608276972.pdf
+https://stock.mk.co.kr/news/view/786990
+https://comp.fnguide.com/svo2/fncompany.asp?gicode=A250000</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>021650</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>한국큐빅</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>1. 한국큐빅(021650)의 핵심 사업
+한국큐빅은 [수압전사(Water Transfer Printing) 기술을 기반으로 한 자동차 부품 표면처리 전문기업]입니다[1][3]. 1989년 설립 후, *자동차 내·외장재와 가전제품* 등의 다양한 소재에 곡면·곡선 등 다양한 형태의 표면처리 기술을 적용하는 데 강점을 가지고 있습니다. 주력 제품은 [라디에이터 그릴, 스티어링 휠 등 자동차용 내외장 부품]이며, 국내외 주요 완성차 업체에 납품하고 있습니다. 이러한 표면처리 기술은 금속, 플라스틱, 우드그레인 등 다양한 소재에 적용 가능하다는 점에서 경쟁력이 있습니다[1].  
+생산시설은 경기도 안산과 부산 등에 위치해 있으며, 자체 연구개발부를 통해 표면 처리 소재, 디자인, 공정 기술혁신에도 지속적으로 투자하고 있습니다[1][3]. 2009년부터 삼신화학공업을 자회사로 편입해 사업영역을 더욱 확장했습니다[5].
+2. 최근 분기 강한 실적의 원인
+한국큐빅이 최근 분기에 양호한 실적을 시현한 주요 요인은 다음과 같습니다:
+- [자동차 산업 회복 및 신차 출시 효과:] 최근 국내외 완성차 업계의 생산 및 판매량 회복에 힘입어, 주요 매출처의 발주가 증가했습니다. 현대·기아차 등 국내외 대형 완성차업체의 신차 출시와 디자인 트렌드 변화에 따라, 고급스러운 내장재 및 외장재에 대한 표면처리 수요가 증가한 것이 매출 신장에 기여했습니다[2].
+- [원가 개선 및 공정 효율화:] 공정 자동화 및 생산 효율화 투자로 원가 절감 효과를 거두었습니다. 자체 소재 및 공정 기술 개발로 마진이 개선되면서 영업이익률 상승에 긍정적으로 작용했습니다[1].
+- [적극적인 거래선 다변화:] 국내외 완성차 업체뿐만 아니라 전기차, 가전 등 신규 산업 적용처를 확대하면서 매출 구조가 다변화됐으며, 이로 인해 외부 충격에 대한 회복 탄력성도 커졌습니다[1][2].
+3. 한국큐빅이 직면한 3대 주요 이슈
+- [글로벌 자동차 시장 성장 정체와 경쟁 심화:] 자동차 산업 자체의 저성장 기조가 지속되고 있고, 표면처리 기술도 신기술 및 저가 경쟁이 심화되어 거래처 다변화 및 수익원 확보 노력이 요구됩니다. 특히 전기차 등 신시장으로의 적응이 매우 중요해졌습니다[1][4].
+- [고객사 집중으로 인한 매출 변동성:] 매출의 상당 부분이 현대·기아차 등 특정 대형 완성차업체에 집중되어 있어, 주요 고객사의 생산량·발주 변화에 따른 실적 변동성이 큰 편입니다[1]. 지속적인 신규 고객 확보와 기존 고객과의 안정적인 거래 유지가 중장기 과제입니다.
+- [원자재 가격 및 인건비 상승 압력:] 불안정한 원자재(플라스틱, 특수용지 등) 가격과 국내 인건비 상승은 사측의 비용 부담 요인입니다. 이를 극복하기 위해서는 제조공정 효율화, 자동화 확대, 자재 공급망 안정화 등이 필수적으로 요구되고 있습니다[1].
+이와 같이, 한국큐빅은 자동차 내·외장재 표면처리 부문에서 확고한 기술기반과 거래처를 갖추고 있으나, 자동차 산업 전반의 변화, 특정 고객사 의존도, 생산원가 부담 등 복합적 과제에 전략적으로 대응해야 하는 상황입니다.
+https://ssl.pstatic.net/imgstock/upload/research/company/1586392596547.pdf
+https://securities.miraeasset.com/bbs/download/2122963.pdf?attachmentId=2122963
+https://deepsearch.com/analytics/company-analysis/KRX:021650?c-symbol=KRX%3A021650
+http://snusmic.com/wp-content/uploads/2020/11/180519_%ED%95%9C%EA%B5%AD%ED%81%90%EB%B9%85_4%ED%8C%80.pdf
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A021650</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>015890</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>태경산업</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>태경산업(015890)은 [무기화학소재 및 산업용 가스, 생활문화 사업]을 핵심으로 하는 종합 소재 전문기업입니다. 최근 분기별로 실적이 강세를 보인 배경은 원재료 시장 변화, 국내외 산업 수요 회복, 자회사 경쟁력 강화 등에 있습니다. 하지만 중장기적으로도 주목해야 할 핵심 이슈가 다수 존재합니다.
+1. 태경산업의 핵심 사업
+- [합금철 제조 및 판매]: 철강 제조 시 필수 원소(주로 Cr, Ni, Mo 등)를 첨가하거나 제련 과정 중 불순물 제거에 사용되는 합금철을 생산합니다[1][2].  
+- [석회 및 중질탄산칼슘 생산]: 신속히 공급이 필요한 시멘트, 제철 등 주요 산업의 필수 소재로, 자체 공정 역량을 보유하고 있습니다[1][2].
+- [산업용 가스 (탄산가스 등) 생산]: 반도체, 식음료, 환경 등 다양한 분야에 납품하며, 신사업 확장에도 적극적입니다[3].
+- [생활문화 사업]: 고속도로 휴게소 및 주유소 운영, 기타 관련 서비스 제공으로 수익원 다변화를 추구합니다[1][2][4].
+- [자회사와 계열사 운영]: 태경화학, 백광소재(상장사), 태경네트워크, 경인에코화학(비상장사) 등 해외 및 신시장 진출도 병행 중입니다[1].
+2. 최근 분기 실적 강세의 구체적 배경
+- [합금철 및 산업용 가스 단가 상승]: 철강·화학·자동차 업황 개선에 따라 원자재 및 연관 소재 가격이 상승, 수요 증가와 맞물리며 마진이 확대되었습니다[1][2].
+- [고부가가치 신제품 확대]: 전통 소재 부문에서 고수익 구조로 전환 및 신규 산업용 가스(예: 친환경 가스) 개발이 실적을 견인했습니다[3].
+- [자회사 실적 개선]: 태경화학, 백광소재 등 일부 자회사의 수익성이 크게 개선되어 연결 실적에 긍정적으로 작용했습니다[1][4].
+- 특히, 2023년부터 일부 공급망 문제가 해소되면서 거래처 신뢰 및 출하량도 증가해 매출 성장에 기여했습니다.
+3. 현재 태경산업의 주요 과제(Top 3 이슈)
+- [원자재 가격 변동성]: 합금철, 석회, 산업용 가스의 주원료는 국제 시장 가격 변화에 민감하게 반응합니다. 원가 부담 관리와 장기적 가격 안정화 대책이 시급합니다[1].
+- [친환경 및 신산업 대응]: 화석연료 기반에서 탈피해 친환경 소재·에너지 및 저탄소 제품 라인업 확대가 필수적입니다. 국내외 각종 규제 강화와 ESG(환경·사회·지배구조) 경영체계 확립 요구도 동반됩니다[3].
+- [수요 다변화와 자회사 관리]: 전통 대기업 고객사 위주 공급구조에서 벗어나 신시장(반도체, 2차전지, 고기능성 소재 등)으로 포트폴리오 다각화가 필요합니다. 동시에 자회사별 수익성 관리 및 사업 구조 재편이 관건입니다[1][3].
+요약하면, 태경산업은 합금철과 산업용 소재를 주축으로 성장해왔으며, 최근에는 소재 가격 상승, 고부가가치 제품 확대, 자회사 실적 호전 덕분에 실적이 강세를 보이고 있습니다. 그러나 원자재 가격 리스크, ESG 요구, 신사업 다변화 등 과제를 효과적으로 해결해야 추가 성장의 토대를 다질 수 있습니다.
+https://s3.ap-northeast-2.amazonaws.com/fabot.report.files/486593.pdf
+https://deepsearch.com/analytics/company-analysis/KRX:015890
+https://valueline.co.kr/finance/summary/015890
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=015890&amp;cn=
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240321001414&amp;docno=&amp;viewerhost=</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>2025-07-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_collection/CCA/info_db.xlsx
+++ b/data_collection/CCA/info_db.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -623,27 +623,32 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>메쎄이상(408920)은 [전시회 및 박람회 기획·운영을 중심으로 성장한 국내 대표 MICE(미팅, 인센티브, 컨벤션, 전시) 기업]입니다. 최근 실적 호조와 함께 해외 진출, 산업별 콘텐츠 고도화 등 새로운 성장 기회를 모색하고 있으나, 동시에 경쟁 심화와 신규사업 리스크, 전문성 확보 등 여러 현안도 직면해 있습니다.
-1. [주요 사업 내용]
-- 메쎄이상의 [핵심 사업은 전문 전시회와 박람회 주최·대행]입니다. 매출의 95% 이상이 건축자재, 반려동물, 육아, 방위산업 등 산업별 대형 박람회에서 발생합니다. 대표 브랜드는 ▲KOREA BUILD(건축), ▲K-PET FAIR(반려동물), ▲코베 베이비페어(육아), ▲KADEX(방위산업) 등입니다[1][3].
-- [전시장 임대 및 행사장 운영, 박람회 데이터 분석, 마케팅 등 부가 사업]도 강화하고 있습니다. 행사 기획–운영–부가서비스까지 ‘밸류체인’ 수직계열화로 차별화된 사업 모델을 구축 중입니다[1].
-- 최근 [해외시장 진출]에도 적극적입니다. 2024~2025년 태국 ‘MEGAZOO in Thailand’ 현지 개최, 인도 ‘뷰티썸인디아 2025’ 단독 행사 등 자체 브랜드로 해외 시장 교두보를 넓히고 있습니다[1][3].
-2. [최근 분기 실적 호조의 배경]
-- [전시회 개최 확대 및 참여기업/관람객 증가]가 가장 주된 원인입니다. 2024년 상반기 대형 전시회(코리아빌드, KADEX 등)에서 참가업체, 방문자 규모가 역대 최대치로 기록됐고, 이에 따른 부가 매출(부스, B2B 네트워크, 광고)이 크게 확대됐습니다[1][3].
-- [해외 자회사 및 현지 박람회 성공]도 실적에 기여하고 있습니다. 직접 기획한 해외 전시회가 기존 고객사와 신규 글로벌 참가사 유치에 성공해 실적 모멘텀이 확인됐습니다[1].
-- 사업의 [수직계열화(기획-운영-임대-데이터 분석 등)]와 영업 효율성 개선, 부가 사업 확대가 전체 수익성에 긍정적 영향을 주고 있습니다.
-- 최근 분기(2025년 3월 기준) [매출액 671억원, 전년 동기 대비 매출 및 이익 10% 이상 증가, 순이익 54% 성장], 영업현금흐름 역시 전년대비 100% 가까이 늘어났습니다[1][3].
-- [지속적인 주주환원 정책](배당률 3.9%대, 자기주식 취득 등)도 투자심리 개선에 긍정적으로 작용했습니다[2][4].
-3. [현재 주요 현안(핵심 이슈 3가지)]
-- [(1) 해외 전시사업 리스크 및 정착]: 태국·인도 등에서 독자 브랜드로 개최하는 해외 전시회가 신성장동력이지만, 현지 네트워크·고객 기반 미정착, 예상외 비용 발생, 경쟁사 견제 등 사업 안착 여부가 최대 과제입니다. 현지화 전략, 파트너십 확보, 브랜딩이 성공의 핵심변수입니다[1].
-- [(2) MICE(전시) 시장 경쟁 심화]: 기존 국내 3대 전시기획사 간 점유율 싸움이 지속되며, 신규 온라인 기반 박람회, 복합전시장 업체 등 외부 진입장벽도 낮아지고 있습니다. 네트워크 효과와 콘텐츠 경쟁력, 비용효율성이 승패를 좌우할 전망입니다[1].
-- [(3) 산업별 맞춤형 서비스·콘텐츠 강화 필요]: 단순 행사 개최를 넘어 산업별 핵심 수요를 분석한 데이터 기반 마케팅, 오프/온라인 양방향 플랫폼 구축, 전문 컨설팅 서비스 등 고도화 서비스 니즈가 빠르게 커지고 있습니다. 자사 인력 및 IT 역량 강화, 플랫폼 투자 확대가 필수 과제로 대두되고 있습니다[1][3].
-최근 메쎄이상은 전시·MICE 밸류체인 전반의 경쟁우위 확충, 해외 신시장 개척, 전문성 확보에 박차를 가하고 있으나, 동시에 신흥시장 진출 리스크와 산업 내 격화된 경쟁, 서비스 고도화 요구 등 복합적 과제에 직면해 있습니다.
-https://kind.krx.co.kr/external/dst/newListReport/20250630000185500/SK%EC%A6%9D%EA%B6%8C_%EB%A9%94%EC%8E%84%EC%9D%B4%EC%83%81_%EA%B8%B0%EC%97%85%EB%B6%84%EC%84%9D%EB%B3%B4%EA%B3%A0%EC%84%9C(250630).pdf
-https://kr.investing.com/equities/sk-securities-acpc-no.7
+          <t>메쎄이상(408920)은 국내외 대형 전시회 기획·운영을 주력으로 성장한 대표적인 MICE(MICE: Meeting, Incentive, Convention, Exhibition) 전문 기업입니다. 최근 해외사업 확장과 높은 수익성, 안정적 현금흐름을 나타내고 있으며 동시에 신규시장 리스크와 경쟁 격화, 서비스 고도화 요구 등 복합적 이슈에 직면해 있습니다.
+1. [주요 사업 내용]  
+- [주력 사업]: 메쎄이상의 핵심은 건축, 반려동물, 육아, 방위산업 등 산업별 대형 전시회·박람회 개최 및 대행입니다. 대표행사로는 ‘KOREA BUILD(코리아빌드)’, ‘K-PET FAIR(케이펫페어)’, ‘코베 베이비페어’, ‘KADEX’ 등이 있으며, 전체 매출의 95% 이상이 이 분야에서 발생합니다[3][4].
+- [수직계열화 모델]: 전시장 임대, 행사 운영, 데이터 분석, 마케팅 등 밸류체인 전반을 통합하고 있습니다. 단순 대행이 아니라 부스·광고 등 부가사업 확장, 참가사 네트워킹 서비스 제공까지 아우르는 구조로 경쟁사를 차별화하고 있습니다[1][3].
+- [해외 진출]: 태국(‘MEGAZOO in Thailand’), 인도(‘뷰티썸인디아’) 등 자체 브랜드 박람회를 해외에서 주최하며 글로벌 사업 비중을 빠르게 높이고 있습니다[1][3].
+- [신규 투자]: 2025년 9월 오픈을 목표로 신규 복합전시장 개발, 온·오프라인 통합 플랫폼 구축 등 공간·IT 부문 투자도 확대 중입니다[5].
+2. [최근 분기(2025년 2분기 기준) 실적 호조 배경]  
+- [전시회 및 부가매출 증가]: 코로나19 이후 국내 MICE시장 회복, 주요 대형 박람회 개최 확대, 참가기업·방문객 수가 꾸준히 사상 최대치를 갱신하면서 부스 판매와 광고·마케팅 매출이 동반 성장했습니다[1][2].
+- [해외사업 기여 확대]: 현지 직접기획 전시회(태국, 인도 등)의 흥행으로 신규 기업 고객, 관람객 유치에 성공, 해외매출 비중이 본격적으로 확대됐습니다[3].
+- [수익성 개선]: 사업 효율화(인력관리, 벤더 관리 등), 부가서비스 수익 증가 덕분에 영업이익률이 높은 수준을 유지했습니다.  
+  2025년 2분기 매출액은 174억원(전년 동기 대비 33.9% 증가), 영업이익 29.6억원(18.3% 증가), 2024년 연간 기준 영업이익은 171억원(53% 증가), 순이익은 134억원(142% 증가)으로 공시되었습니다[1][2].
+- [강한 현금흐름, 주주환원정책]: 영업현금흐름이 2배 가까이 증가했고, 2025년 결산기 기준 1주당 100원의 현금배당(시가배당률 4.9%)을 결정하는 등 적극적인 주주환원도 긍정적 평가를 받고 있습니다[1][3].
+3. [현재 주요 이슈(핵심 과제 3가지)]
+- [(1) 해외사업 확장 및 정착 리스크]  
+  자체 기획 해외 전시회의 현지화·브랜딩·고객 기반 확립, 파트너사 확보, 예상치 못한 마케팅/운영비 지출 관리 등이 신뢰성 높은 성장동력이 될지 여부가 관건입니다. 현지 네트워크 약화, 현지 공공기관·경쟁사 견제도 리스크입니다[1][3].
+- [(2) 국내외 전시산업 경쟁 심화]  
+  국내 3대 전시전문사 간 점유율 경쟁(대형 박람회 및 특별전 유치 등)이 치열해졌고, 온라인 기반 박람회, 복합전시장(경쟁사 직접 운영 등) 진출로 전통 오프라인 행사 시장 내 구조적 변화가 빠르게 진행 중입니다.  
+  콘텐츠 차별화, 참가기업 충성도, 비용 전략 등이 중요하게 작용합니다[1][3].
+- [(3) 서비스·콘텐츠 고도화와 인력/IT 투자]  
+  산업별 특화 서비스와 데이터 기반 마케팅, 온라인 플랫폼 연계 등 고도화 수요가 빠르게 증가해 자체 IT 역량 및 전문 인력 확보가 필수로 대두됐습니다. 2025년 하반기 신규 전시장 개관 등 미래 성장 인프라 조성도 병행 중입니다[5].
+종합적으로 메쎄이상은 국내외 확장세와 수익성, 현금흐름 등 양호한 성과를 이어가고 있으나, 글로벌 사업 정착 및 차세대 서비스 고도화, 산업 내 격화되는 경쟁이 최대 도전 과제로 꼽힙니다.
+https://alphasquare.co.kr/home/stock-issue?code=408920&amp;type=news
+https://press.ksjchnews.com/newsRead.php?no=1016345
 https://www.google.com/finance/quote/408920:KOSDAQ?hl=ko
 https://comp.fnguide.com/SVO2/asp/SVD_Invest.asp?pGB=1&amp;MenuYn=Y&amp;ReportGB=D&amp;NewMenuID=105&amp;stkGb=701&amp;gicode=A408920
-https://biz.chosun.com/stock/c-biz_bot/2025/07/22/2XJGWOLK445IOEGVIBJMELC5D4/</t>
+https://m.finance.daum.net/quotes/A408920/news/stock/20240527080840619</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -658,7 +663,7 @@
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -675,36 +680,37 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SOOP(067160)는 코스닥에 상장된 [글로벌 라이브 스트리밍 플랫폼 운영] 및 [1인 미디어 네트워크/매니지먼트] 기업입니다. 최근 실적 호조의 배경과 현안 이슈에는 구체적인 변화가 감지되고 있습니다. 아래에서 최신 자료(2025년 7월 기준)를 바탕으로 세부 설명합니다.
-1. [SOOP의 핵심 사업]
-- [글로벌 콘텐츠 라이브 스트리밍 플랫폼]  
-SOOP의 주력 분야는 PC·모바일 기반의 라이브 방송 플랫폼 운영입니다. 누구나 실시간 스트리밍을 개설할 수 있고, 시청자와 실시간 소통 및 유료 기부·후원, 구독 등이 가능합니다.  
-상대적으로 동남아시아, 특히 태국, 인도네시아 등지에서 빠른 성장을 보이고 있으며 국내외 유명 스트리머와의 파트너십을 통해 유저풀을 확장하고 있습니다[1][2][3].
-- [광고 및 프리미엄 콘텐츠 사업]  
-플랫폼 내 배너·동영상 광고와 프리미엄 회원/콘텐츠 과금, 그리고 e스포츠 및 게임리그 중계, 관련 MD(머천다이즈) 판매 등이 주요 수익원입니다[1][3].
-- [연예 매니지먼트/MCN]  
-'Management SOOP' 브랜드로 연예인, 인플루언서의 소속 및 활동 지원을 하며, 광고, 이벤트, 2차 저작권 등 다양한 부가가치를 창출하는 것도 주요 사업입니다[2][3].
-2. [최근 분기 실적이 강한 배경]
-- [동남아 성장세 유지 및 확대]  
-2024년 하반기~2025년 상반기에도 태국, 인도네시아 지역에서 트래픽과 유료결제 매출이 지속적으로 성장하였으며, 이로 인해 2025년 1분기 매출과 영업이익 모두 전년 동기 대비 약 14%씩 증가했습니다[3].  
-현지 인기 스트리머와의 제휴 확대, 로컬 이벤트 및 한류 콘텐츠 연계가 주효했습니다.
-- [강력한 커뮤니티 기반 기부경제 모델]  
-SOOP만의 특징인 ‘선물 문화’ 및 커뮤니티 참여 기반 유료 경제 모델이 본격적으로 확대·정착되었습니다. 기부·후원 단가와 참여액 모두 상승하며, 유료결제자(ARPU) 지표가 견조하게 개선되었습니다[3].
-- [플랫폼 리브랜딩 및 서비스 고도화]  
-2024년 하반기 국내외 플랫폼 리뉴얼 및 AI 추천 알고리즘 도입 등 기술투자가 실질적인 트래픽 증가와 체류시간 증가로 이어졌습니다. 광고 매출 단가 인상에도 기여했습니다[2].
-3. [현재 SOOP이 직면한 3대 핵심 이슈]
-- [지속 성장 위한 현지화·다변화 전략]  
-동남아 시장에서 한 차례 성장 모멘텀을 확보했으나, 인도네시아, 베트남 등 신규 지역 진출 및 로컬 인기 크리에이터 영입이 중요한 과제로 부각되고 있습니다. 한류 콘텐츠에 의존한 기존 전략에 한계가 드러나고 있기 때문입니다[1].
-- [경쟁사 견제 및 트래픽 락인(lcok-in) 강화]  
-트위치, 유튜브, 페이스북 등 대형 글로벌 플랫폼의 이탈 이후 일부 복귀 움직임·신규 현지 경쟁사(예: 로컬 게임 플랫폼 등) 부상 조짐도 뚜렷합니다. 핵심 인플루언서 보호와 이용자 락인 전략, 독점 IP 콘텐츠 확대 등 시장 점유율 방어가 단기 화두입니다[2][3].
-- [매출 안정성과 규제/플랫폼 거버넌스 리스크]  
-2025년 상반기 들어 일부 광고주 이탈 및 콘텐츠 심의 이슈(불법·불건전 방송여부 등), 결제 프로세스 변화 등 불확실성이 확대되고 있습니다[2]. 수익성 변동성 관리와 동시에, 플랫폼 건전성·규제 위험에 대응하는 기술·인력 투자가 반드시 병행되어야 하는 상황입니다.
-이처럼 SOOP은 [동남아 시장을 중심축으로 성장을 이어가고 있으나, 신규시장 확장, 시장점유율 방어, 플랫폼 건전성/규제이슈] 등 중장기 과제를 직면하고 있습니다. 2025년 하반기 이후는 이 세 가지의 해결력에 따라 실적 변동과 미래 가치가 좌우될 전망입니다.
-https://stock.pstatic.net/stock-research/company/57/20250115_company_335157000.pdf
-https://m.irgo.co.kr/IR-ROOM/067160/SOOP-IR-ROOM
-https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=067160
+          <t>SOOP(067160)은 글로벌 1인 미디어 및 라이브 스트리밍 플랫폼을 중심으로 한 콘텐츠·커뮤니티 사업, 그리고 연예 매니지먼트·광고서비스 등 다각화된 비즈니스를 펼치고 있는 코스닥 상장사입니다. 2025년 8월 기준 실제 사업 현황 및 최근 이슈들을 업데이트하여 원문 요청에 구체적으로 답변합니다.
+1. SOOP의 핵심 사업
+- [글로벌 1인 미디어·라이브 스트리밍 플랫폼]  
+SOOP은 PC·모바일 기반으로 실시간 방송을 누구나 개설·시청할 수 있는 스트리밍 플랫폼을 주력 사업으로 하며, 시청자와 BJ(방송인플루언서) 간 실시간 소통 및 유료 후원/선물 시스템이 주요 수익원입니다. 특히 타깃팅된 한류 콘텐츠와 동남아 현지 인기 크리에이터 파트너십을 적극적으로 확장하고 있습니다[1][3][5].
+- [광고 및 프리미엄/커뮤니티 수익 모델]  
+광고 매출(영상·배너), 프리미엄 콘텐츠 과금, 유료 구독, 그리고 플랫폼 내 e스포츠·게임 리그 중계와 MD 판매 등이 복합적으로 이뤄집니다. 2025년 2분기부터는 온라인 광고 솔루션 계열사의 인수가 반영되며 광고 포트폴리오 다각화도 가속화됐습니다[5].
+- [연예 매니지먼트·MCN(다중채널네트워크) 사업]  
+SOOP은 'Management SOOP' 브랜드로 연예인, 인플루언서 매니지먼트 및 활동 지원, IP기반 부가사업(광고·이벤트·저작권 외)에 주력합니다. MCN역량 강화와 워크숍, 오프라인 행사를 통한 크리에이터 락인 정책도 함께 추진 중입니다[1][5].
+2. 최근 분기에 강한 실적을 기록한 배경
+- [플랫폼 매출 성장 및 ARPU 개선]  
+2025년 2분기 기준 매출액은 전년 동기 대비 +15.2%(전분기 대비도 +8.6%) 증가했으며, 특히 동남아(태국, 인도네시아, 베트남)에서 트래픽 및 유료결제(ARPU) 상승이 크게 반영됐습니다[3][4].  
+신규 인기 스트리머 영입과 현지 오리지널 콘텐츠 확장이 실질적으로 기여하였습니다.
+- [광고사업 외형 확대]  
+2025년 상반기 플레이디 인수 효과로 광고 포트폴리오가 대폭 강화되었으며, AI 기반 추천/타게팅 기술 도입으로 광고 단가 및 효율성이 상승, 매출 견인에 주요 원인으로 작용하였습니다[5].
+- [커뮤니티 기반 유료경제 활성화]  
+‘선물 경제’와 커뮤니티 팬덤 기반 유료 서비스가 정착되면서 유료결제 이용자가 늘었고, 전체 수익 구조가 한층 견조해졌습니다.  
+플랫폼 리뉴얼 효과, 신규 기능(예: 단체선물, 팬미팅 라이브) 확장도 체류시간 증가 및 결제율 상승에 기여했습니다[3][4].
+3. 2025년 8월 기준 SOOP의 핵심 이슈 3가지
+- [현지화/서비스 다변화와 신규시장 확장]  
+기존 동남아 주력 국가(태국, 인도네시아) 이외에 베트남, 필리핀 등 신규 진출의 ‘성장 속도’ 확보가 최대 현안입니다. 한류 중심 전략의 성장 한계가 감지되며, 현지 인기 크리에이터와 자체 오리지널 IP 강화가 필수 과제로 부상하고 있습니다.  
+2025년 상반기 베트남 진출 속도가 시장 기대에 미치지 못해 단기 모멘텀 둔화가 지적되고 있습니다[3][4].
+- [경쟁 플랫폼 및 저가 공세, 크리에이터 유출 우려]  
+글로벌 대형 플랫폼(유튜브, 트위치 등) 일부 복귀, 동남아 현지 신규 게임/쇼트폼 플랫폼 급부상, 광고단가 경쟁 격화 등으로 시장 점유율 방어가 중요한 이슈입니다. 유명 스트리머·IP 보호, 고정 팬덤 락인(book-in) 전략, 오리지널 콘텐츠 투자 확대가 절실합니다[5].
+- [매출 안정성, 규제/컴플라이언스 위험 심화]  
+일부 광고주 이탈 및 불건전 콘텐츠 논란, 베트남 등 신규 시장의 플랫폼 심의·결제 규제 강화 등 리스크 요소가 증가 중입니다. 결제 프로세스 외부 변수와 규제 리스크에 대한 신속한 대응, 자체 심의 인력 투자 등 플랫폼 건전성 확보가 시급합니다[4][5].
+이와 같이 SOOP은 스트리밍 미디어·광고·매니지먼트의 융합 플랫폼으로 성장 중이나, [신규 시장 확장력, 경쟁 플랫폼의 견제, 규제 및 매출 다변화의 안전성]이 최근 핵심 이슈로 부상했습니다. 2025년 하반기 중 이 세 가지의 대응력에 따라 앞으로의 실적과 기업가치가 좌우될 전망입니다.
+https://www.valueline.co.kr/finance/summary/067160
+https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=067160&amp;cn=
+https://simplywall.st/ko/stocks/kr/media/kosdaq-a067160/soop-shares/past
 https://comp.fnguide.com/SVO2/asp/SVD_Consensus.asp?pGB=1&amp;gicode=A067160&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=108&amp;stkGb=701
-https://tossinvest.com/stocks/A067160/order</t>
+https://www.tossinvest.com/stocks/A067160/order</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -719,7 +725,7 @@
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -737,23 +743,28 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>1) [한국앤컴퍼니(000240)의 핵심 사업]
-한국앤컴퍼니는 [지주회사(홀딩스)]로, 실질적인 사업의 중심은 자회사들의 경영 관리 및 수익 극대화에 있습니다. 가장 큰 자회사는 [한국타이어앤테크놀로지]로, 글로벌 타이어 제조 부문에서 핵심적인 역할을 하며 전체 수익의 상당 부분을 차지합니다[1]. 그 외에 자동차열관리 솔루션을 담당하는 [한온시스템], 에너지 솔루션(배터리) 사업본부, IT·기계 관련 계열사인 한국네트웍스, 한국엔지니어링웍스, 한국프리시전웍스 등이 포함됩니다. 수익원은 자회사에서 발생하는 [배당금, 경영자문 및 로열티, 상표권 사용료] 등으로 구성되며, 최근에는 배터리와 에너지 신사업이 점진적으로 수익 구조에 반영되고 있습니다[1].
-2) [최근 분기(2025년 1분기) 실적 강세의 주된 배경]
-2025년 1분기 기준으로 매출 3,887억 원(+11.4% YoY), 영업이익 1,269억 원(+1.0%), 순이익 1,154억 원(+1.2%)을 기록하며 안정적인 성장세를 유지하고 있습니다[1]. 이 같은 실적 호전의 주요 원인은 아래와 같습니다.
-- [한국타이어앤테크놀로지 실적 개선:] 글로벌 자동차 시장의 회복, 특히 미국/유럽 시장에서 프리미엄 타이어 수요가 증가하고 고수익 제품(고인치, 전기차 타이어 등) 비중이 확대된 것이 핵심입니다[2].
-- [주요 자회사 배당 확대:] 자회사들의 영업수익 증가로 인해 배당금 유입이 늘었습니다. 2024~2025년 배당성향은 3.9~4.2%로 꾸준한 주주환원정책이 강점으로 평가받고 있습니다[1].
-- [비타이어 신사업(에너지 솔루션) 기여:] 한국아트라스비엑스 합병 및 에너지사업본부 신설로, 국내·외 배터리 시장 확대에 수혜를 받고 있습니다. 이 사업의 본격적인 성장세가 실적에 플러스 요인으로 작용 중입니다.
-- [저평가된 기업가치(밸류에이션):] PER(6.5~6.9배), PBR(0.51~0.54배)로 동종 업종, 지주회사 평균보다 낮아 기관, 외국인 매수세가 유입되었습니다[1][2].
-3) [2025년 7월 기준 최대 현안 3가지]
-- [자회사 실적변동 위험성:] 전체 매출과 이익 대부분을 한국타이어와 한온시스템에서 가져오므로, 양사 실적 부진 혹은 글로벌 시장 불확실성(환율, 수요 위축 등)에 취약합니다. 특히 [한온시스템의 영업이익률(1.3%) 저조]가 최근 투자 불안요인으로 부각되며, 투자자 신뢰에 악영향을 미치고 있습니다[3].
-- [리더십/경영진 불확실성:] 2025년 상반기 리더십 공백 및 경영진 변화가 있었으며, 이에 대한 투자자의 경계심이 주가에 즉각적으로 반영되는 모습입니다. 지주체제 전환 이후 경영안정성에 대한 의구심이 확산되는 국면입니다[3].
-- [신사업(에너지·배터리) 안정화와 미래 성장동력:] 배터리 및 에너지 솔루션 사업은 기대가 크지만, 수익성이 본격적으로 자리잡기까지 추가 투자와 내실 다지기, 사업 간 시너지 확보라는 장애요인이 있습니다. 시장에서는 신사업 안착 속도와 실질적 이익 기여도에 주목하고 있습니다.
-추가적으로, 최근 주가는 단기적으로 크게 반등(한 달 34% 상승)했으나, 전년 대비 시장 평균보다 낮은 밸류에이션과 캐시카우인 핵심 자회사 실적 의존 리스크로 변동성이 상당히 큽니다[1][2][3]. 따라서 중장기적으로는 ▲자회사 실적 안정화, ▲경영진 리더십 회복, ▲신성장동력의 조기 정착이 기업가치 향상의 관건입니다.
-https://neon7shop.com/entry/%EA%B5%AD%EB%82%B4%EC%A3%BC%EC%8B%9D-%ED%95%9C%EA%B5%AD%EC%95%A4%EC%BB%B4%ED%8D%BC%EB%8B%88000240-%EC%95%8C%EC%95%84%EB%B3%B4%EA%B8%B0-%EC%8B%A4%EC%A0%81-%EB%B0%8F-%EC%88%98%EC%9D%B5%EC%84%B1-%EA%B2%BD%EC%9F%81%EB%A0%A5-%ED%96%A5%ED%9B%84-%EC%A0%84%EB%A7%9D
+한국앤컴퍼니는 [지주회사(홀딩스)]로서 코스피에 상장되어 있습니다[2]. 핵심 사업은 계열사 관리와 사업 포트폴리오 가치 극대화에 집중되어 있습니다. 주요 자회사는 [한국타이어앤테크놀로지](글로벌 타이어 제조), [한온시스템](자동차 열관리 및 친환경 모빌리티 부품), 그리고 에너지 솔루션 및 배터리 사업부로 확대되었습니다.  
+주된 수익원은 ▲자회사로부터의 [배당금 및 이익배분] ▲경영자문·로열티·상표권 수입 ▲타이어 및 신사업에서 발생하는 추가수익입니다. 2025년 현재, 신사업(배터리 및 에너지솔루션)의 비중이 점차 높아지고 있으나, [한국타이어앤테크놀로지]와 [한온시스템]의 실적이 그룹 성패의 핵심적 역할을 하고 있습니다[1][3][5].
+2) [최근 분기 실적 동향 및 강세의 배경]
+2025년 2분기, 연결기준 매출은 [3,438억원], 영업이익은 [739억원]으로 전년동기 대비 각각 [5.4% 감소], [40.8% 급감]했습니다. 순이익 또한 절반 가량 줄어든 [565억원]입니다. 실적이 직전 분기(2025년 1분기) 대비 빠르게 약화되었습니다[2].
+그러나 2024년 말~2025년 상반기, 주가와 이익은 한동안 실질적으로 강세를 보였습니다. 그 배경은 다음과 같습니다.
+- [한국타이어앤테크놀로지 실적 기저효과:] 2024년 고인치·전기차 타이어 등 프리미엄 제품의 수요가 미국/유럽 시장에서 강세를 보여 자회사 실적이 견고했습니다[4].
+- [기관·외인의 지분 확대:] 저평가된 밸류에이션(PER 6.4~6.9배)과 ROE 8.3% 내외의 수익성, 주주환원 확대 정책(배당성향 약 4%)으로 외국인/기관이 집중 매수해 주가가 단기에 34% 반등하는 단기 모멘텀이 발생했습니다[1][4].
+- [신사업(에너지솔루션) 성장:] 배터리·에너지사업 강화(한국아트라스비엑스 합병 이후)로 사업 다각화 기대감이 반영되었습니다.
+다만, 2025년 2분기 들어 [계열사 실적 부진 및 지분법 손익 감소]로 수익성이 심각히 흔들리고 있습니다[2].
+3) [2025년 8월 기준, 한국앤컴퍼니의 주요 현안(Top 3 Key Issues)]
+- [자회사 실적 변동 리스크]  
+  한국타이어 및 한온시스템의영업이익과 순이익이 최근 큰 폭으로 하락했습니다(예: 한국타이어 2분기 영업이익 -15.8%, 순이익 -44.7% 감소). 그룹 실적은 계열사 성과에 절대적으로 의존하는 구조이므로, 글로벌 자동차 및 전기차 시장 경기침체, 환율 리스크, 생산원가 인상 등이 커다란 불확실성으로 작용하고 있습니다[2][5].
+- [경영진·리더십 및 조직개편의 불확실성]  
+  최근 수익성 악화와 맞물려 그룹 내 조직개편 및 경영진 변화가 진행 중입니다. 내실 구축, 리더십 회복, 친환경 모빌리티 중심 전략 전환이 절실하나, 투자자 사이에서 경영안정성에 대한 우려가 계속되고 있습니다[5][3].
+- [신성장동력(배터리·에너지솔루션) 사업 안정화]  
+  배터리/에너지사업은 장기적으로 성장 가능성이 높으나, 단기적으로 수익성 악화, 투입되는 CAPEX 부담, 기존 사업과의 시너지 확립이 완전히 이뤄지지 않고 있습니다. 시장은 신사업이 곧 그룹 실적을 견인할 수 있을지, 그리고 글로벌 경쟁력 확보가 가능한지에 대해 잠정적인 의구심을 갖고 있습니다[2][3].
+추가적으로, [주가는 저평가 구간에서 단기 급등세(최근 한 달 34% 상승)를 보였으나, 주요 현안 해결 여부에 따라 향후 변동성이 극심할 수 있습니다.] 중장기적으로는 자회사 실적 안정화·지배구조 투명성·신사업의 실질적 성장 여부가 한국앤컴퍼니 기업가치의 결정적 변수입니다[4][1][2].
+https://flambe.tistory.com/entry/%ED%95%9C%EA%B5%AD%EC%95%A4%EC%BB%B4%ED%8D%BC%EB%8B%88Korea-Company-%EC%A3%BC%EC%8B%9D-%EC%A3%BC%EA%B0%80-%EC%A0%84%EB%A7%9D-%EC%8B%A4%EC%A0%81-%ED%98%B8%EC%9E%AC-%ED%95%9C%EC%98%A8%EC%8B%9C%EC%8A%A4%ED%85%9C-%EC%9D%B8%EC%88%98
+https://dealsite.co.kr/articles/146538
+https://www.hankookandcompany.com/ko/business/invest.do
 https://simplywall.st/ko/stocks/kr/automobiles/kose-a000240/hankook-shares/news/7ca4ae8b73b77ae6
-https://seo.goover.ai/report/202507/go-public-report-ko-72b810c3-e35b-4f88-aab1-a0e70f380ce4-0-0.html
-https://kr.investing.com/equities/hankook-tire-worldwide-earnings
-https://kr.investing.com/equities/hankook-tire-worldwide</t>
+https://v.daum.net/v/20250624050357731</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -768,7 +779,7 @@
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -785,35 +796,34 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(1) 월덱스(101160)의 핵심 사업
-[월덱스]는 반도체 제조 공정 중 식각(Etching) 공정에 사용되는 [소모성 부품](Consumables) 전문 생산 기업입니다. 주력 제품군은 [실리콘, 쿼츠(석영), 세라믹(특히 SiC: 실리콘카바이드) 소재 부품]으로, 반도체 칩 생산 라인에서 주기적 교체가 필수적인 고부가가치 소모재입니다. 대표 품목은 [실리콘 링, 쿼츠 포커스 링, SiC(실리콘카바이드) 링] 등이며, 삼성전자, SK하이닉스 등 글로벌 대형 반도체 제조사와 파운드리 기업에 납품합니다. 특히, 최근 SiC 등 [신소재 부품]의 비중 확대와 애프터마켓 시장(운영 중 부품 교체 수요) 채택률 증가가 월덱스의 핵심 성장 원천으로 부각되고 있습니다[1][3][4].
-(2) 최근 분기(2025년 상반기) 실적이 강한 이유
-월덱스의 최근 분기 실적이 강했던 주요 원인은 아래와 같습니다.
-- [AI·고성능 반도체 시장 성장]
-  AI 서버·고사양 메모리 등 첨단 반도체 수요가 급증하면서, 식각 소모부품 전체 시장 규모가 확대되었습니다. 이에 따라 월덱스의 핵심 제품(실리콘·SiC 부품 등) 교체 수주가 크게 늘었습니다[1][2].
-- [SiC 등 고부가가치 신제품 매출 성장]
-  [SiC 고내구성 부품]의 글로벌 채택률이 높아지면서, 특히 [중국향 SiC 부품 매출이 전년 동기 대비 30% 이상 증가]하는 등 주력 신제품의 성장세가 두드러졌습니다[1].
-- [고객 기반·수출 시장 확대]
-  북미 및 유럽 신규 고객처 확보, 그리고 비메모리 반도체 분야 매출 노출도 확대로 수출이 증가하였고, 전체 수익성 개선에 기여했습니다. 이는 기존 메모리 중심의 부품업체와 차별화되는 지점입니다[1][2].
-- [애프터마켓(운영 중 부품 교체) 매출 안정]
-  대형 고객사 내에서 애프터마켓 채택률이 과거 대비 상승하고 있어, 정기적이고 안정적인 매출 기반이 강화되고 있습니다[1].
-(3) 현재 월덱스가 직면한 주요 3가지 이슈
-1. [지배구조(상속) 및 주요주주 리스크]
-   최근 [창업주 고령화와 경영권 승계(상속) 이슈]가 시장에서 부각되고 있습니다. 회장 연령이 높고, 실제 승계구도나 경영 참여도가 명확하게 외부에 공개되지 않아 외부 투자자의 불안감을 자극합니다. 
-   일부 시장 참여자는 [대주주가 단기 주가 부양에 소극적]이라는 인식 및 공식 공시가 적은 점을 우려하며, 이에 외국인·기관 투심이 위축돼 있습니다[2].  
-2. [고객 포트폴리오 집중 및 업황 변동성]
-   대형 메모리·파운드리 기업에 대한 매출 쏠림 현상이 여전하여, 전방 산업(반도체 제조업) 투자 축소나 업황 부진 시 월덱스 실적이 단기 영향을 받을 수 있습니다. 글로벌 경기 및 반도체 투자 변화(특히 재고 증가·Capex 축소)가 실적에 위험 요인입니다[1][2].
-3. [기술 경쟁 심화 및 신시장 진출 과제]
-   SiC 등 신소재 부품 시장에서 국내외 경쟁사의 제품 고도화와 납품 확대가 가속화되고 있는 상황입니다. 월덱스는 향후 신규 고객사 인증, 신제품 개발 및 해외 시장 안착 등에서 [기술·품질 경쟁력 확보]와 [고객 다변화]가 반드시 필요합니다. 이 과제가 미흡할 경우 성장 둔화 및 매출 구조 불안을 초래할 수 있습니다[1][2].
-부가 정보 및 특이사항
-- 월덱스는 [외부 공시와 IR에 매우 소극적]이며, 상속 및 대주주 관련 이슈로 인해 [주가 부양 의지에 의문이 제기되는 상황]입니다. 이는 투자 심리에 부정적으로 작용하고, 단기적으로 저평가 지속 및 주가 변동성 확대의 원인으로 지적됩니다[2].
-- 2025년 3월 기준 PER(주가수익비율)은 약 6배 초반으로, 업종 평균보다 낮아 저평가 구간에 머무르고 있으나, 투자자 신뢰 회복 없이는 주가 반등 모멘텀 확보에 제한이 있습니다[3].
-요약: [월덱스는 반도체 식각 소모부품(특히 신소재 SiC 등)에서 강점을 보이지만, 지배구조·고객구조 리스크와 시장 내 IR 미흡, 기술·시장경쟁 심화가 주요 과제]입니다.
-https://files-scs.pstatic.net/2023/01/10/cQ5QBeP3q4/%EC%9B%94%EB%8D%B1%EC%8A%A4%EF%BC%BB101160%EF%BC%BD_20230110_Hana_833590.pdf
-https://seo.goover.ai/report/202502/go-public-report-ko-c482e138-97d7-4e9d-bd7c-d38d55600572-0-0.html
+          <t>(1) [월덱스(101160)의 핵심 사업]
+월덱스는 [반도체 제조 공정 중 식각(Etching)공정에 사용되는 소모성 부품]을 전문적으로 생산하는 기업입니다. 주력 제품은 [실리콘 링, 쿼츠 포커스 링, 실리콘카바이드(SiC) 링] 등이며, 소재로는 실리콘·쿼츠·세라믹(특히 SiC)이 활용됩니다. 이들 부품은 반도체 칩 생산 라인에서 [정기적으로 교체되는 고부가가치 소모 재료]로, 삼성전자, SK하이닉스, 글로벌 파운드리 등 대형 반도체 업체에 납품됩니다. 최근에는 SiC 등 [신소재 부품의 매출 비중 확대]와, 생산라인 운영 중에 발생하는 [애프터마켓(운영 중 부품 교체) 수요]의 증가가 사업 성장에 핵심 역할을 하고 있습니다[1][3][4].
+(2) [최근 분기 강한 실적의 배경]
+월덱스의 2025년 상반기 실적 상승은 다음과 같은 구체적 요인이 있습니다.
+- [AI·고성능 반도체 시장 확대]  
+  AI 서버, 고사양 메모리, 첨단 반도체 수요가 급증하면서 식각용 소모부품 전체 시장이 커졌고, 월덱스의 핵심 제품 주문이 동반 상승했습니다[1][2][5].
+- [SiC 등 신제품 매출 호조]  
+  내구성과 수명이 우수한 SiC 부품의 해외시장 판매가 급증, 특히 중국향 매출이 전년 동기 대비 30% 이상 성장하며 실적을 견인했습니다[3].
+- [고객 다변화 및 수출 확대]  
+  기존 국내 메모리 중심에서 북미·유럽 신규 고객을 확보하고, 비메모리 반도체 분야 매출을 늘리면서 수익성 개선에 기여했습니다[1][2][5].
+- [애프터마켓 매출 안정화]  
+  대형 고객사 내 교체주기 증가와 안정적인 부품수요가 지속적으로 실적을 받치고 있습니다[1].
+2025년 3월 기준 월덱스의 PER(주가수익비율)은 약 5.3~6배로 업종 평균(12.5배) 대비 저평가돼 있으나, 수익성·현금흐름은 강한 편입니다[1][2].
+(3) [월덱스가 직면한 주요 3가지 이슈]
+1. [지배구조(상속) 및 대주주 리스크]  
+   창업주 고령, 승계(상속) 구도 불투명, 경영참여 구조 비공개로 인해 외부 투자자의 불안이 큽니다. 외부 공시와 IR 활동이 매우 제한적이고, 대주주가 주가부양에 적극적이지 않다는 인식이 기관·외국인 투자심리에 부정적으로 작용합니다[2].
+2. [고객군 집중 및 업황 변동성]  
+   삼성전자·SK하이닉스 등 소수 대형 고객사 매출 비중이 여전히 높아, 업황부진·반도체 투자축소(특히 재고 증가, 신규 Capex 감소) 발생 시 실적이 직접적으로 타격받을 위험이 있습니다. 글로벌 경기에 실적 변동성이 크게 연동됩니다[1][2][5].
+3. [기술 경쟁 심화 및 신시장 확장 압박]  
+   SiC 신소재 등 신부품 시장에서 국내외 경쟁사의 기술 개발·시장 진입이 빨라지는 상황입니다. 월덱스는 신규 고객 인증, 신제품 고도화, 해외시장 안정적 안착을 실현해야 하지만, 이 부분의 전략이 공개되어 있지 않고 성과도 분명하지 않아 성장 모멘텀 확보에 제한이 있습니다[3][5].
+[추가 정보(외부 공시/지배구조)]  
+월덱스는 공식 IR·공시가 매우 적고, 대주주(상속)와 관련된 불확실성으로 인해 주가 저평가 및 변동성이 확대되는 특징이 있으며[2], 투자자 신뢰 회복이 단기 주가 반등의 관건으로 지적되고 있습니다.
+요약하면, 월덱스는 [반도체 식각 소모부품 특히 SiC 등 신소재 제품 매출 확대에 힘입어 강한 실적을 내고 있으나, 지배구조 불확실성, 고객포트폴리오 집중, 기술경쟁 심화 및 성장 전략 공개 미흡] 등이 단기 주요 리스크입니다.
 https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=101160
+https://comp.wisereport.co.kr/company/c1030001.aspx?cmp_cd=101160&amp;cn=
 https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250319000298&amp;docno=&amp;viewerhost=
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250515000359&amp;docno=&amp;viewerhost=</t>
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250311000165&amp;rcpno=20250311000122&amp;orgid=F&amp;tran=Y&amp;langTpCd=0
+https://invest.zum.com/stock/101160/</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -832,7 +842,7 @@
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -849,26 +859,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>이상네트웍스(080010)는 [B2B 전자상거래, 전시사업, 철강 유통]을 3대 축으로 영위하는 상장사로, 최근 실적 개선이 두드러지고 있고, 구조적 이슈와 신사업 추진에 주목받고 있습니다.
+          <t>이상네트웍스(080010)는 [산업재 B2B 전자상거래 플랫폼, 산업·건설 전시사업, 철강 유통]을 핵심 사업으로 하는 코스닥 상장사입니다.
 (1) [핵심 사업 구체 설명]
-- [B2B 전자상거래]: 철강, 비철금속, 건자재 등 산업재를 온라인 플랫폼에서 거래·중개하는 사업이 주력입니다. 초기 철강·금속에 집중했으나, 최근엔 제약, 화학, 자동차부품 등 신규 분야로 확장하며 거래 규모·고객 다변화에 집중하고 있습니다. B2B 플랫폼 운영·IT 시스템 제공을 통한 거래 효율화와 수익 기반을 마련하고 있습니다[2][4].
-- [전시사업]: 국내 최대 산업 전시회인 ‘경향하우징페어’를 포함해 건자재, 인테리어, 친환경 등 다양한 박람회·콘퍼런스를 기획·운영합니다. 오프라인 대형전시와 온라인 전시플랫폼 ‘eSANG EXPO’ 등 하이브리드 형태를 접목, 참가 고객사의 마케팅·영업 활동까지 지원하는 B2B 솔루션의 사업 비중과 수익성이 매우 크게 확대되었습니다[4].
-- [철강 유통 및 기타]: 철강제품의 매입 및 공급, 구매대행이 전통적 축이며, 일부 부동산 임대 및 용역 사업도 병행하고 있습니다. 하지만 최근 전시사업 및 B2B 플랫폼 비중이 지속적으로 커지고 있습니다[2][4].
-(2) [최근 실적 호조의 구체적 배경]
-- 2024년 하반기부터 2025년 1분기까지 [연속적으로 매출과 영업이익이 개선]됐습니다. 2025년 1분기 매출 2,057억 원을 기록했고 전년 동기 대비 매출 성장과 이익률 개선이 두드러졌습니다[1][3].
-- [전시사업의 구조적 성장]이 결정적입니다. 코로나19 이후 오프라인 대형 전시 수요가 빠르게 회복되어, 건축·인테리어·친환경 트렌드 확산과 맞물려 참가사, 부스 규모, 관람객 수가 크게 증가했습니다. 전시회 개최 자체 매출뿐만 아니라, 참가사의 마케팅·상담 성과로 이어지는 부가가치 확장이 실적 상승을 견인했습니다. 자회사 ‘메쎄이상’도 실질적 실적 기여도가 높아졌습니다[3][5].
-- [B2B 플랫폼의 업종 다각화] 또한 효과를 발휘 중입니다. 기존 핵심 시장 이외에 신규 고객사 및 업종 확대로 거래량이 증가했고, 운영 효율화로 고정비 부담이 줄면서 영업이익률이 개선됐습니다[2].
-- [비용 관리와 수익성 중심 경영] 역시 강화되었습니다. 원가 및 고정비 절감으로 전사 마진율이 상승했습니다[3].
+- [B2B 전자상거래]: 철강·비철금속·건자재 등 산업재를 온라인 시스템으로 매매, 중개하는 B2B 플랫폼을 운영합니다. 최근에는 제약·화학·자동차부품 등 신업종으로 빠르게 확장 중이며, 거래물량의 증가 및 고객 다변화가 실적에 직접적으로 기여하고 있습니다[2][4].
+- [전시사업]: 국내 최대 규모 건축/인테리어 박람회 ‘경향하우징페어’ 등 다양한 산업·환경 전문 전시회를 주최합니다. 온라인 전시플랫폼(eSANG EXPO)과 오프라인 대형전시를 접목한 하이브리드 모델로, 참가기업의 마케팅/영업 효과 극대화에 집중하고 있습니다. 전시사업의 수익성과 외형이 최근 2년간 가장 큰 폭으로 성장 중입니다[4].
+- [철강 유통 및 기타]: 철강제품 매입 및 공급, 구매대행, 일부 임대 및 용역 등이 포함되며, 전통적 사업이지만 사업 비중은 점진적으로 축소되고 있습니다[2][4].
+(2) [최근 분기 실적 호조의 원인]
+- [2025년 1분기 실적]: 연결 기준 매출액 2,057억 원(전년 동기 대비 5% 성장), 영업이익 40억 원, 당기순이익은 25.9% 증가했습니다[4][3]. 분기 연속 실적 개선이 이루어졌습니다[1][2].
+- [전시사업 확장 효과]: 엔데믹 이후 오프라인·온라인 하이브리드 박람회 수요 증가가 뚜렷했고, 참가사 및 부스 수 확대가 이어졌습니다. 건축·친환경 트렌드에 힘입어 박람회 수익과 마케팅 부가가치가 한층 성장했습니다. 자회사 ‘메쎄이상’도 실질적 이익 확대에 기여했습니다[4].
+- [B2B 플랫폼 업종·거래 확대]: 신규 업종과 신규 고객사 유입이 급증하여 거래 규모가 늘었고, IT 시스템 고도화 및 고정비 관리로 마진율이 개선되어 이익 증가에 기여했습니다[2].
+- [수익성 강화]: 원가 절감, 비용관리와 고정비 축소가 집중되어 눈에 띄는 영업이익률 상승이 이뤄졌습니다[3][4].
 (3) [현재 직면한 핵심 이슈 3가지]
-- [전시사업 성장의 지속성]: 최근까지 전시사업 중심의 실적 호조가 이어졌으나, 경기 둔화/기업 마케팅 예산 축소 가능성, 온라인 전시·마케팅 경쟁 심화 등 외부 리스크 노출이 큽니다. 오프라인/온라인 하이브리드 모델 발전 및 글로벌 전시회 진출이 필수적 과제입니다[4][5].
-- [철강 유통 부문의 수익성 변동성]: 원자재 가격 및 글로벌 철강 시장의 불안정을 반영, 철강 매출 성장 정체 또는 유통 마진 하락 우려가 있습니다. 이에 따른 실적 기여도 감소를 어떻게 보완할지가 숙제로 남아 있습니다[2][4].
-- [신규 성장동력 및 디지털 혁신]: 현 주요 사업군의 성장 한계를 극복하고, 신사업(글로벌 B2B 플랫폼 확대, 디지털 전시/마케팅 서비스, 신규 MICE반영) 발굴과 IT 기반 사업구조 혁신이 요구됩니다. 경쟁사 대비 기술/서비스 차별화 및 고객 가치혁신 역량 확보가 핵심 이슈로 대두되고 있습니다[2][4][5].
-이상네트웍스는 전시사업 주도의 외형 성장 및 산업 B2B 전자상거래 혁신에서 강점을 유지 중이나, 업황 변동성과 신사업 확장력 확보에서 넘어야 할 과제가 명확한 시점입니다.
-https://kr.investing.com/equities/esang-networks-co-ltd-earnings
-https://www.butler.works/ko/companies/00454399
+- [전시사업 성장 지속성]: 경기 둔화와 기업 마케팅 예산 축소 가능성이 커지면서, 오프라인 박람회 수요의 변동성에 노출되어 있습니다. 온라인 마케팅 경쟁 심화·글로벌 진출 필수화 등이 구조적 도전입니다. 하이브리드 전시 모델 고도화와 신규 산업군 확장이 절실합니다[4][5].
+- [철강 유통 부문 수익성 약화]: 철강·비철금속 원자재 가격 변동과 글로벌 수급 불안정으로 전통 유통 부문의 매출력과 수익성은 단기적으로 정체 또는 하락 우려가 있습니다. 이에 대응하기 위한 사업구조 재편이나 수익 다각화가 중요한 과제입니다[2][4].
+- [신규 성장동력 및 디지털 혁신]: 기존 사업의 한계 돌파를 위한 IT/디지털 기반 사업 진화, 글로벌 B2B 플랫폼 확대, 신사업 발굴(MICE, 디지털 마케팅 등)이 경쟁력 확보의 관건이 되고 있습니다. 경쟁사 대비 차별화와 고객가치 혁신이 핵심 대응방향입니다[2][4].
+2025년 들어 전시사업과 B2B 플랫폼의 구조적 성장세가 지속되고 있지만, 경기·시장 환경 변화에 따른 실적 변동성과 신성장동력 확보에 대한 요구가 더욱 커진 것이 최신 동향입니다.
 http://mapi.myvic.co.kr/index.asp?comp_code=080010
-https://kr.investing.com/equities/esang-networks-co-ltd
-https://m.irgo.co.kr/IR-COMP/080010</t>
+https://m.irgo.co.kr/IR-COMP/080010
+https://tossinvest.com/stocks/A080010/order
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A080010
+https://alphasquare.co.kr/home/stock-summary?code=080010</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -883,7 +893,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1016,29 +1026,28 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(1) 헥토이노베이션의 핵심 사업
-헥토이노베이션(214180)은 [IT 보안 서비스(본인인증, 휴대폰번호 도용방지, 간편결제 보안 등)]를 기반으로, [정기 구독형 B2C/B2B 서비스]와 [생활 정보형 서비스]를 함께 운영하는 플랫폼 기업입니다. 회사 매출은 본인인증, 로그인플러스, 세이프캐시, 내정보지키미 등 IT 보안 솔루션이 약 78%로, 통신 3사(SK텔레콤, KT, LG유플러스)와의 제휴 기반으로 월 단위 반복 매출이 발생하는 구조입니다[1][2]. 아울러, 주식·보험·건강관리·아파트 청약 케어, 카드 혜택 관리, 전기차 중개 등으로 포트폴리오를 확장하며 [생활 구독형 및 데이터·핀테크 신규 서비스]를 적극적으로 출시 중입니다[1][2].
-핵심 자회사로는 [헥토파이낸셜(핀테크)], [헥토헬스케어(헬스케어)]가 있으며, 각각 선불결제·PG·해외정산서비스와 건강기능식품 ‘드시모네’ 등 사업을 전개합니다. 해당 자회사 실적도 연결로 반영됩니다[1]. 2024년에는 창사 이래 최대 매출(3,195억 원), 최대 영업이익(491억 원)을 기록하며[1], B2C 기반의 플랫폼 및 해외 진출 영역으로도 빠르게 외연을 넓히는 중입니다.
-(2) 최근 분기 강한 실적의 원인
-2025년 1분기에도 [매출, 영업이익 모두 사상 최대치로 성장세]가 이어지고 있습니다(1분기 매출 896억, 영업이익 117억, 전년 동기 대비 각각 +21.3%, +19.2%)[1]. 구체적 요인은 다음과 같습니다.
-- [IT보안·본인인증 사업의 지속 성장]: 통신사 부가서비스와 본인인증 수요가 꾸준히 증가하며, 신규 구독자 유입도 이어짐. 본업 기반의 안정적 매출이 견조합니다[1][2].
-- [자회사(헥토파이낸셜, 헥토헬스케어) 호실적]: 선불결제, PG, 건강 기능식품의 해외 진출(중국 드시모네 론칭 및 1,550억 규모 수출 계약 등)이 반영되며 성장 동력으로 부상[1].
-- [신규 서비스·구독경제 트렌드 효과]: 아파트청약케어, 발로소득 등 신규 구독 서비스가 빠르게 자리잡아 추가 매출 기여. 구독경제 확산 흐름이 실적 안정성에 긍정적으로 작용[2].
-- [적극적 마케팅 및 글로벌 사업 확대]: 헬스케어와 생활 구독의 마케팅 강화와 해외 총판 확대 등이 실적 레버리지 요인으로 작용[1].
-(3) 현재 헥토이노베이션이 직면한 주요 3가지 이슈
-1. [IT보안 서비스 시장 경쟁 심화]  
-   신규 IT보안 및 인증 시장으로 빅테크·통신사 직접 진출 등 경쟁이 급격히 심화되고 있습니다. 서비스 차별화와 가격경쟁력, 새로운 솔루션 고도화에 대한 투자 부담이 높아지고 있다는 점이 과제입니다[1].
-2. [신규 서비스/해외 진출의 성공 가능성 및 변동성]  
-   발로소득, 아파트청약케어, 전기차 중개 등 신규 서비스의 빠른 수익화가 쉽지 않을 수 있으며, 헥토헬스케어의 중국 진출 등 해외사업도 시장·규제리스크가 내재합니다. 기대치 대비 성장세가 둔화될 경우, 영업레버리지 약화와 실적 변동성이 발생할 수 있습니다[2].
-3. [주가 저평가 논란과 비즈니스 모델의 해석]  
-   뛰어난 실적(매출, 이익)에도 불구하고, 시장에서는 사업모델의 명확성·수익구조의 지속성에 대한 의구심이 반영되고 있습니다. 과거 잦은 신사업 진출과 높은 변동성, 미흡한 IR(투자자 소통) 등으로 “불명확한 비즈니스 모델” 지적이 이어져 주가가 실적 대비 할인되고 있는 측면이 있습니다[1]. 하지만 플랫폼 기반 반복매출 체계, 자회사 성장 동력, 구독경제 접목 등은 구조적 강점으로 해석되고 있어 향후 개선 여부가 핵심 변수로 꼽힙니다[1][2][4].
-※ 요약  
-헥토이노베이션은 IT보안과 구독형 생활 서비스, 핀테크·헬스케어 자회사 성장이 동반되는 B2C/B2B 플랫폼 기업으로, 최근 실적 고성장의 핵심 배경은 보안사업 견조, 자회사 수출·신규 구독 서비스 성공, 마케팅 확장 등이 복합적으로 작용하고 있습니다. 다만, 보안 경쟁 심화 및 신사업 리스크, 시장 내 사업모델 해석 논란 등이 여전히 투자 주요 이슈로 남아 있습니다.
+          <t>(1) [헥토이노베이션의 핵심 사업]
+헥토이노베이션(214180)은 [개인정보 보호 중심의 2차 본인인증 및 IT 보안 솔루션]을 핵심으로 하는 플랫폼 기업입니다. 통신 3사와 제휴해 휴대폰 본인인증, 도용방지, 로그인플러스, 세이프캐시 등 다양한 보안 서비스 부가상품을 제공하며, 이로 인한 정기 구독형 반복매출(B2C, B2B)이 전체 매출의 상당 비중을 차지합니다[1][3]. 최근에는 본업 기반의 매출 외에도 [헥토파이낸셜(핀테크)], [헥토헬스케어(헬스케어)] 등 자회사 사업을 통해 PG(전자지급결제대행), 선불결제, 해외정산, 건강기능식품(대표상품 ‘드시모네’) 유통 및 해외 수출 등으로 포트폴리오를 다변화했습니다[1][4]. 
+또 “아파트 청약케어” 등 [구독형 생활 정보 서비스]와 전기차 중개 등 신사업을 추가하며, 플랫폼으로서의 외연을 확장하는 전략을 견지 중입니다[2][3].
+(2) [최근 분기 강한 실적의 원인]
+최근 분기(2025년 1~2분기)에 [매출과 영업이익 모두 사상 최대치]를 기록했습니다(2024년 연간 매출 3,195억, 영업이익 491억, 2025년 1분기 매출 896억, 영업이익 117억)[1][2]. 구체적 배경은 다음과 같습니다.
+- [본업(IT보안, 인증서비스)의 견조한 매출 성장]: 통신사 기반의 반복매출이 지속적으로 늘고 있으며, 신규 가입자 증가와 서비스 단가 인상이 모두 수익 개선에 기여[1][2].
+- [자회사의 빠른 성장]: 핀테크 자회사(헥토파이낸셜)는 PG, 간편현금결제, 해외결제 부분에서 실적이 뛰어났고, 헬스케어 자회사(헥토헬스케어)는 드시모네의 중국 대규모 수출(1,550억 규모 계약) 등으로 성장 동력을 확보[1][4].
+- [신규 서비스의 시장 안착]: 아파트청약 등 구독형 생활서비스, 데이터 기반 신사업의 첫 분기부터 실적에 기여하며, 구독경제의 확산과 수요 증가가 실적을 견인[1][2].
+- [적극적인 마케팅과 글로벌 진출]: B2C 마케팅 강화, 해외 총판 확대 등으로 플랫폼 기업으로서의 사업 레버리지 효과를 극대화하고 있음[1][2].
+(3) [현재 헥토이노베이션이 직면한 핵심 이슈 세 가지]
+1. [IT보안 및 인증 서비스 시장 경쟁 심화]
+   - 네이버, 카카오 등 빅테크, 통신사의 직접 진출로 보안 인증 시장 경쟁이 크게 격화됨. 가격·기술·서비스 차별화 부담과 동시에 R&amp;D 투자 및 서비스 고도화 비용 증가로 수익성 방어가 관건[1][4].
+2. [신규사업·해외진출의 수익화 속도와 변동성]
+   - 발로소득, 아파트청약케어, 전기차 중개 등 신규 구독 서비스와 헬스케어 자회사의 중국 진출이 얼마나 신속·안정적으로 수익화될지가 불확실합니다. 일부 신사업은 목표치 대비 성장이 더딜 경우, 단기 실적 변동성(실적 래버리지 약화)이 나타날 수 있음[1][4].
+3. [주가 저평가와 사업 모델의 명확성 논란]
+   - 실적 성장세에도 주가는 여전히 동종 업계 평균보다 할인되어 있음. 주된 원인은 “잦은 신사업 진출로 인한 비즈니스 모델의 불명확성”과 시장의 지속성에 대한 신뢰 부족 등이 복합적으로 반영[1][3]. 즉, 투자자 사이에서 장기적 수익구조와 주력 포트폴리오의 명확성에 추가적인 설명과 검증이 요구되는 상황임.
+정리하면, [헥토이노베이션의 강세는 본업의 안정적 매출, 자회사 성장, 구독경제 신사업의 빠른 매출화]에서 비롯되나, [보안서비스 경쟁, 신사업 리스크, 사업 모델 명확성 논란]이 동시에 주요 불확실성 요인으로 작용 중입니다. “주가 저평가”의 배경에는 실적 대비 비즈니스 구조에 대한 시장의 신중한 시각이 자리잡고 있습니다[1][3][4].
 https://contents.premium.naver.com/sejongdata/sejongdata0304/contents/250627084256996ni
-https://ssl.pstatic.net/imgstock/upload/research/company/1694128031373.pdf
 https://hecto.co.kr/news
-https://kr.investing.com/equities/minwise-co-ltd-consensus-estimates
-https://static.roa.ai/research/company/20250707_company_881030000.pdf</t>
+https://stockplus.com/m/stocks/KOREA-A214180/analysis
+https://stock.pstatic.net/stock-research/company/18/20250808_company_249381000.pdf
+https://m.irgo.co.kr/IR-ROOM/214180</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1057,7 +1066,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1075,34 +1084,32 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>(1) KSS해운의 핵심 사업
-KSS해운(044450)은 [액화석유가스(LPG)], [암모니아 등 특수 가스화물]을 운송하는 [대형 가스선(VLGC)과 케미칼선을 보유·운항하는 전문 해운사]입니다[1][2][3].  
-- 2025년 기준, [가스선 22척, 케미칼선 11척] 등 총 33척의 선박을 보유 및 운항하고 있습니다[1].
-- [가스선 사업]은 주로 LPG 및 암모니아를 대규모로 운송하는 것으로, E1, 한화솔루션, SK가스, SHELL, BW LPG POOL, 미쓰비시 등 국내외 대형 석유화학·정유 기업들을 주요 고객으로 확보하고 있습니다[1].
-- [케미칼선 사업]은 GS칼텍스, S-OIL, BASF 등과 협력하며 석유화학 제품 다수를 운송합니다[1].
-- [사업 구조상 가스선 부문 매출 비중이 90% 내외]로 절대적이며, KSS해운은 국내에서 유일하게 대형 암모니아 운송능력을 갖춘 해운사로 평가받고 있습니다[3].
-- 선박 연료 절감, 탈황장치, 친환경 설비 도입 등 최신 환경규제 대응을 위한 선박 투자 및 관리에 적극적입니다.
+[KSS해운(044450)]은 주로 [LPG(액화석유가스)], [암모니아], 기타 특수 가스화물을 운송하는 [대형 가스선(VLGC) 및 케미칼선 전문 해운사]입니다[1][3][4].  
+- [2025년 기준, 가스선 22척과 케미칼선 11척 등 총 33척의 선박을 직접 보유, 운항]하고 있으며, 전체 매출의 90% 이상이 가스선(특히 VLGC) 부문에서 발생합니다[4].
+- 주요 고객은 [국내외 대형 석유화학·정유기업(E1, 한화솔루션, SK가스, SHELL, 미쓰비시 등)]으로, 장기 대형 계약을 기반으로 안정적인 수익 구조를 확보하고 있습니다[1][3].
+- [암모니아 및 LPG 장거리 운송 역량]이 국내 최대 수준이며, 친환경 규제에 대응해 [선박 친환경 설비 투자 및 연비 개선]에 적극적으로 나서고 있습니다[3][4].
 (2) 최근 분기 실적이 강한 이유
-KSS해운은 [2025년 1분기 매출액 22.1% 증가, 영업이익 42.1% 증가] 등 역대급 실적 흐름을 이어가고 있습니다[4]. 그 배경은 다음과 같습니다.
-- [84,000CBM급 VLGC(신조 가스선) 선박의 도입 및 주요 고객과의 장기 대형 계약 갱신]이 핵심 동력입니다[4].
-- [LPG 및 암모니아 해상운송 시장의 글로벌 운임 시황 강세]: 2024~2025년에도 가스선 운임이 견조하게 유지되면서, 벌크 운임과 연동된 시장 변동성의 영향을 상대적으로 덜 받고 있습니다[3][4].
-- [암모니아 운송 시장 개화]: 수소·암모니아 등 신재생에너지 관련 산업 성장에 따라 글로벌 대형 석유화학 기업들의 장기 계약 수주가 확대되었고, KSS해운이 국내 유일 암모니아 운송사로서 수혜를 크게 받고 있습니다[3].
-- [선박 대형화와 연료비 절감]: 최신 선박 투입으로 연간 연료비 대폭 절감과 원가 경쟁력을 확보한 것도 실적 개선의 주된 원인입니다[1].
-(3) 현재 KSS해운이 직면한 주요 3가지 이슈
-1. [친환경 규제 압력 및 ESG 투자 부담]
-   - IMO(국제해사기구) 환경규제(탄소배출 감축, 친환경연료 전환 등)가 강화됨에 따라, KSS해운은 선박의 친환경 개조·신조 투자에 계속 큰 비용을 투입해야 합니다.
-   - 탄소중립(탄소세) 부담, 신기술 도입 리스크와 투자 회수 기간 장기화가 동시에 우려됩니다[1][4].
-2. [화주(고객) 집중 구조에 따른 리스크]
-   - 전체 매출 대부분이 소수 대형 화주(주로 국내외 석유화학 기업)에 집중되어 있습니다. 대형 장기계약 수주와 포트폴리오 회전은 강점이나, 화주 이탈 또는 주요 계약 만료 시 실적 충격 위험이 존재합니다[1][3].
-   - 신시장 진출 및 화주 다변화 노력이 병행되어야 중장기 안정성 확보가 가능합니다.
-3. [신조선 도입·선박 노후화 관리와 글로벌 공급 변화]
-   - 친환경 신조선 추가 도입에 대한 대규모 자본 투자가 불가피하며, 기존 노후 선박 교체, 인도 지연, 건조비 상승 리스크도 상존합니다[1][4].
-   - 최근 중동정세 변화, 글로벌 해운 공급사 신조선 대량 발주, 국제 원자재 가격 변동 등이 운임시장 변동성을 높이는 상황에서, 선제적 자산 관리가 필수적입니다.
-이상에서 KSS해운은 LPG·암모니아 운송 특화와 장기계약 기반 실적 호조가 뚜렷하나, 친환경 규제 부담, 소수 화주 의존, 신조선 투자 및 글로벌 해운환경 변화에 따른 복합 리스크를 동시에 관리해야 하는 국면에 있습니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1689635114571.pdf
-https://www.deepsearch.com/analytics/company-analysis/KRX:044450?c-name=KSS%25ED%2595%25B4%25EC%259A%25B4&amp;c-symbol=KRX%253A044450
-https://stock.pstatic.net/stock-research/company/21/20240829_company_30190000.pdf
+2025년 1분기 [매출액 22.1% 증가, 영업이익 42.1% 증가(전년 동기 대비)]라는 이례적으로 강한 성과를 이어가고 있습니다[3]. 배경은 다음과 같습니다.
+- [신조 대형 선박(VLGC) 투입 및 기존 주요 고객과의 장기 계약 갱신]이 주요 실적 견인 요소입니다[3][4].
+- [LPG, 암모니아 해상운임이 지난 1년간 고공행진]을 보이고 있습니다. 중동 지역 정세 불안 및 글로벌 공급망 이슈로 시황이 견조하게 유지되고, 벌크 시장과 달리 시황 변동성이 상대적으로 적은 장기계약 위주라 실적 안정성이 높습니다[3].
+- [암모니아 운송 시장 성장]: 수소·암모니아 기반 신재생에너지 시장 성장에 따라, 암모니아 장기운송 수요가 빠르게 늘고 있습니다[1][3]. KSS해운은 국내에서 대형 암모니아 해상운송 역량을 갖춘 소수 플레이어로 수혜가 확대됐습니다.
+- [선박 최신화 투자에 따른 연비 절감] 효과도 꾸준히 나타나고 있어, 원가경쟁력이 강화되고 있습니다[1][4].
+(3) KSS해운이 현재 직면한 주요 3가지 이슈
+1. [친환경 규제 및 ESG 투자 부담 심화]
+   - IMO(국제해사기구) 등 국제 환경규제 강화로, KSS해운은 지속적으로 [선박 친환경 개조 및 친환경 신조선 도입]에 자본을 투입해야 합니다[4].
+   - 탄소배출 저감, 황산화물 저감장치 설치 등 투자비 증가와 더불어, [탄소세] 등 신규 비용 부담이 장기화되고 있습니다.
+2. [주요 화주(고객)에 대한 매출 집중 구조]
+   - [소수 대형 화주에 매출의 대부분이 집중]되어 있습니다. 이로 인해 주요 고객과의 계약 만료, 이탈 등이 실적에 큰 영향을 끼칠 수 있습니다[3].
+   - 글로벌 물류 교란 시, 장기계약 위주 포트폴리오의 유연성 확보와 [새로운 화주 및 신시장 개척]이 당면 과제입니다.
+3. [신조선 도입 및 글로벌 해운환경 변동성]
+   - 글로벌 공급망 재편, 신조선 대량 발주에 따른 공급과잉 우려, 선박 인도 지연과 건조비 상승 등으로 [신조선 투자와 노후선박 관리 리스크]가 커지고 있습니다[1][3][4].
+   - 2025년 들어 [중동지역 긴장, 국제유가 변동, 미·중 무역 이슈] 등도 복합적으로 작용 중입니다[5].
+요약하면, KSS해운은 [LPG·암모니아 해상운송 전문성과 장기계약 기반 고수익]이 강점이나, [친환경 투자 부담], [화주 집중 구조], [글로벌 해운 시황 변동성]이라는 과제가 동시에 부상한 상황입니다. 최근 몇 분기 지속적인 실적 성장세가 유지되고 있으나, 안전한 중장기 성장을 위해 리스크 관리와 유연한 사업 포트폴리오 구축이 매우 중요한 시점입니다.
+https://www.deepsearch.com/analytics/company-analysis/KRX:044450?c-name=KSS%25ED%2595%25B4%25EC%259A%25B4&amp;c-symbol=KRX%253A044450&amp;cd-cat=topic&amp;cd-df=2024-07-29&amp;cd-dt=2024-08-05
+https://m.finance.daum.net/quotes/A044450/news/disclosure/20250225015231
 https://comp.wisereport.co.kr/company/c1010001.aspx?cn=&amp;cmp_cd=044450
-https://alphasquare.co.kr/home/stock-summary?code=044450</t>
+https://alphasquare.co.kr/home/stock-summary?code=044450
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250318001568&amp;rcpno=20250318001164&amp;orgid=F&amp;tran=Y&amp;langTpCd=0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1117,7 +1124,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1134,30 +1141,34 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>티앤엘(340570)은 [창상피복재(상처치료 의료기기) 제조 및 수출]을 핵심 사업으로 하는 코스닥 상장사입니다. 최근 분기에는 사상 최대 실적을 기록했으나, 단기 수출 변동성, 글로벌 관세 리스크, 신사업 성과 등 주요 이슈에 직면해 있습니다.
+          <t>티앤엘(340570)은 [창상피복재(상처치료 패치, 하이드로콜로이드 패치 등) 제조 및 글로벌 수출]을 주력 사업으로 하는 코스닥 상장사입니다. 최근 실적은 대미 수출 관세 리스크 등으로 변동성이 확대되고 있으며, 주요 이슈로는 미국 관세 불확실성, 해외 신규시장 투자 부담, 신제품 기여도 한계 등이 부각됩니다.
 1. 티앤엘의 핵심 사업
-- [주요 사업은 하이드로콜로이드 기반 창상피복재(여드름 트러블 패치 포함) 생산과 글로벌 수출]입니다. 특히 ODM(주문자상표부착생산) 방식으로 대형 글로벌 브랜드(예: 미국 Church&amp;Dwight社 등)에 공급하는 구조가 매출의 대부분을 차지합니다[2][3].
-- 2025년 기준 매출 비중에서 [창상피복재 수출이 약 80% 이상]을 차지하며, 브랜드 제품군, 폴리우레탄폼 및 마이크로니들 창상피복재 등도 포트폴리오에 일부 포함되어 있습니다[2].
-- 최근엔 [바디패치 등 신제품]도 출시하여 제품군 다변화를 시도하고 있으며, 유럽 등 신규 국가로의 진출도 본격화하고 있습니다[1][2].
+- [주요 사업은 하이드로콜로이드 기반의 창상피복재 생산·수출]입니다. 대표 제품은 여드름 트러블 패치(마이티패치 등)이며, 미국 Church &amp; Dwight(‘Hero’ 브랜드) 등 글로벌 대형 유통사에 ODM 방식으로 공급하는 구조가 매출의 대부분을 차지합니다[2][1].
+- 2025년 기준 [미국향 창상피복재 수출이 전체 매출의 70% 이상]을 차지하고 있습니다. 유럽과 기타 신흥국가로의 수출도 최근 빠르게 확대되고 있어, 올해 유럽향 매출은 전년 대비 72% 증가가 예상됩니다[1].
+- 포트폴리오 내에는 폴리우레탄폼, 마이크로니들 패치, 바디패치 등 신제품이 포함되어 있으나, 아직 매출 비중은 미미합니다.
+- [ODM(주문자상표부착생산) 공급 특성상 주요 거래선의 발주 및 공급 조건 변화에 실적이 크게 연동되는 구조]입니다[2][1].
 2. 최근 분기 실적 강세 배경
-- 2025년 1분기 매출액 [513억 원(YoY +106.7%)], 영업이익 [202억 원(YoY +179.6%)]으로, 역사상 최대 실적을 기록했습니다[2]. 이는 시장 예상치를 크게 상회하는 결과였습니다.
-- [주요 성장 원인은 미국 트러블 패치 시장 점유율 확대]입니다. 대표 수출 품목의 미국 내 점유율이 지속 상승하며, 2024년 기준 9%, 여드름 케어 카테고리 내 시장점유율은 22%까지 올라갔습니다[1].
-- 미국 Church &amp; Dwight(‘Hero’ 브랜드) 외에도, 글로벌 진출 국가가 2023년 12개국→2025년 50개국 이상으로 확대되며 [해외 ODM 공급 및 신규 거래처 증가]가 외형 성장을 견인했습니다[1][2].
-- *환율 및 관세 영향*을 우려한 대미 수출 선출하 효과로 1분기 실적이 평소 대비 과도하게 증가한 측면도 있었습니다[3].
-3. 티앤엘의 주요 이슈 3가지
-- [미국 관세 리스크 및 단기 수출 변동성 확대]
-  - 2025년 상반기 미국에서 티앤엘 패치 제품에 대한 [관세 부과 가능성]이 대두되면서, 2분기부터 미국향 창상피복재(하이드로콜로이드) 수출 및 공급가 하락이 나타날 것으로 전망되고 있습니다. 실제로 2분기에는 매출과 영업이익이 모두 전년 동기 대비 감소세로 돌아섰고, 3분기 전망치도 하향 조정되었습니다[3][4].
-  - 미국 거래사의 발주 시점 조정 및 공급 단가 인하 등이 단기 실적에 부담 요인으로 작용할 수 있습니다.
-- [유럽 등 해외 시장 확대에 따른 투자‧운영 리스크]
-  - 미국 외 유럽, 기타 국가로 ODM 공급처가 확대되며 *현지 인증, 물류, 유통 비용* 증가 및 초도 마케팅 비용 등 단기적 부담이 커지고 있습니다. 초기 진입 국가별 수익성 확보 여부가 향후 성장을 좌우할 전망입니다[2].
-- [신제품‧신사업의 제한적 기여와 연구개발 투자]
-  - 폴리우레탄폼, 바디패치, 마이크로니들 등 신사업 분야의 매출 기여율은 아직 크지 않으며, 연구개발 및 생산설비 투자 부담이 지속되고 있습니다. 특히, 신사업의 시장 안착과 수익성 확보까지는 추가 시간이 필요하다는 평가가 지배적입니다[2][3].
-요약하면, 티앤엘은 [창상피복재 ODM 수출 시장 점유율 확대]로 최근 실적상승세를 이어가고 있으나, [관세 부과 등 대외 변수에 의한 단기 실적 변동성, 글로벌 진출에伴한 투자 리스크, 신사업 성장 지연] 등 3대 과제를 안고 있습니다. 이들 이슈의 해소와 신성장 동력 확보가 중장기 기업가치의 핵심 변수입니다.
-https://file.alphasquare.co.kr/media/pdfs/company-report/_250210_%EC%98%A8%EB%9D%BC%EC%9D%B8_%ED%8B%B0%EC%95%A4%EC%97%98_%EC%A1%B0%EC%9D%80%EC%95%A0_220_Online%20report%20_%206_10p_%ED%8B%B0%EC%95%A4%EC%97%98.pdf
-https://www.newspim.com/news/view/20250519000128
+- 2025년 1분기에 [매출 513억 원(YoY +106.7%), 영업이익 202억 원(YoY +179.6%)]으로 사상 최대를 기록했습니다[2]. 이는 미국향 트러블 패치 수출이 관세 우려로 선출하(조기 출하)된 영향이 컸습니다.
+- [트러블 패치 미국 시장 점유율 증가]가 실적 개선의 가장 큰 원인으로, 2024년 기준 티앤엘 ODM 제품 시장점유율은 9%, 여드름 케어 카테고리 점유율은 22%에 달합니다[2].
+- [글로벌 진출국이 2023년 12개국 → 2025년 50개국 이상]으로 크게 늘며, 신규 ODM 계약 확대가 외형 성장 견인 요인입니다[1][2].
+- 단, 2분기부터는 [미국향 수출이 전년 동기 대비 감소(-2% YoY)], [전체 수출도 2분기부터 17.5% 감소]하는 등 단기 조정이 현실화되고 있습니다[2][1].
+3. 최근 부각되는 티앤엘 핵심 이슈 3가지
+- [1) 미국 관세 리스크와 단기 수출 변동성]
+  - 2025년 상반기 미국 관세 부과 이슈로 미국향 패치류 공급에 제약이 발생, 실제로 2분기 창상피복재 수출은 전년 대비 15% 감소한 317억원 수준까지 둔화되었습니다[2].
+  - 관세 영향과 환율 하락이 동시에 발생, [미국 Church &amp; Dwight 등 주요 거래선 대상 공급단가 인하 및 발주량 감소]가 단기 실적 불확실성을 키우고 있습니다[2][3].
+  - 3분기와 하반기 수출 전망 역시 하향 조정되고 있습니다.
+- [2) 유럽 등 해외 시장 확장에 따른 비용 및 리스크]
+  - 미국 외 유럽, 동남아 등 신규 시장 ODM 공급이 본격화되고 있으나, 현지 인증, 물류, 마케팅 등 진입 비용이 단기 수익성에 부담으로 작용하고 있습니다[1].
+  - 신시장 진입국의 거래 조건 협상력 등이 불확실성을 높이고 있습니다.
+- [3) 신제품·신사업의 기여 제한 및 투자부담]
+  - 마이크로니들, 바디패치, 폴리우레탄폼 등 신제품이 매출 성장 기여도가 낮고, 연구·개발(R&amp;D) 및 생산설비 투자에 자본이 투입되고 있습니다[2].
+  - 신사업의 시장 안착까지 시간이 걸리며, 현재로선 기존 패치류 외 안정적 추가 성장 동력이 부각되지 못하는 상황입니다.
+정리하면, 티앤엘은 [창상피복재·트러블패치 ODM 수출에서의 글로벌 점유율]을 주요 성장 축으로 삼고 있으나, [미국 관세 불확실성, 신규 시장 진입 비용 및 신사업 성과 지연] 등 세 가지 현안이 향후 기업가치 방향성을 좌우할 것으로 분석됩니다[2][1][3].
+https://www.bondweb.co.kr/_research/downloadPage.asp?number=852974&amp;gn=1
 https://buffettlab.co.kr/news/view.php?idx=50694
 https://contents.premium.naver.com/ystreet/irnote/contents/250718153809409jl
-https://w4.kirs.or.kr/download/research/250304_%ED%8B%B0%EC%95%A4%EC%97%98(%EB%9D%BC%EC%9D%B4%EC%A7%95)_%EC%B5%9C%EC%A2%85.pdf</t>
+https://w4.kirs.or.kr/download/research/250304_%ED%8B%B0%EC%95%A4%EC%97%98(%EB%9D%BC%EC%9D%B4%EC%A7%95)_%EC%B5%9C%EC%A2%85.pdf
+https://m.irgo.co.kr/IR-COMP/340570</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1172,7 +1183,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1190,33 +1201,33 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>1. 회사의 핵심 사업
-슈프리마(236200)는 [지문·얼굴 등 바이오인식 기반의 AI 물리보안 시스템] 개발 및 공급에 특화된 기업입니다[1][2][4].  
-주요 제품군과 사업 분야는 다음과 같습니다.
-- [통합 출입통제·근태관리 시스템]: 자체 개발한 바이오인식 디바이스(지문·얼굴 인식 터미널, 카드 리더기 등)와 이를 연동하는 소프트웨어 플랫폼. 기업·공공·교육·금융 등 다양한 산업에 공급합니다[1][4].
-- [바이오인식 모듈 및 알고리즘]: 금융기관, 해외 현지 SI 등에서 사용하는 모듈/SDK 공급.
-- [AI 기반 VMS(영상관제시스템) 및 연계 솔루션]: 최근 고도화된 AI 영상·출입통제 통합시스템 및 신규 솔루션 개발을 강화하고 있습니다[2].
-- 주요 매출처는 *국내보다 중동, 인도, 북미 등 해외 비중*이 크며, 글로벌 건설·인프라 프로젝트 및 현지 정부 사업에서 성장세가 두드러집니다[1][4].
-2. 최근 분기(2025년 상반기) 실적 호조의 구체적 원인
-2025년 1분기 매출액 288억 원(전년 동기 대비 +40.7%), 영업이익 56.9억 원(+156.5%)으로 발표하며 최근 몇 개 분기 연속 고성장세를 이어가고 있습니다[4].
-구체적인 원인은 다음과 같습니다.
-- [중동·인도·북미 대형 프로젝트 수주 및 매출 본격화]: 네옴시티 등 중동 초대형 인프라 프로젝트, 인도 정부 및 민간시설 확대, 북미 제조업 공장 신축 수요가 매출 확대를 견인했습니다[4].
-- [AI·VMS 신사업의 기여 확대]: 기존 출입통제 외 AI 기반 영상관제, 솔루션 연계 제품 비중이 급격히 늘었습니다. 이 분야는 단가와 수익률이 높아 영업이익률 개선에 핵심적으로 작용했습니다[2][4].
-- [제품 포트폴리오의 고도화]: AI 연동, 멀티바이오(지문+얼굴 등) 기능 추가, SI 맞춤형 커스터마이즈로 산업별 다양한 수요에 선제 대응한 점도 주효했습니다[2].
-- [공급망 안정성과 전략적 원가 관리]: 반도체 등 부품 수급이 안정화되면서 원가율 관리에 성공, 수익성 개선이 동반됐습니다[1][2].
-3. 현재 직면한 주요 이슈 3가지
-최신 리포트와 시장 동향을 바탕으로 슈프리마가 2025년 하반기 주목하는 대표적 이슈는 다음과 같습니다.
-- [1. 프로젝트 매출 인식의 변동성 및 리스크]
-  대형 해외 프로젝트(특히 중동 네옴시티, 인도 인프라 등)는 발주 일정·정책 변화에 따라 매출 인식 지연 또는 규모 변경이 발생할 수 있습니다. 2025년 들어 일부 프로젝트에서 세부 조정이 발생하며 실적의 분기별 변동성이 부각되고 있습니다[4].
-- [2. AI 보안기술 경쟁 심화 및 R&amp;D 투자 압박]
-  AI 기반 바이오인식, 영상보안 분야의 진입장벽이 낮아지면서 중국·유럽 신생업체, 글로벌 경쟁사와의 기술경쟁이 격화되고 있습니다. AI, 영상인식, 보안 알고리즘 고도화와 동시에, 신뢰성·보안성 인증 및 커스터마이즈 역량 유지에 대규모 R&amp;D 투자가 불가피합니다[2][4].
-- [3. 원가상승과 공급망 불확실성]
-  분기별로 부품(반도체, 카메라 등) 단가 상승, 운임비 인상 등 공급망 리스크가 재차 부각되고 있습니다. 최근 중국발 IT부품 수급 변동, 환율 변동성 등도 이익률 하락요인이 될 수 있음이 현장 리포트에서 수차례 언급되고 있습니다[1][2][4].
-이상의 요인에 따라 슈프리마는 기존 고성장을 유지하기 위해 [해외 대형 프로젝트 안정화, AI 신기술 경쟁력 강화, 원가·공급망 리스크 분산 전략]을 적극적으로 병행 추진하는 상황입니다.
-https://file.myasset.com/sitemanager/upload/2025/0509/174827/20250509174827430_0_ko.pdf
-https://bbn.kiwoom.com/rfCR11275
-https://kr.investing.com/equities/suprema-inc-earnings
+슈프리마(236200)는 [지문‧얼굴 등 바이오인식 기반의 물리보안 시스템 및 AI 융합형 출입통제 솔루션 개발에 특화된 기업]입니다.  
+주요 사업은 아래와 같습니다.
+- [출입통제 및 근태관리 시스템]: 자체 개발한 바이오인식(지문·얼굴) 단말기와 이를 연동하는 소프트웨어로, 기업·공공·금융·학교 등 다양한 산업에 공급합니다.
+- [AI 기반 영상관제(VMS) 및 통합 보안 솔루션]: AI 딥러닝을 활용한 얼굴 인식‧행동 분석 등 고도화된 시스템으로, 현장 맞춤형 영상+출입통제 통합 시장 공략에 집중하고 있습니다[3].
+- [바이오인식 모듈·알고리즘 공급]: 글로벌 SI·금융기관 등 외부 파트너 대상 모듈과 SDK 납품이 활발합니다.
+- [해외 매출 비중이 70% 내외로 중동(네옴시티 등), 인도, 북미 등지 대형 인프라·정부 프로젝트 매출이 주력]입니다[1][2].
+특히 최근 AI 융합 제품 비중 확대, Q-Vision Pro(얼굴+행동 분석) 등 [차세대 고부가가치 온디바이스 AI 제품]으로 포트폴리오를 다변화하고 있습니다[3].
+2. 최근 분기(2025년 2분기) 실적 호조의 구체적 원인
+2025년 2분기 슈프리마는 [매출 325.3억 원(+15.6%), 영업이익 75.7억 원(+12.5%)로 분기 사상 최대 실적]을 달성했습니다[1]. 전년 동기 대비 성장이 지속되고 핵심 원인은 다음과 같습니다.
+- [중동·인도 중심 해외 프로젝트 본격화]: 네옴시티 스마트시티 기반 대규모 물리보안 공급, 인도 정부 및 산업단지 다년 사업 확대가 실적을 견인했습니다[1][2].
+- [AI·영상보안 신사업 고성장]: Q-Vision Pro 등 AI 기반 온디바이스 신제품 매출 비중 상승. 이 제품은 하드웨어+소프트웨어+서비스가 결합된 구조로 평균 단가(ASP)와 수익성이 크게 상승[1][3].
+- [제품 포트폴리오 고부가가치화]: 멀티바이오(지문+얼굴 동시인증), 행동분석, 맞춤형 플랫폼 대응 등 고객 요구 선제 충족이 효과적이었습니다[2][3].
+- [원가·공급망 안정]: 지난해 하반기부터 반도체·부품 수급 개선과 전략적 생산관리로 영업이익률이 높아졌고, 환차익 등의 영업외 이익도 일부 실적 기여[1].
+3. 현재 직면 중인 주요 이슈 3가지
+슈프리마의 2025년 하반기 단기·중기 리스크로, 다음 세 가지 이슈가 시장과 분석기관에서 주목받고 있습니다.
+1. [해외 프로젝트 매출 인식의 변동성 확대]
+   - 대형 프로젝트(특히 중동/인도)의 수주·매출 인식 시점이 발주처 정책, 현지·국제 변수(스케줄 변동, 승인 지연 등)에 따라 일시적으로 조정될 수 있습니다. 이는 수익 예측의 분기별 변동성과 실적 모멘텀 불확실성 요소로 작용합니다[1][2].
+2. [AI·영상보안 신시장 경쟁 심화 및 대규모 R&amp;D 투자 압력]
+   - AI 기반 보안·바이오인식 시장에 글로벌·중국계 신규 진입자 급증, 기술트렌드 고도화 압박이 심합니다. 슈프리마는 연 매출의 10% 이상을 R&amp;D에 투자하지만, 계속되는 혁신·신제품 개발 부담, 표준/인증·데이터보안 이슈 등이 주요 경영 리스크로 작용합니다[3].
+3. [IT부품 원가 상승 및 공급망·환율 리스크]
+   - 2025년 상반기 기준 부품(특히 카메라‧반도체) 단가 상승, 총 운임비 증가에 더해 최근 환율 변동성(달러 강세 등)과 중국발 IT공급망 교란이 이익률 압박 요인으로 부상, 실제로 일부 분기 원가 상승이 관측됐습니다[1].
+이 세 가지 이슈에 대응하기 위해, 슈프리마는 [해외 프로젝트 일정·리스크 관리 강화, AI·데이터보안 R&amp;D 집중, 원가구조 개선·조달거점 다변화] 등 계층적 전략을 적극 추진하는 상황입니다.
+https://file.myasset.com/sitemanager/upload/2025/0804/172518/20250804172518860_0_ko.pdf
 https://stock.pstatic.net/stock-research/company/74/20250716_company_975307000.pdf
-https://www.butler.works/ko/companies/01124653</t>
+https://www.mdilbo.com/detail/sfODuL/746350
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?pGB=1&amp;gicode=A236200&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103
+https://alphasquare.co.kr/home/stock-summary?code=236200</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1231,7 +1242,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1249,29 +1260,28 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>1. 핵심 사업 내용  
-한국가구(004590)는 [가정 및 사무용 가구](침대, 소파, 책상, 의자, 식탁 등)의 [제조 및 유통]이 주력 사업이다. 자체 개발 브랜드 제품과 더불어 [해외 명품 가구 브랜드](예: Roche Bobois, Kartell 등)의 수입·판매를 확대해왔으며, 고가 프리미엄 제품 위주의 마케팅에 집중하고 있다. 회사는 [자회사(제원인터내쇼날 등)]를 통해 [식품(초콜릿, 유제품 등) 도매 및 유통], [부동산 임대]와 같은 비가구 부문에서도 매출 기반을 다져왔다[1][2][3]. 주요 매출은 가구 판매에서 발생하나, 최근 비가구 사업의 비중 증가도 눈에 띈다.
+한국가구(004590)의 핵심 사업은 [가정 및 사무용 가구(침대, 소파, 책상 등) 제조 및 유통]이다. 자체 브랜드와 더불어 [Roche Bobois, Kartell 등 해외 프리미엄 가구 브랜드의 공식 수입·판매]가 주요 매출원이며, 최근 하이엔드 가구 시장에서 제품군 다양화와 고급화에 집중하고 있다[5][3]. 또한 [식품(초콜릿, 유제품 등) 도소매와 부동산 임대]처럼 비가구 부문 사업도 병행한다. 이 부문 매출이 전체의 15% 이상을 차지할 정도로 확대되는 추세다[3]. 2025년 현재, [주력은 프리미엄 수입 가구 유통과 국내외 고가 가구 판매]이며, 정기적으로 명품 가구 프로모션 등을 통해 수요 확대에 나서고 있다[5].
 2. 최근 분기 실적 강세의 배경  
-2025년 1분기 한국가구는 [매출 347억 원, 영업이익 58억 원, 순이익 46억 원을 기록], 전년 동기 대비 각각 28%, 127%, 112% 증가하는 실적 개선을 달성했다[1][2][3][4]. 구체적 배경은 다음과 같다.
-- [프리미엄 가구 수요와 수입 브랜드 효과]  
-  경기 방어적 성격의 명품 가구 및 고가 수입 가구 브랜드 라인업 강화가 중산층·고소득층 고객 확대와 높은 수익성을 이끌었다. 수입 가구 유통마진이 국산 대비 높아 전체 영업이익률이 개선되었다[1][2].
-- [외국인·기관 순매수 등 투자 심리 회복]  
-  최근 기간 동안 외국인 투자자의 대량 순매수, 기관 자금 유입 등 수급 개선으로 시장 내 신뢰도가 상승했고, 이에 따라 주가 또한 강한 회복세를 보였다. 이로 인해 배당수익률(3.5% 내외)과 저PBR, 저PER 매력도 부각되었다[1][2][3].
-- [비가구 사업부문의 안정적 수익]  
-  식품 도매 및 유통, 부동산 임대 등 비핵심 사업부가 안정적인 캐시플로우를 제공, 본업(가구) 부문 매출 변동성에 대한 내부 방어 역할을 했다. 이는 중소기업 특유의 분기 변동성을 완화하는 데 주효했다[1][2].
+2025년 1~2분기 실적은 [매출 증가와 수익성 개선이 동시에 달성]된 점이 특징이다. 이번 분기 매출은 347억 원(전년 동기 대비 28%↑), 영업이익은 58억 원(127%↑), 순이익은 46억 원(112%↑)이라는 기록적 성장세를 보였다[4].
+- [프리미엄 가구 수요 확대와 명품 브랜드 프로모션 효과]  
+  2025년 상반기, 세계적 명품 브랜드 가구의 특별 프로모션과 상품군 확장(6개 하이엔드 브랜드 동시 판매 등)이 중산층·고소득 고객 수요를 추가로 이끌었다. 수입가구는 유통마진이 높아 전사적 영업이익률 개선에 핵심 역할을 했다[5].
+- [외국인 및 기관 대량 순매수로 인한 수급 개선]  
+  2025년 5월 이후 3일간 외국인 투자자 대량 순매수가 있었고, 같은 기간 52주 신고가 경신 등 투자심리호전이 뚜렷했다. 이에 따라 배당수익률 및 저평가 매력(저PBR, 저PER)이 재부각되었다[5].
+- [비가구 사업부문 안정성]  
+  식품 등 비가구 매출 비중 증가와 임대사업의 안정적 현금흐름이 본업의 분기별 변동성을 완충했다. 실제로 2024~2025년 현금유입, 영업현금흐름, 투자현금흐름 등 주요 재무지표도 동반 개선세를 보였다[2].
 3. 현재 직면한 3대 주요 이슈  
-업데이트된 환경과 최근 동향을 반영하면, 한국가구의 당면 과제는 다음과 같다.
-- [국내 가구 시장의 성장 한계]  
-  2025년 상반기 기준, 국내 신규주택 분양 둔화 및 1~2인 가구 위주 시장 재편이 심화됨에 따라, 일반 가정용 및 사무용 가구의 내수 성장 둔화가 뚜렷하다. 이로 인해 기존 주력 사업의 체질 전환 및 신시장(예: 렌탈, 커머셜 공간 등) 개척이 절실하다[2][4].
-- [수입 가구 시장 경쟁 및 환율 리스크]  
-  글로벌 명품·생활 가구 브랜드 국내 진입 확대와 엔화·유로 환율 변동성이 심화되고 있다. 이는 수입·유통 부문의 원가상승(해외 브랜드 제품 조달비 증가)과 저가 경쟁 압박을 동시에 유발한다. 실제로 2025년 1분기 원달러 환율이 급등하면서 수익성 관리에 부담이 증대되는 모습이다[2][4].
-- [비가구 사업의 전략적 관리 필요성]  
-  최근 몇 분기 비가구(식품 도매 등) 부문 매출 비중이 15% 이상으로 확대되었으나, 이익률 변동성과 주력 사업과의 연계 부족이 도마 위에 오르고 있다. 과도한 사업 다각화로 장기 성장동력이 분산될 우려가 제기되고 있어, 비핵심 부문의 성장성 점검과 시너지 전략이 관건이다[1][2].
-그 외에도 온라인 직판 강화, 친환경·스마트 가구 트렌드 대응, 인건비·원자재비 인상 등 변화도 중장기 리스크 및 기회요인으로 인식되고 있다[1][2][4].
-https://www.butler.works/ko/companies/00156442
-https://antwinner.com/stocks_analysis/%ED%95%9C%EA%B5%AD%EA%B0%80%EA%B5%AC?option=name
+- [국내 신규주택 둔화 및 1~2인 가구 증가에 따른 내수 한계]  
+  2025년 상반기 내수 부진이 심화되고 있는 가운데, 신규주택 분양 감소, 1~2인 가구 중심 시장 재편 등으로 전통적 가구 수요가 정체 중이다. 이에 따라 주력사업 안정성 확보와 렌탈·B2B 등 신사업 확장이 핵심 과제로 부상했다[4].
+- [수입 가구 경쟁 심화 및 환율 리스크]  
+  글로벌 명품·패스트가구 브랜드 국내 진입이 가속되고 있다. 나아가 2025년 1분기 기준 엔화·유로화 환율이 급등하면서 수입가구 원가 부담이 확대되었고, 저가·프리미엄 시장 모두 경쟁 강도가 커졌다. 환율 변동성이 실적에 불가피하게 부담으로 작용하고 있다[4].
+- [비가구(식품 등) 부문의 전략적 관리 필요성]  
+  식품, 임대 등 비가구 매출 비중이 가파르게 늘면서, 이익률 변동성·경쟁 심화 등 본업과의 연계성 약화가 이슈로 부각된다. 최근 과도한 사업 다각화로 주력사업 집중도가 저하될 수 있다는 우려가 있어, 비핵심 부문의 성장성·수익성 점검과 시너지 전략 마련이 절실하다[3].
+이 외에도, 온라인 직판 강화, 친환경·스마트 가구 신제품 대응, 인건비 및 원자재비 상승 등도 지속적으로 주목받는 중장기 리스크 및 성장계획 이슈로 확인된다[2][5].
+https://alphasquare.co.kr/home/stock-issue?code=004590&amp;type=news
 https://www.google.com/finance/quote/004590:KOSDAQ?hl=ko
-https://kr.investing.com/equities/korea-furniture-earnings
-https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A004590</t>
+https://sejongdata.co.kr/report/financial/004590
+https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A004590&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103&amp;stkGb=701
+https://alphasquare.co.kr/home/stock-summary?code=004590</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1286,7 +1296,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1357,32 +1367,34 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>에스에이엠티(031330)는 IT 부품 유통 및 기술 마케팅 전문 기업으로, 반도체와 디스플레이 등 정보기술 전자부품 공급망에서 핵심적인 역할을 수행하고 있습니다. 아래에 회사의 핵심사업, 최근 실적 호조의 구체적 원인, 그리고 현재 직면한 3대 주요 이슈를 최신 정보 기준으로 상세히 설명합니다.
+          <t>에스에이엠티(031330)는 반도체 및 디스플레이 등 IT 전자부품 유통에 특화된 기업으로, 국내외 주요 전자제품 제조사에 부품 공급을 담당하고 있습니다. 아래에서 2025년 8월 기준 시점의 최신 데이터와 시장 분위기를 반영해 핵심 사업, 실적 개선 배경, 그리고 현재 회사가 직면한 3대 핵심 이슈를 구체적으로 설명합니다.
 (1) 회사의 핵심 사업  
-에스에이엠티의 주요 사업은 [메모리·비메모리 반도체, LCD 패널, 서버·스토리지·모니터 등 PC 및 디지털 모듈 제품]의 유통과 공급입니다[3].  
-- 삼성전자, 삼성디스플레이, 삼성SDI, 삼성전기 등 [국내 대형 IT 부품 제조사와의 공식 대리점 및 공급계약]을 통해 제품을 확보하고, 이를 스마트폰, 노트북, 서버, 태블릿 등의 완제품 제조사에 납품합니다[3].
-- 단순 부품 유통을 넘어, [수급 조정·재고관리 시스템, 고객사 맞춤 컨설팅, 파트너사 기술 지원 등 기술 서비스]도 제공합니다.
-- 주요 시장은 국내를 중심으로, 아메리카·중국 등 해외로도 제품 공급을 확대해왔습니다[3].
-(2) 최근 실적 호조의 구체적 배경  
-2025년 1분기 기준, 에스에이엠티는 매출액 7,644억 원, 영업이익 195억 원, 순이익 119억 원을 기록해 전년동기 대비 매출은 약 11% 증가, 영업이익·순이익은 소폭 감소했으나 직전 분기보다는 크게 개선된 실적을 보였습니다[4].  
-- [주요 원인]은 삼성전자 등 주요 파트너사들의 스마트폰·노트북·가전 신제품 집중 출시시기에 맞춰 [반도체·디스플레이 등 핵심 부품 발주가 대량으로 발생]한 점, 대형 프로젝트 및 수주계약 매출 인식이 반영된 점입니다.
-- 글로벌 IT업계가 2024년 하반기부터 재고조정이 마무리되고, 스마트폰·PC 등 완제품 시장이 회복함에 따라 [부품 수요와 공급 단가가 동반 상승]한 것이 실적 개선을 견인한 요인 중 하나입니다.
-- 에스에이엠티는 [효율적인 원가·재고관리, 매입채널 다변화] 전략을 수행하여 수익성 방어에도 성공하였습니다[2].
-- 다만, 2025년 2분기 들어 외국인 투자자 매도세가 지속되고 있으나, 회사의 실적 및 펀더멘털에 대한 시장 평가는 여전히 우호적입니다. 현재 주가는 3,115원 전후에서 거래되고 있습니다[2].
-(3) 현재 직면한 3대 주요 이슈  
-1. [IT 부품 시장의 변동성 및 수요 불균형]  
-   - 글로벌 IT 시장의 경기회복세가 일시적일 가능성, 하반기 이후 스마트폰·가전 핵심부품 수요가 둔화될 수 있다는 전망이 있습니다. 또한 공급 과잉 전환시 [재고 리스크]가 실적에 부정적으로 작용할 수 있습니다[4].
-2. [고객사 집중 리스크]  
-   - 매출의 상당 부분을 삼성전자 등 특정 대기업에 의존하고 있습니다. 최근 일부 거래처의 발주 패턴 변화 및 공급선 다변화 압박이 심화되고 있어, 단일 고객(삼성그룹 계열)에 대한 높은 의존이 [실적 변동성 위험]으로 부각되고 있습니다[3].
-3. [외국인 매도세 및 주가 저평가 논란]  
-   - 2025년 2분기부터 외국인 투자자들의 순매도가 이어지면서 주가가 단기 조정세를 보이고 있습니다. 이는 경기 변동성 우려와 더불어 국내 IT부품 유통 업종 전반의 성장 둔화 전망이 반영된 것이지만, 동사 자체의 영업 펀더멘털에는 큰 변동 사항이 없다는 점이 시장 분석가들을 중심으로 대두되고 있습니다[1][2].
-[기타 참고사항:]  
-- 재무적으로 최근 큰 변동은 없으나, 금융비용 관리 및 종속회사의 채무보증 관련 사항, 그리고 산업 내 경쟁 심화에 따른 마진 저하 압력은 지속적으로 관리가 요구되는 상황입니다[4].
-https://dolfin.plus/main/031330
-https://seo.goover.ai/report/202507/go-public-report-ko-88f2db2e-0861-475f-9ccc-b6a6f3e28ea9-0-0.html
-https://kr.investing.com/equities/samt-co-ltd
+에스에이엠티는 [반도체(메모리/비메모리), 디스플레이 패널(LCD 등), 서버·스토리지·모니터 등 IT 완제품 및 관련 부품]의 유통 및 납품을 핵심 사업으로 영위합니다.  
+- 삼성전자, 삼성디스플레이, 삼성SDI, 삼성전기 등 [삼성 계열사]의 공식 유통 파트너로, 스마트폰, 노트북, 태블릿, 가전 완제품 제조사에 [대규모의 부품을 안정적으로 공급]합니다[3][5].
+- 단순 유통에 그치지 않고, [재고 관리, 수급 컨설팅, 파트너 기술지원] 등 부가가치 서비스까지 제공하여 고객사 니즈에 맞는 솔루션을 제시합니다.
+- 국내 중심의 공급망에 더해 최근 [아시아(특히 중국) 및 미주 지역까지 공급처를 다변화]하며 글로벌 SCM 위상을 강화하고 있습니다.
+(2) 최근 분기 실적 호조의 핵심 원인  
+2025년 1분기 매출액은 7,644억 원으로 전년 동기 대비 [10.8% 증가]했으나, 영업이익은 오히려 [9.1% 감소], 순이익은 [25.4% 감소]한 것으로 나타났습니다[3][5].  
+- [매출 성장은 주요 고객사(삼성전자 등)의 신제품 출시와 대규모 발주에 힘입은 것]이며, 글로벌 IT기기 시장의 재고 정상화와 중국 업체의 일부 부품 채택 확대로 [전체 발주량이 전 분기 대비 확대]된 영향이 컸습니다[4][5].
+- 다만, 원가율이 상승했고 당사의 가격 경쟁이 치열해지면서 [수익성(영업이익률, 순이익률)이 둔화]되었습니다[4][5]. 그럼에도 매출 총량이 대폭 증가하며 수익 방어가 가능했습니다.
+- [외형 성장에 따른 판관비 부담이 완화]된 점, 그리고 기존 재고가 안정적으로 해소된 점도 실적 방어에 기여했습니다[4].
+- 최근에는 IT 수요 회복 국면이 이어지면서 [거래 금액 성장세는 유지]되고 있으나, [이익률 개선 및 고객사 다변화 전략이 수익 안정성에 더욱 중요]해진 시점입니다.
+(3) 에스에이엠티의 현재 3대 핵심 이슈  
+1. [글로벌 IT부품 수요 변동성 및 원가 상승 압력]  
+   - IT 시장의 경기 회복세는 지속되고 있으나, 중국발 부품 공급경쟁 심화 및 메모리 등 핵심 부품의 [조기 공급 과잉 전환 가능성]이 대두되고 있습니다.  
+   - [원자재 및 물류비 상승]도 수익성을 위협하는 핵심 리스크로 부각되고 있습니다[4][5].
+2. [고객사 집중 리스크 심화]  
+   - 매출의 절대다수가 삼성그룹 계열 고객사에 쏠려 있습니다. 최근 일부 대형 거래선의 발주 패턴이 변화하고, [중국 로컬 IT기업의 자체 조달 확대](예: 자국 이미지센서, 부품 내재화)가 본격화되어 매출 구조 다변화 과제가 더 뚜렷해졌습니다[5].
+3. [외국인 투자자 순매도 및 주가 저평가 논란]  
+   - 올 2분기 이후 [외국인 투자자의 매도세가 이어지며 주가가 단기 약세]를 면치 못하고 있습니다.  
+   - 시장 전반의 성장 둔화 우려와 함께, 단기 실적 모멘텀 약화 시 주가 탄력성이 떨어져 [투자심리 개선이 추가적으로 필요]하다는 평가가 나옵니다[1][5].
+기타로, 대외적으로 [부품 공급 환경 변화와 경쟁 심화], 그리고 [자회사(종속회사)의 채무보증 등 재무적 관리 이슈]도 지속적으로 점검 중입니다[4].
+결론적으로, 에스에이엠티는 매출 성장 기반은 견고하지만, 수익성 방어와 고객 다변화가 2025년 하반기 경영의 중대한 과제로 부상한 상황입니다.
+https://kr.tradingview.com/symbols/KRX-031330/
+https://www.valueline.co.kr/finance/balancesheet/031330
 https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A031330&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103&amp;stkGb=701
-https://www.deepsearch.com/analytics/company-analysis/KRX:031330?c-name=%25EC%2597%2590%25EC%258A%25A4%25EC%2597%2590%25EC%259D%25B4%25EC%2597%25A0%25ED%258B%25B0&amp;c-symbol=KRX%253A031330&amp;cd-cat=topic&amp;cd-df=2023-10-24&amp;cd-dt=2023-10-31</t>
+https://invest.zum.com/stock/031330/
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A031330&amp;MenuYn=Y</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1397,7 +1409,7 @@
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1414,29 +1426,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>오성첨단소재(052420)는 [디스플레이용 광학 보호필름과 기능성 필름을 주력으로 생산하는 국내 소재 전문 기업]이다. 특히 LCD, OLED 패널의 편광판과 커버 윈도우 등 핵심 부품에 적용되는 고기능성 필름을 제조·공급하며, 일부 임가공 코팅 사업도 병행한다. 디스플레이 패널 제조에서 품질과 가격 경쟁력이 결정적인 분야에서 지속적으로 기술 역량과 생산 효율성을 높여 왔다[1][3].
-(1) [핵심 사업 및 주요 제품]  
-- [광학 보호필름:] LCD·OLED 편광판용 PET 필름 등, 디스플레이 생산 라인의 핵심 자재로 필름의 품질은 패널 최종 품질에 직접 연관된다.
-- [기능성 필름:] 터치패널·스마트폰 등 다양한 전자기기에 사용되며, 고난도 표면 처리 및 코팅 기술이 요구된다.  
-- [임가공 및 기타 사업:] 일부 코팅 위탁가공 및 신규 소재 개발도 추진 중이다.
-(2) [최근 분기 강한 실적의 구체적 배경]  
-- [디스플레이 소재 부문 매출 성장:] 2025년 1분기 연결 기준 매출액 413억 원, 영업이익 84억 원, 순이익 80억 원을 기록해 전년 동기 대비 각 +19%, +58%, +20% 증가했다. 패널용 보호필름 판매 호조와 수익성 개선이 주요 원인이다[1][3].
-- [글로벌 IT 디바이스·TV 시장 회복:] 삼성전자, LG디스플레이 등 주요 고객사 중심의 프리미엄 TV·디바이스 생산 확대에 힘입어 필름 수요가 증가했다. 특히 OLED 등 첨단 패널 적용이 늘고 있다.
-- [제품 포트폴리오 구조조정:] 수익성이 낮거나 비효율적인 사업부(예: 태양광 장비 및 일회성 B2B 임가공)를 정리하고 핵심 소재에 주력함으로써 전체 이익률이 상승했다.
-- [공정 최적화·원가 절감:] 소재 단가 하락과 물류 혁신, 자동화 설비 도입 등으로 생산 효율성이 개선돼 영업이익률이 빠르게 높아졌다.
-(3) [현재 직면한 주요 3가지 이슈]
-1. [디스플레이 업황 변동성 및 글로벌 경쟁 격화]  
-   - 디스플레이 시장은 기술 변화가 빠르고, 경기 민감도가 높아 수요 진폭이 매우 크다. 최근 중국, 일본 업체들의 원가 압박과 기술 추격이 거세 원가경쟁력 및 품질차별화의 중요성이 한층 높아졌다[1][3].
-2. [차세대 신사업 실현 가능성 및 전략 리스크]  
-   - 기존 사업이 디스플레이에 집중되어 있어, 신성장동력 모색이 절실하다. 카나비스메디칼 등 의료용 대마 연구 및 친환경 첨단소재 진출이 언급되었으나, 실질적인 매출 기여는 아직 제한적이며 규제 리스크도 크다. 신사업에서 성과 미진 시 성장성 한계에 직면할 우려가 있다.
-3. [원자재 가격 변동성 및 공급망 리스크]  
-   - 필름 원재료(고순도 PET 등) 가격 변동이 심하고, 2024년 하반기~2025년 상반기 글로벌 물류 및 원자재 가격이 다시 불안정해지는 양상을 보였다. 이에 따라 제조원가 부담이 커질 수 있으며, 국내외 공급망 다변화와 자체 기술 내재화가 요구된다.
-이처럼 오성첨단소재는 [디스플레이 광학필름 분야에서의 높은 기술력과 시장 회복 수혜로 최근 실적이 크게 개선]되었으나, 원가 경쟁력 확보, 신성장 엔진 마련, 외부 시장 변동성 관리가 앞으로의 지속 성장에 결정적 변수가 될 전망이다.
+          <t>오성첨단소재(052420)는 [디스플레이용 광학 보호필름과 기능성 필름 제조]를 핵심 사업으로 하는 국내 소재 전문기업이다. 최근 분기에는 영업이익률 및 매출, 순이익이 모두 큰 폭으로 증가하며 시장에서 눈에 띄는 실적을 기록했다. 다만, 업황 변동성과 공급망, 신사업 추진 등 구조적 이슈도 동시에 안고 있다.
+(1) [핵심 사업의 구체적 내용]  
+- [디스플레이 광학 보호필름]: LCD‧OLED 패널의 편광판, 커버 윈도우에 사용되는 고기능성 PET 필름을 생산한다. 해당 필름은 디스플레이 패널 제조공정에서 불량률과 최종 품질을 결정하는 핵심 자재로, 고객사는 주로 삼성전자, LG디스플레이, 중국ㆍ일본 디스플레이 패널 업체 등이다.  
+- [기능성 필름]: 스마트폰, 터치패널, 반도체 공정 등 전자기기에 적용되는 특수 코팅 필름류도 주력 생산한다. 고도의 표면처리 및 미세가공 기술이 요구되며, 최근에는 친환경(저탄소 배출) 기능성 소재와 고내열성 필름도 연구개발 중이다.  
+- [임가공 및 신규 소재 사업]: 외부 업체로부터 필름 코팅 임가공 수주를 일부 수행하고 있으며, 의료용 대마 및 특수 신소재 등 비디스플레이 사업의 파일럿 테스트 관리를 병행하고 있다[5][1].
+(2) [최근 분기 실적 호조의 구체적 배경]  
+- [디스플레이 소재 부문의 실적 견인]: 2025년 1분기 연결 기준 매출액 413억 원(+18.6% YoY), 영업이익 84억(+58.3%), 순이익 80억(+19.4%) 등, 전년 및 전분기 대비 모두 큰 폭의 개선세를 기록했다. LG‧삼성 등 프리미엄 디바이스 및 TV 시장의 생산량 증가에 따라 보호필름 등 필수 소재 수요가 급증한 것이 주원인이다[2][1][5].
+- [공장 자동화·원가 절감 확대]: 작년 하반기 이후 설비 라인 자동화 및 원재료 단가 협상 등 원가 절감 노력이 지속되고 있다. 이에 따라 매출총이익률이 전년 동기 43.2% 증가해 영업이익률이 빠르게 회복되고 있다[5].
+- [사업 구조 재편]: 태양광 장비 등 비주력 사업 부문을 정리하고, 디스플레이와 기능성 필름에 집중함으로써 이익률이 극대화되었다.  
+- [현금 보유 및 배당 정책 변화]: 당기순이익 증가에도 불구하고 2025년 반기 이후 현금배당수익률은 0%로 유지되어, 내부 투자를 선호하는 경영 기조로 해석된다[4].
+(3) [현재 직면한 주요 3가지 이슈]  
+1. [글로벌 디스플레이 시장의 변동성과 기술 경쟁 격화]  
+    - 주요 고객사(삼성·LG 외) 중심의 프리미엄 제품 생산은 단기적으로 수익성에 긍정적이나, 전체 디스플레이 시장은 중국·일본 업체의 기술 추격과 원가 압박이 심화되어 있다. 이에 따라 단일 시장 의존도가 높아 수요 부진 시 실적 변동성이 매우 클 수 있다. 추격을 막고 품질 차별화를 유지하는 것이 최대 과제다[1][2].
+2. [신사업(친환경 소재·메디칼 등)의 실질적 성장 가능성 리스크]  
+    - 최근 발표된 신규 분야(의료용 대마, 친환경 필름 등)는 아직 시제품 개발 단계에 머무르고 있고, 실질적인 매출 기여가 미비하다. 정부 규제, 기술 인증 등 진입장벽도 높아 단기간 내 신사업 성과 창출은 불확실하다. 이로 인해 본 사업 외의 성장 엔진 확보가 구조적으로 중요한 이슈다.
+3. [원자재 가격‧공급망 리스크]  
+    - 필름 원재료(고순도 PET, 코팅용 수지 등) 가격이 2024년 하반기~2025년 상반기에 다시 상승하며 제조원가 부담이 확대되고 있다. 글로벌 물류 불안과 ESG 기준 강화도 영향 요인이다. 업체는 국내외 다변화, 자체 내재화 등 대응 방안을 추진 중이나, 단기 실적에는 위험 변수로 작용할 수 있다[5].
+요약하면, 오성첨단소재는 [디스플레이 소재 내 기술·품질 경쟁력]과 [원가혁신을 바탕으로 단기 실적이 강하게 개선되고 있으나], 신사업 성과, 글로벌 시장 내 경쟁력, 원자재·공급망 관리 등이 지속 성장에 있어 절대적으로 중요한 도전과제로 부상한 상황이다.
 https://www.butler.works/ko/companies/00350048
-https://kr.investing.com/equities/osung-lst-co-ltd-earnings
 https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=052420
 https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A052420&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701
-https://comp.fnguide.com/SVO2/ASP/SVD_main.asp?gicode=A052420&amp;NewMenuID=</t>
+https://comp.wisereport.co.kr/company/c1050001.aspx?cmp_cd=052420&amp;cn=
+https://www.osungam.com/sub/4001.php</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1451,7 +1463,7 @@
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1469,26 +1481,32 @@
       <c r="C19" t="inlineStr">
         <is>
           <t>(1) 코미코(183300)의 핵심 사업
-코미코는 [반도체 생산 공정에 투입되는 장비 부품의 세정(오염·잔여물 제거), 특수 코팅(플라즈마 내구·절연·전도성 부여), 그리고 정밀 세라믹·금속 부품 자체 생산]을 주력 사업으로 영위하고 있습니다[1][2][3][4]. 부품 사업(세라믹 히터, ESC 등 고부가 부품)이 매출의 49%로 가장 크며, 코팅 31%, 세정 20% 수준입니다. 공정 미세화와 플라즈마 강도 상승에 따라 부품 마모와 교체 주기가 짧아지고 있어, 부품 재생 및 수명 연장 솔루션(세정·코팅 서비스)의 수요도 꾸준히 확대되고 있습니다[1][2]. 주요 고객은 삼성전자, SK하이닉스, 인텔, TSMC 등 글로벌 반도체 선두 업체로, 한국 외에도 중국(우시), 싱가포르, 미국 피닉스 등 해외 현지 공장 및 법인을 통해 글로벌 대응 체제를 강화하고 있습니다[1][4].
+[코미코]는 반도체 생산공정용 장비 부품의 *세정*, *특수 코팅*, *부품 자체 생산*에 집중하는 기업입니다.  
+주요 사업은 다음과 같이 구체적으로 나뉩니다:
+- [세정 서비스:] 반도체 제조 장비에서 발생하는 오염 및 잔여물 제거.  
+- [특수 코팅:] 플라즈마 환경에서 내구성·절연성·전도성을 부여하는 코팅 공정.  
+- [정밀 부품 생산:] 미코세라믹스(자회사)가 주로 ESC, 세라믹 히터 등 차세대 반도체용 핵심 부품을 자체 개발·생산합니다.  
+매출 비중은 부품사업이 49%, 코팅 31%, 세정이 20%이며, 주요 고객은 삼성전자, SK하이닉스, 인텔, TSMC 등 글로벌 기업입니다. 최근 미국 피닉스, 중국 우시 등 해외 현지 법인 확장도 지속적으로 추진하고 있습니다[1][2][3][5].
 (2) 최근 분기 호실적의 상세 배경
-2024년 2분기, 코미코는 [매출 1,336억 원(YoY +113%), 영업이익 369억 원(YoY +470%)]으로 대폭 성장한 실적을 기록했습니다[1][3].
-- [부품(미코세라믹스) 호황:] ALD(원자층증착) 장비용 세라믹 히터, ESC 등 차세대 반도체 공정 부품 수요가 급증하여, 미코세라믹스(자회사)가 매출 578억, 영업이익률 40%를 달성하면서 기업 실적을 견인[1].
-- [세정/코팅 수요 회복:] 업황 회복세와 함께 기존 핵심 사업(세정, 코팅)의 매출과 이익률이 빠르게 반등. 특히 국내 안성법인 이익률이 크게 개선됨[1].
-- [해외 법인 실적 개선:] 중국 우시 법인이 2분기에만 매출 179억(전년비 +106%)을 기록했고, 싱가포르 법인도 흑자로 전환됨. 법인별 실적이 전방 투자 확대와 연계되어 동반 성장 중[1][2].
-- [특정고객사 신규 Fab 투자:] AI·고성능 반도체(온디바이스, 하이엔드 메모리 등) 분야 설비 투자가 지속 확대되면서 고객사(삼성전자, 인텔 등)의 부품 교체 및 신규 수주가 늘어났고, 이는 세정·코팅·부품 전 부문에서 직접적인 수혜로 이어지고 있습니다[1][2].
+2024년 하반기~2025년 상반기, 코미코는 [연속적인 실적 성장세]를 이어가고 있습니다.  
+구체적으로 2025년 1분기 매출액은 전년동기 대비 14.4% 증가, 영업이익은 12.6% 증가, 당기순이익은 13.6% 증가를 기록했으며, 올해 연간 매출(추정치)도 8% 이상 성장할 전망입니다[2][5].
+이번 실적 개선의 원인은 다음과 같습니다:
+- [세라믹 부품(미코세라믹스)의 수요 폭발:] ALD(원자층증착) 기반의 초미세 공정이 확대되며, 내구성과 성능이 필수인 세라믹 부품(ESC, 히터) 판매가 큰 폭으로 증가[1][2].
+- [세정·코팅 사업 매출 확대:] 반도체 업황 반등, AI·고성능 메모리 수요 증가로 공정마다 장비 교체·재생 수요가 늘어나, 세정·코팅 부문 매출이 각각 14%·13% 이상 늘어나고, 국내와 중국·싱가포르 등 해외법인 모두 흑자 전환 또는 성장세를 시현[1][2][5].
+- [미국 피닉스 신규법인 가동:] 2025년 상반기 미국 피닉스 현지 법인 설립·가동으로 TSMC, 인텔 등 미국 내 신규 고객사 대응을 강화했고, 추가적인 증설이 계획되고 있음[1][3].
 (3) 코미코가 직면한 상위 3대 핵심 이슈
-1. [글로벌 반도체 업황 변동성]
-   세정, 코팅, 부품 사업 모두 전방 반도체 시황에 매우 민감합니다. 최근 AI·첨단 반도체 수요 확대로 단기 실적은 견조하나, 미국·중국 등 글로벌 경기침체 및 반도체 사이클 하락이 재차 현실화될 경우, 매출 및 이익 변동 리스크가 내재되어 있습니다[1][2][3].
-2. [고객사 집중 및 대형 Fab 투자 지연 리스크]
-   전체 매출의 97% 이상이 삼성전자, SK하이닉스, 인텔, TSMC 등 상위 5개 업체에서 발생합니다. 주요 고객사 생산설비 투자 감소, 발주 지연, 경쟁사의 자가 내재화(내부 조달 확대)가 발생하면 코미코 실적은 단기적으로 타격을 받을 수밖에 없습니다[1][3]. 최근 TSMC·삼성의 미국, 일본 투자 일정 조정이 일부 논란되기도 했습니다[2].
-3. [해외 확장(중국·미국) 및 지정학 리스크]
-   성장의 핵심이었던 중국(우시), 미국(피닉스) 등 현지 투자 확대가 진행되고 있으나, 미·중 갈등·수출 통제·현지 경쟁사 등장 등 공급망 리스크와 규제 변수 증가가 현실적 과제입니다. 또한, 미국 피닉스 신규법인 구축(2025년 상반기 완료) 이후, 현지 고객사(특히 TSMC 미국법인) 주문이 얼마나 추가될지 추이를 주시해야 합니다[1][2][4].
-이밖에 신제품(고내구 세라믹/메탈 부품)개발 성과, 각국 정부의 반도체 산업 정책·보조금(미국 CHIPS법, 중국 반도체 정책 등) 변화도 전략적으로 중요한 변수로 부각되고 있습니다.
-https://citrusshell.tistory.com/entry/%EC%BD%94%EB%AF%B8%EC%BD%94183300-%EB%B0%98%EB%8F%84%EC%B2%B4-%EB%B6%80%ED%92%88-%EC%84%B8%EC%A0%95%EC%BD%94%ED%8C%85-%EC%A0%84%EB%AC%B8%EA%B8%B0%EC%97%85%EC%9D%98-%EB%AF%B8%EB%9E%98-%EC%A0%84%EB%A7%9D
+1. [글로벌 반도체 사이클의 변동성]  
+   실적 급증 배경에는 AI·첨단 반도체 설비 투자 확대가 있지만, 세계 경기침체 및 미·중 경쟁 격화로 반도체 전방시장의 변동성이 점차 커지고 있습니다. 투자 축소 시 매출·이익 감소 리스크가 상존합니다[1][2][5].
+2. [고객 집중도 및 대규모 Fab 투자 지연 리스크]  
+   매출의 97% 이상이 극소수 글로벌 반도체 업체에 집중돼 있어, 고객사(특히 삼성전자, SK하이닉스, TSMC, 인텔)의 생산설비 발주가 미뤄지거나, Fab(생산거점) 투자·공장 증설이 연기될 경우 실적 악영향을 받을 수 있습니다. 2025년 들어 일부 미국·일본 팹 투자 일정 변동이 실제로 관측되고 있습니다[1][2].
+3. [해외 현지화 및 지정학 리스크]  
+   최근 미국 피닉스 신규법인 설립은 긍정적 신호지만, 미·중 갈등 심화, 수출 통제, 현지 경쟁사 급증 등의 리스크가 커지고 있습니다. 특히 미국 TSMC·인텔 등 현지 주문이 얼마나 추가될지, 공급망 불안정이 실질 매출로 연결될지 불확실성이 여전히 존재합니다[1][3].
+이 외에도 미세공정 경쟁, 신제품 개발 속도, 각종 국가 반도체 산업 정책 변화(미국 CHIPS법, 중국 보조금 등)도 향후 실적과 구조에 영향을 미칠 중요한 변수입니다[1][2][3][5].
 https://www.sks.co.kr/data1/research/qna_file/20250421160120354_0_ko.pdf
 https://stock.pstatic.net/stock-research/company/31/20250206_company_679690000.pdf
-https://m.irgo.co.kr/IR-COMP/183300/-IR-PAGE
-https://stock.pstatic.net/stock-research/company/74/20250120_company_449956000.pdf</t>
+https://m.finance.daum.net/quotes/A183300/news/disclosure/20250430043207
+https://contents.premium.naver.com/ystreet/irnote/contents/250707115438637ra
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=183300</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1503,7 +1521,7 @@
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1520,32 +1538,36 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(1) [한국타이어앤테크놀로지의 핵심 사업]
-한국타이어앤테크놀로지(161390)는 [자동차용 타이어의 개발, 제조, 판매]를 주력으로 하는 국내 최대 타이어 전문 기업입니다[3].  
-- [타이어 부문]에서는 승용차, SUV, 경트럭, 트럭·버스, 산업용 차량용, 그리고 전기차·고성능 스포츠카용 타이어까지 다양한 라인업을 갖추고 있습니다. 전기차 전용 ‘iON’ 등 프리미엄 브랜드를 통해 OE(신차용), RE(교체용) 시장 모두를 겨냥합니다.  
-- [비타이어 부문]은 타이어 생산 설비, 금형 제조·판매 및 일부 자동차 정비서비스, 사무실 임대 등입니다[3].  
-- 국내(대전, 금산)뿐 아니라 미국·헝가리·인도네시아·중국 현지 공장을 통한 글로벌 생산, 현대·기아·폭스바겐 등 주요 완성차업체에 OEM으로 타이어 공급하는 것이 사업 경쟁력의 핵심입니다.
-(2) [최근 분기 실적 호조 배경]
-2023~2025년 실적 자료에 따르면, 회사는 [매출·수익성 모두 업계 최고 수준]을 기록하고 있습니다[1][4].  
-- [고부가가치 타이어 판매 확대]: 18인치 이상 고인치 타이어 판매 비중이 꾸준히 상승해 전체 매출과 영업이익을 견인하고 있습니다. 특히 전기차 전용 타이어 판매가 빠르게 증가, 전년 동기 대비 두 자릿수 성장률을 기록 중입니다[1][3].
-- [브랜드력 및 OEM 공급 강화]: 프리미엄 전기차 브랜드(iON) 라인 확장과 현대·기아, 폭스바겐, 루시드 등 주요 글로벌 완성차에 전기차·고성능 차량용 타이어 공급이 확대되고, 북미·유럽 RE시장 점유율이 증가한 것도 실적 호조의 배경입니다[3].
-- [글로벌 생산능력 확충]: 미국 등지에서 보호무역·관세 리스크를 회피하고 물류비용을 절감하기 위한 현지 생산·공장 증설 효과가 가시화되고 있습니다. 이에 따라 2025년 매출은 전년대비 2.1% 증가(9.6조원), 영업이익은 1.66조원(영업이익률 17.3%) 전망입니다[1].
-(3) [현재 직면한 핵심 이슈 3가지]
-1. [북미 시장과 공급망/보호무역 리스크]
-   - 미국 테네시 공장 2차 증설을 통한 현지 실적 확대가 기대되지만, 미국 반덤핑·상계관세 등 보호무역 강화에 대응한 추가 설비투자와 OEM 현지화가 절실합니다[1].  
-   - 관세 리스크가 완전히 해소되지 않아, 완성차와의 협력 및 현지화 전략이 중장기적으로 중요한 과제로 남아 있습니다.
-2. [전기차·프리미엄 타이어 시장 경쟁 심화]
-   - 전기차용·고인치·고성능 타이어 수요가 빠르게 증가하면서, 미쉐린·콘티넨탈 등 글로벌 프리미엄 업체와의 기술경쟁이 더 심화되고 있습니다.  
-   - 신성장동력 확보를 위해서는 EV 타이어 기술력 고도화(저소음·저회전저항·마모수명 향상 등)와, 친환경 타이어 소재 개발이 더욱 중요해졌습니다.
-3. [수익성 압박 요인(원자재·환율·글로벌 수요)]
-   - 최근 국제 고무·합성소재 등 원자재 가격 변동성과 글로벌 경기 둔화, 환율 변동에 따른 수익성 관리가 지속적인 리스크로 작용하고 있습니다[2].  
-   - 고가 RE 타이어 비중 확대, 생산·물류비 효율화 등이 수익성 방어의 핵심이며, 특히 2025년 이후 글로벌 시장 성장률이 정체될 가능성도 제시되고 있습니다[2].
-이 외에도 차량용 배터리, 신사업(친환경 소재, ESS 등) 진출, ESG(환경·사회·지배구조) 관련 규제 대응 강화, 차별화된 고객 경험 제공 등도 주요 과제로 부각되고 있습니다.
-https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2025020417314766K_02_06.pdf
-https://simplywall.st/ko/stocks/kr/automobiles/kose-a161390/hankook-tire-technology-shares/news/lacklustre-performance-is-driving-hankook-tire-technology-co-1
-https://kr.investing.com/equities/hankook-tire
+          <t>한국타이어앤테크놀로지(161390)의 주력 사업은 자동차용 타이어 개발·제조·판매로, 고부가가치 타이어와 글로벌 OEM 공급, 현지 생산 확대를 핵심 경쟁력으로 삼는 국내 최대의 타이어 전문기업입니다[3][5].
+(1) [핵심 사업]  
+- [타이어 부문]이 매출 대부분을 차지하며, 승용차·SUV·트럭·버스·전기차 등 다양한 타이어 라인업을 보유하고 있습니다.
+- 전기차 전용(iON 등) 및 고인치 프리미엄 타이어를 적극 확대하며, 현대·기아·폭스바겐 등 글로벌 완성차 업체에 OEM으로 신차용 타이어를 납품합니다[3][5].
+- [비타이어 부문]은 타이어 생산 설비와 금형, 일부 자동차 부품, 관련 서비스까지 포함합니다.
+- [글로벌 생산 네트워크]: 국내(대전/금산), 미국, 헝가리, 인도네시아, 중국에 대규모 생산거점을 구축하여 글로벌 수요에 대응하고 있습니다.
+(2) [최근 분기 강한 실적의 이유]  
+- 2025년 2분기 연결 기준 매출 5조 3,696억 원, 영업이익 3,536억 원으로 각각 전년 대비 131.7% 증가하는 등, 최근 수년간 업계 대비 높은 성장세를 지속하고 있습니다[1][5].
+- [주요 배경]  
+  - *18인치 이상 고인치·프리미엄 타이어 판매 증가*: 고수익 제품이 매출·이익을 견인하고 있습니다.  
+  - *전기차(EV) 타이어 판매 급증*: 글로벌 전기차 시장의 확대로 전기차용 OE(신차용) 및 RE(교체용) 타이어 수주가 동반 확대되고 있습니다[1][5].
+  - *OEM 공급 및 RE(교체용) 유럽·북미 시장 점유율 증가*: 현지 자동차 브랜드와 파트너십 강화, 북미 RE시장에서의 프리미엄 제품 판매 확장이 수익성 개선에 기여하고 있습니다.  
+  - *미국 공장 2차 증설 등 글로벌 생산 기반 확장*: 생산효율과 물류비용 절감 효과가 실적에 긍정적으로 반영되었습니다.
+- 최근 발표에 따르면, 자동차 열 관리 시스템 등 일부 비핵심 부문 수익성은 둔화됐으나, 핵심인 타이어 부문은 여전히 실적을 견인 중입니다[5].
+(3) [현재 직면한 3대 핵심 이슈]  
+1. [미국 등 해외시장 보호무역·공급망 리스크]
+   - 미국발 반덤핑·상계관세 및 수입규제 강화가 지속 중입니다. 테네시 공장 증설 등 현지화 대응이 병행되지만, 관세·무역 리스크 해소와 OEM 현지화 전략이 여전히 중요한 이슈입니다[1].
+   - 글로벌 공급망 교란(물류비, 부품수급 문제 등)과 맞물려 미국/유럽 중심으로 비상한 경계가 필요합니다.
+2. [전기차·프리미엄 타이어 경쟁 심화 및 기술력 강화]
+   - 미쉐린, 콘티넨탈 등 글로벌 프리미엄 업체와 기술·브랜드 경쟁이 한층 심화됐습니다. 전기차 시장이 폭발적으로 성장하면서 저소음·마모수명·연비 등 EV 특화 성능, 친환경 소재 기술이 더욱 중시됩니다.
+   - 실제 신제품 개발(R&amp;D) 투자 증가와 함께, ESG(탄소배출, 친환경 소재), 제품 차별화가 CEO 및 경영진의 최대 현안 중 하나로 부상하고 있습니다.
+3. [원자재/환율 등 수익성 압력]
+   - 국제원자재(고무, 합성수지 등) 가격 변동성, 글로벌 경기둔화에 따른 수요 부침, 원화 약세 등 환율변동 리스크가 실적에 지속적으로 영향을 미칩니다[2][5].
+   - 고부가가치 제품 비중을 늘리며 방어하고 있으나, 향후 글로벌 타이어 시장 성장 정체와 결합될 경우 수익성 하방 압력이 심화될 수 있습니다.
+이 외에도, 일부 비타이어 비즈니스(자동차 열관리·공조 등) 부문에서 수익이 둔화되고 있어, 향후 주력 사업으로의 집중 및 포트폴리오 재정비 필요성도 대두되고 있습니다[5].
+https://alphasquare.co.kr/home/stock-summary?code=161390
 https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=161390&amp;cn=
-https://invest.deepsearch.com/stock/161390/</t>
+https://invest.deepsearch.com/stock/161390/
+https://tossinvest.com/stocks/A161390/order
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A161390</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1560,7 +1582,7 @@
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1577,28 +1599,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>트루엔(417790)은 [AI 기반 영상감시 시스템과 Edge AI 카메라 분야에서 국내 선도적인 기업]이다. 이 회사는 자체 영상 전송 코덱 개발을 시작으로 IP 카메라, AI 딥러닝 기능 탑재 카메라, IoT 스마트 홈 카메라 등 다양한 지능형 영상 분석 및 보안 솔루션을 개발·공급하고 있으며, 최근에는 Edge AI 솔루션과 공공기관 대상 스마트 시큐리티 시스템 등에 집중하고 있다[1][2][3].
+          <t>트루엔(417790)은 [AI 기반 영상감시 시스템과 Edge AI 카메라]를 핵심으로 하는 국내 대표 영상보안 전문 기업입니다. 최근 주요 재무 자료와 시장 이슈를 반영해 세부적으로 다음과 같이 정리합니다.
 1. [핵심 사업]
-- [주력 분야는 AI 기반 영상감시 시스템과 Edge AI 카메라]다. 2022년 기준 매출 비중을 보면 [IP 카메라가 약 82%], 영상솔루션과 IoT 솔루션이 그 외를 차지하고 있어, 기업의 중심 사업이 영상감시 하드웨어 및 소프트웨어임을 알 수 있다[1].
-- [Edge AI 카메라]는 카메라 단말 자체에서 AI 처리(딥러닝, 인식, 분석 등)를 수행해, 별도의 서버 없이도 실시간 지능형 영상분석이 가능하다. 차량번호 인식, 출입자 감지, 접근제어 등 다양한 기능이 탑재되어 공공기관, 스마트시티, 산업시설 등에 공급된다[3].
-- 기타 사업으로는 IoT 기반 스마트 홈 카메라, 맞춤형 영상 스트리밍 솔루션, 다양한 형태의 영상보안 장치 및 시스템 컨설팅, 구축 서비스 등이 있다[1][3].
+- [주요 제품은 IP 카메라 및 Edge AI 카메라]이며, 전체 매출의 83% 이상을 차지합니다[2][3]. IP 카메라 사업은 영상 데이터를 네트워크를 통해 전송·관리하는 카메라로, 실시간 감시와 영상 분석 기능이 결합된 고부가가치 하드웨어가 중심입니다.
+- Edge AI 카메라는 [카메라 자체에서 딥러닝 기반 영상 분석](예: 차량번호 인식, 출입자 식별, 이상행동 탐지 등)이 이루어져, 별도의 서버 없이도 실시간으로 다양한 보안·관리 작업을 제공합니다. 이는 스마트 시티, 공공기관, 산업단지 등에서 실질적 수요가 빠르게 증가하는 분야입니다.
+- 부수적으로 [IoT 기반 영상기기, 영상스트리밍 솔루션, 맞춤형 통합 보안 시스템 구축] 등도 사업 포트폴리오에 포함되어 있으나, 회사의 수익성과 성장동력은 여전히 영상감시 하드웨어와 Edge AI 기술에 집중되어 있습니다[3].
 2. [최근 실적이 강한 이유]
-- [공공기관, 지자체의 지능형 CCTV 및 스마트시티 수요 급증]이 매출 성장을 견인했다. 2023년 매출액은 463억원(YoY +19%), 영업이익은 128억원(YoY +42%)으로, 시장 수요와 맞물린 매출 확대와 높은 영업이익률이 동시에 실현되었다[3].
-- [Edge AI 기술 적용 제품의 점유율 상승과 라인업 확장]으로, 고부가가치 제품 매출이 늘었다. 업계 1위라는 신뢰성을 기반으로 대형 프로젝트 수주가 이어지고 있다[3].
-- [신공장 증설 및 생산 효율 개선], [지속적 R&amp;D 투자]로 원가율을 안정적으로 관리하고 신규시장(글로벌 소형 수출 포함)에 진입하며 성장세를 유지하였다[1].
+- [2024년 매출액은 471.7억 원, 영업이익은 113.8억 원, 순이익은 110억 원]으로 각각 21.5%, 26.4%, 44.4% 증가하며 두 자릿수 고성장세를 기록하였습니다[1][4]. 이 성장의 주요 요인은 다음과 같습니다.
+- [IP 카메라와 Edge AI 제품 매출이 분기 최대치를 갱신]하며 실적을 견인했습니다. 특히 2024년 4분기에는 성수기 효과와 함께 대형 프로젝트 수주, 제품 라인업 확장으로 역대 분기 최대 매출을 달성했습니다[2].
+- [생산설비 효율화]와 공장 통합, 원가율 관리 강화 등으로 영업이익률(영업이익/매출액)이 25% 수준까지 올랐습니다. 고부가가치 제품 비중이 상승해 수익성 개선이 두드러졌습니다[2].
+- [공공기관, 지방자치단체 등에서 지능형 CCTV 및 스마트시티 구축 수요가 지속적으로 증가]하면서 대형 수주가 이어졌고, 이에 따라 재무지표 전반이 안정적으로 개선되었습니다[1][2].
 3. [현재 주요 이슈 Top 3]
-- [치열한 기술경쟁 및 AI 기술 고도화 필요성]  
-  영상보안 시장은 글로벌 IT기업, 대형 SI 회사, 중국계 저가 HW 업체 등과의 경쟁이 치열하다. AI 영상분석, Edge 컴퓨팅, 데이터 보안 등 기술 선도력을 유지하기 위한 지속적인 연구개발·투자가 필수적이다[2][3].
-- [공공시장 매출 의존도와 프로젝트 변동성]  
-  지자체·공공기관 중심 대형 프로젝트의 수주 여부가 분기별 실적에 미치는 영향이 크다. 전체 매출의 상당 비중이 특정 시점에 집중되는 구조여서, 실적 변동성이 높아질 수 있다[3].
-- [글로벌 시장 확대 전략 및 수출경쟁력]  
-  국내 시장은 이미 성숙기에 접어들고 있기 때문에, 글로벌 수출 확대가 중장기 성장의 핵심 과제로 부상했다. CE 인증, 수출용 제품 현지화, 안정적 파트너 네트워크 구축 등 경쟁력 확보가 요구된다[1][3].
-이밖에도 부품 공급망 이슈, 시장 환경 변화(예: 전방산업 투자 위축, 경기 둔화 시 공공사업 축소 가능성), 국내외 규제(보안기준 강화 등)가 경영 불확실성 요인으로 지적된다.
-https://www.eugenefn.com/common/files/amail/20230828_417790_jongsun.park_1929.pdf
-https://www.bondweb.co.kr/_research/downloadPage.asp?number=810485&amp;gn=1
-http://money2.daishin.com/PDF/Out/intranet_data/Product/ResearchCenter/Report/2023/05/46991_truen.pdf
-https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=417790&amp;cn=
-https://valueline.co.kr/finance/summary/417790</t>
+- [AI 영상분석·Edge 기술 고도화 및 경쟁사 대응]  
+  글로벌 대기업/중국계 저가 HW 업체와의 치열한 경쟁, AI 딥러닝·엣지컴퓨팅 분야 기술 혁신 속도에 맞춘 신제품 개발 및 차별화가 절실히 요구됩니다. 특히 최근 이스라엘 AI 반도체 기업 ‘헤일로’ 등과의 기술 파트너십 논의가 재부각되며, 향후 제품 경쟁력과 외부 협력전략에 시장 관심이 높아진 상황입니다[1].
+- [공공시장 매출 의존도와 분기 실적 변동성]  
+  여전히 전체 매출에서 공공기관 대상 대형 프로젝트가 차지하는 비중이 높아, 분기별 실적 변동성과 특정 프로젝트 실적 편중 문제가 지속적으로 제기됩니다[2]. 정치·정책 환경 변화에 따른 수주일정 지연 등 외부 변수에도 취약할 수밖에 없습니다.
+- [글로벌 수출 확대와 공급망 관리]  
+  국내 시장이 성숙기에 접어들어 해외시장 진출 필요성이 커지고 있습니다. CE·FCC 등 주요 글로벌 인증 획득, 현지화 맞춤형 제품개발, 안정적 파트너 네트워크 확보가 시급합니다. 아울러 최근 글로벌 반도체·부품 공급망 불안정 이슈도 잠재적 위험요인입니다.
+이 세 가지 외에도 경기 변동에 따른 공공투자 위축 가능성, AI/영상보안산업에 대한 국내외 규제 강화, 신규 산업군(스마트 모빌리티, 로봇 등)과의 연계 여부 등이 향후 지속적인 과제로 남아 있습니다[1][2][3].
+https://alphasquare.co.kr/home/stock-issue?code=417790&amp;type=news
+https://www.eugenefn.com/common/files/amail/20250206_417790_jongsun.park_2301.pdf
+https://m.irgo.co.kr/IR-COMP/417790/
+https://m.finance.daum.net/quotes/A417790/news/disclosure/20250203006246
+https://comp.fnguide.com/SVO2/asp/SVD_Invest.asp?pGB=1&amp;MenuYn=Y&amp;ReportGB=D&amp;NewMenuID=105&amp;stkGb=701&amp;gicode=A417790</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1613,7 +1636,7 @@
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1630,28 +1653,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(1) [퓨릿(445180)의 핵심 사업]
-퓨릿은 [반도체, 디스플레이, 2차전지 등 첨단 제조산업에 사용되는 고순도 케미컬 소재]를 생산·공급하는 기업입니다. 주력 제품은 반도체 공정용 신너(Thinner)와 PGME, PGMEA, EEP, EL 등 고순도 공정 화학물질입니다[1][4]. 초창기에는 산업용 및 디스플레이 공정에서 발생하는 폐유기용제의 [회수/정제] 사업으로 시작했으나, 이후 초고순도 반도체·디스플레이 케미컬 합성 및 정제, 자원 재활용(리사이클) 등으로 사업영역을 확대했습니다[1][2][3]. 국내에서는 [극자외선(EUV) 공정에 필수적인 고순도 EL 소재]의 합성 및 대량 생산까지 가능한 유일한 기업으로 꼽히며, 소재 국산화와 공급 안정화에 기여하고 있습니다[1].
-(2) [최근 분기 실적 강세 원인]
-퓨릿의 최근 강한 실적은 [반도체 업황 개선·고객사 증설·공정 미세화 및 가동률 증가] 때문입니다. 주요 요인은 다음과 같습니다.
-- [반도체 업황 반등]: 2024년 상반기 메모리 제조사의 증설과 미세공정 확대에 따라 견조한 반도체 케미컬 수요가 발생했고, 이에 따라 매출과 영업이익이 개선 추세를 보였습니다[1][4].
-- [고객사 확대와 락인 효과]: 기존 대기업 외에 신규 반도체 고객사를 유치하며 공급처를 다변화했고, 기존 고객사와의 장기 협력으로 매출 안정성이 커졌습니다[4].
-- [신사업 진출과 기술 차별화]: 고순도 EUV용 EL 소재 양산, 폐유기용제 리사이클 확대 등 고부가가치 신사업이 실적 성장에 기여했습니다[1][2]. 
-- [산업 교차 수요]: 반도체·디스플레이·2차전지 등 여러 첨단사업의 동시 성장에 따라 매출 기반이 다각화되어 경기 변동성에 더 강해졌습니다.
-참고로 2024년 1분기 매출액은 282억원, 영업이익은 28억원을 기록(전년 대비 소폭 감소)했으나, 이는 디스플레이 업황 악화에 따른 영향이고 반도체 부문의 성장은 계속되고 있습니다[1].
-(3) [퓨릿이 직면한 주요 이슈 Top 3]
-1. [전방산업(반도체, 디스플레이) 경기 변동]
-   - 퓨릿은 전방산업의 투자/가동률 변화에 직접적으로 영향을 받습니다. 반도체는 호황이나, 디스플레이는 업황 악화로 매출 타격을 받고 있습니다[1][4]. 특히 디스플레이 부문 매출이 약세를 보여 성장 모멘텀에 한계가 있습니다.
-2. [환경/안전 규제 및 생산위험]
-   - 화학제품 제조 특성상 화재·폭발 등 안전사고 위험이 존재합니다. 환경·안전 규제 강화 시 추가 투자와 관리비용이 늘어날 수 있으며, 사고 발생 시 기업 신뢰도 하락과 생산 중단 등이 우려됩니다[2].
-3. [CAPEX(설비투자) 부담 및 유형자산 비중 증가]
-   - 고순도 화학품 생산에는 대규모 설비투자와 정밀 관리가 필수입니다. 사업 확장과 신제품 개발을 위한 지속적 투자가 필요하지만, 이에 따라 감가상각비 및 고정비도 증가해 수익성 관리 부담이 커지고 있습니다[2].
-이외에도 최대주주 물량 출회(구주매출), 기술 격차 유지, 원재료 가격 변동성 등도 단기적으로 모니터링해야 할 리스크입니다[2].
-https://m.thinkpool.com/compDiscuss/cont/1017951
-https://m.cafe.daum.net/cbbond/MbUq/11864?svc=TOPRANK
-https://www.deepsearch.com/analytics/company-analysis/KRX:445180?c-name=%ED%93%A8%EB%A6%BF&amp;c-symbol=KRX%3A445180&amp;cd-cat=topic&amp;cd-df=2024-10-18&amp;cd-dt=2024-10-25
-https://ssl.pstatic.net/imgstock/upload/research/company/1704325837158.pdf
-https://static.roa.ai/research/company/20240603_company_787514000.pdf</t>
+          <t>(1) [퓨릿(445180)의 핵심 사업]  
+퓨릿은 [반도체, 디스플레이, 2차전지 등 첨단 제조업에 필수적인 고순도 케미컬 소재(공정용 유기용제 및 신너, PGMEA, PGME, EEP, EL 등)]를 생산·공급하는 전문 화학기업입니다[1][2][4]. 원천 기술을 바탕으로 반도체 미세공정용 초고순도 소재의 양산에 성공했으며, 특히 [EUV(극자외선) 리소그래피용 EL(Edge Layer) 소재의 합성·대량 생산까지 가능한 국내 유일한 기업 중 하나]로 꼽힙니다[1]. 또한 폐유기용제의 회수·정제·재활용(리사이클) 사업도 병행하여 친환경 소재 순환 생태계를 확대하고 있습니다[1][2]. 퓨릿의 전체 매출에서 [반도체용 케미컬 비중이 최근 70% 이상을 차지]하고 있고, 나머지는 디스플레이 및 산업용 소재 부문입니다[2].
+(2) [최근 분기 실적 강세 원인]  
+퓨릿의 최근 실적 강세는 다음과 같은 동인에 기인합니다.
+- [글로벌 반도체 수요 회복과 AI 산업 성장:] 2025년 들어 AI 반도체 등 첨단 메모리의 투자가 재개되고, 대형 고객사(삼성전자, SK하이닉스 등) 생산 라인의 가동률이 크게 개선되었습니다. 그 결과 [반도체용 케미컬 수요가 꾸준히 증가]하여 회사 매출 성장을 견인하고 있습니다[1][4][5].
+- [신사업 확대 및 고객 다변화:] 기존 반도체 제조사 외 신규 글로벌 전자업체와 2차전지 기업 등으로 공급망을 확대하며 [새로운 고객사 확보와 장기 락인 효과]를 달성했습니다[1][3]. 고순도 EUV용 EL 소재 등 고부가 제품 양산 본격화도 이익률 향상에 기여하고 있습니다.
+- [산업 간 매출 기반 다각화:] 반도체, 디스플레이(비중 축소 중), 2차전지 등 [여러 첨단 산업군의 동시 성장이 실적 변동성을 완화]하며, 반도체 호황의 긍정적 효과를 극대화했습니다[4][5].
+2025년 1분기 퓨릿의 매출은 282억원(전년 대비 ‑13%), 영업이익은 28억원(‑23%)이나, 이는 디스플레이 부진 영향이고 [반도체 케미컬 부문만 보면 전년 대비 10% 내외 성장세가 유지]되고 있습니다[1]. 업계에서는 *2025년 하반기 추가 고객 확보와 신사업 매출 본격화*로 연간 성장세가 가속될 것으로 전망하고 있습니다[1][3][5].
+(3) [퓨릿이 현재 직면한 주요 이슈 Top 3]  
+1. [전방산업 업황 변동(특히 디스플레이 부진):]  
+   - [반도체 산업은 투자 확대, 디스플레이 산업은 저성장 지속]으로 퓨릿의 매출 구조가 일부 불안정해질 수 있습니다. 반도체 부문 매출은 상승세이나, 디스플레이 케미컬 매출은 고전이 이어지고 있어 *전체 실적 모멘텀에 제한 요인*으로 작용합니다[1][2][4].
+2. [환경·안전 규제 및 설비 리스크:]  
+   - **고순도 화학물질 제조 특성상 화재·환경오염 등 안전사고* 위험이 상존합니다. ESG 경영 압박, 규제 강화에 대한 선제적 대응이 필수이며, 설비 투자 확대와 동시에 안정적 품질과 효율성을 유지할 필요가 있습니다[2].
+3. [CAPEX(설비투자) 부담 및 수익성 관리:]  
+   - 기술경쟁력 유지를 위해 [신규 설비 및 R&amp;D 투자 부담이 지속적으로 증가]합니다. 대형 고객사향 공급 계약, 신규 제품 양산을 위한 대규모 투자 과정에서 고정비 상승과 이익률 관리가 중요한 과제가 되고 있습니다[2][3].
+이외에도 [경쟁사 등장에 의한 기술격차 유지, 원재료 가격 변동, 대주주 지분 매각(구주매출) 가능성 등도 단기적 리스크]로 꼽힙니다[2].
+https://alphasquare.co.kr/home/stock-issue?code=445180&amp;type=news
+https://www.eugenefn.com/common/files/amail/20230921_B_jongsun.park_1940.pdf
+https://securities.miraeasset.com/bbs/board/message/view.do?categoryId=1533&amp;messageId=2332801
+https://www.youtube.com/watch?v=5-kTpNoBSG4
+https://m.irgo.co.kr/IR-COMP/445180/%ED%93%A8%EB%A6%BF-IR-PAGE</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1666,7 +1688,7 @@
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1683,29 +1705,33 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>1. [아이디피(332370)의 핵심 사업]
-아이디피는 [데스크탑 카드프린터 및 관련 소모품(인쇄용 리본, 프린터 전용 필름 등) 제조와 판매]를 주력으로 하는 기술기업이다[1][2][3]. 주요 제품은 신분증, 운전면허증, 금융카드 등 각종 공식·금융용 카드를 현장 발급하는 데 사용되는 [데스크탑 카드프린터]로, [카드프린터가 전체 매출의 46.1%, 소모품이 32.2%]를 차지한다[1]. 그 외에도 리본 파쇄기, 레이저 인그레이버, 멀피호퍼(자동 카드 공급 장치) 등 기타 제품과 유지보수 등 서비스를 제공한다[2]. 특히 카드프린터 시장의 국산화에 성공했으며, [기기 및 소모품 매출의 약 89%를 수출]에 의존하고 있으며, 미국, 일본, 두바이 등에서 57개국에 제품을 공급한다[1][2].
-2. [최근 실적 호조의 구체적 이유]
-- [글로벌 시장 점유율 확대]  
-  아이디피는 연구개발(R&amp;D) 투자로 경쟁사 제품과 차별되는 자체 기술을 확보해 [전 세계 카드프린터 시장에서 2020년 6.6%에서 2021년 9.4%까지 시장점유율을 빠르게 확대]했다[1][3].  
-- [해외 수출 증가 및 신제품 효과]  
-  B2C 및 소규모 사업자용 컴팩트 프린터, 카드발급 키오스크, 신속 가열식 라미네이션 기술 등 [신제품을 지속적으로 출시]하며 해외 신규 고객 확보에 성공했다. 이로 인해 최근 [수출 실적이 급증], 전체 매출이 빠르게 성장하였다[1][2][3].  
-- [소모품 매출의 누적 효과]  
-  카드프린터 기기의 보급이 확대되면서 프린터 전용 소모품(리본, 필름 등) 소모가 [지속적이고 안정적으로 증가]하는 구조다. 이로 인해 기기 매출이 늘면서 소모품 매출도 연동하여 크게 늘었다[3].
-3. [현재 아이디피가 직면한 3대 핵심 이슈]
-- [원재료 및 부품 조달 문제]  
-  반도체 및 전자부품 수급 불안, 주요 소재 가격 변동성이 커지면서 [원가 관리]가 어려워졌으며, 납기 리스크가 실적에 영향을 줄 수 있다.
-- [글로벌 경쟁 심화 및 가격경쟁력]  
-  전통적으로 시장을 장악해 온 미국, 일본의 대형 경쟁사들과 [글로벌 가격경쟁]이 심화되고 있다. 특히 신흥시장 진입 시 현지 경쟁사 및 저가 브랜드와의 가격경쟁에 정밀한 대응이 필요하다[1][3].
-- [환율 변동성 및 수출 구조 위험]  
-  [수출 비중이 85~89%로 매우 높아] 원·달러, 원·엔 등 환율 변동에 따른 실적 변동 위험이 상존한다. 해외 매출이 늘수록 환위험 관리와 각국 무역 정책 변화에 상시 대응이 필요하다[1][2].
-이외에도, 신규 아이템(예: 재전사 프린터, 카드발급용 키오스크 등)의 상용화 및 시장 안착, OEM·ODM 확대, 국내 대형 프로젝트(예: 운전면허증 시스템)에서의 확장 가능성 등도 중요한 중장기 과제로 꼽힌다.  
-정보는 2023년 이후 공개 기준으로 최신 지원자료에 근거하였으며, 구체적 통계와 시장점유율은 각 년도 사업보고서와 IR자료 기반이다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1681946056940.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1631761835229.pdf
-https://invest.kiwoom.com/inv/resource/202206/UploadFile_20220628105319000577.pdf
-https://www.deepsearch.com/analytics/company-analysis/KRX:332370?c-name=%25EC%2595%2584%25EC%259D%25B4%25EB%2594%2594%25ED%2594%25BC&amp;c-symbol=KRX%253A332370&amp;cd-cat=topic&amp;cd-df=2023-07-31&amp;cd-dt=2023-08-07
-https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?pGB=1&amp;gicode=A332370&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=Y&amp;stkGb=701</t>
+          <t>1. 아이디피(332370)의 핵심 사업
+아이디피는 [데스크탑 카드프린터 및 프린터용 소모품(카드용 인쇄 리본, 특수 필름 등) 제조·판매]에 집중하는 기술기업이다. 주요 제품군은 [신분증, 금융카드, 멤버십카드 등]의 현장 즉시 발급을 위한 [데스크탑 카드프린터]와 이에 사용되는 리본 및 필름 등 소모품이다. 특히 최근에는 [소모품 매출이 전체의 57% 이상을 차지]하며[3][4], 안정적인 *반복구매* 구조를 기반으로 기업매출을 견인한다.
+아이디피는 카드프린터 국산화에 성공해 [세계 57개국에 수출]하고 있으며, 주 매출처는 미국, 일본, 중동 등 해외 시장이다[3][4]. 또한, 자동 카드공급장치(멀피호퍼), 리본파쇄기, 레이저 인그레이버 등 특화된 관련 장치도 함께 개발하여 프린터 시스템 전체를 아우르는 제품 포트폴리오를 갖추고 있다.
+2. 최근 실적 호조의 구체적 이유
+- [수출 비중의 확장 및 글로벌 수요 증가]  
+  2025년 1~2분기 연속 실적 성장의 핵심은 [해외 수요 확대 및 수출금액 증가]에 있다. 특히 2025년 1분기 기준 매출은 전년 동기 대비 7.3% 증가, 영업이익은 17.7% 증가했다[3][4]. 2분기에는 [매출액 154.96억원, 영업이익 33억원]으로, 전년 대비 두 자릿수 성장세를 지속하고 있다[2][5].  
+  이는 미국·일본 등 주요 수출국에서 현장 즉시 카드발급 수요가 늘어나며, 아이디피 제품의 시장점유율이 높아진 결과이다.
+- [소모품 매출의 안정적 성장]  
+  기기 판매뿐 아니라 지속적 소모가 발생하는 프린터용 리본, 필름 등의 소모품 판매 구조가 2025년에도 강화되어 [반복적 매출원이 실적을 안정적으로 뒷받침]하고 있다[3][4].  
+  소모품 비중 확대는 경기변동이나 기기통관 문제에도 매출 안정성을 높여준다.
+- [제품 라인업 확장과 R&amp;D 투자]  
+  최근 [B2C 및 소형 카드프린터, 신속 가열 라미네이션 기술] 등의 신제품을 출시해 신규 시장(예: 교육용, 소규모 매장 등)에서 고객저변을 확대했다. 기술 차별화를 위해 R&amp;D 투자를 지속해온 것이 *경쟁사 대비 시장점유율 제고*로 연결되었다.
+3. 아이디피가 직면한 3대 핵심 이슈
+- [원재료·부품 공급망 위험]  
+  글로벌 반도체 및 전자부품 수급 불안이 지속되어, 프린터 핵심부품 조달 및 생산원가 관리가 어려워졌다. 주요 소재(칩, 인쇄용 고분자필름 등) 가격변동에 따라 수익성이 직접적으로 영향을 받을 수 있다.
+- [환율 변동 및 수출 리스크]  
+  [해외수출 비중이 85~89%로 매우 높아] 원·달러, 원·엔 등 환율 변동에 따른 실적 리스크가 심각하다[3][4]. 특히 2025년 상반기 원화 약세 국면에서 수익성이 엇갈리는 현상이 나타나 환헤지 및 실적 예측이 어렵다.  
+  또한 각국의 수입통관 규제, 무역 관세 등 정책 변화에 따른 리스크도 존재한다.
+- [글로벌 경쟁 심화 및 가격경쟁력 저하]  
+  미국·일본 등 대형 경쟁사가 신흥시장에 재진입하거나 저가 브랜드가 등장함에 따라, 기존시장에서도 [가격경쟁이 심화]되고 있다. 최신화된 기술력과 브랜드 이미지 유지가 필수적이며, 중장기적으로 [R&amp;D 및 제조단가 절감]이 주요 과제로 부상했다.
+이 외에도, 카드 시스템 운영 서비스 확대, B2G(정부) 프로젝트 참여, 신규 아이템(키오스크, 재전사 프린터 등) 글로벌 시장 안착 등이 중장기 성장 관점에서 점검되고 있다.  
+2025년 반기보고서와 최근 실적 발표 자료에 근거한 최신 현황임.
+https://biz.chosun.com/stock/c-biz_bot/2025/08/04/WT6EPCYMO24TEACMJRT7MC63T4/
+https://contents.premium.naver.com/sejongdata/sejongdata0304/contents/220809122426523za
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?pGB=1&amp;gicode=A332370&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=Y&amp;stkGb=701
+https://comp.fnguide.com/svo2/fncompany.asp?gicode=A332370
+https://www.talkstar.co.kr</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -1720,7 +1746,7 @@
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1738,26 +1764,27 @@
       <c r="C24" t="inlineStr">
         <is>
           <t>(1) 대한해운의 핵심 사업
-대한해운(005880)은 [해상 화물 운송업]에 특화되어 있는 기업입니다[2][3]. 주력 사업은 철광석, 석탄, 곡물, 원유, 천연가스 등 대형 벌크(Bulk) 화물의 선박 운송입니다. 대한민국 주요 대기업들과 장기 운송 계약을 맺고 있는데, 대표적으로 [한국가스공사], [포스코] 등과 LNG선 및 벌크선 운용 계약을 체결한 바 있습니다[3]. 주요 선박 유형은 벌크선, LNG선, 탱커선 등이며, 최근에는 친환경 선박(LNG 추진) 사업과 벙커링(선박 연료 공급) 사업 확대에도 주력하고 있습니다[1].
-(2) 최근 실적이 강세를 보인 이유
-최근 몇 분기 대한해운이 [견조한 실적]을 기록한 배경에는 다음과 같은 구체적 요인들이 작용하고 있습니다.
-- 글로벌 해운 시장의 점진적 회복 및 [화물 운임의 상대적 강세]: 특히 철강, 에너지, 곡물 등의 원자재 수요 회복으로 벌크선 중심 운임이 안정적으로 유지되었습니다[1].
-- [장기 운송계약에 기반한 안정적 매출구조]: 주요 화주(예: 포스코, 한국가스공사)와의 장기 계약 덕분에 시장 변동성에 상대적으로 덜 민감하며, 대외 악재 시에도 실적 방어력이 높습니다[3].
-- [LNG 벙커링 및 친환경 신사업 성장세]: LNG 벙커링 등 친환경 에너지 관련 사업에서 점진적인 매출 증가가 나타나고 있으며, 관련 투자를 지속하고 있습니다[1].
-- 비용 관리 및 운항 효율성 제고: 연료비 절감 등 내부 비용 효율화 전략이 수익성을 끌어올렸습니다.
+대한해운(005880)은 [해상 화물 운송업]에 특화된 기업으로, 주력은 [벌크선(철광석, 석탄, 곡물 등), LNG선 및 탱커선 운항]입니다[3][5]. 특히, 포스코, 한국가스공사 등 대형 화주와의 [장기 물동량 계약] 덕분에 수익 구조가 안정적입니다[3]. 최근에는 [친환경 선박(LNG 추진선)] 및 [LNG 벙커링(선박 연료 공급)] 사업 확장에 적극적으로 나서고 있습니다. 2025년 7월 부산, 여수, 목포 등 주요 항만에서 LNG 벙커링 사업을 확장하며, 친환경 운송 역량을 강조하는 중입니다[1].
+(2) 최근 분기 실적 강세 요인
+대한해운은 최근 분기에도 [견고한 실적]을 보이고 있습니다.
+- [글로벌 운임 시장 상대적 강세]: 철강, 에너지 등 원자재 운송 수요 회복세와 벌크 운임 안정이 매출에 기여했습니다.
+- [장기계약 기반의 방어력]: 해운 시황 변동성에도 불구, 주요 화주와의 장기 계약 유지로 실적 안정과 방어력이 강했습니다[3].
+- [친환경 신사업 성장세]: LNG 벙커링 등 신사업에서 꾸준한 성장이 있었으며, 미래 먹거리 확보에 성공했다는 평가가 있습니다[1].
+- [저평가 매력과 수익성]: 2025년 7월 기준 PER 3.9배, PBR 0.29배로, 저평가 상태에서 ROE 13%대를 기록하며 수익성도 우수합니다[2].
+시장 상황과 무관하게 [선제적 비용 관리 및 효율적 운항]을 통해, 연료비 절감과 고정비 부담 통제에서 강점을 보이고 있습니다.
 (3) 대한해운이 직면한 3대 핵심 이슈
-1. [해운시황 불확실성과 운임 변동성]  
-   - 글로벌 경기 둔화, 지정학적 리스크, 해운시황의 급변동 가능성이 여전히 남아 있습니다. 벌크선이나 LNG선 운임의 급락 시 매출 타격이 불가피합니다[1].
-2. [친환경 전환(ESG 규제) 대응]  
-   - 국제해사기구(IMO) 등에서 요구하는 환경규제가 강화되고 있으며, 이에 대한 적극적 대응이 불가피합니다. 탄소배출 저감, 선박의 친환경 전환(LNG 추진선 확대) 등 대규모 투자가 필요하고, 이는 단기적 비용 증가 요인이 될 수 있습니다[1].
-3. [대형 화주와의 계약 리스크]  
-   - 매출의 상당 부분이 소수 대형 화주(포스코, 한국가스공사 등)에 집중되어 있습니다. 주요 고객사와의 계약 변화, 혹은 글로벌 경쟁 해운사의 시장 진출 확대 시 실적 변동성이 커질 수 있다는 점이 리스크로 지적됩니다[3].
-이 외에도 최근 금융시장의 불확실성(금리 변동, 환율 등), 해운업 전반의 투자심리 악화, 외국인 및 기관투자자의 매도세 확대가 단기적 불안요인으로 여겨지고 있습니다[1].
-이상은 최신 기업공시 및 분석자료 기준의 구체적, 사실 기반 설명입니다.
-https://seo.goover.ai/report/202507/go-public-report-ko-82dfe434-b974-41db-9828-4f0ac4426107-0-0.html
+1. [운임 변동성과 시장 불확실성]
+   - 2025년 상반기 들어 글로벌 해운업황 둔화와 지정학적 리스크(홍해 및 아시아 정세)가 커지며, 운임 급변 가능성이 부각되고 있습니다. 특히, 원자재 해상 운송에서 운임 하락은 곧 수익성 악화로 직결될 수 있습니다[1].
+2. [친환경 전환 및 투자 부담]
+   - IMO 환경규제, EU CBAM(탄소국경조정제도) 등 강화로 친환경 선박 투자가 필수화되고 있습니다. LNG 추진선 확대, 벙커링 인프라 구축 등 거액의 선제적 자본투입이 불가피하며, 단기적으로는 투자 비용 부담이 상승하고 있습니다[1].
+3. [화주 집중 리스크 및 배당 정책 이슈]
+   - 매출의 다수가 소수 대형 화주(포스코, 한가스 등)에 집중된 구조 때문에, 계약 변경·만료 시 실적 변동성이 심화될 수 있습니다.
+   - 2025년 투자자 사이에서 “안정적 이익에 걸맞는 배당 확대” 요구가 커졌으나, 회사는 신사업 투자와 유동성 확보를 병행 중이라 [배당 확대 여부가 불확실]합니다. 이로 인한 주주가치 논란이 단기적으로 주가와 투자심리에 영향 미칠 수 있습니다[1].
+그 외 변수로는 [해운업 전반 참여자 증가, 경쟁 심화], 그리고 [금리·환율 등 금융시장 변동성]이 추가적인 단기 리스크로 지목됩니다[2].
+https://seo.goover.ai/report/202507/go-public-report-ko-e937014b-ba61-4928-8f29-f7c3a5314c85-0-0.html
+https://contents.premium.naver.com/twobaero/10000dollars/contents/250801013139115bj
 https://m.irgo.co.kr/IR-COMP/005880/%EB%8C%80%ED%95%9C%ED%95%B4%EC%9A%B4-IR-PAGE
-https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=005880&amp;cn=
-http://www.hanbak.co.kr/siou/005880
+https://invest.deepsearch.com/stock/005880/disclosure/
 https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=005880&amp;cn=</t>
         </is>
       </c>
@@ -1773,7 +1800,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1791,25 +1818,25 @@
       <c r="C25" t="inlineStr">
         <is>
           <t>(1) [서부T&amp;D(006730)의 핵심 사업]
-서부T&amp;D는 1979년 설립되어 1995년 코스닥에 상장된 기업으로, 핵심 사업은 [관광호텔업, 쇼핑몰 운영업, 물류시설 운영업, 석유류 판매업] 등입니다. 2024년 1분기 기준, [매출 비중은 관광호텔업 74.47%, 쇼핑몰 운영 19.32%, 석유류 판매 3.37%]로 호텔사업의 비중이 월등히 높습니다. 대표 자산은 서울 용산의 ‘Seoul Dragon City Hotel Complex’를 보유‧운영하며, 이 외에도 인천 송도 ‘스퀘어원’ 쇼핑몰, 일부 물류시설 및 부동산 관련 자산을 보유하고 있습니다[1][4]. 신한서부티엔디리츠 등 관련 리츠(REITs)와도 연계된 사업 구조를 가집니다[4].
+서부T&amp;D는 [호텔 및 쇼핑몰 운영, 대형 물류부지 개발, 자산 운용]을 핵심 사업으로 하는 부동산 전문 상장기업입니다. 주요 사업장은 서울 용산구의 ‘서울드래곤시티 호텔 콤플렉스’(약 1,700객실 규모)로, 최근 들어 [호텔업 매출 비중이 76%를 상회]하며 기업의 주축을 이룹니다. 그 외에는 인천 송도 소재 대형 쇼핑몰 ‘스퀘어원’, 서부트럭터미널 등 서울 내 대규모 부동산을 보유 및 개발하고 있습니다. 호텔 사업은 외국인 관광객을 주요 타깃으로 하며, 쇼핑몰은 지역 소비시장과 오프라인 유통 중심으로 안정적인 임대수익을 창출합니다[1][2].
 (2) [최근 분기 실적 호조의 원인]
-최근 서부T&amp;D는 실적이 크게 개선되었습니다. 2024년 1분기 연결 기준 매출은 전년 동기 대비 16.3% 증가한 414억 원, 영업이익은 47.9% 늘어난 108억 원을 기록했습니다[2]. 실적 개선의 주된 요인은 다음과 같습니다.
-- [외국인 관광객(인바운드) 급증:] 한류, 국제적 이벤트 등으로 외국인 관광객 유입이 크게 늘면서 서울 드래곤시티 호텔의 평균 객실 단가(ADR) 및 객실 점유율(OCC)이 동반 상승했습니다. 이로 인해 호텔업 매출 및 수익성이 크게 증가했습니다[1].
-- [쇼핑몰 점진적 성장:] 인천 송도 스퀘어원을 중심으로 쇼핑몰 부문이 견조한 성장세를 기록하고 있으며, 경기 회복과 소비 심리 개선이 긍정적으로 작용했습니다[1].
-- [부동산 자산 가치 제고:] 자회사를 통한 부동산 개발(예: 서부트럭터미널 도시첨단물류단지 개발사업)이 구체화되며 자산가치 재평가(리레이팅) 기대감이 실적 및 기업가치에 긍정적 영향을 주고 있습니다[5].
-(3) [현재 서부T&amp;D가 직면한 주요 이슈 TOP 3]
-1. [서울 드래곤시티 호텔의 성과 지속 가능성]
-   호텔부문이 실적에 가장 큰 영향을 주는 만큼, 인바운드 관광객 증가 추세가 둔화될 경우 ADR·OCC 하락에 따라 실적 변동성이 커질 수 있습니다. 관광 정책, 환율, 국제정세 등 외부 요인에 대한 의존도가 높아 중장기 리스크로 지적됩니다[1].
-2. [도시첨단물류단지 등 개발사업의 리스크와 기회]
-   서부트럭터미널 부지 등 보유 자산의 개발사업이 본격화되고 있습니다. 개발 수익 및 자산가치 상승에 대한 기대가 크지만, 인허가, 자금 조달, 공급 증가에 따른 시장 경쟁 가열 등 다양한 실질적 위험이 상존합니다. 또한 사업 지연시 기대가치가 하락할 수 있다는 점도 주요 리스크입니다[5].
-3. [쇼핑몰 운영 환경의 변화]
-   인천 스퀘어원 등 쇼핑몰 부문이 꾸준히 성장하고 있으나, 오프라인 유통환경 악화, 온라인 소비 확산 등 구조적 변화에 직면해 있습니다. 이에 따른 임대료 수익성 하락, 공실 위험 등이 동반될 수 있어 쇼핑몰 자산의 효율적 운영과 차별화 전략이 중요해지고 있습니다[1].
-[정리:] 서부T&amp;D는 호텔·쇼핑몰 중심의 부동산 자산 운영 회사로, 최근 호텔업 호조와 인바운드 수혜로 실적이 대폭 개선되고 있습니다. 그러나 외국인 관광 수요와 개발사업의 불확실성, 그리고 오프라인 리테일 환경 변화에 유의해야 합니다.
-http://www.leading.co.kr/board/EquityResearch/detail/3101;jsessionid=A5A40F23E41E3B4E1CA0DBDDE720AC95?siteCd=&amp;pageIndex=17&amp;pageSize=10&amp;pageUnit=10&amp;sortColumnName=&amp;sortDirection=&amp;searchColumnName=SUBJECT&amp;searchValue=&amp;boardNo=58
-https://www.ibks.com/company/common/download.jsp?filepath=%2Ffiles%2Ftradeinfo%2Fbusreport&amp;filename=20240626164849330_ko.pdf
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=006730&amp;cn=
-https://stock.pstatic.net/stock-research/company/31/20250616_company_229664000.pdf
-https://www.imfnsec.com/upload/R_E08/2025/05/%5B28072057%5D_006730.pdf</t>
+2025년 1분기, 서부T&amp;D의 매출액은 작년 동기 대비 11.5% 증가, 영업이익은 20% 증가하며 역대 최고 실적을 경신했습니다[1][2].
+- [관광객 급증:] 2025년 들어 코로나19 회복 이후 방한 외국인이 중국, 일본뿐 아니라 미주·유럽까지 급격히 늘면서 호텔 객실 점유율(OCC)과 평균 단가(ADR)가 동시에 크게 상승했습니다. 드래곤시티의 대형 물량과 입지가 타 경쟁사 대비 확실한 수혜 포인트로 작용했습니다[2].
+- [서울 내 호텔 공급 제한:] 수도권 신규 호텔 개발이 제한된 상황에서 서울드래곤시티의 대규모 숙박시설이 외국인 유치에 독보적인 경쟁력을 보였습니다.
+- [대형 개발사업 기대감:] 트럭터미널, 신정동 부지 등 복합개발 이슈가 꾸준히 부각되면서 자산가치 상승에 대한 시장 기대가 실적 및 주가에 긍정적으로 작용했습니다[2].
+(3) [서부T&amp;D가 직면한 주요 이슈 TOP 3]
+1. [외국인 관광객 수요의 지속성]
+   - 실적 대부분이 ‘서울드래곤시티’ 호텔에서 발생합니다. 방한 외국인 수요가 환율, 국제정세, 비자정책 등 요인으로 변동 시 매출·수익성에 즉각적인 영향을 미칩니다. 특히 중국·일본 관광객의 수요변동 관련 리스크가 커지고 있어, 안정적 수요 기반 확보가 최대 과제입니다[1][2].
+2. [대형 개발사업의 실행력]
+   - 신정동부지, 서부트럭터미널 등 대규모 도시개발 프로젝트가 중장기 성장동력으로 주목받고 있습니다. 다만, 인허가·자금조달·경쟁심화·공급과잉 가능성 등 복합적 리스크가 상존하며, 사업 지연 시 자산가치 재평가 압력이 커질 수 있습니다. 실제 2025년 들어 관련 개발 이슈는 시장 관심은 높지만, 인허가 절차 등에서 일부 지연 신호가 나타나고 있습니다[2].
+3. [오프라인 쇼핑몰사업 구조 변화]
+   - 인천 ‘스퀘어원’ 등 쇼핑몰 사업은 견조하나, 온라인 유통 확산과 오프라인 상업환경 변화로 임대료 압박, 공실 증가 등 구조적 리스크가 단계적으로 현실화되고 있습니다. 특히 2025년 상반기 일부 점포의 공실률이 소폭 증가, 임대료 인하 압력이 커졌다는 보고가 있습니다. 차별화된 테넌트 전략과 리뉴얼 필요성이 높아졌습니다[1].
+[요약:] 서부T&amp;D는 드래곤시티 호텔의 외국인 인바운드 수혜와 보유 부동산 개발 기대감에 힘입어 실적이 급증하였으나, 관광수요 변동성, 대규모 개발사업의 불확실성, 오프라인 리테일 환경 변화라는 구조적 과제에 직면해 있습니다. 앞으로는 호텔 경쟁력 유지와 개발사업의 실행력, 유통부문 혁신이 실적과 밸류에이션에 핵심 변수로 작용할 전망입니다[2][5].
+https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=006730
+https://www.butler.works/ko/companies/00130383
+https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=006730&amp;cn=
+https://alphasquare.co.kr/home/stock-summary?code=006730
+https://comp.fnguide.com/SVO2/asp/SVD_Consensus.asp?pGB=1&amp;gicode=A006730&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=108&amp;stkGb=701</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1824,7 +1851,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1841,29 +1868,33 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>오리온(271560)은 [비스킷, 파이, 껌, 초콜릿, 스낵 등 다양한 과자류를 국내외에서 제조 및 판매하는 종합 식품회사]입니다. 익산, 청주 등 국내 주요 생산기지 외에도 [중국, 베트남, 러시아, 인도] 등 해외 현지 법인을 보유하여 글로벌 시장에서 활발하게 사업을 전개하고 있습니다[5].
-1. 오리온의 주요 사업
-- [주요 품목]: 초코파이, 오감자, 꼬북칩, 마이구미, 참붕어빵 등 대표적인 과자 브랜드 생산 및 유통
-- [생산 및 공급망]: 국내(익산·청주)와 해외(중국, 베트남, 러시아, 인도 등)에 생산공장 및 현지 유통망 구축
-- [수출 확대]: 미국 등지로 수출 채널을 강화하고 가성비 제품 및 현지 맞춤 제품 출시로 글로벌 점유율 확대 중[1][5].
-2. 최근 분기 호실적의 구체적 요인
-오리온은 [국내와 러시아 중심으로 실적이 크게 개선]되었습니다. 2025년 5월 기준, 주요 4개 법인 합산 매출액은 2,699억 원으로 전년 동기대비 8.7~9% 성장했으며, 영업이익은 455억 원 수준을 기록했습니다[3][4].
-구체적으로는,
-- [내수 시장 둔화 대응]: 가성비 높은 스낵 신제품 출시 및 인기제품(꼬북칩, 마이구미, 참붕어빵 등) 집중 육성으로 소비 트렌드에 신속히 대응[1].
-- [해외 시장 성장]: 특히 러시아와 중국에서 브랜드 파워 확대로 수익성이 높아졌으며, [미국 수출을 올해 400억 원 규모까지 확대]하는 등 해외 매출 비중이 점차 커지고 있습니다[1].
-- [유연한 유통전략]: 유통 채널의 정상화 및 구조 효율화로 원가 부담을 낮추고, 수익성을 높인 것도 실적에 기여한 요인입니다[1].
-- [환율 효과]: 원화 약세에 따른 해외 매출 환산 증가 효과도 일부 반영되었습니다[1].
-3. 현재 오리온이 직면한 주요 이슈 3가지
-- [1) 내수 소비경기 둔화]: 전반적인 국내 식품 소비 시장 침체로 인해 내수 성장 여력이 제한적임. 이에 대응해 오리온은 가성비 제품, 신제품 출시에 집중하고 있지만, 지속적인 내수 방어가 중요한 과제로 남아 있습니다[1].
-- [2) 해외시장 경쟁 심화]: 중국·러시아 등 해외 시장에서도 글로벌 경쟁사가 공격적으로 시장 점유율을 확대하고 있습니다. 오리온은 현지 맞춤 제품과 브랜드 경쟁력으로 대응 중이나, 시장 환경 변화에 대한 신속한 대응이 필수적입니다[1][3].
-- [3) 환율 및 원가 변동성]: 원재료 가격, 물류비 등에서 비용 상승 압력과 환율 변동성이 지속되어 수익성 관리에 부담이 되고 있습니다. 실제로 각국 통화 변동에 따른 실적 리스크가 상존하고 있어 사업 포트폴리오 다각화, 비용 효율화가 요구됩니다[1][4].
-구체적인 현안 외에도, 장기적으로는 미국 등 신규 진출 시장에서의 현지화 전략, ESG경영 강화와 같은 신경영 이슈도 부상 중입니다.
-※ 참고: 오리온은 2025년 7월 기준 시가총액 3조 6,531억원, PER 8~9배 수준, ROE 13%대 등으로 코스피 내에서도 밸류에이션 매력이 높다는 평가를 받고 있습니다[2][5].
-https://bbn.kiwoom.com/rfCR10939
-https://securities.miraeasset.com/bbs/download/2125955.pdf?attachmentId=2125955
-https://m.imfnsec.com:442/upload/R_E08/2025/06/%5B17175243%5D_271560.pdf
-https://stock.pstatic.net/stock-research/company/66/20250618_company_315370000.pdf
-https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=271560</t>
+          <t>오리온(271560)은 [국내외에서 다양한 과자류(비스킷, 파이, 스낵, 껌 등)를 생산·판매]하는 대표적인 종합 식품회사입니다. 중국·베트남·러시아 등 해외 현지에도 생산기지와 법인을 보유하며, [한국뿐 아니라 글로벌 시장을 타깃으로 사업을 전개]하고 있습니다.
+1. [오리온의 핵심 사업]
+- [대표 브랜드]: 초코파이, 오감자, 꼬북칩, 마이구미, 참붕어빵 등 인기 제품군을 중심으로 신제품도 꾸준히 출시합니다[1][2][4].
+- [생산·유통 구조]: 국내(익산·청주)와 중국, 베트남, 러시아 등에 현지 공장 및 유통망을 갖췄으며, 특히 [중국은 단일 해외 시장 기준 최대 매출]을 기록 중입니다[1][4].
+- [수출 및 해외 사업]: 최근에는 미국 등 선진 시장 수출도 확대되고 있습니다. 2025년에는 러시아, 한국 법인의 수출 매출 비중이 각각 15.6%, 8.0%까지 높아질 전망입니다[3].
+2. [최근 분기 강한 실적의 구체적 배경]
+- [해외 성장 동력]: 2025년 상반기 기준, 러시아와 베트남·중국 등 해외 법인의 [매출 성장과 고수익성 유지]가 뚜렷합니다. 러시아는 현지 파이 제품 공급 부족과 고환율 영향으로 수익성 확대, 중국은 신소비 채널 중심 매출 신장 및 기저효과가 실적을 견인하고 있습니다[1][2][3][4].
+- [국내 시장 전략]: [내수 시장 정체]에도 불구, 인기 과자 신제품 집중 육성 및 가성비 제품 확대로 점유율 방어에 성공했습니다[2].
+- [수출 및 환율 효과]: [수출 고성장]과 원화 약세에 따라 단위 환산 매출이 늘고, 러시아 루블화의 강세가 실적 상승에 영향을 주었습니다[2][3].
+- [엄격한 비용 통제]: 판촉비와 유통마진 등 비용 관리 역량이 높아, [영업이익률 16% 내외의 높은 수익성]을 달성하고 있습니다[1][2].
+3. [최근 오리온이 직면한 핵심 이슈 3가지]
+- [내수 경기 둔화 및 성장 한계]
+    - 국내 식품 시장 전반의 소비 침체로 [내수 성장 모멘텀이 제한적]입니다.
+    - 오리온은 신제품·가성비 제품 및 편의점·온라인 채널 강화로 대응하나, [내수 매출이 전사 성장에 미치는 영향이 축소]되고 있습니다[2][4].
+- [해외시장 내 경쟁 심화와 불확실성]
+    - [중국·러시아 등 주요 시장에서 현지·글로벌 경쟁사와의 점유율 다툼]이 심화되고 있습니다.
+    - 러시아는 신규 설비 증설 등으로 공급량 증가가 기대되지만, [고환율·정책 리스크 및 시장경쟁강화]에 민감합니다[2][3].
+    - 중국은 경기 변동, 유통 트렌드 변화에 신속한 제품 및 마케팅 대응이 필수적이고, 현지 파트너와의 협력 및 채널 경쟁력 강화가 관건입니다[1][3].
+- [원재료, 물류비, 환율 등 비용 및 수익성 변동성]
+    - 설탕, 팜유 등 글로벌 원자재 가격, 물류비, 인건비 등이 여전히 높고, [각국 통화 변동성이 실적에 단기적 영향을 주고 있습니다][1][2].
+    - 2025년 상반기 루블화, 위안화 등의 급등락으로 조달비용·마진율이 변동했고, 중장기적으로 포트폴리오 다각화와 비용 효율성 제고가 요구되고 있습니다[2][3][4].
+추가적으로, 미국 등 신시장 현지화 전략, ESG 경영 강화, 프리미엄 제품 개발 등도 오리온의 미래 경쟁력과 직결된 주요 의제입니다.
+https://file.myasset.com/sitemanager/upload/2025/0413/212007/20250413212007253_4_ko.pdf
+https://file.alphasquare.co.kr/media/pdfs/company-report/_250521_%EC%98%A4%EB%A6%AC%EC%98%A8%204%EC%9B%94%20Re_%EC%9D%B4%EB%8B%9B_%EB%B0%95%EC%84%B1%ED%98%B8_17_Online%20report%20_%206_10p_%EC%98%A4%EB%A6%AC%EC%98%A8.pdf
+https://www.hanwhawm.com/main/common/common_file/fileView.cmd?category=2&amp;depth3_id=anls1&amp;key1=63712&amp;key2=1&amp;bldid=bbs10031
+https://m.ibks.com/iko/IKO01/download.do?seq=11723&amp;menuCode=IKO010201&amp;attatchCd=ATTATCH1
+https://bbn.kiwoom.com/rfCR11272</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -1878,7 +1909,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1895,21 +1926,27 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GST(083450)는 [반도체 및 디스플레이 제조공정에 사용되는 유해가스 정화장치(Scrubber)와 온도조절장치(Chiller)]를 주력으로 생산·공급하는 전문기업입니다[1][3][4]. 특히, 반도체 공정 중 발생하는 유해가스를 정화하는 스크러버와, 공정 장비의 온도를 정밀하게 제어하는 칠러 부문에서 국산화된 원천기술을 보유하고 있어, 국내외 주요 반도체 및 디스플레이 제조사에 장비를 납품하고 있습니다[1][4].
-최근 GST가 강한 실적 개선을 보인 주된 요인은 다음과 같습니다.
-- [글로벌 반도체 시장 투자 확대:] 2023년 하반기부터 삼성전자, SK하이닉스 등 대형 메모리 업체들이 고대역폭메모리(HBM) 등 고부가 제품 확대 및 AI 서버 수요 증가에 대응하기 위해 공정 설비 투자에 적극 나서면서, 이에 필수적인 환경·온도 관리 장비 수요가 꾸준히 증가했습니다[3].
-- [국산화 및 경쟁력 확보:] 해외 의존도가 높던 스크러버와 칠러 시장에서 국산화 원천기술을 바탕으로 기술력과 가격경쟁력을 동시에 확보해 적극적인 시장점유율 확대와 신규 고객사 확보에 성공한 점도 강한 실적 개선의 배경입니다[1].
-- [액체 냉각 등 신기술 분야 진출:] 기존 공기냉각 방식 대비 효율성이 높고 에너지 절감 효과가 뛰어난 액체 냉각 시스템(Liquid Cooling)의 도입이 데이터센터 등으로 확대되고 있습니다. GST는 액체 냉각 시스템 국산화 동향을 바탕으로 신사업 매출 증대 기대감이 반영되고 있습니다[1].
-GST가 현재 직면한 핵심 이슈는 다음 세 가지입니다.
-1. [메모리 투자 사이클 변동성:] 반도체 업황과 설비투자(Capex) 변동은 GST 주력 시장에 즉각적인 영향을 미칩니다. 글로벌 메모리 가격과 설비투자 결정이 지연될 경우 매출 성장세가 둔화될 수 있습니다.
-2. [신규 냉각기술 경쟁 심화:] 액체 냉각과 관련해 글로벌 기업 및 대형 장비사들과의 기술 경쟁이 본격화되고 있습니다. 혁신 속도와 원가경쟁력 유지가 중요해졌으며, 원천특허 등 기술적 진입장벽 확보가 기업 경영의 관건입니다[1].
-3. [글로벌 공급망 안정성:] 반도체 부품 및 소재, 핵심 원자재의 글로벌 공급망 불안정 리스크 역시 주요 이슈입니다. 중국, 미국 등 해외 주요 시장에서의 대외 변수(수출 규제, 해외 경쟁사 진입 등)가 사업 수주와 안정적 생산체계에 영향을 줄 수 있습니다[3].
-이밖에도 ESG 강화, 핵심 인력 확보, 고객사 다변화 등도 중장기 과제로 부각되고 있습니다. GST는 반도체 장비 국산화와 신기술 선점을 바탕으로 향후 성장 동력 확보를 위해 지속적으로 대응 중입니다[1][4].
-https://m.finance.daum.net/quotes/A083450/news/stock/20241222171303586
-https://m.thinkpool.com/item/083450
-https://alphasquare.co.kr/home/stock-summary?code=083450
-https://tossinvest.com/stocks/A083450/order
-https://comp.fnguide.com/SVO2/asp/SVD_Dart.asp?pGB=1&amp;gicode=A083450&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=111&amp;stkGb=701</t>
+          <t>GST(083450)는 [반도체 및 디스플레이 제조 공정에 필수적인 유해가스 정화장치(스크러버)와 온도조절장치(칠러)]를 연구·생산하는 전문기업입니다. 이 장비는 삼성전자, SK하이닉스 등 국내외 주요 반도체·디스플레이 제조사의 첨단 생산라인에 납품되며, 원천기술 기반의 국산화 경쟁력을 바탕으로 해당 시장에서 높은 신뢰와 점유율을 확보하고 있습니다[1][2][3].
+최근 GST가 눈에 띄는 실적을 내고 있는 주요 배경은 다음과 같습니다.
+- [주요 고객사 투자 확대 및 지역별 매출 성장]  
+  2024년 하반기부터 국내 메모리 반도체 업체(Samsung, SK하이닉스)의 고부가·AI 서버 수요 대응 설비투자 확대, 북미 및 중국 등 글로벌 공정설비 교체 수요 회복이 이어졌습니다. 특히 중국 대형 고객사 투자가 2024년에 재점화되어, 2024년 중국 매출은 1,212억 원(YoY +40%)으로 사상 최대를 기록했고, 전체 매출 3,462억 원, 영업이익 591억 원으로 대폭 성장하였습니다[2]. 2025년 상반기에도 실적경로는 유지되어 2분기 매출 994억 원, 영업이익 173억 원을 기록했습니다(QoQ 각각 +33%, +81%)[1].  
+- [제품 라인업 다각화 및 신사업 진출]  
+  기존 반도체 장비(스크러버·칠러) 외에도, 데이터센터·서버 시장 향의 고효율 액체 냉각 시스템 등 차세대 냉각솔루션을 강화, 신규 매출원이 확대되는 효과가 반영되고 있습니다[2].
+- [기술 경쟁력과 국산화율 상승]  
+  해외 의존도가 높던 장비 분야에서 원가경쟁력, 안정적 공급력, 기술자립도를 인정받아 신규 고객사와 프로젝트 확보, 수익성에 긍정적으로 작용하고 있습니다.
+GST가 2025년 현재 당면한 Top 3 핵심 이슈는 다음과 같습니다.
+1. [주요 시장의 투자 변동성과 매크로 불확실성]  
+   회사 매출의 약 60% 이상이 중국·국내 주요 고객사에 집중되어 있어, 글로벌 반도체 업황과 설비투자(특히 중국 시장) 변동성이 매우 크며, 2025년 상반기 중국 투자규모 축소와 국내 대형고객사의 투자 결정 지연이 성장 가시성에 부담 요인으로 꼽히고 있습니다[2]. 실제로 2025년 2분기 영업이익과 순이익이 전년동기 대비 각각 -12%, -16% 역성장을 보였습니다[1].
+2. [고부가 신냉각기술 내 글로벌 경쟁 심화]  
+   액체 냉각 등 고부가 신시장 진입에도 글로벌 대기업들과의 기술 경쟁이 격화되고 있습니다. 미국, 일본, 대만 등 선진 장비업체와의 특허, 원가경쟁력, 신소재 기술력 확보 경쟁이 강해지고 있어, 미래 성장과 수익성을 좌우하는 핵심 리스크로 부각되고 있습니다[2].
+3. [글로벌 공급망·지정학 리스크]  
+   반도체 핵심 부품, 원·부자재 수급의 공급망 및 미중 분쟁, 수출규제, 타국 경쟁사 진입 등 지정학적 변수들이 생산안정성 및 사업수주 기회에 부정적 영향을 미치고 있습니다. 특히 미중 경쟁구도 심화로 인해 중국향 매출과 현지사업 확대에 불확실성이 존재합니다[2][1].
+이와 함께, ESG 대응 강화 및 인력 확보, 대형 고객사 외 신규 고객사 다변화 등도 GST의 중장기 구조적 과제로 재부상하고 있습니다. GST는 시장점유율 확대와 신규 사업 선점을 위해, 기술개발 및 고객 포트폴리오 다각화, 리스크 헤지를 동시에 추진 중입니다[1][2].
+https://www.butler.works/ko/companies/00540863
+https://www.myasset.com/sitemanager/upload/2025/0416/070008/20250416070008243_0_ko.pdf
+https://comp.wisereport.co.kr/company/c1050001.aspx?cn=&amp;cmp_cd=083450
+https://comp.fnguide.com/SVO2/asp/SVD_Consensus.asp?pGB=1&amp;gicode=A083450&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=108&amp;stkGb=701
+https://tossinvest.com/stocks/A083450/order</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1924,7 +1961,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1941,27 +1978,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>원바이오젠(307280)은 [창상피복재(상처 보호 및 치료용 의료용 소재) 제조 및 판매]를 주력 사업으로 하는 코스닥 상장 기업입니다. 회사는 2006년 설립 이후 창상피복재 시장에서 독자적 기술력을 바탕으로 폴리우레탄 폼, 하이드로콜로이드, 하이드로겔, 필름 등 다양한 제품군을 개발 및 생산하며, 수술 부위, 화상, 만성 상처 등 다양한 목적에 맞는 솔루션을 제공합니다[1][2][4].
+          <t>원바이오젠(307280)은 [창상피복재(상처 보호 및 치료용 의료용 소재) 제조와 판매]를 핵심 사업으로 하는 코스닥 상장 기업입니다. 최근 분기 실적이 강하게 개선된 배경과 최근 이슈도 구체적으로 변화가 있습니다.
 1. [핵심 사업]
-   - [창상피복재]: 삼출액 흡수, 오염/감염방지, 출혈·체액 손실 방지 등 상처의 보호와 치료를 돕는 의료용 소재를 생산합니다.
-   - [주요 제품군]: 폴리우레탄 폼(2022년 기준 매출 비중 38%), 하이드로콜로이드, 하이드로겔, 필름류 드레싱 등.
-   - [기술적 차별성]: 회사는 특히 국내 최초의 보더 생산 설비와 핵심 소재 국산화로 원가와 품질 경쟁력을 높이며, 폴리우레탄 폼 흡수체 및 점착 시트 일체형 제품 개발 등에서 차별화된 기술을 보유하고 있습니다[1].
-   - [신사업(더마코스메틱)]: 임상 기능성을 결합한 의료기기 화장품(더마코스메틱) 분야에도 신규 진출해 피부 재생, 미백, 여드름, 안티에이징 등 고기능성 제품 개발 및 상용화를 추진하고 있습니다[3].
+- [주력 제품:] 폴리우레탄 폼, 하이드로콜로이드, 하이드로겔, 필름류 등 다양한 창상피복재를 생산하며, 주로 수술 부위, 화상, 만성 상처 등 의약·병원용에 납품합니다. 2025년 현재도 폴리우레탄 폼 드레싱류의 매출 비중이 가장 높습니다[3].
+- [생산 및 기술:] 자체 개발한 첨단 설비(특히 보더 제품 생산 라인)와 핵심원료 국산화로 품질과 가격경쟁력을 높이고 있습니다. 신제품 라인업으로는 바이오필름 억제 기능을 가진 고부가 가치 제품도 개발·상용화 중입니다.
+- [신사업 진출:] 더마코스메틱(피부 기능성 화장품) 분야로의 다각화가 적극 추진되고 있으며, 피부재생·미백 등 기능성 제품이 B2C로 공급되고 있습니다.
 2. [최근 분기 강한 실적의 배경]
-   - [제품군 다각화와 핵심제품 성장]: 폴리우레탄 폼을 중심으로 한 주요 창상피복재 사업이 성장세를 주도했으며, 2020년 71억 원 → 2021년 74억 원 → 2022년 102억 원으로 매출이 빠르게 증가했습니다[1].
-   - [국내외 신규 파트너 확대]: 신규 유통채널 및 협력사 확보를 통해 매출처가 확대되고 있습니다. 수입에 의존하던 핵심 소재 국산화로 수익성도 대폭 향상되었습니다[1].
-   - [기술력 기반 고부가가치 제품 확대]: 국내 최초 보더 제품 상업화, 하이드로콜로이드, 하이드로겔 등 첨단 소재 제품이 시장 반응을 얻으며 전사 매출이 견조하게 성장하고 있습니다[1].
-   - [차세대 제품 개발]: 바이오필름 형성을 억제하는 신제품 ‘텍솝하이드로힐넷’ 등 임상 필요성 높은 신제품이 허가·상용화 단계에 진입해 성장 동력으로 기대받고 있습니다[2].
-3. [주요 이슈 TOP 3]
-   - [신사업 확장에 따른 리스크와 기회]: 더마코스메틱 등 B2C 분야 진출은 기존 창상피복재에 비해 마케팅·유통 경쟁이 치열하고 규제 환경이 복잡해 리스크가 존재하지만, 회사의 기술력이 잘 적용될 경우 신규 성장동력 확보가 가능합니다[3].
-   - [핵심 제품군의 시장 경쟁 심화]: 국내외 경쟁사들이 유사한 상처관리 제품을 출시하며 기술력·가격경쟁이 격화되고 있습니다. 원천기술 방어와 신규 고객사 확보가 중장기적 과제가 되고 있습니다[1].
-   - [신규 제품(텍솝하이드로힐넷 등)의 상용화와 실적 기여 시점]: 차세대 제품이 임상·허가를 마치고 본격적으로 시장에 진입하여 실적에 긍정적 효과를 내기까지 시간이 소요될 수 있으며, 일정 및 시장 반응이 주요 변수로 작용할 전망입니다[2].
-이처럼 원바이오젠은 [기존 창상피복재 시장에서의 기술 및 생산력]을 바탕으로 최근 강한 실적을 내고 있으며, 사업 다각화와 고기능성 신제품 출시를 통해 성장세를 이어가는 한편, 신사업 리스크 관리·경쟁 심화·차세대 제품의 조기 상업화가 주요 과제로 부각되고 있습니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1682382463802.pdf
-https://www.k5.co.kr/stock/307280
-http://www.wonbiogen.co.kr/kor/customer/notice_view.html?f_uid=10&amp;f_div=notice
-https://www.iprovest.com/weblogic/RSDownloadServlet?filePath=%2Fresearch%2Freport%2Fcominf%2F20220629%2F20220629_307280_20200051_5.pdf
-https://comp.wisereport.co.kr/samsung/company/c1020001.aspx?cmp_cd=307280&amp;cn=</t>
+- [매출/이익 성장:] 2025년 1분기 연결기준 매출 16.7% 증가, 영업이익 29.8% 증가, 순이익 17.4% 증가를 기록했습니다. 성장의 핵심은 폴리우레탄 폼 등 주요 창상피복재의 판매 호조와 고부가 신제품 효과, 그리고 신규 유통채널 확대에 있습니다[3].
+- [재무건전성 강화:] 2024년 4분기부터 운전자금 효율화로 단기금융자산이 80% 이상 늘어나며, 순현금 포지션도 개선되어 금융 안정성이 높아졌습니다[2]. 2025년 1분기말 현금(단기금융자산) 144억 원, 부채비율은 27%로 지속 하락세[2].
+- [제품군 확대:] 2024~2025년 신규 더마코스메틱(B2C) 매출의 성장세와 바이오필름 억제 신제품(텍솝하이드로힐넷 등)의 허가 및 상용화가 실적 기여도를 높이고 있습니다[3][5].
+3. [2025년 기준 주요 이슈 TOP 3]
+- [1) 더마코스메틱 신사업 성과와 리스크]
+  - 최근 더마코스메틱 부문의 외형성장이 두드러지지만, 해당 시장은 브랜드/가격/유통경쟁이 심합니다. 신사업이 수익성 개선에 실질적으로 기여할 수 있을지, 제품 차별화와 고객 충성도 확보가 관건입니다[3].
+- [2) 기존 창상피복재 시장 내 경쟁 심화]
+  - 국내외 경쟁업체의 진입과 함께 유사 제품 증가로 인해, 기술적 우위와 원가 경쟁력 유지, 신규 병원·파트너 유치가 더욱 중요해졌고, 차별화된 신제품(예: 바이오필름 억제제품) 시장 진입 시기가 실적에 미치는 영향력도 커졌습니다[4].
+- [3) 신제품 상용화/임상 및 규제 변수]
+  - 신제품 텍솝하이드로힐넷 등 차세대 제품의 임상 및 식약처 허가 일정이 실제 제품 매출 본격화 시기를 결정하는 핵심 변수로 작용합니다. 글로벌(미국, 유럽 등) 시장 진입을 위해서도 추가 허가, 파트너십 확보, 품질 인증 등이 중요한 숙제로 대두되고 있습니다[5].
+[요약:]  
+원바이오젠은 창상피복재 분야에서 기술 및 양산 역량을 바탕으로 꾸준히 성장하며, 최근 더마코스메틱 등 신사업의 가시적 성과와 주력제품의 매출 확대, 재무 안정성 개선을 기반으로 실적이 큰 폭으로 개선되고 있습니다. 다만, 신사업의 지속 가능성·경쟁심화·제품 상용화 시점 및 글로벌 진출이 당면 핵심 이슈입니다[2][3][5].
+https://biz.chosun.com/stock/c-biz_bot/2025/07/18/VMUWZQNTWQKSJQIGWHYPSVQAUY/
+https://www.google.com/finance/quote/307280:KOSDAQ?hl=ko
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A307280
+https://comp.wisereport.co.kr/samsung/company/c1050001.aspx?cmp_cd=307280&amp;cn=
+https://www.deepsearch.com/analytics/company-analysis/KRX:307280/documents?c-name=%25EC%259B%2590%25EB%25B0%2594%25EC%259D%25B4%25EC%2598%25A4%25EC%25A0%25A0&amp;c-symbol=KRX%253A307280&amp;cd-cat=disclosure&amp;cd-doc-op=perform</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -1976,7 +2015,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -1993,29 +2032,30 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>피에스케이홀딩스(031980)는 [반도체 제조용 공정장비 사업을 중심으로 하는 중견 상장기업]입니다. 최근 업황 호조세에 힘입어 실적이 크게 개선되었으나, 산업 환경 변화와 내부 경쟁력 강화를 위한 과제도 부각되고 있습니다.
+          <t>피에스케이홀딩스(031980)는 반도체 특화 공정장비 제조 및 자회사 지배를 통해 고부가 반도체장비 시장에서 입지를 강화하는 중견 상장회사입니다. 최근 HBM 등 첨단 메모리 투자 확대에 힘입어 실적이 급증했으며, 경쟁강화·고객 다변화·글로벌화 등의 과제에 직면해 있습니다.
 1. [주요 사업 내용]
-- [피에스케이홀딩스의 핵심 사업은 반도체 제조용 공정장비 제조 및 판매]입니다. 주요 제품군에는 웨이퍼 표면 처리, 세정, 건조 등 전공정 장비와, 자회사 PSK를 통한 후공정 장비가 포함됩니다.  
-- 2019년 4월 반도체 후공정 장비와 전공정 장비 비즈니스를 분할해 지배구조 효율성 강화 및 사업 전문화에 나섰습니다[3][4].
-- 최근에는 반도체 패키징과 고대역폭메모리(HBM) 등 차세대 메모리 시장을 겨냥한 장비 공급이 눈에 띄게 증가하고 있습니다[1].
+- 피에스케이홀딩스의 주요 사업은 [반도체 전공정 및 후공정용 장비 제조, 판매, 그리고 계열사 경영(지주사 역할)]로 구성됩니다[3][5].
+- 전공정 분야에서는 [플라즈마 세정(Descum)·웨이퍼 건조 등 첨단 공정장비]를 주력으로 하며, 자회사 PSK를 통한 후공정(패키지 관련) 장비도 공급하고 있습니다.
+- 매출구조는 반도체 장비 매출이 대부분을 차지하며, 주고객사는 SK하이닉스 등 국내외 대형 메모리 반도체 업체입니다[1][3].
+- 최근에는 [고대역폭메모리(HBM) 생산용 장비 공급] 확대로 고성능 AI·HPC(고성능컴퓨팅) 데이터센터 시장 수요에 대응 중입니다[1][4].
 2. [최근 실적 호조 배경]
-- [2024년 3분기 매출액 512억 원, 영업이익 195억 원을 기록해 직전분기와 전년 동기 대비 각각 26%, 1,983% 증가]했습니다. 이는 반도체 업황 회복과 대규모 HBM 투자 수요에 기인합니다[2].
-- SK하이닉스 등 국내 주요 메모리 반도체 업체들이 HBM 생산능력을 공격적으로 증설하면서, 피에스케이홀딩스의 [Descum(플라즈마 세정)·Reflow(솔더 리플로우) 장비 납품이 급증]했습니다[1][2].
-- 글로벌 AI·고성능 컴퓨팅(HPC) 수요 확대에 따른 첨단 메모리 투자 열풍이 실적에 직접적으로 반영되고 있습니다[2].
-- 수익성 지표(EV/EBITDA, ROE, 영업이익률 등)도 전년 대비 큰 폭으로 개선되었습니다[1].
+- 2024년 4분기~2025년 상반기까지 [매출 및 이익이 급증]했으며, 이는 SK하이닉스 등 대형 고객사의 HBM 투자와 글로벌 AI 붐에 따른 [첨단 메모리 장비 수주량 증가]가 직접적 원인입니다[4].
+- 최근 실적을 보면 영업이익과 매출이 모두 시장전망치를 크게 상회했으며, [이익률(ROE, 영업이익률)도 업계 평균을 크게 초과]합니다[3].
+- 미국 마이크론, 삼성전자 등 글로벌 메모리 공룡들의 HBM 투자 확대가 한국 반도체 밸류체인의 전반적 수요를 자극했고, 이에 따라 관련 장비(Descum, Reflow 등)의 [납품 물량 및 단가가 상승]한 것으로 분석됩니다[4].
+- 회사 자체적으로도 [설비증설, 해외 고객사 확보, 기술고도화] 등 공격적 성장 전략을 실행 중입니다[1][4].
 3. [현재 주요 이슈 3가지]
-- [HBM 등 첨단 반도체 장비 시장 경쟁 격화]
-  반도체 장비 시장 내 경쟁 기업(국내외 대형사 및 신생 장비사)과의 기술경쟁, 가격경쟁 심화로 인한 수주 경쟁이 치열해지고 있습니다. 지속적인 기술 개발 및 제품 차별화가 필요한 상황입니다[1][2].
-- [고객사 투자 사이클 변동성]
-  주요 매출처인 메모리 반도체 업체들의 투자 타이밍 및 규모 변동성이 크기 때문에, 특정 수요처에 대한 의존도가 높아질 경우 실적 변동성이 확대될 수 있습니다[1][2].
-- [사업 포트폴리오 다변화와 글로벌화 압력]
-  후공정과 전공정 장비의 균형적 성장, 신규 글로벌 고객사 확보, 산업 트렌드 변화(차세대 반도체 공정, 미래 메모리 소재)에 대한 선제 대응 등 사업구조 다변화와 해외 매출 확대가 당면 과제로 부각되고 있습니다[1][3].
-이상과 같이, 피에스케이홀딩스는 [반도체 장비 시장의 기술 혁신과 수요 확대에 적극적으로 대응하며 실적 성장을 실현하고 있지만], 산업 내 경쟁 심화와 매출처 집중에 따른 리스크, 그리고 글로벌 시장 진출 확대라는 도전 과제에도 직면해 있습니다.
-https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024081607121385K_02_03.pdf
-https://static.roa.ai/research/company/20241024_company_924338000.pdf
-https://www.deepsearch.com/analytics/company-analysis/KRX:031980?c-name=%25ED%2594%25BC%25EC%2597%2590%25EC%258A%25A4%25EC%25BC%2580%25EC%259D%25B4%25ED%2599%2580%25EB%2594%25A9%25EC%258A%25A4&amp;c-symbol=KRX%253A031980&amp;psc-list=NICE%253AIR7354%253BNICE%253A171609%253BNICE%253AIR7391%253BKRX%253A319660%253BKRX%253A031980&amp;psr-list=KRX%253A265520%253BKRX%253A222080%253BKRX%253A183300%253BKRX%253A079370%253BKRX%253A108230%253BNICE%253A009612%253BNICE%253A066072%253BNICE%253A388491%253BKRX%253A161580%253BKRX%253A036930%253BKRX%253A083650%253BNICE%253AIR7354%253BNICE%253A171609%253BNICE%253AIR7391%253BKRX%253A319660%253BKRX%253A031980
-https://invest.deepsearch.com/stock/031980/
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240321002420&amp;docno=&amp;viewerhost=</t>
+- [첨단 반도체 패키징 장비 시장의 경쟁 심화]  
+  글로벌 소부장(소재·부품·장비) 강자와 신생 업체들이 HBM, 첨단 패키징 장비 시장에 진출하고 있어 단가 경쟁, 기술격차 유지, 고객선점이 최대 관건입니다. 특히 미국, 대만, 일본 기반 경쟁사의 기술 추격이 거셉니다[4][5].
+- [주요 매출처(대형 메모리사) 의존도]  
+  SK하이닉스, 삼성전자 등 소수 대형사의 투자 사이클 및 공급망 정책 변화에 따라 실적 변동성이 커질 수 있습니다. 실질적으로 매출의 70% 이상이 국내 빅2에 집중되는 구조는 리스크입니다[3][5].
+- [글로벌 수출 확대·신시장 개척 압박]  
+  국내 메모리 투자 집중 국면이 정점을 지나면, 중국·미국 등 해외 대형 반도체사의 신규 공급망 진입이 필수적입니다. 현지 인증, 현지화 기술개발, 서비스체계 강화 등 [글로벌화 역량 제고]가 지배구조 효율화와 함께 필요합니다[1][3][5].
+이상의 구조와 이슈를 고려할 때, 피에스케이홀딩스는 첨단 반도체 패키징 장비 및 HBM 공정장비 분야의 기술·공급 경쟁력을 유지하는 한편, 매출처와 지역 다변화 전략 실행이 단기·중기 실적과 주가의 핵심 관전포인트로 평가받고 있습니다.
+https://m.finance.daum.net/quotes/A031980/news/disclosure/20250430043209
+https://dart.fss.or.kr/navi/searchNavi.do?naviCrpCik=00208444&amp;naviCrpNm=%ED%94%BC%EC%97%90%EC%8A%A4%EC%BC%80%EC%9D%B4%ED%99%80%EB%94%A9%EC%8A%A4&amp;naviCode=A002
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=031980&amp;cn=
+https://alphasquare.co.kr/home/stock-summary?code=031980
+https://m.irgo.co.kr/IR-ROOM/031980/%ED%94%BC%EC%97%90%EC%8A%A4%EC%BC%80%EC%9D%B4-IR-ROOM</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2030,7 +2070,7 @@
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2047,30 +2087,31 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>오리온홀딩스(001800)는 식품, 바이오, 투자 등 다양한 사업영역을 가진 [지주회사]로, 오리온그룹의 핵심 지주 역할과 신사업 진출을 병행하고 있습니다.
-1. [주요 사업 내용]
-- [지주회사 역할]: 본사(지주사)는 오리온, 오리온바이오로직스 등 여러 자회사의 지분을 관리하고, 이들 회사의 투자·사업 방향을 결정합니다[3].
-- [식품사업]: 자회사 오리온을 통해 과자, 음료, 간편대용식 등 식품 제조와 판매를 영위합니다. 대표 브랜드로는 초코파이, 닥터유(영양바), 마켓오(간편식) 등이 있습니다[2].
-- [바이오사업]: 치주질환 치료제(오리온바이오로직스), 진단키트, 신약 개발 등 제약·바이오 분야로 사업영역을 확장하고 있습니다[1][2][5].
-- [기타사업]: 영상 콘텐츠, 기타 투자 등 다양한 사업을 전개 중입니다[3].
-2. [최근 실적 호조의 주요 배경]
-- [지주회사 수익 안정성]: 주력 자회사(특히 오리온)의 실적 호조와 배당·지분법 이익 수입 등이 전체 실적 견인을 이끌고 있습니다[3].
-- [식품사업 글로벌 성장]: 중국, 베트남 등 해외 시장에서 과자·식품류 판매가 호조를 기록하며 매출 증가를 견인했습니다[2].
-- [사업 다각화 효과]: 바이오사업 신규 진출 및 기존 브랜드의 프리미엄 제품 라인업 확대가 전반적인 성장에 기여했습니다[1].
-- [기관 투자 유입]: 최근 기관 대량 매수, 52주 신고가 경신 등 투자심리 개선도 주가 및 기업가치에 긍정적으로 작용하고 있습니다[4].
-3. [현재 당면 주요 이슈 세 가지]
-- [바이오 부문 성장 및 리스크]  
-  오리온바이오로직스(치주질환 치료제 등)에서 신약 연구 및 생산을 시작했으나, 해당 시장의 성장 가능성, 인허가 및 기술 상업화의 난이도, 투자 자금 부담 등 신성장 동력의 안착 여부가 중대 이슈입니다[1][5].
-- [지주회사 할인(컨글로머릿 디스카운트) 문제]  
-  지주사라는 구조적 특성상, 순자산가치(NAV) 대비 주가가 저평가되는(할인 거래되는) 경향이 있습니다. 기업 인수합병, 계열사 가치 증대 등으로 시장 평가 개선이 요구되고 있습니다[3].
-- [해외사업 변동성과 환율 위험]  
-  중국·베트남 등 신흥국 수익 확대가 긍정적이지만, 현지 경기, 정책 리스크, 환율 변동 등 대외 리스크가 실적에 큰 영향을 미칠 수 있습니다[2][3].
-이처럼 오리온홀딩스는 핵심인 식품 비즈니스의 해외 확장, 바이오 신사업 진출 등으로 성장세를 보이고 있으나, 바이오사업 안정화와 지주사 구조의 할인, 해외리스크 관리 등 복합적인 과제에 직면해 있습니다.
-https://deepsearch.com/analytics/company-analysis/KRX:001800/history?c-name=%25EC%2598%25A4%25EB%25A6%25AC%25EC%2598%25A8%25ED%2599%2580%25EB%2594%25A9%25EC%258A%25A4&amp;c-symbol=KRX%253A001800
-https://www.oriongroup.co.kr
-https://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=001800&amp;cn=
-https://m.thinkpool.com/item/001800
-https://m.invest.zum.com/stock/001800/</t>
+          <t>오리온홀딩스(001800)는 오리온그룹의 [지주회사]로서, 식품·바이오·투자 등 다양한 영역에서 자회사 관리와 신사업 확장에 주력하고 있습니다.
+1. [핵심 사업 내용]
+- [지주회사 기능]: 오리온홀딩스는 오리온(식품), 오리온바이오로직스(바이오), 신규 벤처 등 주요 자회사의 주식 보유 및 경영 관리, 중장기 투자 전략 수립을 담당합니다.
+- [식품사업]: 대표 자회사 오리온은 [초코파이, 닥터유, 마켓오] 등 브랜드로 국내외에서 과자·간편식·음료를 생산·판매하며, 중국·베트남 등에서 강력한 시장 지위를 확보하고 있습니다[2][4].
+- [바이오사업]: 오리온바이오로직스를 통해 치주질환 치료제, 백신, 진단키트, 신약 연구개발 등 헬스케어 분야로 영역을 확장해 장기 신성장동력 확보를 추진하고 있습니다.
+- [기타]: 콘텐츠, 투자, 부동산 등에도 일부 진출하지만, 매출과 이익의 대부분은 식품(오리온)에서 발생합니다[3].
+2. [최근 실적 호조의 구체적 배경]
+- [2024~2025년 성장률]: 연간 기준으로 매출이 8.7%, 순이익은 43% 이상 급증했으며 주당순이익(EPS)은 최근 3년간 68% 뛰었습니다[1][4][5].  
+- [해외 식품사업의 구조적 확대]: 중국·베트남 등의 매출 지속 호조, 프리미엄 및 신제품(예: 건강스낵) 비중 확대로 시장 다변화 효과를 누렸고, 현지화 전략도 실적 견인에 기여했습니다[2][4].
+- [지주사 수입원 다각화]: 오리온 등 자회사 실적 개선으로 배당·지분법 이익이 확대되었고, 투자 배분 효율화로 자산가치 상승세를 보이고 있습니다[4].
+- [배당 및 주가 경쟁력]: 최근 PER(주가수익비율)이 업계 평균 대비 낮고, 현금배당수익률이 3%대를 유지하며 기관투자자 및 장기투자자의 유입이 늘어나고 있습니다[5].  
+- [사업 포트폴리오 다변화 효과]: 바이오 등 신사업 진출 ‘성장 스토리’가 시장에 긍정적으로 작용하고, 공격적 투자(Capex 확대)로 장기 성장 기반을 마련하고 있습니다[2][5].
+3. [현재 당면 핵심 이슈 3가지]
+- [바이오사업의 불확실성 및 리스크]  
+  ‘큐라티스’와의 결핵백신 공동개발 등 신약·백신 분야로의 진출이 본격화되는 한편, 인허가, R&amp;D 성과, 수익화까지 시간이 소요되며, 대규모 자본투입에 따른 사업화 성공 여부가 최대 불확실 요인입니다. 해당 부문의 추가 손실 가능성과 기술 외주·라이선스비 이슈도 시장의 주요 모니터링 대상입니다[2].
+- [지주회사 할인 및 자산가치 저평가]  
+  본질적인 순자산가치(NAV) 대비 주가가 40% 이상 저평가되는 구조(지주회사 할인)가 지속되며, 비효율적 자회사 구조, 상장 자회사에 대한 통제력 강화 문제 등이 해결 과제로 지적되고 있습니다[1][5]. 자회사 실적 변동성에도 큰 영향을 받는 구조가 리스크입니다.
+- [해외사업 변동성 및 환율 위험]  
+  중국·베트남 등 신흥국 식품 매출이 전체 실적을 좌우하지만, 최근 중국 경기 둔화, 현지 통화 약세, 지정학적 긴장(정책·관세 리스크) 등 대외변수로 실적이 불확실할 수밖에 없습니다. 환율 변동에 따른 차익·차손 폭이 커 자회사별 이익 기여도와 실적 변동 진폭이 확대될 수 있습니다[4][5].
+이처럼 오리온홀딩스는 해외 식품사업의 확장세와 바이오 신성장동력 확보라는 명확한 성장요인을 보유하고 있으나, 바이오사업 안정화 및 지주사 할인의 구조적 한계, 해외시장 리스크 등 복합적인 과제를 동시에 안고 있습니다.
+https://simplywall.st/ko/stocks/kr/food-beverage-tobacco/kose-a001800/orion-holdings-shares/news/e74d9b45bf3ee986
+http://www.paxnet.co.kr/tbbs/list?tbbsType=L&amp;id=001800
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?pGB=1&amp;gicode=A001800&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103
+https://simplywall.st/ko/stocks/kr/food-beverage-tobacco/kose-a001800/orion-holdings-shares/past
+https://comp.wisereport.co.kr/company/c1040001.aspx?cmp_cd=001800&amp;cn=</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
@@ -2085,7 +2126,7 @@
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2102,34 +2143,27 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>한미글로벌(053690)은 [건설 프로젝트 관리(PM, Construction Management)와 컨설팅 서비스를 중심 사업]으로 하는 국내 1위 건설사업관리(CM) 전문 기업입니다[1][2][4]. 본사는 2009년 코스피에 상장되었으며, 주력 사업은 대형 건설 프로젝트의 기획, 설계, 발주, 시공 및 준공에 이르는 전 과정에서 발주자(공공·민간)의 이익을 대리하여 관리, 감리, 기술 컨설팅 등을 제공합니다. 주요 수주 분야는 데이터센터, 반도체·2차전지 및 첨단공장, 리모델링 및 대형 인프라 개발 등입니다[1][2][3].
-### 1. 한미글로벌의 핵심 사업
-- [건설사업관리(PM/CM):] 국내외 대형 건설 프로젝트의 계획, 설계관리, 시공관리, 준공관리 전반의 프로젝트 매니지먼트 제공.
-- [하이테크 CM:] 반도체·2차전지·데이터센터 등 첨단산업 생산시설의 신·증설 관련 특화된 프로젝트 관리[2][3].
-- [글로벌 사업:] 미국, 사우디아라비아, 헝가리 등 60개국 이상에서 다양한 인프라 및 부동산 개발 프로젝트 수행[1][4].
-- [컨설팅 및 부동산개발:] 사업성 검토, 인허가, 시공사 선정, 지속가능건축 인증 등 컨설팅, 일부는 부동산개발까지 확장[4].
-2022년 기준 매출 비중은 하이테크 30%, 국내 비하이테크 30%, 글로벌 부문 40%로, 해외 및 첨단사업 매출이 매우 큰 것이 특징입니다[3].
-### 2. 최근 분기 호실적의 구체적 배경
-한미글로벌은 2023~2024년 [국내외 데이터센터 시장의 성장, 재건축 시장의 활성화, 해외 고부가가치 PM 프로젝트 수주]에 힘입어 실적이 견조했습니다.
-- [데이터센터 등 IT 인프라 특수:] 국내외 빅테크·IT 업계의 데이터센터 신·증설 수요 확대에 따른 프로젝트 관리 수주 증가[1][3].
-- [재건축 및 리모델링 붐:] 국내 도시정비사업, 재건축, 대형 리모델링 프로젝트 확대.
-- [글로벌 수주 성장:] 미국 자회사 Otak, Inc와 사우디, 헝가리, 폴란드 등에서의 신규 대형 프로젝트 수주 성장[1][4].
-- [하이테크 산업 투자 확대:] 삼성전자, 국내 배터리 제조사 등 하이테크 제조업체의 공장 신·증설 투자. 동사 하이테크 CM 부문 수주 증가[2][3].
-하지만 2024년 하반기 들어 일부 반도체·2차전지 분야의 기업 성장세 둔화에도 불구하고, 미국 및 유럽 등 해외 시장의 성장, 데이터센터 특수를 바탕으로 실적이 방어되고 있습니다[1].
-### 3. 당면 주요 이슈 3가지
-1. [반도체·2차전지 업황 둔화와 하이테크 매출 감소 위험:]  
-   최근 글로벌 경기 둔화 및 국내 하이테크(반도체, 2차전지) 시장의 보수적 투자로 해당 사업 매출이 일부 감소세를 보임[1].
-2. [국내외 시장 경쟁 심화:]  
-   프로젝트 관리 시장의 경쟁강도 증가, 국내외 로컬·글로벌 플레이어와의 경쟁 심화. 특히 글로벌 고부가가치 프로젝트 수주전에서 인력, 기술 경쟁이 치열함[2][4].
-3. [글로벌 사업 리스크(환율·정치적 불확실성):]  
-   해외사업 비중이 높아지며 국가별 환율 변동, 정치·제도 리스크(사우디, 동유럽 등) 대응과 프로젝트 관리 리스크가 증가[1][4].
-이 외에도, 데이터센터·IT 개발 수요 변화, 국내 부동산 경기에 따른 프로젝트 발주 변동성, 인력 확보 및 전문인력 양성의 어려움 등이 지속적 관리 이슈입니다.
-한미글로벌은 외형 성장과 글로벌 시장 다변화에 성공했으나, 하이테크 사업 부문의 경기민감도와 해외리스크 대응 전략, 치열한 국내외 경쟁 구도가 당분간 중요한 경영과제입니다.
-https://www.hanmiglobal.com/uploads/customer/%5B%ED%95%9C%EC%96%91%EC%A6%9D%EA%B6%8C%5D%20%EC%9E%AC%EA%B1%B4%EC%9D%98%20%EC%88%A8%EA%B2%A8%EC%A7%84%20%EA%B0%95%EC%9E%90.pdf
-https://www.hmglobal.com/uploads/customer/%ED%95%9C%EA%B5%ADir%ED%98%91%ED%9A%8C%EB%A6%AC%ED%8F%AC%ED%8A%B8_22020407.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1701817698515.pdf
-https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=1&amp;gicode=A053690&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=701
-http://snusmic.com/wp-content/uploads/2020/11/170414_%ED%95%9C%EB%AF%B8%EA%B8%80%EB%A1%9C%EB%B2%8C_2%ED%8C%80.pdf</t>
+          <t>한미글로벌(053690)은 [국내외 대형 건설 프로젝트의 프로젝트 및 건설사업관리(PM/CM)], 그리고 관련 컨설팅 및 부동산 개발을 주력 사업으로 하는 국내 1위 CM 전문기업입니다. 최근 실적 상승과 더불어 글로벌 진출, 첨단산업(데이터센터, 반도체 등) 수주 확대가 핵심 동력으로 작용하고 있으며, 반면 하이테크 경기둔화와 글로벌 리스크, 업계 경쟁 심화 등 당면 과제도 분명합니다.
+1. [핵심 사업]
+- [프로젝트/건설사업관리(PM/CM):] 한미글로벌은 국내외 민간·공공 대형 프로젝트(도시정비, 인프라 개발, 대형 플랜트, 첨단제조공장 등)의 전체 공정에서 발주자를 대리하여 사업 일정, 원가, 품질, 리스크 등을 전방위로 관리합니다.  
+- [하이테크/ESG 특화 CM:] 데이터센터, 반도체·2차전지·바이오공장 등 기술집약 산업 프로젝트의 고도화된 사업관리 역량이 강점으로 평가받으며, ESG(환경·사회·지배구조) 기반 평가와 친환경 인증 컨설팅까지 확대 중입니다[4].  
+- [글로벌 사업 및 부동산개발:] 미국(오타크), 중동, 동유럽 등 60여개국에서 글로벌 CM, PM, 부동산개발 컨설팅 및 일부 직접사업도 확대 중입니다. 전통 공공 인프라 외, 첨단산업/대체에너지/직접투자형 부동산까지 포트폴리오를 다변화하고 있습니다[4][5].  
+- 2024년 기준 매출 구성을 보면 해외와 첨단산업 부문 성장세가 뚜렷하며, ESG 평가에서는 국내 자본재 부문 1위로 선정되는 등 대외 신뢰도도 높습니다[4].
+2. [최근 분기(2024년 하반기~2025년 상반기) 실적 호조 배경]
+- [국내외 데이터센터 및 첨단산업 투자 확대:] 클라우드·AI 시장 급성장에 따른 데이터센터 신·증설 수요 급증과, 글로벌 빅테크·국내 대기업의 첨단 공장 투자 재개가 이어지며 동사 CM 수주가 대폭 늘었습니다. 미국·사우디 등지에서의 초대형 프로젝트가 호실적 주된 요인입니다[5].  
+- [중동·동유럽 등 글로벌 프로젝트 약진:] 프로젝트 파이낸싱 위기에 따른 국내 건설경기 침체와 달리, 미국·사우디(‘오일 머니’)·헝가리 신규 고부가가치 PM/CM 수주로 해외 실적이 성장세를 이끌었습니다[2][5].
+- [한남3구역 등 국내 도시정비 수주 확대:] 대형 재개발 구역 프로젝트 수주가 호조를 보여 실적 안정성을 뒷받침합니다[2].
+- [ESG 경영 내재화, 대외 신뢰도 강화:] 2025년 상반기 ESG 평가 자본재 부문 1위 달성 등, 강화된 비재무 경쟁력이 수주와 신뢰도에 플러스 요인이 되었습니다[4].
+3. [2025년 현재 당면한 주요 이슈 3가지]
+- [반도체·2차전지 등 첨단산업 업황 둔화:] 최근 글로벌 경기 침체 및 고금리에 따른 IT·첨단제조사의 신규투자 재조정이 발생하면서, 하이테크 수주 성장 속도가 다소 둔화되는 조짐이 있습니다. 사업 다각화에도 불구, 첨단산업 매출 비중 변화는 동사 주가 변동성 요인입니다[1][5].
+- [글로벌 사업 리스크 (환율·정치 불확실성):] 사우디 등 신흥국 비중이 높아지고 달러화 강세 등 환율, 현지 규제 및 지정학적 리스크 관리가 핵심 현안이 되고 있습니다[5].
+- [국내외 PM/CM 시장 경쟁 심화:] 미국·유럽·중동 로컬 및 글로벌 플레이어와의 수주전이 더욱 치열해지면서, 기술·경험·레퍼런스 우위 지속이 중요한 경쟁 열쇠가 되고 있습니다. 특히 인력 확보 및 우수 전문가 채용 어려움도 현실적 리스크로 부각됩니다[2].
+이 외에도 국내 재건축 및 리모델링 발주 변동성, 녹색·디지털 트렌드에 맞춘 PM 역량 강화 등도 연중 주요 이슈로 관리되고 있습니다.
+https://stock.pstatic.net/stock-research/company/74/20250115_company_278904000.pdf
+https://deepsearch.com/analytics/company-analysis/KRX:053690?c-name=%ED%95%9C%EB%AF%B8%EA%B8%80%EB%A1%9C%EB%B2%8C&amp;c-symbol=KRX%3A053690&amp;cd-cat=topic&amp;cd-df=2025-04-02&amp;cd-dt=2025-04-09
+https://alphasquare.co.kr/home/stock-summary?code=053690
+https://www.newsprime.co.kr/news/article.html?no=694305
+https://www.thepowernews.co.kr/view.php?ud=202505231400040156367_7&amp;vct=</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
@@ -2144,7 +2178,7 @@
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2161,32 +2195,34 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1. [삼아제약의 핵심 사업]
-삼아제약(009300)은 [의약품 제조 및 판매]를 주요 사업 목적으로 하는 코스닥 상장 제약사입니다[2][3]. 사업 분야는 아래와 같이 세분화됩니다.
-- [호흡기계 의약품]: 기침, 거담, 천식, 비염 등 기관지 및 호흡기 질환 치료제(주요 제품: 씨투스, 베포린, 코데날정 등)
-- [항생제 및 기타 치료제]: 세균성 질환 치료(클라리움 등), 소화기계, 해열진통소염제, 피부치료제(아토피 등), 순환/내분비계, 비뇨기계 제품 등
-- [일반의약품과 건강기능식품]: 비타민, 미네랄, 건강보조식품(비아신세립, 노마골드 등)
-이 중 [호흡기계 의약품]이 핵심 매출원이며, 대면 영업 강화로 해당 부문 점유율이 높습니다[1][2].
-2. [최근 분기 호실적의 원인]
-최근 분기(2024년 9월 기준)에 삼아제약은 [매출액 5.8% 증가, 영업이익 9.1% 증가, 당기순이익 8.5% 증가]라는 견조한 실적을 기록했습니다[2]. 주요 원인은 다음과 같습니다.
-- [호흡기질환 제품 매출 증가]: 호흡기 계열 제품 매출이 전년동기대비 19% 상승하며 실적 성장의 주요 동력 역할을 했습니다. 이는 코로나19 엔데믹 이후 호흡기 질환 관련 수요 증가와 시장 흐름이 맞물린 결과로 분석됩니다[2].
-- [대면 영업 확대]: 영업사원들의 대면 방문을 통한 적극적인 영업이 코로나19 이전 수준으로 회복되면서, 종합병원 및 의원 채널에서의 수주가 늘었습니다.
-- [제품 포트폴리오 최적화 및 고부가가치 제품 비중 확대]: 단순 제네릭 의약품보다는 시장 내 차별화된 특허 또는 고가치 의약품의 유통 확대에 집중한 전략이 통했습니다.
-- [규모의 경제 실현]: 대표 제품군의 생산량 확대를 통한 단가 경쟁력 제고 효과가 발생했습니다[2].
-3. [현재 삼아제약이 직면한 3가지 주요 이슈]
-아래는 시장 또는 기업공시에서 직·간접적으로 확인되는 삼아제약의 핵심 이슈 3가지입니다.
-- [신제품 및 파이프라인 개발 필요성]  
-  현재 호흡기질환 치료제에 대한 의존도가 높아 해당 분야 외에도 중장기 신성장 동력 확보가 필요합니다. 동일 치료 영역 내 경쟁사 진입 및 제네릭 확대에 대응하기 위해 신약, 개량신약 등 R&amp;D 혁신 역량이 요구됩니다[2].
-- [원가 상승 압력 및 수익성 방어]  
-  최근 원재료비 인상 및 생산관련 비용 부담이 늘어나면서, 제품 가격 인상이 용이하지 않은 상황에서 수익성 방어가 과제로 남아 있습니다. 실제로 판관비, 인건비 등 고정비 부담도 커진 상황이어서 원가구조 개선 및 생산 효율성 제고 경쟁력이 중요해졌습니다.
-- [의약품 유통 및 대면 영업 환경 변화]  
-  코로나19 여파로 한동안 위축되었던 대면 영업이 회복 국면에 있으나, 비대면 디지털 마케팅과 하이브리드 영업방식으로의 전환, 건강기능식품 경쟁 심화 등 다양한 채널 변화에 효과적으로 대응해야 하는 상황입니다.
-이상의 내용은 삼아제약의 공식 공시자료 및 시장 보고서를 기반으로 도출된 구체적이고 실질적인 정보입니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1605831759061.pdf
-https://comp.fnguide.com/SVO/WooriRenewal/Snapshot.asp?pGB=12&amp;gicode=A009300
-https://w4.kirs.or.kr/download/tech/246_%EC%82%BC%EC%95%84%EC%A0%9C%EC%95%BD_%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D%EB%B3%B4%EA%B3%A0%EC%84%9C.pdf
-https://deepsearch.com/analytics/company-analysis/KRX:009300?c-name=%25EC%2582%25BC%25EC%2595%2584%25EC%25A0%259C%25EC%2595%25BD&amp;c-symbol=KRX%253A009300&amp;cd-cat=disclosure&amp;cd-doc-op=perform
-https://www.valueline.co.kr/finance/summary/009300</t>
+          <t>1. 삼아제약의 핵심 사업  
+삼아제약(009300)은 [의약품의 제조 및 판매]를 주요 사업으로 하는 코스닥 상장 제약기업입니다[4][5].  
+주요 사업 분야는 아래와 같이 세분됩니다.
+- [호흡기계 치료제]: 기침, 기관지 질환, 천식 등 호흡기질환 치료제(대표 제품: 씨투스, 베포린, 코데날정 등)
+- [항생제/기타 전문의약품]: 감염성 질환 치료 항생제(예: 클라리움), 해열진통소염제, 기타 전문의약품
+- [일반의약품 및 건강기능식품]: 비타민, 미네랄류, 건강보조식품(비아신세립, 노마골드 등)
+최근 주주총회를 통해 [태양광 발전 사업]이 신규 사업목적으로 추가되어 사업 다각화를 모색하고 있습니다[3].
+2. 최근 분기 호실적의 원인  
+삼아제약은 최근 분기(2024년~2025년 초)에 [매출액 19% 증가, 영업이익 28.7% 증가, 당기순이익 79.4% 증가] 등 강력한 실적 상승을 기록했습니다[1].  
+주요 원인으로는 다음이 지목됩니다.
+- [주력 제품군(호흡기 치료제) 매출 고성장]: 독감, 폐렴 등 호흡기계 질환 및 감염병 유행이 동시발생하며 관련 제약 제품 수요가 폭증했습니다.
+- [보험약가 인상 효과]: 2024년 1월부터 해열제·항생제 등 필수의약품 보험약가가 인상되어 회사의 수익성 개선에 직접적으로 기여했습니다[1].
+- [대면 영업 확대로 병·의원 채널 매출 증가]: 코로나19 이후 회복된 대면 영업환경에서 적극적인 영업활동으로 시장 내 점유율이 확대되었습니다.
+- [고부가가치 제품 확대 및 생산성 개선]: 단순 제네릭 제품보다 특허 등 고가치 제품의 비중 확대, 그리고 생산 규모 확대를 통한 단가 경쟁력 상승도 주효했습니다.
+3. 현재 삼아제약이 직면한 주요 이슈 3가지  
+삼아제약은 최근 실적 호조에도 불구하고 다음과 같은 구조적 과제에 직면해 있습니다.
+- [사업 다각화와 신성장동력 확보 필요성]  
+  기존 호흡기 치료제 중심 사업 모델에 대한 의존도가 높으나, 동종업계 경쟁 및 시장 포화 우려가 지속되고 있습니다. 이에 태양광 발전 사업 등 신규 분야 진출이 추진되고 있으나, 본업과의 시너지 및 실질적 매출 기여까지는 시일이 필요합니다[3].
+- [주가 부진 및 시장 신뢰 회복]  
+  2024년 말~2025년 초 주가가 단기간에 26%나 급락하는 등 투자자 불안이 확산되었습니다[2]. 높은 실적 성장에도 불구, 극히 낮은 기업가치(P/E 4.66, PBR 0.45 등)[4]가 지속되고 있어 중장기적으로 시장 신뢰 회복 전략이 요구됩니다.
+- [수익성 방어와 원가 압력]  
+  원재료비, 인건비 등 원가 상승 압력이 지속되고 있으며, 약가 인상에도 불구하고 생산비용 관리와 효율화가 요구됩니다. 판관비 및 고정비 부담이 커지고 있어서, 재무 안정성과 효율적 경영관리 역량이 중요해졌습니다.
+이상의 내용은 삼아제약의 2025년 상반기 기준 기업공시 및 주주총회, 시장 분석 자료를 기반으로 집계된 최신 현황입니다.
+https://alphasquare.co.kr/home/stock-issue?code=009300&amp;type=news
+https://simplywall.st/ko/stocks/kr/pharmaceuticals-biotech/kosdaq-a009300/sam-a-pharm-shares/news/71b1a2519df70202
+https://m.finance.daum.net/quotes/A009300/news/disclosure/20250328031746
+https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=009300&amp;cn=
+https://dart.fss.or.kr/navi/searchNavi.do?naviCrpCik=00126788&amp;naviCrpNm=%EC%82%BC%EC%95%84%EC%A0%9C%EC%95%BD&amp;naviCode=A002</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
@@ -2201,7 +2237,7 @@
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2218,26 +2254,35 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>제룡전기(033100)는 [배전 변압기 및 전력기기 제조·판매]를 주력 사업으로 하는 코스닥 상장기업으로, 최근 수출 확대와 원가절감에 힘입어 실적이 크게 개선되는 모습을 보이고 있습니다.
-1. [제룡전기의 핵심 사업]
-- 제룡전기는 [배전 변압기, 개폐기, GIS(가스절연개폐장치)의 제조 및 판매]를 주요 사업으로 영위하고 있습니다[1][2][4]. 
-- 회사 매출의 대부분은 변압기 생산·판매에서 발생하며, [한국전력공사]가 국내 주요 매출처입니다[2].
-- 최근에는 [해외 수출 비중이 2021년 25%에서 2023년 80%까지 급증]하는 등 글로벌 시장에서 성장세를 보이고 있습니다[1][4].
-2. [최근 분기 실적 호조의 원인]
-- [수출 확대]: 미국 등 해외 시장에서의 공급 우위에 힘입어 수출이 빠르게 늘었습니다. 이로 인해 매출은 2022년 861억원에서 2023년 1,839억원으로 두 배 이상 증가했습니다[4].
-- [제품 판매단가 상승]: 글로벌 변압기 수요 증가와 해외 시장 물량 확대에 따라 2023년 4분기 기준 변압기 수출단가가 전년 대비 20% 상승했습니다[4].
-- [원가 구조 개선]: 원재료(전기강판, 구리 등) 가격 하락과 제조공정 효율화, 숙련 인력 확보로 비용이 절감되었습니다. 대규모 설비 투자 대신 [인력 충원과 숙련도 제고로 수익성을 높인 점]도 주목됩니다[4].
-- [생산 효율화]: 소품종 대량생산 체제로 전환하면서 생산량이 빠르게 확대되고, 이익률도 늘어났습니다[4].
-3. [현재 제룡전기가 직면한 핵심 이슈 3가지]
-- [원재료 가격 변동 리스크]: 제룡전기는 포스코 등에서 공급받는 전기강판, 구리 등 원재료의 가격 변화에 직접적으로 영향을 받습니다. 최근에는 가격 하락이 마진 확대에 도움을 줬으나, 향후 가격 반등 시 수익성이 다시 압박받을 수 있습니다[3][4].
-- [글로벌 수주 지속성]: 2023년까지는 해외 수주가 가파르게 증가했으나, 미국 및 기타 주요 시장에서의 수주 성장률이 지속 가능할지, 그리고 신규 시장에서 경쟁력을 유지할 수 있을지가 핵심 변수입니다[4].
-- [숙련 인력 확보 및 생산성 관리]: 대규모 증설 대신 숙련 인력 채용 및 활용에 중점을 두고 있는데, 지속적인 인력 확보와 생산성 유지는 앞으로의 성장에 중요한 역할을 할 것입니다. 인력 부족이나 숙련도 저하 시 생산 효율이 떨어질 수 있는 리스크가 있습니다[4].
-이처럼 제룡전기는 [제조업 기반 전기설비 전문기업]으로 성장성과 수익성을 동시 추구하고 있으며, 원자재 시장의 변동성과 글로벌 수주 경쟁, 인력 문제 등이 향후 실적에 직접적인 영향을 줄 것입니다.
-https://ko.wikipedia.org/wiki/%EC%A0%9C%EB%A3%A1%EC%A0%84%EA%B8%B0
-https://deepsearch.com/analytics/company-analysis/KRX:033100?c-symbol=KRX%3A033100
-https://m.finance.daum.net/quotes/A033100/talks/13514096
-https://ssl.pstatic.net/imgstock/upload/research/company/1709852777300.pdf
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=033100&amp;cn=</t>
+          <t>제룡전기(033100)는 배전 변압기, 가스절연개폐장치(GIS) 등 전력기기 제조 및 판매를 핵심으로 하는 전기설비 전문기업으로, 최근 수출 중심의 성장세와 비용 효율화에 힘입어 실적이 개선된 바 있으나, 2025년 1분기에는 일시적 성장 둔화와 새로운 시장 환경에 직면하고 있습니다.
+1. 제룡전기의 핵심 사업  
+- [주요 사업]은 단일 사업부문(전력기기) 중심으로, [배전 변압기, 가스절연개폐장치(GIS), 개폐기 등 핵심 전력기기의 제조·판매]가 중심입니다[3].  
+- [매출의 상당 부분]은 국내에서 [한국전력공사(한전) 등 공기업 및 대형 발전소]가 차지하고, 남은 비중은 해외 수출입니다[3].  
+- 최근 2~3년간 [미주, 중동 등 해외 변압기 수출 비중이 80%에 근접]할 정도로 빠르게 높아졌으며, 초고압 시장 진출을 추진해 170kV GIS 등 신제품 개발도 병행하고 있습니다[3].
+2. 최근 분기 실적 호조 및 변화  
+- [2025년 1분기 실적](개별 기준):  
+  - 매출액 약 [502억] 원(전년동기 대비 –23%),  
+  - 영업이익 약 [161억] 원(–38%),  
+  - 순이익 약 [147억] 원(–32%)로,  
+  - 전년과 비교해 매출·이익 모두 감소세이나, [전 분기 대비 영업이익 27%, 순이익 40% 증가] 등 단기적으로는 반등 기류도 보이고 있습니다[1][4].  
+- [호조 요인(2024~2025년 기준):]
+  - *수출 확대*: 2020년대 들어 [미국 등 북미시장에서 변압기 수출 성장세가 견조]합니다.  
+  - *제품 판매단가 유지*: 글로벌 공급 부족 효과로 일부 고부가 제품군의 단가가 작년까지 견조했습니다.  
+  - *원가 구조* 개선 효과가 상반기까지 이어져 *제조 효율*과 *마진*이 정상 범주에 있었습니다[4].
+- [다만, 최근 인플레이션 영향과 해외 발주 시장의 변동성, 내수 발주 지연 등으로 성장세가 둔화]되는 특징이 있습니다. 이는 미국 인프라 투자 완화와 국내 한전 발주물량 감소가 복합적으로 작용한 결과입니다[1][4].
+3. 제룡전기 주요 이슈 3가지  
+- [1) 수출 성장 지속 가능성 및 글로벌 발주 리스크]  
+  - 미주·아시아 등 신흥시장 수출은 유지되고 있으나, [2025년 들어 미국 등지의 인프라 투자 속도가 둔화]되고 있고, 일부 라틴아메리카 프로젝트 납기 연기 등으로 수주공백 리스크가 부각되고 있습니다[1][4]. 해외 발주시장은 단기 변동성이 크고 환율, 통제 이슈에 민감합니다.
+- [2) 원재료(전기강판, 구리 등) 가격 반등 가능성]  
+  - 2023~2024년 원자재 가격 하락이 마진 방어에 기여했으나, 최근 글로벌 동(구리), 철강 가격이 반등 조짐을 보이고 있어 [하반기 실적에 부담 요인]이 될 수 있습니다[4]. 특히, 주요 공급사(포스코 등) 가격 정책 변화 및 공급망 이슈가 실적 변동성에 영향을 줍니다.
+- [3) 생산성·인력관리의 지속적 부담]  
+  - 대규모 증설 대신 *숙련 인력 확보*와 *생산 효율화*에 초점을 맞추고 있으나, 전력기기 제조업 전반에 만성적인 [숙련 인력 부족 문제가 심화]되고 있습니다[3]. 신규 인력 유입 둔화와 숙련도 저하가 생산성 저하로 이어질 수 있는 구조적 리스크가 큽니다.
+이외에도 배당성향(배당수익률 2.5~2.8%), 국내외 경쟁 심화, 국내 한전 및 공기업의 발주 물량 변동성 등도 주요 모니터링 포인트입니다[1][2].
+https://www.butler.works/ko/companies/00185356
+https://comp.wisereport.co.kr/company/c1040001.aspx?cmp_cd=033100
+https://deepsearch.com/analytics/company-analysis/KRX:033100?c-name=%25EC%25A0%259C%25EB%25A3%25A1%25EC%25A0%2584%25EA%25B8%25B0&amp;c-symbol=KRX%253A033100&amp;cd-cat=topic&amp;cd-df=2024-07-22&amp;cd-dt=2024-07-29
+https://www.tossinvest.com/stocks/A033100/order
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?gicode=A033100</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
@@ -2252,7 +2297,7 @@
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2269,26 +2314,26 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(1) [두산밥캣의 핵심 사업]
-두산밥캣(241560)은 [소형 건설장비], 특히 [스키드 스티어 로더(Skid-Steer Loader), 미니 굴삭기, 콤팩트 트랙 로더] 등 소형 중장비 제조 및 판매를 주력으로 하는 기업입니다[1][3]. 주 고객은 북미 지역을 포함해 전 세계 건설‧농업‧조경 분야로, 제품은 주로 주택건설, 전원주택, 공공작업 등의 다양한 경량 건설·산업현장에 사용됩니다[1]. 최근에는 산업용 지게차(Industrial Truck)와 유틸리티 장비 등으로 사업 포트폴리오를 확장하고 있으며, [혁신적인 기술 도입과 친환경 솔루션 개발]에도 힘쓰고 있습니다[1][3]. 전체 매출의 70% 이상이 북미 시장에서 발생하고, 'Bobcat' 브랜드가 세계적으로 높은 인지도를 확보하고 있습니다.
-(2) [최근 분기 실적이 강한 이유]
-두산밥캣은 최근 [수년간 견고한 매출 성장과 수익성]을 기록하고 있습니다. 2024년 1분기 실적 기준 매출액은 2조 4,783억원으로 전년대비 3% 증가했고, 영업이익도 3,000억원을 기록하여 컨센서스를 상회하는 등 시장 기대를 넘는 성과를 보였습니다[1]. 주요 배경은 다음과 같습니다.
-- [북미 주택 및 인프라 투자 확대]: 미국, 캐나다 등 북미 지역에서 리노베이션‧주택 증축 수요가 꾸준히 이어져 소형 건설 장비 수요가 견조하게 유지되고 있습니다. 북미 매출 비중이 75%를 상회하는 구조이기 때문에 현지 시장 호조가 실적 견인에 결정적이었습니다[1][3].
-- [제품 가격 인상과 믹스 개선]: 공급망 이슈로 인한 원자재 가격 상승분을 제품가격에 선제 반영함과 동시에, 고마진 프리미엄 및 전동화 제품 비중이 점증하며 전체 수익성 개선에 기여하고 있습니다[1].
-- [운영 효율화 및 비용 절감]: 자동화 등 공정 혁신을 통해 제조 원가와 운반 비용 효율성을 높였으며, 더불어 재고관리를 통한 현금흐름 및 유동성도 좋게 유지되고 있습니다[2].
-(3) [현재 당면한 주요 이슈 3가지]
-1. [미국 내 금리 및 경기 전망 불확실성]
-   - 북미 시장 의존도가 매우 높은 만큼, [미국 금리 정책에 따른 주택/건설 시장 위축 가능성]이 실적에 직접적인 영향을 줄 수 있습니다. 금리 상승 혹은 경기 둔화 시 장비 투자지연‧수요 감소로 실적이 흔들릴 위험이 있습니다[1][2].
-2. [사업 포트폴리오 다각화 및 신사업 내실화]
-   - 기존 소형 건설장비에서 [전동화, 친환경, IT융합(스마트장비 등)] 분야로 사업 확장이 필요한 시점입니다. 실제로 완성차 대비 친환경 요구가 높아지는 가운데, 전기 굴삭기 등 신제품의 조기 시장 안착 및 기술 경쟁력이 중요한 과제로 부상하고 있습니다[1][3].
-3. [그룹 내 지배구조 개편 및 전략적 의사결정]
-   - 2024년 하반기 두산그룹 내 사업재편 이슈, 두산밥캣-두산로보틱스의 주식교환 계획 철회 등 [지배구조 변동]이 회사의 전략적 투자, 장기 방향성에 영향을 줄 수 있습니다. 시장에서는 이와 관련한 불확실성, 모회사나 그룹 차원의 추가 변동 가능성을 주요 리스크로 주목하고 있습니다[2].
-기타 유의사항으로는 환율, 글로벌 공급망, 경쟁사 대비 제품·기술 우위 유지 여부 등이 실적 및 성장성에 지속적인 영향을 미칠 것으로 보입니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1712798049000.pdf
-https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024083021471843K_02_03.pdf
-https://securities.miraeasset.com/bbs/download/2126249.pdf?attachmentId=2126249
-https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024101515051846K_02_05.pdf
-https://stock.pstatic.net/stock-research/company/1/20250429_company_635801000.pdf</t>
+          <t>(1) [두산밥캣의 핵심 사업]  
+두산밥캣(241560)은 [소형 건설장비]의 설계, 제조, 판매를 주력으로 하는 기업입니다. 주력 제품은 [스키드 스티어 로더, 미니 굴삭기, 콤팩트 트랙 로더] 등이며 이외에도 산업용 지게차, 유틸리티 장비 등으로 포트폴리오를 확장하고 있습니다[4]. 장비는 건설·농업·조경·산업사업장 등 다양한 분야에서 사용됩니다. 전체 매출의 약 [70~75%가 북미 시장]에서 발생하며, ‘Bobcat’ 브랜드의 인지도가 세계적으로 높습니다. 기술 혁신과 친환경 및 전동화 제품 개발에 지속적으로 투자하고 있습니다.
+(2) [최근 분기 실적이 강한 이유]  
+2024년에는 매출과 영업이익 모두 견고한 성장세를 이어갔으나, 2025년 2분기 영업이익은 [2,042억 원으로 전년 동기 대비 14.8% 감소]하는 등 둔화 조짐을 보였습니다[1]. 강한 실적의 배경과 최근 성장 둔화의 주요 원인은 다음과 같습니다.
+- [미국 및 북미 시장의 구조적 강점]: 북미 지역의 주택 리모델링 및 인프라 투자 수요가 견조하게 유지되고 있으며, 밥캣 제품의 시장 점유율이 높습니다. 하지만 2025년 2분기에는 미국 금리 인상, 경기 일부 둔화로 신규 장비 수요가 주춤했습니다[1].
+- [제품 포트폴리오 고도화]: 가격 인상, 프리미엄 및 전동화 제품 비중 확대를 통해 전체 수익성은 유지되고 있었으나, 최근에는 고정비 부담과 신규 시장 진입 비용이 늘면서 수익률 개선 폭이 제한되었습니다.
+- [공급망 안정화·운영 효율 노력]: 공급망 차질 완화, 비용 효율화 등으로 2024년까지는 영업이익률 개선이 뚜렷했으나, 2025년 들어서면서 경쟁 심화와 일부 원자재·물류비 반등에 영향을 받고 있습니다.
+(3) [현재 당면한 주요 이슈 3가지]  
+1. [미국 금리 및 경기 변화에 대한 민감도]
+   - 북미 매출 의존도가 절대적이기 때문에, 미국 금리와 경기 방향성에 실적이 직접적으로 좌우됩니다. 최근 미국 경제 견조성에도 불구하고 기준금리 인상 및 일부 건설·주택 시장 부진이 장비 수요를 둔화시키고 있습니다[1][2].
+2. [신사업(전동화·친환경) 시장 안착 여부]
+   - 유럽 및 북미 규제 강화, 건설현장 탄소저감 정책 확대 등으로 전동 굴삭기 등 친환경 제품 개발이 시급합니다. 시장에서는 밥캣의 신제품 시장 점유율 확보와 제조 경쟁력, 실제 판매 실적에 주목하고 있습니다.
+3. [지배구조 및 그룹 전략 불확실성]
+   - 2024~2025년 두산그룹의 계열사 간 인수·합병, 밥캣-두산로보틱스 주식교환 논의 철회, 추가 재무전략 변화 등 그룹 내부의 구조 개편이 이어지고 있습니다. 이는 밥캣의 중장기 전략 추진과 대규모 투자 결정에 불확실성 요인으로 작용할 수 있습니다[1][2].
+이외에도 [환율 변동성, 글로벌 원재료 가격, 경쟁사와의 기술 격차] 등이 지속적 리스크로 지목되고 있습니다. 주가, 수급 평가 역시 단기적으로는 중립~강세 구간에서 변동성을 보이고 있습니다[4].
+https://biz.chosun.com/industry/company/2025/07/25/CKGSQISKFBGIFBWGGQV22IFJUM/
+https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=241560&amp;cn=
+https://simplywall.st/ko/stocks/kr/capital-goods/kose-a241560/doosan-bobcat-shares/past
+https://www.valueline.co.kr/finance/summary/241560
+https://tossinvest.com/stocks/A241560/order</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
@@ -2303,7 +2348,7 @@
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2320,31 +2365,32 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>1. [기아(000270)의 핵심 사업]
-- 기아는 [승용차, 스포츠유틸리티차량(SUV), 레저용 차량(RV), 상용차, 하이브리드 및 전기차 등 각종 자동차의 개발, 제조, 판매]를 주 사업으로 영위하는 한국의 대표 자동차 기업입니다[1][4].
-- 대표적인 차량 브랜드로는 [K3, K5, K7, K9 (세단), 쏘울, 스포티지, 쏘렌토 (SUV/RV), 그리고 다양한 상용버스와 트럭]이 있습니다[1].
-- 국내뿐만 아니라 [북미, 유럽, 아시아 등 글로벌 시장에 현지 법인 및 공장을 두고 적극적으로 해외 판매]를 확대하고 있습니다. 내수 대비 해외 매출 비중이 약 60%로, 해외 시장 성장이 중요한 역할을 차지합니다[3].
-- 부가적으로 [자동차 부품 생산, 차량 렌트, 정비용역 사업]도 병행하고 있습니다[1].
-2. [기아의 최근 분기 강력한 실적 배경]
-- 2025년 2분기 잠정 매출액은 [29조 3,496억 원(전년 대비 6.46% 증가)]로 매우 높은 매출 성장세를 기록했습니다[3].
-- 이 같은 [실적 호조의 주요 요인]은 다음과 같습니다.
-  - [SUV, 하이브리드, 전기차 등 고수익 신차 판매 확대]: 쏘렌토, 스포티지 등 SUV 라인업, 그리고 하이브리드 및 전동화 모델 판매가 강세를 보이며 평균 판매 단가(ASP)와 수익성이 크게 개선됐습니다[1][2].
-  - [글로벌 시장 내 입지 확대]: 미국, 유럽 현지 생산 및 판매망 확대로 신차 공급이 원활해졌으며, 각 시장 특성에 맞춘 차량 라인업 효과로 해외 판매가 증가했습니다[2][3].
-  - [가격 인상 및 환율 효과]: 글로벌 원자재 가격 상승 및 환율 변동에 따른 차량 단가가 높아진 점도 긍정적 영향을 주었습니다[3].
-- 다만 영업이익과 순이익은 원가 상승, 연구개발 투자 확대, 일부 해외 시장 마케팅 비용 증가 등으로 전년 동기 대비 감소세를 보였습니다(영업이익 -24.12%, 순이익 -23.28%)[3].
-3. [현재 기아가 직면한 주요 3가지 이슈]
-- [전기차 시장의 성장 둔화 및 중저가 전략 대응]
-  - 글로벌 전기차 수요가 예상보다 빠르게 둔화되는 가운데, 기아는 [EV3, EV2 등 중저가 전기차 풀라인업 구축과 가격 경쟁력 강화] 전략에 집중하고 있습니다. 유럽·미국·국내별 맞춤형 전기차 출시와 생산 전략, 원가 절감이 중요한 과제로 부상했습니다[2].
-- [자율주행/SDV(Software Defined Vehicle) 전환 가속]
-  - 현대차그룹 내에서 진화하는 [자율주행 및 소프트웨어 중심 차량(SDV) 개발] 경쟁이 치열해지고 있습니다. 레벨2 수준의 자율주행 기능 도입, OTA(무선 소프트웨어 업데이트), 차량 내 소프트웨어 플랫폼 강화 등이 핵심이고, 이 분야 투자와 인력이 확대되고 있습니다[2].
-- [수익성 방어 및 글로벌 공급망 리스크]
-  - 원자재 가격 변동, 물류비 상승, 환율 변동성, 지정학적 리스크 등 [수익성 악화 요인에 대한 적극적 대응]이 요구되고 있습니다. 또한 미국, 유럽 공장 운영 최적화, 아시아 신흥시장 진출 등 공급망 안정화 및 다변화가 중요한 현안입니다[3].
-이처럼 기아는 전통 내연기관 중심 기업에서 전기차·미래차 전환, 소프트웨어 혁신, 고수익 시장 확대, 원가 및 리스크 관리 등 복합적 과제에 적극적으로 대응하며 글로벌 경쟁력을 강화하고 있습니다.
-https://kr.investing.com/equities/kia-motors
-https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2025061916412225K_02_04.pdf
-https://www.valueline.co.kr/finance/summary/000270
-https://ko.wikipedia.org/wiki/%EA%B8%B0%EC%95%84_(%EA%B8%B0%EC%97%85)
-https://stock.pstatic.net/stock-research/company/61/20241028_company_143711000.pdf</t>
+          <t>기아(000270)는 대한민국을 대표하는 글로벌 완성차 제조기업으로, 내연기관차·하이브리드·전기차를 아우르는 다양한 제품 포트폴리오와 해외 거점을 바탕으로 강한 실적을 이어가고 있습니다. 최근 실적 배경과 주요 현안에서 세부적 변화가 포착되고 있으므로, 최신 자료를 반영해 구체적으로 설명합니다.
+1. [기아의 핵심 사업]
+- 기아의 주력 사업은 [승용차, SUV, RV(레저용 차량), 상용차, 하이브리드 및 전기차 등 완성차의 개발·제조·판매]입니다[5][4].
+- 주요 브랜드로는 K5, K8(세단), 스포티지, 쏘렌토, 카니발(SUV/RV), 신형 EV3·EV4·EV5(전기차), 픽업타입 타스만, PBV(Purpose Built Vehicle) PV5 등이 있습니다[4].
+- 매출은 [글로벌 시장(북미, 유럽, 인도 등)에서 약 80%가량 발생]하고, 국내외 생산·판매법인을 운영하며 꾸준히 신차 출시와 전동화 비중 확대에 집중하고 있습니다. 2025년 글로벌 판매 목표는 321만6천대입니다[1][2].
+- 부가적으로 차량 부품 사업, 차량 렌탈, 정비용역 등 모빌리티 관련 서비스도 다각화하며, 미래차(자율주행, SDV) 및 물류로봇·도심항공(UAM) 연계 등 신사업 투자에도 적극적입니다[2][5].
+2. [최근 분기 실적 호조의 구체적 배경]
+- 2025년 1~2분기 합산 매출은 분기 기준 최고치(1분기 28조원, 2분기 전년 대비 약 6% 증가)를 연이어 경신했습니다[4][3].
+- 세부 원인은 다음과 같습니다.
+  - [SUV·RV, 하이브리드, 전기차 등 고가 신차 판매 증가:] 스포티지, 쏘렌토 등 핵심 SUV 중심의 시장점유율 확대와, EV3·EV5 중심의 전기차 라인업 성공이 ASP(평균판매단가) 상승으로 직결되었습니다[3][4].
+  - [하이브리드 및 전기차 중심의 제품 믹스 최적화:] 유럽, 미국 등 규제와 수요 변화 대응을 위해 현지 하이브리드 공급 확대 및 EV 신차 출시로, 친환경차 비중은 2025년 28%를 돌파하며 미래 수익 기반을 강화하고 있습니다[2][3].
+  - [환율 효과 및 효율적인 생산·판매 운영:] 원·달러 환율 상승과 공장의 유연 생산 체계, 각 시장별 맞춤형 전략이 수익성을 방어하고 있습니다[4].
+- 단, 연구개발 투자 확대·마케팅 비용 증가, 환율 변동성 등으로 영업이익률은 소폭 하락세를 보였으나, 경쟁사 대비 견고함이 유지되고 있습니다[3].
+3. [현재 기아가 직면한 핵심 이슈 3가지]
+- [글로벌 전기차 수요 둔화 및 중저가 전략 강화]
+  - 유럽·미국 등 대형시장에서의 전기차 수요 성장세는 둔화되었고, 중국산 저가 전기차의 압박이 심화되고 있습니다. 기아는 [EV3·EV4·EV5 등 중저가 전기차 라인업 확대와 생산효율화, 부품 내재화 및 원가 절감]에 총력 중입니다. 하반기 주요시장에 EV4(유럽), EV5(한국/글로벌) 본격 출시로 실적 모멘텀을 노립니다[3][4].
+- [자율주행·SDV(Software Defined Vehicle) 및 미래 모빌리티 투자]
+  - 현대차그룹 내 SDV 개발 경쟁이 치열하게 전개되고 있어, 기아도 [자율주행(모셔널 협업), OTA, 차량 내 소프트웨어 플랫폼 내재화] 등에 대규모 R&amp;D와 인력 재배치를 진행 중입니다. PBV, 로보택시, 물류로봇 등 모빌리티 신사업 파이프라인이 본격화되고 있습니다[2].
+- [글로벌 수익성 방어 및 공급망 리스크관리]
+  - [원자재 가격·물류비·환율·관세 등 대외 리스크]와 미국 IRA, 유럽의 보호무역 등 규제 환경 변화, 지정학 리스크가 지속적으로 수익성에 압박을 주고 있습니다. 주요 공장 유연생산, 재고·물류 효율화, 신흥시장(인도, 동남아 등) 진출 강화 등을 통해 리스크 최소화에 대응하고 있습니다[3][4].
+요약하면, 기아는 SUV/친환경 신차 중심의 글로벌 확장, 전기차·소프트웨어 혁신, 공급망/리스크 대응력 강화에 중점하며 전통 완성차를 넘어 미래 모빌리티 사업자로 체질을 전환 중입니다.
+https://seo.goover.ai/report/202503/go-public-report-ko-b1b554b5-1ad6-4efa-8755-367872bc5776-0-0.html
+https://www.hyundai.co.kr/news/CONT0000000000174068
+https://www.kaja.org/61/?idx=167044227&amp;bmode=view
+https://www.hyundai.co.kr/news/CONT0000000000175603
+https://www.catch.co.kr/Comp/AnalysisCompView?ID=3385</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
@@ -2359,7 +2405,7 @@
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2439,26 +2485,26 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>(1) [하이록코리아의 핵심 사업]  
-하이록코리아(013030)는 [계장(機張)용 피팅과 밸브]의 제조 및 판매를 주력사업으로 하는 국내 대표적인 산업용 부품 기업입니다. 이 제품들은 주로 스테인리스 스틸 소재로 만들어지며, 계측·제어시스템에서 유체(액체/기체)의 흐름을 안전하게 제어하는 데 사용됩니다. 주요 공급처는 [석유화학 플랜트, 발전소, 조선, 반도체 등] 국가기간산업에 집중되어 있습니다. 특히 1970년대 국내 최초로 피팅의 국산화에 성공했고, 이후 밸브까지 제품군을 확장해 국산화율을 높였으며, 국내 최다 공급자 승인과 각종 품질 인증을 보유하고 있습니다[1][2][3].
-(2) [최근 분기 실적 호조의 원인]  
-하이록코리아의 최근 분기 실적이 강세를 보인 주된 배경은 다음과 같습니다.
-- [유가 상승과 전방산업 투자 확대]: 유가 강세로 원유·천연가스, 석유화학 플랜트 등에서 신규·보수 투자 수요가 늘면서 동사 제품 수주가 크게 증가했습니다[1][2].
-- [조선·반도체 산업 성장]: 최근 조선업(특히 LNG선 등 고부가 선박)과 반도체 분야에서 설비 투자 확대가 이어지며, 동사의 고정밀 피팅과 밸브에 대한 수요가 본격적으로 증가했습니다[2].
-- [국산화·품질경쟁력]: 40년 이상 쌓인 신뢰와 인증, 자체적인 QC(품질관리) 시스템, 대량생산체제 등이 공급망 안정성 요구가 커진 전방산업에 긍정적으로 작용했습니다[2].
-이러한 요소들로 전방산업 매출이 고르게 증가했으며, 특히 석유화학, 조선, 반도체 분야에서 고마진 제품 위주로 공급량이 늘어나면서 수익성이 개선되고 있습니다[2].
-(3) [현재 회사가 직면한 3대 핵심 이슈]
-1. [글로벌 공급망 및 중국 경쟁사 압박]  
-최근 글로벌 플랜트·조선업 시장은 중국산 저가 제품 비중 확대와 공급망 재편 이슈에 직면해 있습니다. 하이록코리아는 높은 국산화율과 품질인증, 빠른 납기 등 차별화로 대응 중이나, 글로벌 조달시장에서 중국업체와의 가격경쟁 압력이 꾸준히 확대되고 있습니다[2].
-2. [원재료 가격 변동성]  
-주력 제품 소재인 스테인리스 등 금속 원자재 가격의 변동폭이 커지고 있습니다. 가격 상승 국면에서는 원가 부담 전가 및 판가 인상이 관건이며, 반대로 가격 하락 시에는 재고평가손실 위험에 노출될 수 있습니다[2].
-3. [전방산업 투자변동 및 경기민감성]  
-하이록코리아의 매출은 석유화학·조선·반도체 등 소수 전방산업에 집중되어 있으므로, 해당 산업의 투자 주기나 경기 변화에 민감하게 반응합니다. 글로벌 경기둔화, 반도체 업황 변동, 친환경 트렌드 등 외부 요인 변화가 회사 실적에 직결되는 구조입니다[1][2].
-이 밖에도 하이록코리아는 2023~2025년 주주 환원정책을 추진해 별도 순이익의 30% 이상 배당, 자사주 소각 등을 이행하고 있으나, 경기 하락 국면에서는 배당여력과 재무안정성에 대한 시장 우려가 있을 수 있습니다[2].
-https://w4.kirs.or.kr/download/research/220509_%ED%95%98%EC%9D%B4%EB%A1%9D%EC%BD%94%EB%A6%AC%EC%95%84(013030)_%EC%9C%A0%EA%B0%80%20%EA%B0%95%EC%84%B8%EB%A1%9C%20%EC%A0%84%EB%B0%A9%EC%88%98%EC%9A%94%EC%82%B0%EC%97%85%20%EC%88%98%ED%98%9C%20%EB%B3%B8%EA%B2%A9%ED%99%94_%EC%9D%B4%EC%9B%90%EC%9E%AC.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1714693317936.pdf
+하이록코리아(013030)는 [계장용 피팅과 밸브, 유압 관련 밸브, 초정밀 배관 부품]의 제조 및 판매를 주력으로 하는 국내 대표 산업부품 전문기업입니다. 이들 제품은 석유화학 플랜트, 발전소, 조선소(LNG선 포함), 반도체, 정밀장비 등에 사용되며, *스테인리스 스틸 등 고부가 소재*가 핵심입니다. 부산에 본사를 두고 1978년 창립 이래 국내외 주요 국가기간산업에 공급, 높은 국산화율과 신뢰성(인증, 다수 고객사), 빠른 납기 및 품질관리 능력에서 강점을 보유합니다[1][4]. 최근에는 밸브·피팅 제품을 모듈화해 해외 수출 확대, 고부가 제품 비중을 강화하는 전략도 추진 중입니다.
+(2) [최근 분기 실적 강세 배경]  
+2024년 하반기~2025년 상반기 하이록코리아의 실적이 강세를 나타낸 배경은 다음과 같습니다.
+- [고객 산업(석유화학, 조선, 반도체) 중심 투자 확대]: 2024년 하반기~2025년 주요 플랜트, 조선(LNG·친환경선박), 반도체 설비투자가 이어지며 계장용 부품 신규·교체 수요가 증가했습니다. 실제 해당 산업군과 거래 규모가 동반 확대되어 매출 성장에 직결되었습니다.
+- [국산화·품질 신뢰에 따른 점유율 확대]: 글로벌 공급망 불안과 기술 신뢰도가 필요한 산업 특성상, 하이록코리아의 국산화 인증·품질관리 체계가 조달시장(특히 국내외 조선, 정유·플랜트) 고객사 확보에 긍정적으로 작용했습니다.
+- [판가 방어와 고마진 제품 비중 증가]: 원자재 가격 상승기에 고부가가치 제품(정밀 피팅/밸브 등) 공급 확대, 각 산업군별 맞춤형 판가 조정, 대형 프로젝트 수주 등으로 이익률이 개선되었습니다.
+다만 2025년 1분기에는 글로벌 경기 조정 영향 등으로 매출액 1.5% 감소, 영업이익 17.5% 감소, 순이익 23.4% 감소라는 단기 실적 조정이 일시적으로 나타났으나, 전방산업 보수·신규 투자 트렌드가 유지되고 있어 중장기 성장 기반은 여전히 견고한 것으로 평가되고 있습니다[5][1][4].
+(3) [현재 직면한 3대 핵심 이슈]
+1. [글로벌 공급망 재편 및 중국 등 신흥 경쟁사와의 가격 경쟁]  
+플랜트·조선·반도체 산업 글로벌 공급망이 복합적으로 재편되는 가운데, 중국산 등 저가 경쟁사 제품의 점유율 확대 압박이 커지고 있습니다. 하이록코리아는 품질·납기 차별화, 인증 다변화 등으로 대응하고 있으나, 글로벌 대형 프로젝트 납품 경쟁에서 가격경쟁 우위 확보가 중장기 과제로 부각되고 있습니다[1][4][5].
+2. [원자재(특히 스테인리스 등 금속) 가격 변동성]  
+주요 원자재 가격이 불안정하게 움직이면서(특히 최근 국제 니켈·철강 등 메탈 가격 변동성), 원가 부담과 판가 전가, 재고 리스크 관리가 중요 현안이 되고 있습니다. 원자재가 급등 시에는 신속한 판가 전가 및 생산관리, 원가하락 시에는 보수적 재고관리·재고평가손실 방지가 수익성 안정화의 핵심입니다[5].
+3. [전방산업 경기민감도 및 투자집중 위험]  
+매출 구조가 여전히 석유화학·조선·반도체 등 특정 산업 비중이 높아, 이들 산업의 투자변동, 글로벌 경기둔화, 정부정책 변화(친환경·에너지 정책 등)에 실적이 크게 연동됩니다. 최근 반도체 업황 변동과 글로벌 경기 조정 국면이 단기 실적에 영향, 이에 따라 시장에서는 산업 다변화·신성장동력 확보에 관한 필요성을 지속적으로 제기하고 있습니다[5][1].
+이 외에도 주주친화 정책(배당, 자사주 소각 등)의 지속 여부, R&amp;D 및 고성능 신제품 개발, ESG·탄소중립 등 이슈도 주요 관심사로 부각되고 있으나, 2025년 현재 3대 이슈는 공급망/경쟁, 원가/원자재, 경기/산업집중이 핵심입니다.
+https://invest.deepsearch.com/stock/013030/disclosure/
+https://alphasquare.co.kr/home/stock-summary?code=013030
 https://invest.deepsearch.com/stock/013030/
 https://invest.zum.com/stock/013030/
-https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?pGB=1&amp;gicode=A013030&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=Y&amp;stkGb=701</t>
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A013030</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
@@ -2473,7 +2519,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2490,26 +2536,27 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>(1) [백산(035150)의 핵심 사업]
-백산은 1986년에 설립된 [폴리우레탄(PU) 합성피혁] 전문 제조기업으로, 주로 스포츠 신발, 차량 내장재, 전자제품 케이스, 의류용 소재 등에 제품을 공급하고 있습니다[1][2]. 2023년 기준 전체 매출 비중은 스포츠 신발용 소재가 약 61.7%로 가장 높고, 차량 내장재(15.7%), 의류(19.6%), 전자제품 케이스(1.9%) 등이 뒤를 잇습니다[1]. 대표적인 공급처는 NIKE, ADIDAS, REEBOK 등 글로벌 스포츠 브랜드이며, 차량 내장재 분야에서는 내연기관에서 전기차 부품 납품으로 다변화가 진행 중입니다. 2018년 인수한 최신물산을 통해 니트 의류 OEM/ODM 사업도 영위하고 있습니다[1].
-(2) [최근 분기 실적이 강세를 보인 배경]
-- [글로벌 스포츠용 신발 산업 리오프닝 효과]: 코로나19 팬데믹 이후 글로벌 스포츠 브랜드향 수요가 빠르게 회복되며, 주력 제품인 신발용 합성피혁의 판매가 급증했습니다. 특히 해외 생산기지(인도네시아 등)의 안정적 공급과 맞물려 외형 및 수익성이 크게 개선됐습니다[2].
-- [테슬라 등 전기차(EV) 관련 수요 확대]: 기존 내연기관 차량뿐 아니라 테슬라 등 전기차 내장재로의 공급이 지속적으로 증가했습니다. 이는 고부가가치 제품 비중이 높아지고 자동차 소재 사업부의 외형과 이익 기여도가 동반 상승했다는 점에서 주목받고 있습니다[2].
-- [의류 자회사 턴어라운드]: 최신물산 등 의류 OEM/ODM 자회사의 실적 회복이 동반되어 연결 기준 전체 실적 개선에 일조했습니다[1][2].
-이러한 요인으로 2021년 영업이익은 전년 대비 487.8% 급증한 232억 원을 기록했고, 최근까지도 시장 기대치를 상회하는 실적이 이어지고 있습니다[2].
-(3) [현재 백산이 직면한 3대 핵심 이슈]
-1. [원자재 가격 변동성]  
-   백산의 주력 제품인 폴리우레탄 합성피혁은 원유 및 화학제품(폴리올·MDI 등)에 기반한 원자재 가격의 영향을 크게 받습니다. 최근 급등락하는 원자재 가격에 따라 수익성 변동 리스크가 존재합니다[2].
-2. [고객사 다변화 및 신사업 확대]  
-   기존 매출의 높은 비중이 일부 글로벌 브랜드(특히 스포츠 신발)에 편중되어 있어, 자동자·의류·전자부품 등 타 산업 및 신제품 분야로의 공급 다변화가 필요합니다[1][2]. 이에 인조피혁 및 고기능성 소재, EV 내장재 확대 등 미래 성장동력을 육성하는 것이 핵심 과제로 꼽힙니다.
-3. [경쟁 심화 및 기술/환경 규제 대응]  
-   합성피혁 시장의 진입장벽이 점차 낮아지고, 동남아 신생업체와 경쟁이 확대되는 상황입니다. 또한 환경 규제(친환경 소재, 리사이클 소재 등)에 따른 생산·설비 투자 부담과 제품 포트폴리오 전환의 압박도 동반되고 있습니다[2].
-이와 같은 구조적 장단점 속에서, 백산은 기존 신발·자동차 소재 사업의 경쟁력 강화와 신산업 대응 등 ‘투 트랙’ 전략을 모색하고 있습니다.
-https://file.alphasquare.co.kr/media/pdfs/company-report/_20071617-035150.pdf
-https://rdata.kbsec.com/pdf_data/20220425170323257K.pdf
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=035150&amp;cn=
+          <t>(1) [백산(035150)의 핵심 사업]  
+백산은 [폴리우레탄(PU) 합성피혁] 전문 제조기업으로, 주력 제품은 스포츠 신발용 합성피혁 소재입니다. 2024년에도 매출의 상당 부분이 NIKE, ADIDAS 등 글로벌 스포츠 브랜드에 공급되는 신발용 소재(약 60% 내외)에서 발생했으며, 그 외에는 차량 내장재, 의류소재, 전자제품용 케이스 등 다양한 합성피혁 제품을 공급하고 있습니다. 2018년 인수한 자회사(최신물산) 등을 통해 의류 OEM/ODM 생산도 병행하고 있습니다. 최근에는 [전기차(EV) 내장재] 소재 및 친환경/고기능성 인조피혁으로 사업영역이 확대되고 있습니다[2].
+(2) [최근 분기 실적이 강세를 보인 배경]  
+2025년 1분기 매출은 1,342억 원으로 전년 동기 대비 13% 증가하였지만, 당기순이익은 134억 원으로 27% 감소하여 [매출 성장과 수익성 하락]이 동시에 나타났습니다. 주요 원인은 다음과 같습니다.
+- [글로벌 신발용 소재 수요 회복]: 팬데믹 이후 주요 고객사(글로벌 스포츠 브랜드)의 발주 증가와 동남아 생산기지의 생산 안정화로 주력 제품 판매가 증가했습니다.
+- [EV 내장재 매출 확대]: 테슬라 등 전기차 브랜드향 소재 공급이 성장세를 지속했고, 고부가가치 차량 내장재 비중도 조금씩 확대되고 있습니다.
+- [자회사 실적 정상화]: 의류 OEM/ODM 부문에서 실적이 개선되어 연결 기준 매출 성장에 기여했습니다.
+- [원가 및 판관비 상승]: 2025년 1분기에는 원자재 가격 상승 및 판관비 부담 등으로 [이익 마진이 10.0%로 하락](2024년 1분기 15% → 2025년 1분기 10%)했습니다. 이는 영업이익률 하락과 순익 감소로 이어졌습니다[1][3].
+(3) [현재 백산이 직면한 3대 핵심 이슈]  
+1. [원자재 가격 및 비용 구조 리스크]  
+   폴리우레탄 합성피혁은 원유 계열 화학제품(폴리올·MDI 등) 가격에 민감하게 반응합니다. 최근 국제 유가·원재료 시세 변동과 인건비, 운송비 등 전반적인 비용 인상으로 원가 관리 부담이 증가하여 영업이익률 하락 압력이 커지고 있습니다[1][3].
+2. [고객 다변화 및 성장동력 확보]  
+   주력 매출처가 글로벌 신발 브랜드에 치우쳐 있다는 점이 구조적 리스크입니다. 자동차(내연기관+전기차), 전자제품, 신규 패션 브랜드 등으로 공급처와 산업군을 확대하는 것이 중장기 과제로 남아 있습니다. 또한 친환경·기능성 소재, 리사이클 소재 등 신제품 개발과 신사업 투자도 병행되어야 합니다[2].
+3. [경쟁 및 친환경 트렌드 대응]  
+   동남아 신규 업체 등과의 가격·품질 경쟁이 심화되는 가운데, 각국의 환경 규제, ESG 요구, 친환경 합성피혁 소재로의 포트폴리오 전환이 필수적입니다. 기존 설비 투자와 함께 기술 개발 및 환경 대응 투자가 불가피해, 수익성 및 자본 효율성에 영향을 미치고 있습니다[2].
+이와 같이 [비용 부담 증가, 고객/시장 다변화 미진, 친환경 트렌드 가속화]가 백산의 2025년 핵심 이슈입니다.
+https://simplywall.st/ko/stocks/kr/consumer-durables/kose-a035150/baiksan-co-shares/news/36981243ac6cc019/amp
 https://invest.deepsearch.com/stock/035150/
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240319000362&amp;docno=&amp;viewerhost=</t>
+https://tossinvest.com/stocks/A035150/order
+https://comp.fnguide.com/SVO2/ASP/SVD_Consensus.asp?pGB=1&amp;gicode=A035150&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=108&amp;stkGb=701
+https://finance.daum.net/quotes/A035150</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
@@ -2524,7 +2571,7 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2541,32 +2588,31 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JW생명과학(234080)의 핵심 사업, 최근 실적 호조 배경, 그리고 당면 과제는 다음과 같이 정리할 수 있습니다.
-1. [핵심 사업 설명]
-JW생명과학의 [주력 사업은 의약품, 그중에서도 주로 수액제(IV solution) 생산과 판매]입니다. 주요 제품군은 다음과 같습니다:
-- [기초수액제]: 수분/전해질/당 성분 보충을 위한 수액. 흔히 병원에서 가장 많이 사용됨.
-- [종합영양수액제(TPN)]: 칼로리, 필수아미노산, 필수지방산 등 전신 영양을 공급할 수 있는 고부가가치 수액, 주로 중환자나 영양 결핍 환자용.
-- [특수수액제]: 수술, 항생제 투여 등 특수 목적용 수액.
-- [영양수액]: 아미노산 공급용.
-- [HEMO 제품]: 인공신장투석 환자 대상 관류액.
-2023년 3분기 누적 기준 제품별 매출 비중은 [TPN 35%, 기초수액 31.6%, 특수수액 14.4%, 영양수액 9%, HEMO 8%] 등으로, TPN의 비중이 가장 높음이 특징입니다[1][2]. JW생명과학은 [국내 수액제 시장 점유율 1위], 특히 복합영양(3chamber) TPN 생산 경쟁력이 매우 높습니다[2].
-2. [최근 분기 실적 호조의 주요 배경]
-JW생명과학이 최근 실적에서 강세를 보인 배경은 아래와 같습니다:
-- [생산능력(CAPA) 증설]: 2023년 말, 연간 1,400만 개 영양수액 생산이 가능하도록 설비 증설을 완료함. 이로 인해 고정비가 분산되고 효율성이 상승, 이익률 개선이 가능해졌음[3].
-- [고부가가치 신제품 출시]: JW중외제약과 협업해 2024년 1월부터 '위너프에이플러스주'(3chamber TPN 신제품) 등 고가 제품군을 본격 출시, 단가와 매출 모두 상승[3].
-- [외부 환경 영향 최소화]: 의료 파업 등 환경 변화에도, 대부분의 수액제가 병/의원 및 의료기관에서 필수적으로 쓰이기에 영향이 적음. 특히 대형병원보다 중소병원에서 사용하는 영양수액 비중이 커 외부 변수 영향에서 상대적으로 자유로움[3].
-- [유럽 EUGMP(우수의약품제조관리기준) 승인∙B2B 성장]: 글로벌 위탁생산(CMO) 및 수출 증가로 시장 외연 확대[2].
-3. [주요 현안(Top 3 Key Issues)]
-아래 세 가지 이슈가 현 시점에서 JW생명과학에 중요하게 작용하고 있습니다:
-- [수액제 시장 성장 둔화 및 경쟁 심화]: 국내 의료 인프라 포화와 경쟁사 진입으로 기존 수액제 시장 성장률이 점차 둔화되고 있음. 향후 성장동력 확보(예: 신제품, 글로벌 진출)가 매우 중요함[2][3].
-- [수출 비중 확대의 한계]: 수출 및 해외 CMO 매출 비중이 2023년 기준 3.8%에 불과함. 국내 시장 의존도(특히 계열사 JW중외제약 매출 비중 82% 이상)가 높아 글로벌 분산 필요성이 꾸준히 제기됨[2].
-- [원가율 관리 및 이익률 방어]: 물류비, 인건비 등 원가 상승 압력이 계속되고 있으나, 단가 인상이나 고정비 분산에 한계가 존재. 실적 성장세 유지에는 원가 효율화와 고부가가치 제품 포트폴리오 확장이 필수적임[3].
-요약하면, JW생명과학은 [수액제 제조 전문성과 생산설비 경쟁력]에서 강점을 가지나, [내수 의존 고착, 원가 경쟁, 미약한 해외시장 확대]가 당면 과제로 부각되고 있습니다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1668035305134.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1706743987924.pdf
-https://bbn.kiwoom.com/rfCR10961
-https://pharm.edaily.co.kr/News/Read?newsId=01449766638787896&amp;mediaCodeNo=257
-https://www.deepsearch.com/analytics/company-analysis/KRX:234080?c-name=JW%EC%83%9D%EB%AA%85%EA%B3%BC%ED%95%99&amp;c-symbol=KRX%3A234080&amp;cd-cat=topic&amp;cd-df=2024-07-29&amp;cd-dt=2024-08-05</t>
+          <t>JW생명과학(234080)은 국내 수액제 시장에서 독보적인 위치를 유지하고 있으며, 최근 분기 실적이 강하게 개선되었지만, 내수 집중과 원가 부담, 그리고 글로벌 확장 한계라는 현실적 과제에 직면해 있습니다.
+1. [핵심 사업]  
+JW생명과학의 핵심 사업은 [의약품 중 '수액제(IV 솔루션)'의 제조 및 판매]입니다.  
+- 주력 제품은 ▲기초수액제 ▲종합영양수액제(TPN) ▲특수수액제 ▲영양수액 ▲HEMO(투석용 관류액) 등으로 구성됩니다.
+- JW생명과학은 [국내 최초 TPN 개발사]로, 특히 *TPN(3chamber 종합영양수액)* 분야에서 오랜 시간 점유율 1위를 유지하고 있습니다. 2024년 기준 시장점유율은 54.6%에 달하며, 연속적으로 점유율을 확대해왔습니다[1][5].
+- 주요 TPN 제품은 *위너프페리주(3세대)*, 그리고 최근 국내 최초로 허가된 고아미노산 기반 *위너프에이플러스주(4세대)* 등 고부가·고기능성 신제품이 포함됩니다. 일반 병원의 필수 치료제로 자리잡아 연간 매출과 이익이 안정적으로 발생합니다[1].
+- 2025년 1분기 기준 전체 매출의 약 36.7%가 TPN에서 발생했으며, 전년동기 대비 매출 증가율이 29.7%에 달할 정도로 성장세가 강한 상황입니다[1][4].
+2. [최근 분기 실적 호조 배경]  
+JW생명과학의 2024~2025년 실적 강세는 아래 요인에 기반합니다.
+- [고기술 신제품 및 라인업 확장:] 4세대 고아미노산 TPN(위너프에이플러스주 등) 출시에 따른 단가·마진 동반 상승. 면역개선 효과를 강화한 신제품이 핵심 성장 동력으로 작용하며, 고부가가치 제품 비중이 꾸준히 상승[1][5].
+- [설비투자 및 생산능력 증대:] 최근 증설을 통해 수액제 연간 생산능력을 확대, TPN 등 주력 수액제 공급량을 크게 늘리고 있습니다. 고정비 분산효과로 수익성도 개선[1].
+- [내수 기반의 안정적 수요:] 한국 내 병원 필수의약품인 수액제의 특성상 외부환경(의료 파업 등)에 강하며, 중소병원에서의 영양수액제 수요 확대로 외생 변수 리스크가 작습니다.
+- [수출·글로벌 CMO 매출 증가:] 유럽 EUGMP(우수의약품제조관리) 승인을 기반으로 해외 위탁생산(CMO) 및 직접수출이 점진적으로 증가하며, 성장 모멘텀이 일부 가시화되고 있습니다[5].
+이 결과, 2025년 1분기 기준 JW생명과학의 연결기준 매출액은 전년동기 대비 37.7% 증가, 영업이익은 7.0%, 순이익은 19.0% 증가했습니다[2][5]. 자기자본이익률(ROE) 22.6%, 순이익률 18.5%로 수익성도 업계 최상위권을 유지합니다[2].
+3. [최대 현안(Top 3 Key Issues)]  
+아래 세 가지가 JW생명과학의 핵심 리스크 혹은 도전 과제로 부각되고 있습니다.
+- [내수 편중 및 시장 성장률 둔화:] 국내 시장 성장 한계와 경쟁 심화로 추가 성장에 구조적 제약이 있습니다. 전체 매출 중 해외 비중이 여전히 5% 미만에 불과해 글로벌 분산화, 수출 확대가 시급한 과제입니다[1][5].
+- [원가 및 비용압박:] 물류, 에너지, 인건비 상승 등으로 원가 부담이 커지고 있습니다. 고부가가치 제품 매출 확대·비용 효율화 추진 중이나, 단가 인상 여력에는 한계가 있습니다.
+- [글로벌 시장 확대의 난항:] 수출 및 위탁생산 매출 증가세에도 불구하고 구조적으로 해외 진출 비중이 낮아 계열사(JW중외제약 등) 내수 매출 의존도가 높습니다. 해외 인증 획득 및 실질적 시장 침투가 장기 과제입니다[5].
+JW생명과학은 국내 수액제 절대강자 위치와 기술혁신 경쟁력을 기반으로 실적 호조를 보이고 있으나, 시장 구조적 한계와 글로벌화의 어려움, 비용통제 등이 앞으로의 성장과 직결된 핵심 이슈로 남아 있습니다.
+https://dealsite.co.kr/articles/145260/068031
+https://simplywall.st/ko/stocks/kr/pharmaceuticals-biotech/kose-a234080/jw-lifescience-shares/past?bpId=3522881&amp;link_type=conclusion
+https://alphasquare.co.kr/home/stock-summary?code=234080
+https://kind.krx.co.kr/common/disclsviewer.do?method=searchInitInfo&amp;acptNo=20250515002198&amp;docno=
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A234080</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
@@ -2581,7 +2627,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2599,29 +2645,30 @@
       <c r="C40" t="inlineStr">
         <is>
           <t>(1) [태경비케이의 핵심 사업]
-태경비케이는 [석회석 광산업 및 다양한 석회 제품 제조와 판매에 주력하는 기업]입니다. 주요 사업 부문은 크게 세 가지로 나뉩니다:
-- [석회석 제조·판매]: 천연 석회석을 채굴해 생석회, 소석회, 수산화칼슘, 경질탄산칼슘 등 다양한 석회 제품을 생산합니다. 이 제품들은 철강 제조, 건설 자재, 오염물질 중화 등 산업 전반에 핵심 원재료로 공급되고 있습니다[1][2][3].
-- [탄산가스 제조·판매]: 다양한 공정에서 발생하는 탄산가스를 포집해 산업용으로 재판매합니다[1].
-- [휴게소 운영]: 고속도로 휴게소 시설 운영 사업도 병행하고 있으나, 매출 비중은 석회 및 광물 부문이 압도적으로 큽니다[1].
-이 외에도 산업폐기물 재생처리, 비료·연료 사업 등도 일부 전개하고 있지만 핵심은 석회 관련 제품 생산입니다[1][2][3].
-(2) [최근 분기 실적이 강했던 배경]
-최근 실적 호조의 구체적 원인은 다음과 같습니다.
-- [철강·건설·환경 분야 산업 활황]: 석회 제품 수요의 1차적 성장 동인은 국내외 철강, 건설, 환경 산업의 견조한 경기입니다. 특히 철강생산 확대와 건설 경기 회복, 환경 규제 강화로 석회 제품 사용량이 늘고 있습니다. 이는 동사의 주력 납품처 업황이 동반 호조를 보인 데서 기인합니다[1][2].
-- [글로벌 에너지·원자재 가격 상승에 따른 수혜]: 석회석ㆍ석유 코크스 등 원재료 가격 변동 국면에서, 동사는 비교적 가격 전가력이 높아 마진 방어가 용이했고, 이에 따라 영업이익률이 크게 개선되었습니다[3].
-- [제품 가격 인상 및 제품군 다변화]: 주요 원재료 및 제품 가격이 상승하면서, 동사도 제품 판매가를 성공적으로 인상하였고, 또한 수산화칼슘·경질탄산칼슘 등 고부가 제품 비중이 증가해 전체 수익성이 호전됐습니다[2][3].
-(3) [현재 태경비케이가 직면한 주요 이슈 3가지]
-- [원자재 가격 변동 및 공급망 리스크]  
-  석회석 및 에너지 연료(석유 코크스 등)의 국제가격 변동성이 여전히 큽니다. 원가 상승 시 가격 전가력이 약화될 경우 수익성이 흔들릴 수 있으며, 글로벌 공급망 불안도 잠재리스크입니다[3].
-- [환경 규제 강화 및 지속가능경영 요구]  
-  석회석 채굴과 석회제품 생산은 환경영향(탄소배출, 미세먼지 등)이 상당합니다. 정부 및 글로벌 시장의 ESG(환경·사회·지배구조) 규제가 강화되어, 친환경 생산 공정 전환 및 이에 따른 투자 부담, 규제 준수 비용이 단기 이슈입니다[1].
-- [주력 납품처 경기 변화]  
-  철강, 건설, 환경 등 대형 납품산업의 업황 변동에 크게 노출됩니다. 수요처 다변화와 신제품 개발이 이루어지고 있지만, 1차산업 의존도가 높아 관련 업황 둔화 시 실적 변동성이 큽니다[1][2].
-이 외에도, 고용 및 안전관리, 인플레이션에 따른 전반적 비용 부담 증가, 국내외 시장 점유율 경쟁 등도 지속 주시해야 할 현안입니다.
-https://www.k5.co.kr/stock/014580
-https://www.valueline.co.kr/finance/summary/014580
-https://kr.investing.com/equities/baek-kwang-min
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=014580&amp;cn=
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240319000819&amp;docno=&amp;viewerhost=</t>
+태경비케이(014580)는 [석회석 광산 개발과 석회 제품 제조 및 판매]를 주력으로 하는 기업입니다. 주요 사업 구성은 다음과 같습니다.
+- [석회석 채굴 및 가공]: 천연 석회석을 직접 채굴해 생석회, 소석회, 수산화칼슘, 경질탄산칼슘 등 다양한 제품으로 가공한 뒤 산업 원재료로 공급합니다. 이들 제품은 국내 철강 제조, 건설 자재, 환경 처리 등 산업에 필수 소재로 사용됩니다.
+- [탄산가스의 산업용 생산 및 공급]: 공정상 발생하는 탄산가스를 산업용으로 포집·정제해 판매합니다.
+- [기타 사업(휴게소 운영, 폐기물 재생 등)]: 고속도로 휴게소 운영 등 부가 사업도 전개하지만 매출과 이익의 대부분은 석회 및 관련 광물 부문에서 발생합니다[1][2].
+(2) [최근 분기 실적 호조 배경 (2025년 상반기 기준 업데이트)]
+태경비케이의 최근 분기(2025.1Q~2Q) 실적이 강세를 보인 구체적 요인은 다음과 같습니다.
+- [기초 소재 산업 전반의 성장]: 2025년 상반기에도 국내외 철강과 건설 경기의 회복세가 지속되어 석회 제품 수요가 견고하게 유지되고 있습니다[2]. 환경 규제 강화에 따른 오염물질 중화/처리용 수요도 늘며 영업 기반을 확장했습니다.
+- [제품 믹스 고도화 및 고부가가치화]: 동사는 수산화칼슘, 경질탄산칼슘 등 고부가가치 제품 비중을 확대함으로써 전년 대비 평균 마진율을 지속적으로 끌어올렸습니다[2].
+- [원가 관리 및 가격 전가능력]: 석회석·코크스 등 원재료 인상분을 대부분 판매단가에 반영해 수익성을 유지, 2025년 1분기 영업이익률은 10%대 후반을 기록했습니다[1][4].
+- [부채 증가 억제와 자산 확장]: 올해 들어 추가적 외부 차입 없이 자본 및 자산 증가를 이뤄 안정적 재무구조가 유지됐습니다[1].  
+최근 실적 발표(2025년 5월 기준)에서 영업이익은 작년 동분기보다 증가세가 지속되고 있습니다[4].
+(3) [현재 태경비케이가 직면한 주요 이슈 3가지 (2025년 하반기 기준 최신)]
+- [글로벌 소재·에너지 원자재 가격 급등 리스크]  
+  2025년 들어 원자재(석회석, 코크스 등) 및 에너지 비용의 변동성이 매우 커졌습니다. 중국 원석 수입 단가의 최근 상승이 영향을 주며, 동사는 최종 납품가에 일부만 전가하고 있어 마진 압박 요인을 안고 있습니다. 공급망 불균형이 장기화될 수 있다는 우려도 있습니다[1][2].
+- [환경 규제 및 탄소배출 대응]  
+  정부의 탄소배출·분진 관리 강화, ESG 기준 적용 확대 등으로 친환경 설비 신증설과 추가적 환경비용 부담이 늘었습니다. 특히 탄소배출권 확보비용, 생산공정 친환경화 투자 등 ‘규제 준수 비용’이 증가하는 추세입니다.
+- [수요처 산업 경기 리스크 및 거래선 다변화 필요]  
+  철강·건설 중심의 매출 구조로 관련 경기 변화에 실적이 크게 좌우될 수 있습니다. 올해 상반기 철강 수요 회복에 따른 수혜가 있었지만, 하반기 들어 일부 수요처의 발주 지연이나 업황 약화 조짐이 나타납니다. 이에 거래선 다변화, 신제품 개발 투자 등이 단기 과제로 부각되고 있습니다[2][3].
+추가로, 단기적으로 인플레이션에 따른 인건비·판매관리비 상승, 국내외 시장 점유율 경쟁, 안전·노동 규제 대응 등이 복합적 부담으로 작용하고 있습니다.
+https://valueline.co.kr/finance/balancesheet/014580
+https://simplywall.st/ko/stocks/kr/materials/kose-a014580/taekyung-bk-shares/past
+https://alphasquare.co.kr/home/stock-summary?code=014580
+https://tossinvest.com/stocks/A014580/order
+https://markets.hankyung.com/stock/014580</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -2636,7 +2683,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2654,29 +2701,29 @@
       <c r="C41" t="inlineStr">
         <is>
           <t>(1) 나이스정보통신의 핵심 사업
-나이스정보통신(036800)은 [국내 대표 결제 인프라 기업]으로, 두 가지 축을 중심으로 사업을 영위합니다.  
-첫째, [VAN(Value Added Network, 부가가치통신망) 사업]으로, 신용카드 거래 승인, 수표 조회, 자동응답시스템 승인 등 금융 부가가치 네트워크 서비스를 제공합니다. 이 사업을 통해 오프라인 매장 및 가맹점에 카드 결제망을 구축하고, 결제 데이터를 중계하는 인프라를 담당합니다[1][2].  
-둘째, [PG(Payment Gateway) 사업]으로, 온라인 및 모바일 결제 솔루션을 통합 제공하는 IT 기반 서비스를 담당합니다. ‘NICE PAY’라는 자체 브랜드로 다양한 온라인상 결제 중개 및 세금 포인트 서비스, POS(포스) 단말기 제조·임대, 전자지급결제업 등을 운영합니다[1][2].
-(2) 최근 분기 호실적의 구체적 배경
-최근 몇 분기 동안 나이스정보통신이 강한 실적을 보여준 데에는 [오프라인 결제시장 회복과 온라인 결제시장 성장의 동시 효과]가 결정적이었습니다.
-- [엔데믹(코로나19 이후) 환경에서 오프라인 카드 결제량이 빠르게 회복]되어 VAN 부문 거래 승인액 증가 및 수익성 강화가 나타났습니다[2]. 사회적 거리두기가 완화되면서 유통, 외식, 숙박 등 대면 서비스업의 결제 회복 효과가 두드러졌습니다.
-- [PG 부문에서는 이커머스, 배달앱 등 비대면 소비 확대로 매출 성장]을 이어갔습니다. NICE PAY 브랜드의 전자결제가 다양한 온라인 사업자로부터 수요를 견인하고 있습니다[2].
-- [시장 점유율 확대]도 중요한 요인입니다. 오프라인과 온라인 결제 인프라 모두에서 높은 신뢰도와 기술력을 바탕으로 대형 가맹점과 신규 고객 확보에 성공하면서 경쟁사 대비 우위를 공고히 했습니다[2].
-- 자체 [IDC(인터넷 데이터센터) 및 모바일 오더, 위치 기반 서비스 등 신사업의 수익화]도 실적 개선에 일조했습니다[2].
-(3) 현재 나이스정보통신이 직면한 3대 주요 이슈
-1. [신용카드 수수료율 인하 압박]
-   - 금융 당국이 가맹점 부담 완화를 위해 신용카드 결제 수수료율 추가 인하를 지속적으로 검토 중입니다. VAN 및 PG사업 모두 마진구조가 약화될 수 있어, 수지 구조 개선 및 신규 매출원 확보가 필요합니다[2].
-2. [온·오프라인 결제시장 경쟁 심화]
-   - 국내외 빅테크 기업 및 핀테크 스타트업들이 결제시장에 진입하면서 VAN, PG 양쪽 모두에서 경쟁이 치열해지고 있습니다. 기술 고도화와 차별화된 서비스 도입 없이는 시장 점유율 방어가 쉽지 않습니다[2].
-3. [신성장동력 확보 및 사업 다각화]
-   - 기존 카드결제 인프라 의존도를 탈피하고, 데이터 기반 신규 서비스(예: 위치기반 서비스, 세금 환급(Tax Refund) 사업, 글로벌 PG 진출 등)에서 얼마나 빠르고 효과적으로 실적을 내는지가 중장기 성장의 관건입니다[2][4]. 해외 진출, 식자재유통 등 공급자 우위가 기대되는 신규 산업 진입도 주요 현안으로 부상하고 있습니다[4].
-[요약]  
-나이스정보통신은 국내 결제 인프라(VAN·PG) 시장의 강자로, 최근 대면·비대면 결제 모두의 회복과 성장 덕분에 실적이 개선되고 있습니다. 그러나 수수료율 인하, 경쟁 심화, 신사업 확장이라는 중대 이슈에 대응해 지속적인 혁신과 포트폴리오 다각화가 요구되고 있습니다.
-https://kr.investing.com/equities/nice-information-telecommunicatio
-https://ssl.pstatic.net/imgstock/upload/research/company/1646871532929.pdf
-https://www.nicevan.co.kr/inc/nice_download.asp?idx=167
-http://www.koreastock.co.kr/main/common/common_file/fileView.cmd?category=2&amp;depth3_id=anls1&amp;key1=42646&amp;key2=1&amp;bldid=bbs10031&amp;getFD=1
-https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A036800&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701</t>
+나이스정보통신(036800)은 [국내 최대 결제 인프라 사업자]로, 크게 두 가지 축의 사업을 영위합니다.
+- [VAN(VALUE ADDED NETWORK, 부가가치통신망) 사업]: 전국 오프라인 가맹점의 카드 승인·조회, 수표 인증, 자동응답시스템 등 금융 부가가치 네트워크 서비스를 제공합니다. 오프라인 결제 데이터를 중계하고 관리하는 결제 인프라를 구축·운영합니다[5].
+- [PG(Payment Gateway) 사업]: 온라인·모바일 결제 중개 서비스로, ‘NICE PAY’ 브랜드를 중심으로 다양한 전자지급결제 솔루션을 공급합니다. 이커머스, 배달앱 등 비대면 거래가 확산되면서 온라인 사업자와 소비자를 연결하는 역할이 커지고 있습니다[5][2].
+- 최근 [TRS(Tax Refund Service, 외국인 여행객 부가세 환급) 사업]이 고성장 중이며, 2023년 82억원 → 2024년 194억원 → 2025년 290억원(전망)으로 빠르게 성장하는 신사업입니다[1].
+(2) 최근 분기 실적 개선의 구체적 배경
+2024~2025년 최근 분기에 강한 실적이 지속된 원인은 다음과 같이 구체적입니다.
+- [오프라인 결제 시장의 엔데믹 완전 회복]: 사회적 거리두기 해제로 유통, 외식, 숙박 등 대면 서비스 결제량이 크게 증가하며 VAN 사업의 승인 거래액과 수익성이 전년 대비 상승했습니다[3].
+- [온라인/모바일 결제 급성장]: PG 사업 부문은 온라인 이커머스·모바일 소비 확대로 매출 성장세를 이어가고 있습니다. NICE PAY의 시장점유 확대와 신규 대형 거래처(배달앱/쇼핑몰) 확보가 실적을 견인했습니다[2].
+- [TRS 사업의 폭발적 매출 성장]: 외국인 관광객 증가와 정부 정책에 힘입어 부가세 환급 서비스 매출이 급증, 전체 영업이익 개선에 크게 기여하고 있습니다[1].
+- [효율적 비용 관리와 자사주 소각 논의]: 현금 흐름이 개선되면서 재무건전성이 높아졌고, 행동주의 펀드의 압박으로 주주 환원 정책(자사주 매입·소각 요구)이 거론되는 등 자본효율성에 대한 시장의 관심도 상승했습니다[2][3].
+(3) 현재 직면한 3대 주요 이슈
+1. [신용카드 수수료율 추가 인하 압박]
+   - 정부·금융당국의 가맹점 부담경감 정책으로 카드결제 수수료 인하가 거듭 논의되어, VAN과 PG 마진 구조가 계속 악화될 수 있습니다. 수익원 다각화와 비용 절감, 신규 서비스 발굴이 불가피한 환경입니다[2].
+2. [시장 구조 재편 및 경쟁 심화]
+   - 국내외 빅테크·핀테크 기업의 결제시장 진입과 기술 고도화 경쟁으로 전통적인 VAN/PG 영역이 위협받고 있습니다. 나이스정보통신은 IT 역량 강화, 차별화 서비스 및 신사업(예: TRS, 데이터 서비스) 확대가 필수적입니다[2][1].
+3. [자사주 소각·주주 환원 정책 강화에 대한 시장 압박]
+   - 행동주의 펀드가 회사 자본을 활용한 자사주 매입·소각, 자동 바이백 정책을 강력히 요구하는 등 주주가치 제고가 경영진의 중대한 과제가 됐습니다. 실제로 발행주식 10% 매입·소각, 정기적 자본 운용 로드맵 공개 등 구체적 요구가 이어지고 있습니다[2].
+이처럼 나이스정보통신은 [오프라인·온라인 결제 인프라에서의 압도적 점유율]과 [TRS 등 신사업 성장]을 기반으로 견조한 실적을 달성 중이지만, 수수료 인하, 치열해지는 경쟁, 자본 운용 문제라는 구조적 도전에도 직면하고 있습니다.
+https://www.bondweb.co.kr/_research/downloadPage.asp?number=856962&amp;gn=1
+https://dealsite.co.kr/newsflash?NFLIKE=%EB%82%98%EC%9D%B4%EC%8A%A4%EC%A0%95%EB%B3%B4%ED%86%B5%EC%8B%A0
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?pGB=1&amp;gicode=A036800&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20250317001108&amp;docno=&amp;viewerhost=
+https://m.invest.zum.com/stock/036800/</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -2691,7 +2738,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2708,27 +2755,28 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>신일제약(012790)은 주로 의약품 제조 및 판매를 영위하는 국내 상장 제약회사입니다. 최근 본업에서 실적이 크게 개선되어 주목받고 있으며, 몇 가지 핵심 이슈를 중심으로 경영 환경이 변화하고 있습니다.
-(1) [신일제약의 핵심 사업]  
-신일제약은 1971년 설립되어, [양약(무코치올, 트레스, 히노킬 등 다양한 치료제)]와 더불어 정제, 캡슐제, 시럽제, 연고/크림제, 주사제, 플라스타제 등 다양한 [의약품을 제조 및 판매]하는 것을 주력 사업으로 하고 있습니다. 본사는 충청북도 충주시 앙성면에 위치해 있으며, 이외에도 일부 건강기능식품, 의약외품, 화장품, 부동산 임대업 등 부수 사업을 병행하고 있지만, 전체 매출의 대부분은 의약품 부문에서 발생합니다[1][4][5].
-(2) [최근 분기 실적 강세의 구체적 배경]  
-신일제약은 상장 제약사 중 영업이익률 5위권에 오를 정도로 [수익성이 크게 개선]되었습니다[1]. 최근 분기 실적 강세의 주요 요인은 다음과 같습니다.
-- [주력 의약품의 매출 증가]: 무코치올(점액용해제), 트레스(진통소염제), 히노킬(기관지 치료제) 등 주요 제품군 판매량의 꾸준한 성장으로 매출이 안정적으로 증가했습니다[1][5].
-- [생산 효율성 개선]: 설비 현대화, 원가 절감 등 내부 프로세스 개선을 통해 [제조원가를 낮추고 영업이익률을 끌어올렸습니다.]
-- [R&amp;D비 축소]: 2024년부터 천연물 신약 치료제 개발을 전면 중단하면서 R&amp;D 비용 부담이 크게 줄었고, 그 결과 [단기적으로 영업이익이 증가]하는 효과가 있었던 점도 실적 개선의 한 축입니다[1].
-(3) [현 시점에서 신일제약이 직면한 3대 핵심 이슈]
-1. [신약 개발 방향성 상실]  
-2024년 천연물 신약 치료제 개발을 전면 중단한 이후, 신일제약은 [장기 성장 동력이 약화]된 상황입니다. 투자자들은 신약 R&amp;D 포기 이후에도 기존 사업 외 비전 및 신성장 동력 창출 여부에 주목하고 있습니다[1].
-2. [경영권 및 지배구조 변화]  
-2023년 9월, 최대주주가 홍성소에서 그의 장녀 홍재현 대표이사로 변경되는 [경영권 교체가 있었습니다.] 이에 따라 조직 재편, 미래 전략 방향성, 내부 통제 등 [지배구조 안정성과 관련된 이슈가 제기]되고 있습니다[1].
-3. [제품 포트폴리오의 한계]  
-주력제품에 과도하게 매출이 집중되어 있어, 주요 품목의 경쟁 심화, 제네릭(복제약) 시장 확대, 정부의 약가 인하 정책 등에 따라 [매출이 급변할 수 있다는 위험]이 존재합니다. 신제품 개발력 부재 및 제품 다각화 부족이 중장기적으로 리스크로 작용하고 있습니다[5].
-이와 같이 신일제약은 꾸준한 본업 강점을 바탕으로 단기 실적이 호전되고 있으나, [장기 성장 동력 부재, 지배구조 변동, 사업 포트폴리오 리스크] 등의 과제를 풀어야 하는 상황입니다.
-https://ko.wikipedia.org/wiki/%EC%8B%A0%EC%9D%BC%EC%A0%9C%EC%95%BD
-https://m.finance.daum.net/quotes/A012790/news/stock/20210129174511761
-https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A012790
-https://kind.krx.co.kr/common/disclsviewer.do?method=searchInitInfo&amp;acptNo=20230317000982&amp;docno=
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240809000281&amp;docno=&amp;viewerhost=</t>
+          <t>신일제약(012790)은 국내 대표적 [전문의약품 제조 및 판매] 기업으로, 최근 안정적 재무성과와 신규 사업 진행, 하지만 성장성과 경영 환경 측면에서 의미있는 과제를 동시에 안고 있습니다.
+(1) [핵심 사업]
+- 신일제약의 주력은 [전문의약품, 일반의약품, 건강기능식품] 등 다양한 치료제의 개발·생산·유통입니다. 주요 제품으로는 무코치올(점액용해제), 트레스(진통소염제), 히노킬(기관지치료제) 등이 있으며, 원료의약품, 외용제, 주사제 등 제형별 라인업과 일부 건강기능식품, 의약외품 사업도 병행합니다. 연 매출액은 약 2조 원, 과거 5년간 연평균 매출 성장률 6% 내외로 [안정적 성장세]를 보였고, 최근 2~3년간은 해외 시장 매출이 크게 늘었습니다. 2024년 해외 매출은 약 651억 원, 전년 대비 98% 가까이 급증했습니다[2].
+(2) [최근 분기 강세 요인]
+- 2024년 하반기~2025년 상반기 실적 개선의 [핵심 동력]은 다음과 같이 정리됩니다.
+  - [주력제품 판매 호조]: 무코치올, 트레스 등 주요 품목이 내수와 일부 해외 시장에서 경쟁력을 강화하며 판매량이 꾸준히 증가했습니다[2][4].
+  - [해외 진출 가속화]: 최근 2년간 동남아·중동 등지 위주로 수출이 급증했으며, 2024년 해외 매출은 전년대비 두 배 가까이 성장했습니다[2].
+  - [효율적 비용관리]: 설비 효율화와 원가 구조 개선에 따라 영업이익률이 23~32%로 높아졌고, 연속 5년 이상 영업 흑자를 이어가 재무 안정성도 강화되었습니다[4].
+  - [연구개발 투자 확대]: 단기적으로는 비용 부담이 상승했으나, 전체 매출 대비 R&amp;D 비중이 15% 내외로 업계 평균을 크게 상회해 신제품 파이프라인 구축 기반을 확장 중입니다[2].
+(3) [현재 신일제약 3대 핵심 이슈]
+1. [신사업 및 장기성장 불확실성]
+   - 천연물 신약 부문에서 2024년 전면 개발 중단 선언 이후, R&amp;D 전략의 모멘텀 저하와 함께 새 성장동력 발굴이 지연되고 있습니다. 건강기능식품과 해외 신사업이 부각되고 있으나, 구체적인 성과 검증 시점은 아직 불투명합니다[1][2].
+2. [경쟁 심화 및 규제환경 리스크]
+   - 주력 품목 의존도가 높아 제네릭(복제약) 시장 확대, 경쟁사 진입, 정부의 약가 인하 정책 등 외부 변수에 따라 실적 변동성이 커질 수 있습니다. 실제로 글로벌 제약 시장 구조조정, 환율·관세 등 경제 변수도 리스크로 작용하고 있습니다[1][3].
+3. [지배구조 및 기업가치 회복]
+   - 2023년 경영권 교체 이후 조직 안정화 이슈가 있었고, 2025년 들어선 주가가 장기간 약세(고점 대비 80% 이상 하락)에서 벗어나지 못하며 시장 내 저평가 논의가 계속됩니다. 투자자 신뢰 회복 및 미래 전략 제시가 중요한 과제로 부상했습니다[4][1].
+신일제약은 [본업의 내실, 해외 성장, 재무 건전성]이 강점이지만, [신규 성장동력 발굴, 경쟁환경 대응, 기업가치 제고]가 단기·중장기 모두 중요한 경영 이슈입니다.
+https://policywise5.tistory.com/entry/%EC%8B%A0%EC%9D%BC%EC%A0%9C%EC%95%BD-%EC%A3%BC%EA%B0%80-%EC%A0%84%EB%A7%9D-2025%EB%85%84-%ED%88%AC%EC%9E%90-%EB%B6%84%EC%84%9D-%EB%B0%8F-%EC%8B%A4%EC%A0%81
+https://seo.goover.ai/report/202503/go-public-report-ko-01882bde-c95e-4d1c-a3cb-6274e17eca01-0-0.html
+https://seo.goover.ai/report/202506/go-public-report-ko-da54b89d-10ea-42f8-9226-2e3cad481e92-0-0.html
+https://contents.premium.naver.com/imgold/imim/contents/250509093140396kx
+https://contents.premium.naver.com/thebell/stock/contents/250813130240151ut</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2743,7 +2791,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2818,25 +2866,27 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>엠에스씨(009780)는 [식품첨가물]을 주력으로 생산하는 코스닥 상장 회사입니다. 주로 해초류(수산물)를 가공해 제조한 [카라기난] 등 기능성 식품 첨가물과 다양한 농수산물 가공품을 생산·판매합니다[2][3]. 대표적으로 식품산업에서 점·결·증점제 등으로 널리 사용되는 카라기난이 핵심 품목입니다.
-최근 분기(2025년 1분기) [엠에스씨가 강한 실적을 시현한 주된 요인]은 다음과 같습니다.
-- [영업이익률과 순이익의 큰 폭 상승:] 2025년 1분기 연결 기준 매출 482억 원, 영업이익 81억 원, 순이익 64억 원을 기록했습니다. 전년 동기 대비 영업이익은 69%, 순이익은 58% 증가했습니다. 매출 성장률(6%)보다 이익률 증가폭이 훨씬 커, 수익성 개선이 두드러진 상황입니다[1][3].
-- [원재료 가격 안정 및 원가절감:] 해조류 등 주요 원재료의 가격이 안정화되거나 조달 효율이 향상되어 원가 부담이 완화된 것으로 파악됩니다(직접 언급은 없으나 이익률 급상승에서 추정됨)[1].
-- [식품 및 외식 산업 수요 증가:] 업계 전반적으로 외식 및 가공식품 소비가 확대되면서 카라기난 등 식품첨가물에 대한 수요가 지속적으로 견조하게 증가했습니다[2].
-[엠에스씨가 당면한 주요 이슈 3가지]는 다음과 같습니다.
-1. [해조류(카라기난) 원재료 수급 및 가격 리스크]
-   - 주력 제품의 원료인 해조류(특히 카라기난을 추출하는 해초류)는 자연 환경 변화, 국제 물류 사정, 공급업체 상황 등에 따라 가격 변동 및 수급 불안정에 노출되어 있습니다. 원재료 확보 안정성과 가격 변동에 대응하는 방안이 중장기 핵심 과제입니다[2].
-2. [시장 내 경쟁 심화 및 글로벌 업체와의 기술 격차]
-   - 식품첨가물 시장은 글로벌 대형 기업과 국내외 중소업체가 함께 경쟁하고 있습니다. 품질, 가격, 공급 안정성에서 우위를 유지하기 위한 기술개발과 설비투자가 필수적이며, 시장 점유율 방어 및 확대가 경쟁력을 가르는 핵심 요인입니다[2][3].
-3. [친환경 및 식품 안전 강화 추세 대응]
-   - ESG(환경·사회·지배구조) 경영, 식품안전 규제 강화, 소비자 친환경 선호 등으로 인해 원료의 친환경 인증 확보, 제품 내 유해물질 최소화, 공정의 친환경화 등 사회적 요구가 높아지고 있습니다. 관련 인증 취득, 생산공정 개선, 신제품 개발이 지속적으로 요구됩니다[2][3].
-이 외에 [글로벌 경기 둔화에 따른 수출 감소 가능성], *환율 변동에 따른 실적 영향*, *차별화된 제품 포트폴리오 필요성* 등도 잠재적인 불확실성으로 꼽힙니다.
-최근 실적 호조가 지속되기 위해서는 이와 같은 원재료 리스크 관리, 시장 선도 기술 확보, ESG 등 외부 환경 변화에 선제적으로 대응하는 경영 전략이 필수적입니다.
-https://www.butler.works/ko/companies/00121154
-https://w3.kirs.or.kr/download/tech/2019-45.%EC%97%A0%EC%97%90%EC%8A%A4%EC%94%A8_%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D%EB%B3%B4%EA%B3%A0%EC%84%9C.pdf
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=009780&amp;cn=
-https://comp.fnguide.com/SVO2/asp/SVD_Finance.asp?pGB=1&amp;gicode=A009780&amp;MenuYn=Y&amp;ReportGB=B&amp;NewMenuID=103&amp;stkGb=701
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20230323000587&amp;docno=&amp;viewerhost=</t>
+          <t>엠에스씨(009780)는 [식품첨가물, 특히 카라기난을 비롯한 천연 기능성 첨가물]을 제조·판매하는 코스닥 상장 기업입니다. 주요 생산품은 해조류(붉은 해초)에서 추출한 카라기난, 치자 등의 천연색소, 기타 각종 농수산물 가공품 등입니다. 최종 제품은 식품 산업에서 점·결·증점제, 천연색소, 안정제 용도로 널리 사용되고 있습니다. 본사는 경상남도 양산시에 위치해 있으며, 2023년 1360억원 규모의 신규 투자 협약 체결과 함께 지역 생산시설 및 연구개발 인프라도 강화 중입니다[1][3].
+2024~2025년 들어 엠에스씨의 [실적이 강세를 보이고 있는 주요 원인]은 다음과 같습니다.
+- [고부가가치 프리미엄 첨가물 공급 확대:] 식품산업 프리미엄화, 건강·웰빙 트렌드 확산에 맞춰 고품질·고기능성 카라기난 및 천연색소 등 첨가물 매출이 꾸준히 증가하고 있습니다. 최근 분기(2025년 1분기) 매출 482억원(5.8%↑), 영업이익 81억원(68.5%↑), 순이익 64억원(57.7%↑)을 기록하며 수익성이 크게 개선되었습니다[4][5].
+- [효과적 원가 관리:] 해조류 등 원재료 조달 및 생산공정 효율화, 일부 원재료 가격 안정 효과가 이어져 매출 증가율 대비 비용 증가분이 낮았고, 이에 따라 영업이익률 개선폭이 두드러졌습니다. 실제로 2024년 9월 기준 영업현금흐름과 순현금흐름이 전년 대비 대폭 증가하였으며, 잉여현금흐름이 양호하게 유지되었습니다[1].
+- [연구개발 지속 및 신제품 성과:] 최근 2년간 28건 연구개발 실적, 23건 제품제조 특허를 신규 취득하는 등 차별화된 신제품 출시로 마진 개선에 기여했습니다. 관련 투자와 연구개발비 집행 또한 지속적으로 확대되었습니다[3].
+[엠에스씨가 직면한 핵심 이슈 3가지]는 다음과 같이 구체화되고 있습니다.
+1. [해조류(카라기난) 원재료 수급 불안정 및 가격 변동성]
+   - 카라기난의 주원료인 해조류는 국제 해양환경, 주요 산지 기후변화, 해상 물류 이슈(예: 수에즈 운하 등)에 실시간으로 영향을 받습니다. 최근 글로벌 해상운임 변동, 기후 불확실성 등으로 원재료 확보 위험이 상존하며, 수급 다변화와 재고 대응 능력 강화가 과제입니다[2].
+2. [품질·기술 경쟁력 확보와 글로벌 시장 개척 난항]
+   - 글로벌 대형 식품첨가물 업체(유럽·동남아 등)와의 기술 격차, 가격경쟁 심화에 대응해 자체 R&amp;D 강화(연구소 운영 및 특허 출원), 프리미엄급 신제품 비중 확대가 요구되고 있습니다. 대량 납품보다 고기능 차별화에 집중해야 하는 상황으로, 연구개발 투자와 현장 적용 속도, 해외 거래선 증대 등이 주요 성공 요인입니다[3][5].
+3. [ESG(환경·사회·지배구조) 및 식품 안전 규제 대응]
+   - 친환경 원료 조달, 저탄소 공정, 식품안전 인증 등 국내외 규제 트렌드에 맞는 제조 역량과 대응체계가 필수입니다. 최근 식품유해물질 규제 및 소비자 친환경 선호가 높아지면서 적법 인증 확보, 친환경 신기술 도입, 리스크 사전관리 등을 지속적으로 강화하고 있습니다[3].
+[그 외 참고할 만한 사항:]
+- 현금배당 확대(2025년 1주당 110원 현금배당 공시) 등 주주환원 정책을 강화 중입니다[2].
+- 연구개발과 설비투자가 대폭 확대되면서 중장기 성장 기반을 다지고 있으나, 이와 관련된 투자금 회수 리스크, 글로벌 경기 변동 및 환율 영향 등도 상존합니다.
+최근 엠에스씨는 내실 성장과 글로벌 친환경 트렌드에 적극 대응하는 전략을 병행하고 있으나, 원재료 리스크 관리, 품질기반 신시장 확대, ESG 규제 대응이 당분간 핵심 리스크·기회 요인으로 작용할 전망입니다.
+https://www.google.com/finance/quote/009780:KOSDAQ?hl=ko
+https://alphasquare.co.kr/home/stock-issue?code=009780&amp;type=news
+https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240814000838&amp;docno=&amp;viewerhost=
+https://tossinvest.com/stocks/A009780/order
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A009780</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -2851,7 +2901,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2919,23 +2969,26 @@
       <c r="C46" t="inlineStr">
         <is>
           <t>1. 회사의 핵심 사업  
-[KCTC(009070)]는 1973년 설립된 종합물류기업입니다. 주요 사업은 [컨테이너터미널 운영, 항만하역, 육상운송, 창고보관, 중량물 운송, 소화물 사업, 국제물류주선(CY/CFS)] 등으로 구성되어 있습니다. 회사는 전국 주요 항만과 물류거점에 자체 인프라를 구축하여 수출입 화물의 물류 전 과정을 직접 관리합니다. 또한, 해외 현지 법인을 설립해 국제물류서비스까지 사업 영역을 넓히고 있습니다. 최근에는 이커머스 성장에 따라 쿠팡 등과의 물류•창고 업무 제휴도 활발하게 이뤄지고 있으며, 3자물류(3PL) 및 해외사업 비중 확대로 사업 포트폴리오가 다각화되고 있습니다[1][2][3][4][5].
+[KCTC(009070)]는 1973년에 설립된 종합물류기업으로, [컨테이너터미널 운영, 항만하역, 육상운송, 창고보관, 중량물 운송 및 국제물류주선(CY/CFS)] 등 수출입 물류의 전 과정을 담당하고 있습니다. 전국 주요 항만과 물류거점에 자체 인프라(단독 창고, 터미널, 운송차량 등)를 구축하고 있으며, 해외 현지 법인을 통해 [국제 물류 서비스]도 제공합니다. 최근에는 [이커머스 업체(쿠팡 등)와의 창고 및 운송 제휴], [3자물류(3PL) 사업] 확대, 그리고 [신사업(예: 스마트 물류, IT화, 자동화 창고 도입)] 추진으로 사업 포트폴리오가 다각화되는 추세입니다[3][4].
 2. 최근 분기 실적이 강세를 보인 이유  
-최근 몇 분기 동안 KCTC가 강한 실적을 보여준 배경에는 다음과 같은 구체적인 요인이 있습니다.
-- [국내외 물동량 증가:] 코로나19 이후 글로벌 공급망 재편과 온라인쇼핑 성장으로 국내외 항만을 통한 [수출입 물동량이 크게 늘었으며], 이로 인해 항만하역 및 운송·보관 사업 실적이 개선되었습니다.
-- [이커머스 업체와의 협업 확대:] [쿠팡 등 대형 전자상거래 업체와의 물류 및 창고 업무 제휴]가 늘어나면서 창고 보관 및 분류, 배송 관련 매출이 증가했습니다[2].
-- [운영 효율성 제고:] 기존 인프라의 활용도를 극대화하고, 해외법인과 연계된 [글로벌 물류 네트워크 확대] 및 IT 활용을 통한 운영 효율화가 수익성 개선으로 이어졌습니다.
+2025년 1분기 기준, [매출액 41.9% 증가, 영업이익 157.8% 증가, 당기순이익 322.4% 증가]라는 뛰어난 실적개선이 나타났습니다[2][3][4]. 구체적인 요인은 다음과 같습니다.
+- [국내외 물동량 증가]: 글로벌 공급망 재편, AI·반도체 산업 호황, 중국 소비재 수요 증가 등으로 항만 및 국내외 물동량이 크게 늘었습니다. 이에 따라 해운·운송·보관·하역 부문 실적이 대폭 개선되었습니다[2][3].
+- [신사업 및 이커머스 협업 확대]: 쿠팡 등 대형 전자상거래 업체와의 창고 및 분류, 배송 업무가 확장되었고, *재고 축적·AI PC 수요 증가* 등 신사업에서 물류 수요도 크게 늘었습니다.
+- [운영 효율 향상]: 기존 인프라를 통한 효율적 운용, 해외법인 연계를 통한 글로벌 네트워크 강화, IT 기반 자동화 솔루션 적용으로 운영 효율성 및 수익성이 증가했습니다.
 3. 현재 직면한 주요 이슈 Top 3  
-KCTC가 현재 마주하고 있는 실질적인 과제는 아래와 같이 정리할 수 있습니다.
-- [고조되는 물류 경쟁 및 단가 압박:] 글로벌 대형 물류기업의 국내시장 진입 확대, 쿠팡 등 주요 고객사의 내재화 움직임, 3자물류 시장 과열로 인한 [단가하락 압력]이 커지고 있습니다.
-- [고정비 부담 및 인력/시설 투자 확대:] 항만하역, 창고 등 고정설비 유지를 위해 상당한 투자가 필요하며, [물동량 변화에 따라 수익성이 크게 변동]할 위험이 있습니다. 신규 창고 및 자동화 설비 등 투자비 증가도 부담입니다.
-- [친환경/디지털 전환 요구 증가:] 전 세계적으로 [ESG(환경·사회·지배구조) 경영과 디지털 전환] 요구가 높아지면서, 친환경 운송·저탄소 인프라 도입, IT 플랫폼 고도화 등 미래 대비를 위한 추가 비용과 기술 조직의 확보가 필수로 대두되고 있습니다.
-이상의 내용은 주요 사업보고서와 업계 정보, 최근 뉴스 및 공식 기업 자료에 기반하여 구체적으로 정리하였습니다.
-https://overcomedifficulties.tistory.com/205
-https://ko.wikipedia.org/wiki/KCTC_(%EA%B8%B0%EC%97%85)
-https://deepsearch.com/analytics/company-analysis/KRX:009070?c-name=KCTC&amp;c-symbol=KRX%253A009070
-http://comp.wisereport.co.kr/company/c1010001.aspx?cmp_cd=009070
-https://invest.zum.com/stock/009070/</t>
+KCTC가 최근 직면한 구체적 이슈는 아래와 같습니다.
+- [물류 경쟁 심화와 단가 압박]  
+글로벌 대형 물류기업의 국내 시장 진입, 3자물류 시장 과열, 주요 고객사의 물류 내재화(쿠팡 등)로 인해 물류 단가 하락 압력이 더욱 커지고 있습니다. 실제로 가격 경쟁심화와 신규 계약 조건 악화가 이어지며 영업마진에 부담이 되고 있습니다[2][3][4].
+- [고정비 및 투자 부담, 수익성 변동 리스크]  
+항만·창고 등 고정설비 투자비가 꾸준히 증가하는 가운데, *물동량 변동성*이 크기 때문에 수익성이 쉽게 흔들립니다. 자동화 설비 도입·신규 창고 및 차량 확충 등 현장 투자비와 인력운영비가 늘고, 특히 2024년 영업익과 순이익이 한때 크게 감소(적자폭 확대)하며 수익성 관리가 중요 현안으로 부상했습니다[4].
+- [친환경/디지털 전환 및 규제 리스크]  
+ESG(환경·사회·지배구조) 요구, 저탄소 인프라 도입, 운송 규제 강화, IT 플랫폼 고도화 등 시장과 정부 차원의 친환경·디지털 전환 요구가 더욱 커지고 있습니다. 이에 맞춘 시설투자·R&amp;D·인력 재배치 부담, 친환경·디지털 관련 규제 준수 부담이 동시에 증가했습니다. 특히 2025년부터 관세 관련 비용 급증 등 비용 구조 변화가 실적과 경영의 주요 불안 요인으로 작용하고 있습니다[2][3].
+최근 실적 개선에도 불구하고, 상기 이슈에 대해 KCTC는 *비용 절감, 사업 포트폴리오 강화, 디지털 경쟁력 확보* 전략을 병행하며 대응 중입니다.
+https://timeli.tistory.com/1755
+https://timeli.tistory.com/1818
+https://simsilgyeolson.tistory.com/entry/2025%EB%85%84-6%EC%9B%94-25%EC%9D%BC-%EC%A3%BC%EC%8B%9D-%EC%A2%85%EB%AA%A9-%EB%B6%84%EC%84%9D
+https://simsilgyeolson.tistory.com/entry/2025%EB%85%84-7%EC%9B%94-4%EC%9D%BC-%EC%A3%BC%EC%8B%9D-%EC%A2%85%EB%AA%A9-%EB%B6%84%EC%84%9D
+https://mixizam.tistory.com/589</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -2950,7 +3003,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -2967,29 +3020,34 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>바텍(043150)은 [치과용 디지털 엑스레이 및 CT 등 덴탈 이미징 솔루션]을 개발‧제조‧판매하는 기업입니다. 최근 분기에서의 강한 실적은 북미·유럽 등 해외시장에서의 성장, 제품 포트폴리오 확대, 원가 절감 등 복합적 요인에 기반합니다. 현재 바텍은 글로벌 경쟁 심화, 환율 및 현지 규제, 신기술 대응 등 주요 과제에 직면해 있습니다.
-[(1) 바텍의 핵심사업]
-- [주요 사업영역은 치과용 디지털 방사선 촬영장치](ex. 파노라마 엑스레이, 치과용 CT)로, 이러한 장비의 개발·제조·판매가 매출 대부분을 차지합니다[1][2].
-- 제품 주요 매출 구성은 3D 장비(약 60%), 2D/2.5D 장비(약 20%), 장비 A/S·부품(약 10%), 구강내 방사선기기(약 10%) 순입니다[2].
-- [덴탈 이미징 분야]에서 PaX-i 등 강점을 가진 주력제품을 보유하고 있으며, 최근에는 구강스캐너 등 신제품군으로 포트폴리오를 넓히고 있습니다[2].
-[(2) 최근 분기 실적호조 배경]
-- [해외시장 매출 성장]: 북미와 유럽을 중심으로 덴탈 이미징 장비 수요가 꾸준히 확대되어, 글로벌 매출이 증가하였습니다. 바텍은 15개 해외법인, 100여개 현지 딜러망을 통한 적극적인 해외 영업 체계를 갖추고 있습니다[2][3].
-- [제품 포트폴리오 다각화]: 기존의 2D 장비에서 3D CT, 구강스캐너 등으로 제품 라인업을 확장함에 따라 시장 점유율이 높아지고 있습니다[2].
-- [원가구조 개선 및 내재화]: 주요 부품 내재화, 제조 효율성 제고로 영업이익률이 개선되었습니다. 특히 PaX-i 제품 비중 상승과 이에 따른 수익성 개선 효과가 크게 작용했습니다[3].
-- [지재권 보호와 신제품 효과]: 세계 최초 3 in 1 장비 등 특허기술 기반 신제품 출시에 따른 부가가치 창출로, 브랜드 인지도와 시장 경쟁력이 높아졌습니다[2].
-[(3) 현재 바텍이 직면한 3대 핵심 이슈]
-1. [글로벌 경쟁 심화 및 가격압박]
-   - 중국을 중심으로 한 저가 장비업체 등 글로벌 경쟁자가 빠르게 성장하고 있습니다. 선진국은 기술차별화, 신흥국은 가격경쟁에서 동시에 우위를 확보해야 하는 과제가 있습니다.
-2. [환율 변동 및 현지 규제 리스크]
-   - 매출의 상당 부분이 해외에서 발생하기 때문에 원·달러, 원·유로 등 환율 변동에 따른 실적 변동성이 높습니다. 또한 미국, 유럽, 중국 등 각국 보건당국의 의료기기 인증 및 판매규제 등도 지속적으로 대응해야 하는 과제입니다.
-3. [신기술 트렌드 및 시장 변화 대응]
-   - 구강스캐너, 인공지능(AI), 클라우드 플랫폼 등 디지털 덴탈 헬스케어 시장의 신기술 트렌드 변화 속도가 빨라지고 있습니다[2]. 이에 맞는 R&amp;D 투자와 신제품 개발을 지속적으로 추진하지 않으면 미래 성장동력 확보에 차질을 빚을 수 있습니다.
-*바텍은 치과용 디지털 이미징 분야에서 글로벌 경쟁력을 가진 강점 기업이지만, 해외 시장 리스크와 혁신경쟁 등 복합적인 도전에 맞서 실질적 대응 역량이 요구되는 상황입니다.*
-https://w4.kirs.or.kr/download/tec/%EA%B8%B0%EC%88%A0%EB%B6%84%EC%84%9D_%EC%9D%98%EB%A3%8C.%EC%A0%95%EB%B0%80%EA%B8%B0%EA%B8%B0_%EB%B0%94%ED%85%8D(043150)_%EC%B9%98%EA%B3%BC%EC%9A%A9%20%EC%98%81%EC%83%81%EC%A7%84%EB%8B%A8%EA%B8%B0%EA%B8%B0%20%EC%A0%84%EB%AC%B8%EA%B8%B0%EC%97%85,%20%EC%A0%9C%ED%92%88%20%EB%8B%A4%EB%B3%80%ED%99%94%20%EB%B0%8F%20%EC%98%A8%EB%9D%BC%EC%9D%B8%20%ED%94%8C%EB%9E%AB%ED%8F%BC%EC%9D%84%20%ED%86%B5%ED%95%9C%20%EC%8B%9C%EC%9E%A5%20%ED%99%95%EB%8C%80_NICE%EB%94%94%EC%95%A4%EB%B9%84.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1580955209966.pdf
-https://www.eugenefn.com/common/files/amail/20150410_043150_jongsun.park_297.pdf
-https://securities.miraeasset.com/bbs/download/2126688.pdf?attachmentId=2126688
-https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=5&amp;gicode=A043150&amp;MenuYn=N&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=701</t>
+          <t>바텍(043150)은 치과용 디지털 엑스레이 및 CT 등 [덴탈 이미징 솔루션]을 개발·제조·판매하는 국내 대표 의료기기 회사입니다. 미국·유럽 시장을 중심으로 해외 매출이 크게 성장하고 있으며, 최근에는 원가구조 악화와 경쟁 심화 등 새로운 도전도 부각되고 있습니다.
+(1) 바텍의 핵심사업
+- [치과용 디지털 방사선 촬영장치(파노라마 엑스레이, 치과용 CT 등) 개발 및 제조]가 사업의 중심입니다. 전체 매출 대부분이 이 분야에서 발생합니다[2][5].
+- 3D CT, 파노라마/세팔로 엑스레이, 구강스캐너 등의 제품 라인업을 보유하고 있으며, 3D 장비 비중이 매출의 절반 이상을 차지합니다.
+- 강력한 기술력과 해외 인증 역량을 기반으로 15개 해외법인 및 100여개 현지 딜러망을 구축하고 글로벌 시장에서 적극적으로 영업하고 있습니다[1][2].
+- 최근에는 ‘스마트 덴탈’ 트렌드에 맞춰 클라우드 기반 진단 소프트웨어, 인공지능 연계 등 신사업을 강화하고 있습니다.
+(2) 최근 분기 실적호조 배경
+- [해외시장, 특히 북미의 고성장]이 두드러집니다. 2025년 2분기 잠정 실적은 매출액 1,106억원(+8.5% YoY), 영업이익 169억원(+0.2% YoY)을 기록하였으며, 북미 지역에서는 7분기 연속 매출성장(+33.7% YoY)을 보였습니다[1]. 
+- 미국 치과 시장의 교체 수요 확대, 법인·딜러망 내재화 등 현지화 전략, 프리미엄 3D/CT·신제품 호조 등이 성장 동력으로 작용했습니다[1][5].
+- [포트폴리오 다양화 및 기술력 강화]: 3D CT·구강스캐너·AI 진단소프트웨어 등 프리미엄 제품 비중이 증가해 ASP(평균판매단가) 상승 효과도 일부 나타났습니다.
+- 다만 [원가율 및 판관비 증가]로 인해 영업이익률은 소폭 하락했습니다. 이는 글로벌 인플레이션 영향, 소재비·운임비 상승, 마케팅 경쟁 심화 때문입니다[1][5].
+- 상대적으로 유럽 시장은 소비 침체 여파로 역성장세이나, 북미시장 호조가 이를 상쇄하고 있습니다.
+(3) 현재 바텍이 직면한 3대 핵심 이슈
+1. [글로벌 경쟁 심화 및 가격경쟁 압박]
+   - 중국·터키 등 신흥 시장을 중심으로 한 저가 장비업체의 성장이 본격화되고 있습니다. 미국·유럽 등 선진 시장에서의 기술 경쟁과 신흥국의 가격경쟁이라는 이중 과제에 직면해 있습니다[1][5].
+   - 구강스캐너, AI 진단 등 디지털 혁신 영역에서는 글로벌 선두업체와의 기술 격차 해소가 관건입니다.
+2. [원가 구조 악화 및 판관비 증가]
+   - 최근 주요 원재료 및 운송비, 마케팅 비용 등 [원가구조 부담이 확대]되는 추세입니다. 인플레이션, 글로벌 공급망 불안 등이 지속적으로 수익성에 부정적 영향을 미치고 있습니다[1][5].
+   - 전년대비 매출액은 증가했으나, 영업이익 및 순이익률이 동반 하락한 점이 단기적 과제로 지적됩니다.
+3. [환율 변동·현지 인증 및 규제 리스크]
+   - 매출의 85% 이상이 해외에서 발생하기 때문에 원·달러, 원·유로 등 [환율 변동에 민감]합니다. 최근 미국 달러·유로 환율의 변동성 확대가 영업외 손익에 영향을 주었습니다.
+   - 미국/유럽/중국 등 현지 의료기기 인증, 수입 규제 심화, 환자 데이터 보안 등 정책 리스크에도 상시로 대응이 필요합니다[1].
+이처럼 바텍은 글로벌 덴탈 이미징 분야의 기술력을 바탕으로 성장세를 이어가고 있으나, 글로벌 경쟁·원가압박·불확실한 해외규제 등 구조적 과제에 직면해 있습니다. 특히 북미시장 호조와 달리 원가상승, 유럽시장 부진 등 복합 신호가 병존하는 만큼, R&amp;D 투자 및 시장별 전략적 대응이 중요합니다.
+https://www.newspim.com/news/view/20250812000288
+https://comp.wisereport.co.kr/company/c1080001.aspx?cmp_cd=043150&amp;cn=
+https://tossinvest.com/stocks/A043150/order
+https://alphasquare.co.kr/home/stock-summary?code=043150
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A043150</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -3004,7 +3062,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3021,29 +3079,37 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>(1) 쿠쿠홀딩스(192400)의 핵심 사업  
-쿠쿠홀딩스는 2017년부터 [지주회사 체제]로 운영되고 있으며, [쿠쿠전자와 쿠쿠홈시스 등 주요 계열사의 지분을 보유한 투자형 지주회사]입니다[3]. 주요 종속회사 중 [쿠쿠전자]는 [전기밥솥]을 중심으로 하는 가전제품의 생산·판매를 담당하며, 밥솥 외에도 인덕션레인지, 멀티쿠커 등 주방용 조리가전으로 사업을 확장하고 있습니다[4].  
-또 다른 핵심 계열사인 [쿠쿠홈시스]는 [정수기, 공기청정기 등 생활가전과 렌털 사업]을 주력으로 하며, 최근에는 청소기와 헤어아이론 등 신제품을 출시해 제품군을 넓히고 [렌털 서비스 기반의 수익모델 강화]에 집중하고 있습니다[1]. 중국, 말레이시아, 인도네시아 등 해외법인을 통한 [해외 시장 진출]과 성장도 병행하고 있습니다[2].
-(2) 최근 실적이 견조했던 배경  
-쿠쿠홀딩스는 최근 분기 기준 [매출이 전년동기 대비 성장(예: 2024년 1.8% 증가하여 9545억 원)]했으며, 이익지표(PER 5.04배, PBR 0.53배, ROE 12.27%)도 업계 평균 대비 견실한 편입니다[1].  
-실적 호조의 구체적인 원인은 다음과 같습니다.
-- [렌털 사업의 확대]: 쿠쿠홈시스를 중심으로 한 [정수기·공기청정기 등 B2C 렌털 서비스가 꾸준히 성장]해 반복형 매출 기반이 견고해졌습니다[1].
-- [제품 다각화와 신모델 출시]: 기존 밥솥, 정수기 외에도 청소기, 헤어아이론 등 신가전 제품군을 선보이며 [수요층을 다양화]했습니다[1].
-- [해외 시장 확대]: 동남아시아, 중국 등 해외 현지 법인 및 유통채널을 통한 [수출 증대]가 공헌했습니다[2].
-(3) 현재 직면한 핵심 이슈 3가지  
-쿠쿠홀딩스가 당면한 주요 이슈는 다음과 같습니다.
-1. [지주회사로서 기업구조 개선 및 계열사 성장 주도]
-   - 계열사 실적이 그룹 전체 가치에 큰 영향을 미치기 때문에, [쿠쿠전자·쿠쿠홈시스의 실적 변동에 대한 리스크 관리]와 그룹 차원의 [포트폴리오 다각화]가 필수적입니다[3].
-2. [국내 시장 정체 및 렌털 경쟁 과열]
-   - 정수기·공기청정기 등 생활가전 렌털시장에서 [경쟁사가 늘고 경쟁이 심화]되는 가운데, 구독형 서비스 차별화, 신제품 개발, 고객 유지 전략이 핵심과제입니다[1].
-3. [해외사업 성과의 불확실성]
-   - 동남아·중국 등 해외법인에서 [높은 성장 가능성]이 있으나, [현지 시장 특유의 유통·마케팅·환율 리스크]와 수익성 개선이 과제로 남아 있습니다[2].
-이외에도 [원자재 가격 변동성과 글로벌 공급망 이슈], 국내외 경기 침체에 따른 소비 위축, ESG(환경·사회·지배구조) 강화 요구 등 거시 환경도 그룹 경영에 주요한 도전 요인입니다.
-https://securities.miraeasset.com/bbs/download/2124300.pdf?attachmentId=2124300
-https://comp.fnguide.com/SVO2/asp/SVD_Corp.asp?pGB=5&amp;gicode=A192400&amp;MenuYn=N&amp;ReportGB=&amp;NewMenuID=102&amp;stkGb=
-https://www.imfnsec.com/upload/R_E08/2025/06/%5B02074147%5D_192400.pdf
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240814002835&amp;docno=&amp;viewerhost=
-https://invest.deepsearch.com/stock/192400/</t>
+          <t>(1) [쿠쿠홀딩스(192400)의 핵심 사업]  
+쿠쿠홀딩스는 [지주회사] 체제하에 쿠쿠전자, 쿠쿠홈시스 등 주요 자회사의 지분을 보유한 [투자형 지주회사]입니다[2].  
+- [쿠쿠전자]는 전기밥솥뿐 아니라 인덕션레인지, 음식물처리기, 멀티쿠커 등 [주방·생활가전] 상품을 중심으로 제조·판매 사업을 영위하고 있습니다[1].
+- [쿠쿠홈시스]는 [정수기, 공기청정기 등 생활가전 렌털] 사업에 주력하며, 최근에는 음식물처리기와 신형 청소기, 뷰티가전 등 [제품군을 꾸준히 확장]하고 있습니다[1].
+- 자회사들은 [중국, 동남아시아 등 해외법인 중심의시장 확대]도 적극적으로 진행하고 있습니다[1].  
+즉, 쿠쿠홀딩스의 수익원은 [생활/주방가전 제조 및 판매, 렌털 서비스, 해외사업]에서 파생됩니다.
+(2) [최근 실적 호조의 구체적 배경]  
+쿠쿠홀딩스는 2025년 1분기 기준 매출액이 [2,242억 원으로 전년동기 대비 7.8% 증가]하는 등 안정적 성장세를 보여주고 있습니다[3][5].
+주요 성공 요인은 다음과 같습니다.
+- [생활가전 신제품 판매 성장]: 음식물처리기 등 신규제품 판매 호조로 전기밥솥 외 가전 매출이 빠르게 늘고 있습니다. 2025년 상반기 기준 기타제품 매출은 전년 대비 24% 성장하였으며, 제품 라인업 다변화가 실적 견인에 기여했습니다[1].
+- [렌털사업의 반복 매출 기반 확충]: 쿠쿠홈시스를 중심으로 정수기, 공기청정기, 음식물처리기 등 [B2C 렌털 서비스]가 지속적으로 확대되며 안정적 수익 기반을 제공하고 있습니다[1].
+- [해외사업 회복 및 확장]: 특히 [중국 시장 매출의 회복]과 동남아 시장의 성장이 두드러지며, 현지 유통채널 확대로 성장세가 가속화되고 있습니다[1].
+- [이익률 개선]: 쿠쿠홀딩스는 2025년 1분기 기준 [순이익률 16.2%, 총마진 40.18%]를 기록해, 업계 최고 수준의 수익성을 유지하고 있습니다[2].
+(3) [현재 당면한 핵심 이슈 3가지]  
+1. [지주사 디스카운트 및 가치 재평가]  
+   - 최근 정부의 상법 개정안 추진 등 자본시장 활성화 정책 기대감으로 [지주회사 할인율 축소]가 부각되고 있으나, 여전히 핵심 자회사의 실적 변동·평가가 그룹 전체 가치에 미치는 영향이 매우 큽니다[1].
+   - 쿠쿠홈시스, 쿠쿠전자 등 계열사 포트폴리오 다각화와 성과의 지속성이 직접적인 그룹 가치에 연결됩니다.
+2. [국내 렌털·가전시장 내 경쟁 심화]  
+   - 렌털업계(정수기, 공기청정기, 음식물처리기) 경쟁이 지속적으로 격화되면서 [서비스 차별화와 고객 유지], AS 품질, 가격 경쟁력 강화 등이 생존 요인으로 떠오르고 있습니다[1].
+   - SK매직, 코웨이 등 대형 경쟁사와의 점유율 경쟁이 외형적 성장 지속에 중요한 변수입니다.
+3. [해외사업의 불확실성과 성장전략]  
+   - 중국, 동남아 등 [해외법인 성장세가 지속되고 있으나, 현지 경기 둔화, 시장 진입 장벽, 환율 변동 및 마케팅 비용 증대 우려]가 상존합니다[1].
+   - 로컬화 전략, 글로벌 공급망 안정화, 브랜드 인지도 제고 등 대응이 필수입니다.
+[추가적 현안]  
+- 원자재 가격 변동 및 글로벌 공급망 리스크, 국내 내수 침체, ESG(환경·사회·지배구조) 규제 강화 등 거시적 도전도 병행하고 있습니다.
+요약하면 쿠쿠홀딩스는 [생활/주방가전과 렌털 서비스]를 기반으로 국내외에서 선도적 지위와 실적 성장세를 유지 중이나, [지주사 가치 평가, 국내외 경쟁 심화, 글로벌 불확실성 관리]가 핵심 이슈로 작용하고 있습니다[1][2][3][5].
+https://alphasquare.co.kr/home/stock-issue?code=192400&amp;type=news
+https://simplywall.st/ko/stocks/kr/consumer-durables/kose-a192400/cuckoo-holdings-shares
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?pGB=1&amp;gicode=A192400&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103
+https://invest.deepsearch.com/stock/192400/
+https://tossinvest.com/stocks/A192400/order</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3058,7 +3124,7 @@
       <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3075,29 +3141,26 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>(1) [에이스침대의 핵심 사업]
-에이스침대(003800)는 [매트리스와 침대를 중심으로 한 가구 제조 및 판매 전문 기업]이다. 1963년 설립되어 국내 침대 산업을 선도해왔으며, 1996년 코스닥에 상장되었다[1][2]. 동사의 사업 구조는 크게 침대 부문, 가구 부문, 기타 부문으로 나눌 수 있는데, 이 중 [침대 부문이 전체 매출의 약 93%]를 차지한다[2]. 주요 제품은 매트리스, 프레임 등 침대 관련 가구이며, 자체 매트리스 생산 시스템(오토컴 공법, 이중 열처리기 등)과 소재 생산 시스템을 갖추고 있다[1]. 전국 300여 개 대리점을 통해 내수 위주의 판매가 이루어지고 있고, 매트리스 신소재 및 항균 시스템 등 ‘침대과학’ 개념을 내세운 기술 혁신에 적극적이다[1].
+          <t>(1) [에이스침대(003800)의 핵심 사업]
+에이스침대는 [매트리스 및 침대 프레임 등 침실 가구의 제조 및 판매]를 주된 사업으로 하는 전문 기업입니다. 전체 매출의 약 90% 이상이 침대 부문(매트리스, 프레임 등)에서 발생하며, 가구 부문(서랍장, 협탁 등)은 10% 미만의 비중을 차지합니다[4]. 1963년 설립 이후 국내 매트리스 시장에서 기술 혁신과 품질 신뢰도, 전국적인 오프라인 대리점망(약 300개 이상)을 바탕으로 업계 1위 브랜드 지위를 유지하고 있습니다. 주력 제품에는 자체 개발한 ‘항균·통기성 매트리스’, ‘쿨링 시리즈’ 등 프리미엄급 침대가 포함되며, 연구개발 투자와 생산 시스템 혁신(오토컴 공정, 이중 열처리 기술 등)에도 적극적입니다.
 (2) [최근 분기 실적 강세 요인]
-에이스침대는 최근 분기들에서 [매출 성장 및 견조한 수익성]을 기록했다. 주요 원인은 다음과 같다.
-- [프리미엄 침대 시장 성장]: 코로나19 이후 주거 환경에 대한 관심이 증가하면서 고급화·차별화된 프리미엄 매트리스 수요가 확대되었다. 에이스침대는 품질 중심의 마케팅과 지속적인 신제품 개발로 이러한 수요를 적극적으로 흡수했다[2].
-- [체험형 매장 전략]: 소비자가 실제로 제품을 체험할 수 있는 오프라인 매장을 확대하며 브랜드 신뢰도를 높이고, 단가 상승 효과를 거두었다[1].
-- [내수 중심 영업]: 수출보다는 내수 판매에 집중, 거리두기 해제 등으로 오프라인 유통이 정상화되면서 가구 교체 수요를 효과적으로 흡수했다[2].
-이와 같이 [프리미엄 수요 확대, 체험 매장 운영, 내수 기반의 영업 강화]가 최근 실적 강세를 견인한 핵심 원인으로 볼 수 있다.
+에이스침대는 2025년 2분기 기준 [매출은 소폭 감소(-2.4%)]했으나, [순이익은 전년 동기 대비 4.3% 증가]했고, [순이익률 역시 30%(전년 28%)로 상승]하며 견조한 수익성을 기록했습니다[1]. 최근 실적을 견인한 구체적 요인은 다음과 같습니다.
+- [프리미엄 쿨링 제품군 흥행:] 2025년 여름 성수기, 쿨링·항균 기능 매트리스 등 프리미엄 신제품의 판매가 전년대비 33% 이상 증가했습니다. 이는 기온 상승, 숙면 환경 개선에 대한 수요 확대로 매출 단가가 오르고 소비자 반응도 긍정적이었기 때문입니다[2].
+- [비용 효율화:] 입력 원자재 가격 정상화와 생산성 개선 노력에 힘입어 비용 부담이 완화되어, 매출 소폭 역성장에도 이익률이 개선되었습니다[1].
+- [브랜드 프리미엄 유지:] 경쟁사(시몬스 등)와 적극적인 프리미엄 마케팅 경쟁을 펼치며, 브랜드 가치와 시장점유를 유지하고 있습니다[2]. 여름철 신제품 라인업 출시 등 계절별 마케팅이 실적 강세에 기여했습니다.
 (3) [현재 직면한 주요 이슈 3가지]
-1. [내수 시장 중심 구조의 한계]  
-   매출의 대부분이 국내에서 발생(수출 비중 미미)하고 있기 때문에, [한국 시장의 경기 변동 및 성장 정체 시 실적이 직접적으로 영향을 받는 구조]이다[2].
-2. [주요 원자재 가격 변동 리스크]  
-   매트리스 및 침대 생산에 필요한 철강, 스펀지, 원단 등 [핵심 소재의 국제 원자재 가격 변동에 취약]하다. 공급망 이슈나 가격 인상 시 수익성 압박이 발생할 수 있다[1].
-3. [경쟁 심화 및 시장 포화]  
-   국내 침대·매트리스 시장은 인구 고령화, 혼인 건수 감소 등으로 성장률이 둔화되고 있고, 신규·해외 브랜드의 진입, [온라인 침대 시장 성장 등 경쟁 환경이 격화]되고 있다[2]. 이에 브랜드 차별화와 신제품 개발, 가격 경쟁력이 중요한 과제로 부상했다.
-이외에도, 차세대 성장동력(예: 해외 시장 진출, 가구 외 연계사업) 마련 필요성, 친환경·ESG 대응, 고가 프리미엄 제품군 외 중저가 시장 확대 전략 등도 향후 주요 과제로 추가될 수 있다.
-[요약]  
-에이스침대는 침대(특히 매트리스) 제조·판매에 집중하며, 내수 프리미엄 시장 성장 및 체험형 매장 운영 등으로 최근 분기 실적이 견조하다. 그러나 내수 편중, 원자재 변동, 경쟁 심화 등의 리스크에 직면해 있어, 시장 다변화와 제품 혁신이 중장기 과제로 제시되고 있다.
-https://ssl.pstatic.net/imgstock/upload/research/company/1626923221644.pdf
-https://ssl.pstatic.net/imgstock/upload/research/company/1694732972861.pdf
-https://w4.kirs.or.kr/download/theme/%EC%A2%85%EB%AA%A9_%EA%B8%B0%ED%83%80_%EC%97%90%EC%9D%B4%EC%8A%A4%EC%B9%A8%EB%8C%80(003800)_%EB%9D%BC%EB%8F%88%EC%95%88%EC%A0%84%20%EC%9D%B8%EC%A6%9D%20%ED%9A%8D%EB%93%9D%ED%95%9C%2014%EB%85%84%20%EC%97%B0%EC%86%8D%20%ED%95%9C%EA%B5%AD%ED%92%88%EC%A7%88%EB%A7%8C%EC%A1%B1%EC%A7%80%EC%88%98%20%EC%B9%A8%EB%8C%80%EB%B6%80%EB%AC%B8%201%EC%9C%84%20%EA%B8%B0%EC%97%85_%ED%95%9C%EA%B5%AD%EA%B8%B0%EC%97%85%EB%8D%B0%EC%9D%B4%ED%84%B0
-http://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=003800&amp;cn=
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240306000407</t>
+1. [내수 의존 및 성장 정체]  
+  에이스침대 매출의 대부분이 한국 시장에서 발생합니다. 수출 비중은 미미하고, 국내 침대 시장은 이미 포화 상태에 가까워 인구 구조 변화(저출산·혼인 감소)와 경기 변동에 따라 실적이 크게 영향받는 구조입니다. 성장률 둔화 위험이 상존합니다[4].
+2. [주주환원 정책 및 지배구조 이슈]  
+  최근 주주 총회 및 사업보고서 등에서 주주환원 정책(배당, 자사주 취득 등)에 대한 소수주주들의 문제 제기와 함께 [지배구조 개선 요구]가 커지고 있습니다. 경영 투명성, 소수주주 권익 보장 등의 이슈가 단기 리스크로 부각되었습니다[2].
+3. [경쟁 심화 및 신성장 동력 부재]  
+  국내외 프리미엄 및 중저가 가구업체(시몬스, 이케아 등) 진출 증가로 시장 경쟁이 격화되고, 온라인–오프라인 경계가 약화되면서 가격 경쟁력 및 제품·채널 다변화 전략이 중요해지고 있습니다. 현재 매출 성장의 상당 부분이 고가 신제품 효과에 집중되어 있어, 미래 성장 동력(예: 해외 진출, 디지털 채널 강화, 중저가 라인업 확대)이 충분치 않다는 점이 구조적 과제로 떠오르고 있습니다[2][4].
+추가적으로, [친환경·ESG 경영 요구, 기술 혁신의 지속성, 비수기 내수 부진 대응] 등도 당면한 실무 이슈로 지목받고 있습니다.
+https://simplywall.st/ko/stocks/kr/consumer-durables/kosdaq-a003800/ace-bed-shares/news/533cedc1021734df
+https://seo.goover.ai/report/202508/go-public-report-ko-d7bc017d-53f5-4731-a1db-88dbf5cf5389-0-0.html
+https://seo.goover.ai/report/202508/go-public-report-ko-c3ed03aa-ee97-4bc0-b6b1-3b4a16a47210-0-0.html
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?pGB=1&amp;gicode=A003800&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=101&amp;stkGb=
+https://tossinvest.com/stocks/A003800/order</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -3112,7 +3175,7 @@
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
         <is>
-          <t>2025-07-28</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3129,24 +3192,24 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>보라티알(250000)은 [이탈리아 등 유럽 식자재의 수입 및 유통, 그리고 커피 프랜차이즈 메가커피 브랜드 운영]을 핵심 사업으로 하는 상장 기업입니다.
-1. [핵심 사업]
-- 보라티알의 본업은 [이탈리아, 그리스, 스페인, 프랑스 등에서 파스타, 올리브오일, 토마토소스 등 가공식품을 수입해 국내에 유통]하는 것입니다[2][3]. 데체코(DECECCO), 롱고바디(Longobardi), 메뉴(Menu) 등 유럽 프리미엄 식자재 업체들과 [독점 계약]을 맺고 700종이 넘는 다양한 식자재를 공급합니다[1][3]. 전국적으로 1,900여 개 유통채널을 통해 B2B 식자재 사업을 전개하고 있습니다[1].
-- 2021년 이후에는 [커피 프랜차이즈 ‘메가커피’ 인수]를 통해 프랜차이즈 사업도 핵심 성장동력으로 편입시켰습니다[1]. 메가커피는 가맹점 3,000호점을 돌파, 독자적 브랜드 파워와 빠른 매장 확장 기반의 매출 성장세를 보이고 있습니다[1].
-2. [최근 분기 실적 호조 배경]
-- [식자재 도소매 부문은 독점 수입 브랜드를 지속적으로 확대]하며 안정적인 매출 기반을 구축했고, 해외 수입선 다변화와 B2B 채널 확대, 가정간편식(HMR) 등 신사업 영역 확장도 실적 개선에 기여하였습니다[2][3].
-- [메가커피 인수 영향이 실적 급등에 결정적 역할]을 했습니다. 2023~2024년 메가커피의 가맹점 폭발적 증가로 매출이 전년 대비 2배 이상 늘고, 영업이익도 2배 이상 증가했습니다(매출: 3,680억원, 영업이익: 693억원)[1]. 커피 프랜차이즈 사업부의 고성장이 콘솔리데이티드(연결) 기준 호실적의 핵심 배경입니다.
-- 그 외에도 코로나19 이후 외식 시장 회복, HMR 사업 성과 본격화, 비용구조 개선 등이 실적 개선에 영향을 주었습니다[2].
-3. [현재 보라티알의 핵심 이슈 3가지]
-- [프랜차이즈 시장 경쟁 심화]: 메가커피를 비롯, 국내 커피 프랜차이즈 시장 경쟁이 심화되고 있습니다. 대형 브랜드와 신생 브랜드의 점포 출점 경쟁, 가격 할인, 원부자재 수급 경쟁이 치열해 마진율 방어와 브랜드 차별화가 매우 중요한 과제가 되고 있습니다.
-- [원자재 및 환율 리스크]: 주요 사업이 해외 식자재 수입에 의존하고 있어 유로화 등 외화 변동, 글로벌 원자재 가격 상승 시 수익성 저하 우려가 상존합니다. 특히 식자재 수입단가 인상이 국내 판매가에 전가되지 않을 경우 이익률이 민감하게 변동합니다[2][3].
-- [신성장동력 확보와 사업 다각화]: 식자재 및 프랜차이즈 사업의 성장이 한계에 봉착할 가능성을 고려해, HMR(가정간편식), 신유통채널, B2B 전문 식자재 공급 등 신사업이 본격적인 수익원으로 자리잡을 수 있을지 시장의 관심이 집중되고 있습니다[3].
-위 이슈 외에도 중장기적으로 기존 핵심 공급선과 독점계약 안정성, 점유율 확대(해외 대형 B2B 확대 포함), ESG 경영 이슈 등도 주요 과제로 꼽힙니다.
-https://coby2310.tistory.com/entry/%EC%9E%AC%EB%AC%B4%EC%A0%9C%ED%91%9C-%EC%99%84%EB%B2%BD%EB%B6%84%EC%84%9D-%EB%B3%B4%EB%9D%BC%ED%8B%B0%EC%95%8C-%EC%A7%80%EA%B8%88%EC%9D%B4-%EB%A7%A4%EC%88%98-%ED%83%80%EC%9D%B4%EB%B0%8D%EC%9D%B8-%EC%9D%B4%EC%9C%A0
-https://seo.goover.ai/report/202409/go-public-report-ko-81dc11e5-08c6-4506-894b-a754393da7bc-0-0.html
-https://ssl.pstatic.net/imgstock/upload/research/company/1613608276972.pdf
-https://stock.mk.co.kr/news/view/786990
-https://comp.fnguide.com/svo2/fncompany.asp?gicode=A250000</t>
+          <t>보라티알(250000)은 [유럽 프리미엄 식자재 수입·유통]과 [커피 프랜차이즈 ‘메가커피’ 운영]을 양대 축으로 하는 상장 회사입니다.
+1. 핵심 사업
+- [식자재 수입·유통]: 보라티알은 이탈리아, 스페인, 프랑스, 그리스 등 유럽 현지의 파스타, 올리브오일, 토마토소스 등 프리미엄 가공식품을 수입해 국내 외식업체 및 유통채널(약 1,900개)로 공급합니다. 주요 브랜드는 ‘데체코’, ‘롱고바디’, ‘메뉴’ 등으로, 각 업체와 [독점 공급 계약]을 보유한 것이 강점입니다[1].
+- [커피 프랜차이즈 메가커피]: 2021년 인수 후 메가커피의 고속 매장 확장(2025년 기준 3,000개 이상)과 강한 브랜드 파워를 기반으로 프랜차이즈 사업을 집중 육성하고 있습니다. 커피·음료 시장 내 점포수 기준 상위권에 자리잡으며, 외형·영업이익에 핵심 기여 중입니다[1].
+2. 최근 분기(2025년 1Q) 실적 변동 원인
+- [매출 성장]: 2025년 1분기, 연결기준 매출액은 전년동기 대비 17.7% 증가하였습니다. 이는 식자재와 커피 프랜차이즈 양쪽 모두에서 [브랜드 확장], 신규 채널 개발, B2B 외식수요 회복 등에 힘입은 결과입니다[1][2].
+- [영업이익 하락]: 그러나 같은 기간 [영업이익은 32.0% 감소], 당기순이익은 적자 전환되었습니다[1]. 주된 원인은 ▲유럽 내 원자재 가격 상승 ▲환율(유로/원) 변동에 따른 수입원가 증가 ▲커피 프랜차이즈 점포 경쟁 및 프로모션 비용 확대 등으로 원가율과 판관비 상승이 맞물렸기 때문입니다[2].
+- [업계 이슈]: 2025년 들어 대통령의 생필품 물가안정 주문 등 정부 정책이 식품업종 전반의 마진율·가격 정책에 추가 불확실성을 더하고 있습니다[3].
+3. 현재 주요 이슈 3가지
+- [수익성 압박(원자재·환율·정부 정책)]: 유럽산 식자재에 대한 원자재가 인상, 유로화 강세, 정부의 물가 및 생필품 가격 통제 요구가 동시다발적으로 발생하면서, 수입원가 상승분을 국내 소비자가에 충분히 전가하지 못하게 될 경우 영업이익 방어가 쉽지 않은 환경입니다. 2025년 상반기 실제 영업이익률 감소가 확인되었습니다[1][2][3].
+- [커피 프랜차이즈 경쟁 심화]: 빠른 점포 확대에 따라 자체 점포 간 매출 분산, 경쟁사의 공격적 출점, 할인/프로모션 부담 등이 심화되었고, 이에 따라 매출총이익 방어와 브랜드 차별화 전략이 한층 더 중요해졌습니다. 가맹점 수익성 유지 및 브랜드 충성도 확보가 과제로 떠오릅니다[1].
+- [신사업 및 다각화 전략의 필요성]: 핵심 사업(식자재·메가커피)만으로 한계 가능성이 논의되고 있습니다. HMR(가정간편식) 상품, 온라인 B2B 플랫폼 등 신규 사업이 실제 매출·이익에 기여할 수 있는지에 대한 시장의 검증이 본격화되었습니다. 이에 따라 R&amp;D 투자 확대, 유통망 다변화, 수출 등 성장동력 발굴이 중점 현안입니다[1].
+이외에도 독점계약 지속가능성 및 ESG 등 비재무 이슈 관리도 중장기적으로 중요한 과제로 평가됩니다.
+https://comp.fnguide.com/SVO2/ASP/SVD_Main.asp?gicode=A250000
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?pGB=1&amp;gicode=A250000&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103
+https://alphasquare.co.kr/home/stock-summary?code=250000
+https://tossinvest.com/stocks/A250000/order
+https://www.valueline.co.kr/finance/investment/250000</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -3161,7 +3224,7 @@
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
@@ -3227,28 +3290,28 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>태경산업(015890)은 [무기화학소재 및 산업용 가스, 생활문화 사업]을 핵심으로 하는 종합 소재 전문기업입니다. 최근 분기별로 실적이 강세를 보인 배경은 원재료 시장 변화, 국내외 산업 수요 회복, 자회사 경쟁력 강화 등에 있습니다. 하지만 중장기적으로도 주목해야 할 핵심 이슈가 다수 존재합니다.
+          <t>태경산업(015890)은 [무기화학소재(석회·탄산칼슘), 합금철, 산업용 가스 생산 및 생활문화 사업]을 아우르는 종합 소재 기업입니다. 최근 분기 실적이 강세를 보이고 있으며, 그 배경과 현재 주요 이슈를 구체적으로 설명합니다.
 1. 태경산업의 핵심 사업
-- [합금철 제조 및 판매]: 철강 제조 시 필수 원소(주로 Cr, Ni, Mo 등)를 첨가하거나 제련 과정 중 불순물 제거에 사용되는 합금철을 생산합니다[1][2].  
-- [석회 및 중질탄산칼슘 생산]: 신속히 공급이 필요한 시멘트, 제철 등 주요 산업의 필수 소재로, 자체 공정 역량을 보유하고 있습니다[1][2].
-- [산업용 가스 (탄산가스 등) 생산]: 반도체, 식음료, 환경 등 다양한 분야에 납품하며, 신사업 확장에도 적극적입니다[3].
-- [생활문화 사업]: 고속도로 휴게소 및 주유소 운영, 기타 관련 서비스 제공으로 수익원 다변화를 추구합니다[1][2][4].
-- [자회사와 계열사 운영]: 태경화학, 백광소재(상장사), 태경네트워크, 경인에코화학(비상장사) 등 해외 및 신시장 진출도 병행 중입니다[1].
+- [합금철 제조 및 판매]: 철강 생산 시 필요로 하는 크롬, 니켈, 몰리브덴 등 주요 원소가 포함된 합금철을 생산합니다. 이 제품은 국내외 철강, 기초 소재 산업에 공급됩니다[4][5].
+- [석회 및 중질탄산칼슘 제품]: 시멘트, 제철, 화학 등 산업에서 필수적인 석회와 충전제·보강제로 쓰이는 탄산칼슘을 대규모로 생산합니다. 최근에는 고활성 수산화칼슘, 고반응성 고품위 생석회와 같은 고부가가치 정제 제품 비중을 확대했습니다[5].
+- [산업용 가스 (탄산 등)]: 식음료, 반도체·디스플레이 제조, 환경 정화 등 용도의 산업용 탄산가스를 공급하며, 친환경 및 고순도 제품 개발로 신규 시장 진출을 모색하고 있습니다.
+- [생활문화 사업]: 고속도로 휴게소, 주유소 운영 등으로 사업 다각화를 추진해 안정적인 수익원을 확보하고 있습니다.
+- [자회사와 계열사]: 태경화학, 백광소재 등 독립적 운영 중인 자회사들의 소재·정제 기술을 기반으로 신시장 및 해외 진출에도 적극적입니다[4].
 2. 최근 분기 실적 강세의 구체적 배경
-- [합금철 및 산업용 가스 단가 상승]: 철강·화학·자동차 업황 개선에 따라 원자재 및 연관 소재 가격이 상승, 수요 증가와 맞물리며 마진이 확대되었습니다[1][2].
-- [고부가가치 신제품 확대]: 전통 소재 부문에서 고수익 구조로 전환 및 신규 산업용 가스(예: 친환경 가스) 개발이 실적을 견인했습니다[3].
-- [자회사 실적 개선]: 태경화학, 백광소재 등 일부 자회사의 수익성이 크게 개선되어 연결 실적에 긍정적으로 작용했습니다[1][4].
-- 특히, 2023년부터 일부 공급망 문제가 해소되면서 거래처 신뢰 및 출하량도 증가해 매출 성장에 기여했습니다.
-3. 현재 태경산업의 주요 과제(Top 3 이슈)
-- [원자재 가격 변동성]: 합금철, 석회, 산업용 가스의 주원료는 국제 시장 가격 변화에 민감하게 반응합니다. 원가 부담 관리와 장기적 가격 안정화 대책이 시급합니다[1].
-- [친환경 및 신산업 대응]: 화석연료 기반에서 탈피해 친환경 소재·에너지 및 저탄소 제품 라인업 확대가 필수적입니다. 국내외 각종 규제 강화와 ESG(환경·사회·지배구조) 경영체계 확립 요구도 동반됩니다[3].
-- [수요 다변화와 자회사 관리]: 전통 대기업 고객사 위주 공급구조에서 벗어나 신시장(반도체, 2차전지, 고기능성 소재 등)으로 포트폴리오 다각화가 필요합니다. 동시에 자회사별 수익성 관리 및 사업 구조 재편이 관건입니다[1][3].
-요약하면, 태경산업은 합금철과 산업용 소재를 주축으로 성장해왔으며, 최근에는 소재 가격 상승, 고부가가치 제품 확대, 자회사 실적 호전 덕분에 실적이 강세를 보이고 있습니다. 그러나 원자재 가격 리스크, ESG 요구, 신사업 다변화 등 과제를 효과적으로 해결해야 추가 성장의 토대를 다질 수 있습니다.
-https://s3.ap-northeast-2.amazonaws.com/fabot.report.files/486593.pdf
-https://deepsearch.com/analytics/company-analysis/KRX:015890
-https://valueline.co.kr/finance/summary/015890
-https://comp.wisereport.co.kr/company/c1020001.aspx?cmp_cd=015890&amp;cn=
-https://kind.krx.co.kr/common/disclsviewer.do?method=search&amp;acptno=20240321001414&amp;docno=&amp;viewerhost=</t>
+- [매출·영업이익 성장세]: 2025년 1분기 매출액은 전년 대비 8%, 영업이익은 16.6% 증가. 당기순이익은 229.6% 대폭 증가했습니다[5]. 핵심은 고활성 석회와 고반응성 생석회 가공품 출하량 급증, 합금철 제품 단가 상승, 산업용 가스 수요 증가 등입니다.
+- [높은 부가가치 제품 확대]: 기존 기초 소재(일반 탄산칼슘 등)에서 고품질, 고활성 신제품 비중을 늘려 마진율이 크게 개선되었습니다.
+- [자회사 실적 개선]: 태경화학, 백광소재의 생산성 향상과 시장 확대가 연결 실적에 긍정적으로 반영됨[4].
+- [산업 전반 수요 회복]: 제철·시멘트·반도체 등 주요 거래처의 업황 호조 및 공급망 불안정 해소에 따른 출하 신속화로 매출이 자연 증가했습니다[5].
+3. 현재 태경산업의 Top 3 핵심 이슈
+- [원자재 가격 변동 리스크]: 석회석, 합금철 원료, 에너지 비용 등이 국제 시장 변동성에 민감하게 노출돼 있습니다. 그 결과 원가 부담 관리 및 선제적 조달 전략이 경영 안정에 필수적입니다. 2024~2025년 들어 주요 원료 가격 불확실성이 커져 마진 방어가 최대 과제로 부각되는 상황입니다[1][5].
+- [친환경 요구 및 ESG 경영]: 국내외 환경 규제 강화, 탄소배출 저감 요구에 따라 친환경 석회, 고순도 산업가스, 저탄소 제품 라인업이 시급히 확대되고 있습니다. ESG(환경/사회/지배구조) 인증, 내부 감시체계 고도화 등 비재무적 경쟁력 확보가 필수입니다.
+- [사업 포트폴리오 및 자회사 구조 재편]: 소재-가스-생활문화 복합 사업 구조가 장점이지만, 산업 트렌드 변화·중국 등 해외 경쟁 심화에 따른 포트폴리오 전환이 필요합니다. 특히 자회사별 성장성/수익성의 불균형 해소가 시급하며, 반도체·2차전지 등 신산업용 고부가 소재 개발 역량 강화를 요구받고 있습니다[4][5].
+요약하면, 태경산업은 핵심 소재와 산업용 가스 등 고부가가치 제품 사업을 통해 최근 몇 년간 지속적인 실적 개선을 이루었습니다. 하지만 원가 변동성, 친환경 대응, 사업 구조 재편이라는 구조적 과제 해결이 앞으로의 안정적 성장에 중요한 변수입니다.
+https://comp.fnguide.com/SVO2/ASP/SVD_Finance.asp?pGB=1&amp;gicode=A015890&amp;MenuYn=Y&amp;ReportGB=&amp;NewMenuID=103
+https://alphasquare.co.kr/home/stock-summary?code=015890
+https://tossinvest.com/stocks/A015890/order
+https://navercomp.wisereport.co.kr/v2/company/c1050001.aspx?cmp_cd=015890&amp;cn=
+https://comp.fnguide.com/SVO2/asp/SVD_Main.asp?gicode=A015890</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -3263,7 +3326,58 @@
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr">
         <is>
-          <t>2025-07-30</t>
+          <t>2025-08-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>145720</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>덴티움</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>덴티움(145720)은 [치과용 임플란트 및 의료기기 전문 제조·판매 회사]로, 최근 국내외 시장 확대와 신성장 동력 발굴에 힘입어 실적이 강세를 보였습니다. 아래에서 사업 내용, 강점 요인, 그리고 주요 현안에 대해 구체적으로 설명합니다.
+1. [덴티움의 핵심 사업]
+- [치과 임플란트 시스템 및 관련 의료기기 제조·판매]가 덴티움의 주력 비즈니스입니다. 임플란트 외에도 치과 수술 기구, 보철물, 디지털 덴처, 소프트웨어 등의 치과 전용 제품군을 구성하고 있습니다[1][3][4].
+- 국내는 전국 17개 지점, 2개 물류센터를 통해 유통하고, 해외는 중국, 베트남, 미국, 인도 등지의 자회사 및 판매법인을 통해 글로벌 판매망을 구축하고 있습니다[3].
+- 최근에는 [지르코니아 소재 독점 판매권]과 [수소 연료전지] 등 신재생에너지 분야로 사업 영역을 넓히며 미래 성장동력을 준비 중입니다[5].
+2. [최근 분기 실적 호조의 배경]
+- [중국·베트남 등 신흥국 수요 확대]: 중국, 동남아시아 등에서 미충족 치과 치료 수요가 증가하는 가운데, 현지 법인 및 파트너를 통한 공격적 영업이 매출 고성장으로 이어졌습니다[2][3].
+- [제품 포트폴리오 다변화]: 임플란트를 기반으로, 보철물, 치과 수술도구, 디지털 의료기기로 사업 영역을 확장하여 단일 제품군에 대한 의존도를 낮췄습니다[1][3].
+- [영업이익률 상승]: 해외 고성장, 생산 효율화, 환율 효과 등으로 영업이익 및 순이익률이 꾸준히 개선되고 있습니다. 실제로 2024년 영업이익은 전년대비 큰 폭으로 증가했고, 브로커지 전망도 긍정적입니다[2].
+- [현금흐름 개선]: 순이익의 증가, 재고 및 채권 관리 효율화, 자금조달 안정성 강화로, 최근 3년간 Free Cash Flow가 뚜렷하게 개선됐습니다[2].
+3. [현재 덴티움이 당면한 주요 이슈 3가지]
+- [중국 시장 정책 리스크]: 덴티움 전체 매출 중 중국 비중이 크기 때문에, 중국 보건당국의 임플란트 가격 통제, 현지 규제 강화 등이 성장을 제약할 수 있습니다. 실제로 중국 정부의 가격입찰제(집중구매) 강화는 기업 마진에 부담 요인입니다[2][3].
+- [신사업(수소 연료전지) 투자 성과 불확실성]: 지르코니아, 수소에너지 등 신사업이 본격적으로 실질적인 매출·이익으로 이어질 수 있을지 시장에서 주목하고 있습니다. 수소연료전지 등 신성장 투자에 대해 초기 비용과 수익성 사이 밸런스가 과제로 부각됩니다[2][5].
+- [글로벌 경쟁 심화 및 제품 가격 압력]: 글로벌 임플란트 시장에서 스위스(스트라우만 등)와 미국(엘라인테크 등) 대형업체들과의 경쟁이 계속 심화되고 있습니다. 경쟁 심화로 인한 가격 인하 압력과, 기술 우위 유지, 고급화·차별화 전략이 동시에 필요합니다[2].
+이외에도 고령화와 미용치료 수요 확대, 인플레이션 등 매크로 환경 변화도 사업에 유의미한 변수로 꼽히나, 상기 3가지가 현재 핵심 현안으로 다뤄지고 있습니다.
+https://deepsearch.com/analytics/company-analysis/KRX:145720?c-symbol=KRX%253A145720&amp;c-name=%25EB%258D%25B4%25ED%258B%25B0%25EC%259B%2580&amp;psc-list=NICE%253AC05134%253BNICE%253A370199%253BKRX%253A145720%253BKRX%253A043150%253BKRX%253A131290&amp;psr-list=KRX%253A137310%253BNICE%253A387533%253BNICE%253A148495%253BKRX%253A053450%253BNICE%253A380385%253BNICE%253A500180%253BNICE%253AC05134%253BNICE%253A370199%253BKRX%253A145720%253BKRX%253A043150%253BKRX%253A131290%253BKRX%253A126700%253BNICE%253A094729%253BNICE%253AF06170%253BKRX%253A099190%253BKRX%253A08537M
+https://www.samsungpop.com/common.do?cmd=down&amp;contentType=application%2Fpdf&amp;inlineYn=Y&amp;saveKey=research.pdf&amp;fileName=2010%2F2024071109200279K_02_02.pdf
+https://comp.fnguide.com/SVO2/ASP/SVD_Corp.asp?gicode=A145720&amp;NewMenuID=102
+https://invest.deepsearch.com/stock/145720/
+https://www.next-securities.com/board/FileDown.do?atchFileId=FILE_000000000011022&amp;streFileNm=BBS_202504160857279150</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>2025-08-15</t>
         </is>
       </c>
     </row>
